--- a/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
+++ b/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
@@ -2395,10 +2395,10 @@
     <t>Цена с повышающими коэфф., руб</t>
   </si>
   <si>
-    <t>Цена по СБЦ, умноженная на индекс  сметной стоимости: (</t>
-  </si>
-  <si>
     <t>цены указаны без учета НДС 5%</t>
+  </si>
+  <si>
+    <t>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (</t>
   </si>
 </sst>
 </file>
@@ -4842,104 +4842,143 @@
     <xf numFmtId="4" fontId="44" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="36" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4972,6 +5011,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5013,6 +5055,15 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5031,137 +5082,86 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="36" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5545,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I377"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A142" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148:G149"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A259" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5562,68 +5562,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
+      <c r="E1" s="360"/>
+      <c r="F1" s="360"/>
+      <c r="G1" s="360"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
+      <c r="C2" s="312"/>
+      <c r="D2" s="312"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="312"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="344" t="s">
+      <c r="B3" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="345" t="s">
+      <c r="B4" s="314" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="345"/>
-      <c r="D4" s="345"/>
-      <c r="E4" s="345"/>
-      <c r="F4" s="345"/>
-      <c r="G4" s="345"/>
+      <c r="C4" s="314"/>
+      <c r="D4" s="314"/>
+      <c r="E4" s="314"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="314"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="346" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346"/>
-      <c r="G5" s="346"/>
+      <c r="B5" s="315" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="315"/>
+      <c r="D5" s="315"/>
+      <c r="E5" s="315"/>
+      <c r="F5" s="315"/>
+      <c r="G5" s="315"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="347" t="s">
+      <c r="B6" s="317" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="347"/>
-      <c r="D6" s="347"/>
-      <c r="E6" s="347"/>
-      <c r="F6" s="347"/>
-      <c r="G6" s="347"/>
+      <c r="C6" s="317"/>
+      <c r="D6" s="317"/>
+      <c r="E6" s="317"/>
+      <c r="F6" s="317"/>
+      <c r="G6" s="317"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="11.25" customHeight="1">
@@ -5638,29 +5638,29 @@
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="303" t="s">
+      <c r="B8" s="318" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="318"/>
+      <c r="E8" s="318"/>
+      <c r="F8" s="318"/>
+      <c r="G8" s="318"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="319" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="348"/>
-      <c r="D9" s="348"/>
-      <c r="E9" s="348"/>
-      <c r="F9" s="348"/>
-      <c r="G9" s="348"/>
+      <c r="C9" s="319"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="63.75">
+    <row r="10" spans="1:8" ht="102">
       <c r="A10" s="8"/>
       <c r="B10" s="132" t="s">
         <v>4</v>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="E10" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F10" s="213" t="s">
         <v>456</v>
@@ -7031,14 +7031,14 @@
     </row>
     <row r="68" spans="1:8" ht="51" customHeight="1">
       <c r="A68" s="15"/>
-      <c r="B68" s="349" t="s">
+      <c r="B68" s="320" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="350"/>
-      <c r="D68" s="350"/>
-      <c r="E68" s="350"/>
-      <c r="F68" s="351"/>
-      <c r="G68" s="352"/>
+      <c r="C68" s="321"/>
+      <c r="D68" s="321"/>
+      <c r="E68" s="321"/>
+      <c r="F68" s="322"/>
+      <c r="G68" s="323"/>
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="6.75" customHeight="1">
@@ -7053,17 +7053,17 @@
     </row>
     <row r="70" spans="1:8" ht="30" customHeight="1">
       <c r="A70" s="7"/>
-      <c r="B70" s="310" t="s">
+      <c r="B70" s="316" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="310"/>
-      <c r="D70" s="310"/>
-      <c r="E70" s="310"/>
-      <c r="F70" s="310"/>
-      <c r="G70" s="310"/>
+      <c r="C70" s="316"/>
+      <c r="D70" s="316"/>
+      <c r="E70" s="316"/>
+      <c r="F70" s="316"/>
+      <c r="G70" s="316"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="63.75">
+    <row r="71" spans="1:8" ht="102">
       <c r="A71" s="8"/>
       <c r="B71" s="202" t="s">
         <v>4</v>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="E71" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F71" s="213" t="s">
         <v>456</v>
@@ -7552,17 +7552,17 @@
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1">
       <c r="A92" s="7"/>
-      <c r="B92" s="309" t="s">
+      <c r="B92" s="283" t="s">
         <v>459</v>
       </c>
-      <c r="C92" s="309"/>
-      <c r="D92" s="309"/>
-      <c r="E92" s="309"/>
-      <c r="F92" s="309"/>
-      <c r="G92" s="309"/>
+      <c r="C92" s="283"/>
+      <c r="D92" s="283"/>
+      <c r="E92" s="283"/>
+      <c r="F92" s="283"/>
+      <c r="G92" s="283"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" ht="63.75">
+    <row r="93" spans="1:8" ht="102">
       <c r="A93" s="23"/>
       <c r="B93" s="258" t="s">
         <v>4</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E93" s="245" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F93" s="245" t="s">
         <v>456</v>
@@ -7907,17 +7907,17 @@
     </row>
     <row r="108" spans="1:8" s="266" customFormat="1" ht="30" customHeight="1">
       <c r="A108" s="15"/>
-      <c r="B108" s="309" t="s">
+      <c r="B108" s="283" t="s">
         <v>460</v>
       </c>
-      <c r="C108" s="309"/>
-      <c r="D108" s="309"/>
-      <c r="E108" s="309"/>
-      <c r="F108" s="309"/>
-      <c r="G108" s="309"/>
+      <c r="C108" s="283"/>
+      <c r="D108" s="283"/>
+      <c r="E108" s="283"/>
+      <c r="F108" s="283"/>
+      <c r="G108" s="283"/>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="1:8" s="266" customFormat="1" ht="63.75">
+    <row r="109" spans="1:8" s="266" customFormat="1" ht="102">
       <c r="A109" s="15"/>
       <c r="B109" s="258" t="s">
         <v>4</v>
@@ -7930,12 +7930,12 @@
       </c>
       <c r="E109" s="245" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
-      </c>
-      <c r="F109" s="381" t="s">
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="F109" s="284" t="s">
         <v>462</v>
       </c>
-      <c r="G109" s="382"/>
+      <c r="G109" s="285"/>
       <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" ht="25.5">
@@ -7953,11 +7953,11 @@
         <f>D110*Лист2!$B$3</f>
         <v>8701.8619999999992</v>
       </c>
-      <c r="F110" s="379">
+      <c r="F110" s="281">
         <f>E110*4</f>
         <v>34807.447999999997</v>
       </c>
-      <c r="G110" s="380"/>
+      <c r="G110" s="282"/>
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" ht="25.5">
@@ -7975,11 +7975,11 @@
         <f>D111*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F111" s="379">
+      <c r="F111" s="281">
         <f>E111*4</f>
         <v>41871.479999999996</v>
       </c>
-      <c r="G111" s="380"/>
+      <c r="G111" s="282"/>
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" ht="76.5">
@@ -7997,11 +7997,11 @@
         <f>D112*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F112" s="379">
+      <c r="F112" s="281">
         <f>E112*3</f>
         <v>35740.298999999999</v>
       </c>
-      <c r="G112" s="380"/>
+      <c r="G112" s="282"/>
       <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="76.5">
@@ -8019,11 +8019,11 @@
         <f>D113*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F113" s="379">
+      <c r="F113" s="281">
         <f>E113*3</f>
         <v>44541.854999999996</v>
       </c>
-      <c r="G113" s="380"/>
+      <c r="G113" s="282"/>
       <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="76.5">
@@ -8041,11 +8041,11 @@
         <f>D114*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F114" s="379">
+      <c r="F114" s="281">
         <f>E114*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G114" s="380"/>
+      <c r="G114" s="282"/>
       <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:9" ht="76.5">
@@ -8063,11 +8063,11 @@
         <f>D115*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F115" s="379">
+      <c r="F115" s="281">
         <f>E115*3.5</f>
         <v>51965.49749999999</v>
       </c>
-      <c r="G115" s="380"/>
+      <c r="G115" s="282"/>
       <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="38.25">
@@ -8085,11 +8085,11 @@
         <f>D116*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F116" s="379">
+      <c r="F116" s="281">
         <f>E116*1.2</f>
         <v>14296.119599999998</v>
       </c>
-      <c r="G116" s="380"/>
+      <c r="G116" s="282"/>
       <c r="H116" s="14"/>
       <c r="I116" s="129"/>
     </row>
@@ -8108,11 +8108,11 @@
         <f>D117*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F117" s="379">
+      <c r="F117" s="281">
         <f>E117*1.2</f>
         <v>17816.741999999998</v>
       </c>
-      <c r="G117" s="380"/>
+      <c r="G117" s="282"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:9" ht="14.25">
@@ -8130,11 +8130,11 @@
         <f>D118*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F118" s="379">
+      <c r="F118" s="281">
         <f>E118*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G118" s="380"/>
+      <c r="G118" s="282"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:9" s="210" customFormat="1" ht="14.25">
@@ -8152,11 +8152,11 @@
         <f>D119*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F119" s="379">
+      <c r="F119" s="281">
         <f>E119*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G119" s="380"/>
+      <c r="G119" s="282"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:9" ht="14.25">
@@ -8174,11 +8174,11 @@
         <f>D120*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F120" s="379">
+      <c r="F120" s="281">
         <f>E120*5</f>
         <v>52339.349999999991</v>
       </c>
-      <c r="G120" s="380"/>
+      <c r="G120" s="282"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:9" ht="51">
@@ -8196,11 +8196,11 @@
         <f>D121*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F121" s="379">
+      <c r="F121" s="281">
         <f>E121*2</f>
         <v>13188.091999999999</v>
       </c>
-      <c r="G121" s="380"/>
+      <c r="G121" s="282"/>
       <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:9" s="275" customFormat="1" ht="14.25">
@@ -8215,17 +8215,17 @@
     </row>
     <row r="123" spans="1:9" ht="25.5" customHeight="1">
       <c r="A123" s="15"/>
-      <c r="B123" s="310" t="s">
+      <c r="B123" s="316" t="s">
         <v>340</v>
       </c>
-      <c r="C123" s="310"/>
-      <c r="D123" s="310"/>
-      <c r="E123" s="310"/>
-      <c r="F123" s="310"/>
-      <c r="G123" s="310"/>
+      <c r="C123" s="316"/>
+      <c r="D123" s="316"/>
+      <c r="E123" s="316"/>
+      <c r="F123" s="316"/>
+      <c r="G123" s="316"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:9" ht="63.75">
+    <row r="124" spans="1:9" ht="102">
       <c r="A124" s="15"/>
       <c r="B124" s="9" t="s">
         <v>4</v>
@@ -8238,12 +8238,12 @@
       </c>
       <c r="E124" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
-      </c>
-      <c r="F124" s="278" t="s">
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="F124" s="376" t="s">
         <v>343</v>
       </c>
-      <c r="G124" s="279"/>
+      <c r="G124" s="377"/>
       <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:9" ht="63.75">
@@ -8261,11 +8261,11 @@
         <f>D125*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F125" s="280">
+      <c r="F125" s="378">
         <f>E125*1.2</f>
         <v>63354.112799999995</v>
       </c>
-      <c r="G125" s="281"/>
+      <c r="G125" s="379"/>
       <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
@@ -8280,29 +8280,29 @@
     </row>
     <row r="127" spans="1:9" ht="34.35" customHeight="1">
       <c r="A127" s="25"/>
-      <c r="B127" s="310" t="s">
+      <c r="B127" s="316" t="s">
         <v>338</v>
       </c>
-      <c r="C127" s="310"/>
-      <c r="D127" s="310"/>
-      <c r="E127" s="310"/>
-      <c r="F127" s="310"/>
-      <c r="G127" s="310"/>
+      <c r="C127" s="316"/>
+      <c r="D127" s="316"/>
+      <c r="E127" s="316"/>
+      <c r="F127" s="316"/>
+      <c r="G127" s="316"/>
       <c r="H127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="34.35" customHeight="1">
       <c r="A128" s="25"/>
-      <c r="B128" s="318" t="s">
+      <c r="B128" s="331" t="s">
         <v>372</v>
       </c>
-      <c r="C128" s="319"/>
-      <c r="D128" s="319"/>
-      <c r="E128" s="319"/>
-      <c r="F128" s="319"/>
-      <c r="G128" s="320"/>
+      <c r="C128" s="332"/>
+      <c r="D128" s="332"/>
+      <c r="E128" s="332"/>
+      <c r="F128" s="332"/>
+      <c r="G128" s="333"/>
       <c r="H128" s="26"/>
     </row>
-    <row r="129" spans="1:8" ht="63.75">
+    <row r="129" spans="1:8" ht="102">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
         <v>4</v>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="E129" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F129" s="213" t="s">
         <v>456</v>
@@ -8468,37 +8468,37 @@
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1">
       <c r="A136" s="28"/>
-      <c r="B136" s="312"/>
-      <c r="C136" s="313"/>
-      <c r="D136" s="313"/>
-      <c r="E136" s="313"/>
-      <c r="F136" s="313"/>
-      <c r="G136" s="314"/>
+      <c r="B136" s="325"/>
+      <c r="C136" s="326"/>
+      <c r="D136" s="326"/>
+      <c r="E136" s="326"/>
+      <c r="F136" s="326"/>
+      <c r="G136" s="327"/>
       <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1">
       <c r="A137" s="28"/>
-      <c r="B137" s="315"/>
-      <c r="C137" s="316"/>
-      <c r="D137" s="316"/>
-      <c r="E137" s="316"/>
-      <c r="F137" s="316"/>
-      <c r="G137" s="317"/>
+      <c r="B137" s="328"/>
+      <c r="C137" s="329"/>
+      <c r="D137" s="329"/>
+      <c r="E137" s="329"/>
+      <c r="F137" s="329"/>
+      <c r="G137" s="330"/>
       <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" ht="18">
       <c r="A138" s="25"/>
-      <c r="B138" s="311" t="s">
+      <c r="B138" s="324" t="s">
         <v>339</v>
       </c>
-      <c r="C138" s="311"/>
-      <c r="D138" s="311"/>
-      <c r="E138" s="311"/>
-      <c r="F138" s="311"/>
-      <c r="G138" s="311"/>
+      <c r="C138" s="324"/>
+      <c r="D138" s="324"/>
+      <c r="E138" s="324"/>
+      <c r="F138" s="324"/>
+      <c r="G138" s="324"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" ht="63.75">
+    <row r="139" spans="1:8" ht="102">
       <c r="A139" s="23"/>
       <c r="B139" s="158" t="s">
         <v>4</v>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="E139" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F139" s="213" t="s">
         <v>456</v>
@@ -8711,24 +8711,24 @@
     </row>
     <row r="148" spans="1:8" ht="15">
       <c r="A148" s="16"/>
-      <c r="B148" s="297" t="s">
+      <c r="B148" s="367" t="s">
         <v>104</v>
       </c>
-      <c r="C148" s="297"/>
-      <c r="D148" s="297"/>
-      <c r="E148" s="297"/>
-      <c r="F148" s="297"/>
-      <c r="G148" s="297"/>
+      <c r="C148" s="367"/>
+      <c r="D148" s="367"/>
+      <c r="E148" s="367"/>
+      <c r="F148" s="367"/>
+      <c r="G148" s="367"/>
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8" ht="15">
       <c r="A149" s="16"/>
-      <c r="B149" s="297"/>
-      <c r="C149" s="297"/>
-      <c r="D149" s="297"/>
-      <c r="E149" s="297"/>
-      <c r="F149" s="297"/>
-      <c r="G149" s="297"/>
+      <c r="B149" s="367"/>
+      <c r="C149" s="367"/>
+      <c r="D149" s="367"/>
+      <c r="E149" s="367"/>
+      <c r="F149" s="367"/>
+      <c r="G149" s="367"/>
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8" ht="12" customHeight="1">
@@ -8753,45 +8753,45 @@
     </row>
     <row r="152" spans="1:8" ht="15">
       <c r="A152" s="16"/>
-      <c r="B152" s="321" t="s">
+      <c r="B152" s="334" t="s">
         <v>455</v>
       </c>
-      <c r="C152" s="321"/>
-      <c r="D152" s="321"/>
-      <c r="E152" s="321"/>
-      <c r="F152" s="321"/>
-      <c r="G152" s="321"/>
+      <c r="C152" s="334"/>
+      <c r="D152" s="334"/>
+      <c r="E152" s="334"/>
+      <c r="F152" s="334"/>
+      <c r="G152" s="334"/>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="1:8" ht="18" customHeight="1">
       <c r="A153" s="16"/>
-      <c r="B153" s="383"/>
-      <c r="C153" s="383"/>
-      <c r="D153" s="383"/>
-      <c r="E153" s="383"/>
-      <c r="F153" s="383"/>
-      <c r="G153" s="383"/>
+      <c r="B153" s="335"/>
+      <c r="C153" s="335"/>
+      <c r="D153" s="335"/>
+      <c r="E153" s="335"/>
+      <c r="F153" s="335"/>
+      <c r="G153" s="335"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" ht="63.75">
+    <row r="154" spans="1:8" ht="102">
       <c r="A154" s="16"/>
-      <c r="B154" s="384" t="s">
+      <c r="B154" s="278" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="385" t="s">
+      <c r="C154" s="279" t="s">
         <v>458</v>
       </c>
-      <c r="D154" s="386" t="s">
+      <c r="D154" s="280" t="s">
         <v>451</v>
       </c>
-      <c r="E154" s="385" t="str">
+      <c r="E154" s="279" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
-      </c>
-      <c r="F154" s="385" t="s">
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="F154" s="279" t="s">
         <v>456</v>
       </c>
-      <c r="G154" s="385" t="s">
+      <c r="G154" s="279" t="s">
         <v>453</v>
       </c>
       <c r="H154" s="2"/>
@@ -8820,26 +8820,26 @@
     </row>
     <row r="156" spans="1:8" ht="18">
       <c r="A156" s="16"/>
-      <c r="B156" s="356" t="s">
+      <c r="B156" s="289" t="s">
         <v>414</v>
       </c>
-      <c r="C156" s="357"/>
-      <c r="D156" s="357"/>
-      <c r="E156" s="357"/>
-      <c r="F156" s="358"/>
-      <c r="G156" s="359"/>
+      <c r="C156" s="290"/>
+      <c r="D156" s="290"/>
+      <c r="E156" s="290"/>
+      <c r="F156" s="291"/>
+      <c r="G156" s="292"/>
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8" ht="12" customHeight="1">
       <c r="A157" s="16"/>
-      <c r="B157" s="362" t="s">
+      <c r="B157" s="295" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="363"/>
-      <c r="D157" s="363"/>
-      <c r="E157" s="363"/>
-      <c r="F157" s="364"/>
-      <c r="G157" s="365"/>
+      <c r="C157" s="296"/>
+      <c r="D157" s="296"/>
+      <c r="E157" s="296"/>
+      <c r="F157" s="297"/>
+      <c r="G157" s="298"/>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="1:8" ht="12" customHeight="1">
@@ -8974,14 +8974,14 @@
     </row>
     <row r="164" spans="1:8" ht="15">
       <c r="A164" s="16"/>
-      <c r="B164" s="366" t="s">
+      <c r="B164" s="299" t="s">
         <v>217</v>
       </c>
-      <c r="C164" s="367"/>
-      <c r="D164" s="367"/>
-      <c r="E164" s="367"/>
-      <c r="F164" s="368"/>
-      <c r="G164" s="369"/>
+      <c r="C164" s="300"/>
+      <c r="D164" s="300"/>
+      <c r="E164" s="300"/>
+      <c r="F164" s="301"/>
+      <c r="G164" s="302"/>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:8" ht="15" customHeight="1">
@@ -9126,26 +9126,26 @@
     </row>
     <row r="172" spans="1:8" ht="18">
       <c r="A172" s="16"/>
-      <c r="B172" s="360" t="s">
+      <c r="B172" s="293" t="s">
         <v>415</v>
       </c>
-      <c r="C172" s="360"/>
-      <c r="D172" s="360"/>
-      <c r="E172" s="360"/>
-      <c r="F172" s="361"/>
-      <c r="G172" s="360"/>
+      <c r="C172" s="293"/>
+      <c r="D172" s="293"/>
+      <c r="E172" s="293"/>
+      <c r="F172" s="294"/>
+      <c r="G172" s="293"/>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8" ht="15">
       <c r="A173" s="16"/>
-      <c r="B173" s="362" t="s">
+      <c r="B173" s="295" t="s">
         <v>215</v>
       </c>
-      <c r="C173" s="363"/>
-      <c r="D173" s="363"/>
-      <c r="E173" s="363"/>
-      <c r="F173" s="364"/>
-      <c r="G173" s="365"/>
+      <c r="C173" s="296"/>
+      <c r="D173" s="296"/>
+      <c r="E173" s="296"/>
+      <c r="F173" s="297"/>
+      <c r="G173" s="298"/>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8" ht="15">
@@ -9304,14 +9304,14 @@
     </row>
     <row r="181" spans="1:8" ht="15">
       <c r="A181" s="16"/>
-      <c r="B181" s="366" t="s">
+      <c r="B181" s="299" t="s">
         <v>217</v>
       </c>
-      <c r="C181" s="367"/>
-      <c r="D181" s="367"/>
-      <c r="E181" s="367"/>
-      <c r="F181" s="368"/>
-      <c r="G181" s="369"/>
+      <c r="C181" s="300"/>
+      <c r="D181" s="300"/>
+      <c r="E181" s="300"/>
+      <c r="F181" s="301"/>
+      <c r="G181" s="302"/>
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="1:8" ht="15">
@@ -9490,14 +9490,14 @@
     </row>
     <row r="191" spans="1:8" ht="38.25" customHeight="1">
       <c r="A191" s="16"/>
-      <c r="B191" s="370" t="s">
+      <c r="B191" s="303" t="s">
         <v>326</v>
       </c>
-      <c r="C191" s="370"/>
-      <c r="D191" s="370"/>
-      <c r="E191" s="370"/>
-      <c r="F191" s="371"/>
-      <c r="G191" s="372"/>
+      <c r="C191" s="303"/>
+      <c r="D191" s="303"/>
+      <c r="E191" s="303"/>
+      <c r="F191" s="304"/>
+      <c r="G191" s="305"/>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1">
@@ -9642,17 +9642,17 @@
     </row>
     <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="16"/>
-      <c r="B199" s="370" t="s">
+      <c r="B199" s="303" t="s">
         <v>344</v>
       </c>
-      <c r="C199" s="370"/>
-      <c r="D199" s="370"/>
-      <c r="E199" s="370"/>
-      <c r="F199" s="371"/>
-      <c r="G199" s="372"/>
+      <c r="C199" s="303"/>
+      <c r="D199" s="303"/>
+      <c r="E199" s="303"/>
+      <c r="F199" s="304"/>
+      <c r="G199" s="305"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" s="212" customFormat="1" ht="63.75">
+    <row r="200" spans="1:8" s="212" customFormat="1" ht="102">
       <c r="A200" s="16"/>
       <c r="B200" s="52" t="s">
         <v>4</v>
@@ -9665,12 +9665,12 @@
       </c>
       <c r="E200" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
-      </c>
-      <c r="F200" s="282" t="s">
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="F200" s="380" t="s">
         <v>454</v>
       </c>
-      <c r="G200" s="283"/>
+      <c r="G200" s="381"/>
       <c r="H200" s="211"/>
     </row>
     <row r="201" spans="1:8" ht="12" customHeight="1">
@@ -9688,11 +9688,11 @@
         <f>D201*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F201" s="284">
+      <c r="F201" s="382">
         <f>E201*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G201" s="285"/>
+      <c r="G201" s="383"/>
       <c r="H201" s="2"/>
     </row>
     <row r="202" spans="1:8" s="164" customFormat="1" ht="12" customHeight="1">
@@ -9727,17 +9727,17 @@
     </row>
     <row r="205" spans="1:8" s="164" customFormat="1" ht="45.75" customHeight="1">
       <c r="A205" s="16"/>
-      <c r="B205" s="353" t="s">
+      <c r="B205" s="286" t="s">
         <v>431</v>
       </c>
-      <c r="C205" s="353"/>
-      <c r="D205" s="353"/>
-      <c r="E205" s="353"/>
-      <c r="F205" s="354"/>
-      <c r="G205" s="355"/>
+      <c r="C205" s="286"/>
+      <c r="D205" s="286"/>
+      <c r="E205" s="286"/>
+      <c r="F205" s="287"/>
+      <c r="G205" s="288"/>
       <c r="H205" s="163"/>
     </row>
-    <row r="206" spans="1:8" s="164" customFormat="1" ht="63.75">
+    <row r="206" spans="1:8" s="164" customFormat="1" ht="102">
       <c r="A206" s="16"/>
       <c r="B206" s="9" t="s">
         <v>4</v>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="E206" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F206" s="213" t="s">
         <v>456</v>
@@ -9888,14 +9888,14 @@
     </row>
     <row r="214" spans="1:8" ht="33.75" customHeight="1">
       <c r="A214" s="16"/>
-      <c r="B214" s="376" t="s">
+      <c r="B214" s="309" t="s">
         <v>412</v>
       </c>
-      <c r="C214" s="377"/>
-      <c r="D214" s="377"/>
-      <c r="E214" s="377"/>
-      <c r="F214" s="378"/>
-      <c r="G214" s="377"/>
+      <c r="C214" s="310"/>
+      <c r="D214" s="310"/>
+      <c r="E214" s="310"/>
+      <c r="F214" s="311"/>
+      <c r="G214" s="310"/>
       <c r="H214" s="2"/>
     </row>
     <row r="215" spans="1:8" ht="26.25" customHeight="1">
@@ -9903,13 +9903,13 @@
       <c r="B215" s="122" t="s">
         <v>444</v>
       </c>
-      <c r="C215" s="373" t="s">
+      <c r="C215" s="306" t="s">
         <v>443</v>
       </c>
-      <c r="D215" s="374"/>
-      <c r="E215" s="374"/>
-      <c r="F215" s="375"/>
-      <c r="G215" s="374"/>
+      <c r="D215" s="307"/>
+      <c r="E215" s="307"/>
+      <c r="F215" s="308"/>
+      <c r="G215" s="307"/>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="1:8" ht="12" customHeight="1">
@@ -9944,17 +9944,17 @@
     </row>
     <row r="219" spans="1:8" ht="36" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="303" t="s">
+      <c r="B219" s="318" t="s">
         <v>105</v>
       </c>
-      <c r="C219" s="303"/>
-      <c r="D219" s="303"/>
-      <c r="E219" s="303"/>
-      <c r="F219" s="303"/>
-      <c r="G219" s="303"/>
+      <c r="C219" s="318"/>
+      <c r="D219" s="318"/>
+      <c r="E219" s="318"/>
+      <c r="F219" s="318"/>
+      <c r="G219" s="318"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8" ht="89.25" customHeight="1">
+    <row r="220" spans="1:8" ht="102">
       <c r="A220" s="23"/>
       <c r="B220" s="9" t="s">
         <v>4</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="E220" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F220" s="213" t="s">
         <v>456</v>
@@ -10265,14 +10265,14 @@
     </row>
     <row r="233" spans="1:8" ht="27.6" customHeight="1">
       <c r="A233" s="32"/>
-      <c r="B233" s="297" t="s">
+      <c r="B233" s="367" t="s">
         <v>121</v>
       </c>
-      <c r="C233" s="297"/>
-      <c r="D233" s="297"/>
-      <c r="E233" s="297"/>
-      <c r="F233" s="297"/>
-      <c r="G233" s="297"/>
+      <c r="C233" s="367"/>
+      <c r="D233" s="367"/>
+      <c r="E233" s="367"/>
+      <c r="F233" s="367"/>
+      <c r="G233" s="367"/>
       <c r="H233" s="2"/>
     </row>
     <row r="234" spans="1:8" ht="15" customHeight="1">
@@ -10297,14 +10297,14 @@
     </row>
     <row r="236" spans="1:8" ht="36" customHeight="1">
       <c r="A236" s="7"/>
-      <c r="B236" s="304" t="s">
+      <c r="B236" s="365" t="s">
         <v>122</v>
       </c>
-      <c r="C236" s="304"/>
-      <c r="D236" s="305"/>
-      <c r="E236" s="305"/>
-      <c r="F236" s="305"/>
-      <c r="G236" s="305"/>
+      <c r="C236" s="365"/>
+      <c r="D236" s="366"/>
+      <c r="E236" s="366"/>
+      <c r="F236" s="366"/>
+      <c r="G236" s="366"/>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="1:8" ht="114.75" customHeight="1">
@@ -10315,15 +10315,15 @@
       <c r="C237" s="133" t="s">
         <v>458</v>
       </c>
-      <c r="D237" s="306" t="s">
+      <c r="D237" s="368" t="s">
         <v>451</v>
       </c>
-      <c r="E237" s="306"/>
-      <c r="F237" s="307" t="str">
+      <c r="E237" s="368"/>
+      <c r="F237" s="369" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
-      </c>
-      <c r="G237" s="308"/>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="G237" s="370"/>
       <c r="H237" s="14"/>
     </row>
     <row r="238" spans="1:8" ht="25.5">
@@ -10334,15 +10334,15 @@
       <c r="C238" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="D238" s="296" t="s">
+      <c r="D238" s="353" t="s">
         <v>125</v>
       </c>
-      <c r="E238" s="296"/>
-      <c r="F238" s="292">
+      <c r="E238" s="353"/>
+      <c r="F238" s="351">
         <f>D238*Лист2!$B$3</f>
         <v>498.46999999999997</v>
       </c>
-      <c r="G238" s="293"/>
+      <c r="G238" s="352"/>
       <c r="H238" s="14"/>
     </row>
     <row r="239" spans="1:8" ht="25.5">
@@ -10353,15 +10353,15 @@
       <c r="C239" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="D239" s="296" t="s">
+      <c r="D239" s="353" t="s">
         <v>127</v>
       </c>
-      <c r="E239" s="296"/>
-      <c r="F239" s="292">
+      <c r="E239" s="353"/>
+      <c r="F239" s="351">
         <f>D239*Лист2!$B$3</f>
         <v>284.83999999999997</v>
       </c>
-      <c r="G239" s="293"/>
+      <c r="G239" s="352"/>
       <c r="H239" s="14"/>
     </row>
     <row r="240" spans="1:8" ht="14.25">
@@ -10372,15 +10372,15 @@
       <c r="C240" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="D240" s="296">
+      <c r="D240" s="353">
         <v>20.2</v>
       </c>
-      <c r="E240" s="296"/>
-      <c r="F240" s="292">
+      <c r="E240" s="353"/>
+      <c r="F240" s="351">
         <f>D240*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="G240" s="293"/>
+      <c r="G240" s="352"/>
       <c r="H240" s="14"/>
     </row>
     <row r="241" spans="1:8" ht="14.25">
@@ -10391,15 +10391,15 @@
       <c r="C241" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="D241" s="296" t="s">
+      <c r="D241" s="353" t="s">
         <v>131</v>
       </c>
-      <c r="E241" s="296"/>
-      <c r="F241" s="292">
+      <c r="E241" s="353"/>
+      <c r="F241" s="351">
         <f>D241*Лист2!$B$3</f>
         <v>512.71199999999999</v>
       </c>
-      <c r="G241" s="293"/>
+      <c r="G241" s="352"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8" ht="25.5">
@@ -10410,15 +10410,15 @@
       <c r="C242" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="296">
+      <c r="D242" s="353">
         <v>19.600000000000001</v>
       </c>
-      <c r="E242" s="296"/>
-      <c r="F242" s="292">
+      <c r="E242" s="353"/>
+      <c r="F242" s="351">
         <f>D242*Лист2!$B$3</f>
         <v>1395.7159999999999</v>
       </c>
-      <c r="G242" s="293"/>
+      <c r="G242" s="352"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8" ht="38.25">
@@ -10429,15 +10429,15 @@
       <c r="C243" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="D243" s="296" t="s">
+      <c r="D243" s="353" t="s">
         <v>134</v>
       </c>
-      <c r="E243" s="296"/>
-      <c r="F243" s="292">
+      <c r="E243" s="353"/>
+      <c r="F243" s="351">
         <f>D243*Лист2!$B$3</f>
         <v>2848.3999999999996</v>
       </c>
-      <c r="G243" s="293"/>
+      <c r="G243" s="352"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8" ht="14.25">
@@ -10448,15 +10448,15 @@
       <c r="C244" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="D244" s="296">
+      <c r="D244" s="353">
         <v>8</v>
       </c>
-      <c r="E244" s="296"/>
-      <c r="F244" s="292">
+      <c r="E244" s="353"/>
+      <c r="F244" s="351">
         <f>D244*Лист2!$B$3</f>
         <v>569.67999999999995</v>
       </c>
-      <c r="G244" s="293"/>
+      <c r="G244" s="352"/>
       <c r="H244" s="14"/>
     </row>
     <row r="245" spans="1:8" ht="25.5">
@@ -10467,15 +10467,15 @@
       <c r="C245" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="D245" s="296" t="s">
+      <c r="D245" s="353" t="s">
         <v>137</v>
       </c>
-      <c r="E245" s="296"/>
-      <c r="F245" s="292">
+      <c r="E245" s="353"/>
+      <c r="F245" s="351">
         <f>D245*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="G245" s="293"/>
+      <c r="G245" s="352"/>
       <c r="H245" s="14"/>
     </row>
     <row r="246" spans="1:8" ht="25.5">
@@ -10486,15 +10486,15 @@
       <c r="C246" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="D246" s="296" t="s">
+      <c r="D246" s="353" t="s">
         <v>137</v>
       </c>
-      <c r="E246" s="296"/>
-      <c r="F246" s="292">
+      <c r="E246" s="353"/>
+      <c r="F246" s="351">
         <f>D246*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="G246" s="293"/>
+      <c r="G246" s="352"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8" ht="38.25">
@@ -10505,15 +10505,15 @@
       <c r="C247" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="D247" s="296" t="s">
+      <c r="D247" s="353" t="s">
         <v>140</v>
       </c>
-      <c r="E247" s="296"/>
-      <c r="F247" s="292">
+      <c r="E247" s="353"/>
+      <c r="F247" s="351">
         <f>D247*Лист2!$B$3</f>
         <v>11941.916999999998</v>
       </c>
-      <c r="G247" s="293"/>
+      <c r="G247" s="352"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8" ht="51">
@@ -10524,15 +10524,15 @@
       <c r="C248" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="D248" s="296" t="s">
+      <c r="D248" s="353" t="s">
         <v>143</v>
       </c>
-      <c r="E248" s="296"/>
-      <c r="F248" s="292">
+      <c r="E248" s="353"/>
+      <c r="F248" s="351">
         <f>D248*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="G248" s="293"/>
+      <c r="G248" s="352"/>
       <c r="H248" s="14"/>
     </row>
     <row r="249" spans="1:8" ht="51">
@@ -10543,15 +10543,15 @@
       <c r="C249" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="D249" s="296" t="s">
+      <c r="D249" s="353" t="s">
         <v>143</v>
       </c>
-      <c r="E249" s="296"/>
-      <c r="F249" s="292">
+      <c r="E249" s="353"/>
+      <c r="F249" s="351">
         <f>D249*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="G249" s="293"/>
+      <c r="G249" s="352"/>
       <c r="H249" s="14"/>
     </row>
     <row r="250" spans="1:8" ht="38.25">
@@ -10562,15 +10562,15 @@
       <c r="C250" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="D250" s="296" t="s">
+      <c r="D250" s="353" t="s">
         <v>146</v>
       </c>
-      <c r="E250" s="296"/>
-      <c r="F250" s="292">
+      <c r="E250" s="353"/>
+      <c r="F250" s="351">
         <f>D250*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G250" s="293"/>
+      <c r="G250" s="352"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8" ht="38.25">
@@ -10581,15 +10581,15 @@
       <c r="C251" s="208" t="s">
         <v>148</v>
       </c>
-      <c r="D251" s="296">
+      <c r="D251" s="353">
         <v>411.9</v>
       </c>
-      <c r="E251" s="296"/>
-      <c r="F251" s="292">
+      <c r="E251" s="353"/>
+      <c r="F251" s="351">
         <f>D251*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="G251" s="293"/>
+      <c r="G251" s="352"/>
       <c r="H251" s="14"/>
     </row>
     <row r="252" spans="1:8" ht="38.25">
@@ -10600,15 +10600,15 @@
       <c r="C252" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="D252" s="296">
+      <c r="D252" s="353">
         <v>114.4</v>
       </c>
-      <c r="E252" s="296"/>
-      <c r="F252" s="292">
+      <c r="E252" s="353"/>
+      <c r="F252" s="351">
         <f>D252*Лист2!$B$3</f>
         <v>8146.424</v>
       </c>
-      <c r="G252" s="293"/>
+      <c r="G252" s="352"/>
       <c r="H252" s="14"/>
     </row>
     <row r="253" spans="1:8" ht="38.25">
@@ -10619,15 +10619,15 @@
       <c r="C253" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="D253" s="339" t="s">
+      <c r="D253" s="356" t="s">
         <v>151</v>
       </c>
-      <c r="E253" s="339"/>
-      <c r="F253" s="292">
+      <c r="E253" s="356"/>
+      <c r="F253" s="351">
         <f>D253*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="G253" s="293"/>
+      <c r="G253" s="352"/>
       <c r="H253" s="232"/>
     </row>
     <row r="254" spans="1:8" ht="25.5">
@@ -10638,15 +10638,15 @@
       <c r="C254" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="D254" s="339">
+      <c r="D254" s="356">
         <v>741.4</v>
       </c>
-      <c r="E254" s="339"/>
-      <c r="F254" s="292">
+      <c r="E254" s="356"/>
+      <c r="F254" s="351">
         <f>D254*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G254" s="293"/>
+      <c r="G254" s="352"/>
       <c r="H254" s="233"/>
     </row>
     <row r="255" spans="1:8" ht="14.25">
@@ -10657,15 +10657,15 @@
       <c r="C255" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="D255" s="296">
+      <c r="D255" s="353">
         <v>225.5</v>
       </c>
-      <c r="E255" s="296"/>
-      <c r="F255" s="292">
+      <c r="E255" s="353"/>
+      <c r="F255" s="351">
         <f>D255*Лист2!$B$3</f>
         <v>16057.854999999998</v>
       </c>
-      <c r="G255" s="293"/>
+      <c r="G255" s="352"/>
       <c r="H255" s="232"/>
     </row>
     <row r="256" spans="1:8" ht="25.5">
@@ -10676,15 +10676,15 @@
       <c r="C256" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="D256" s="296">
+      <c r="D256" s="353">
         <v>20.2</v>
       </c>
-      <c r="E256" s="296"/>
-      <c r="F256" s="292">
+      <c r="E256" s="353"/>
+      <c r="F256" s="351">
         <f>D256*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="G256" s="293"/>
+      <c r="G256" s="352"/>
       <c r="H256" s="232"/>
     </row>
     <row r="257" spans="1:8" ht="25.5">
@@ -10695,15 +10695,15 @@
       <c r="C257" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="296" t="s">
+      <c r="D257" s="353" t="s">
         <v>129</v>
       </c>
-      <c r="E257" s="296"/>
-      <c r="F257" s="292">
+      <c r="E257" s="353"/>
+      <c r="F257" s="351">
         <f>D257*Лист2!$B$3</f>
         <v>1296.0219999999999</v>
       </c>
-      <c r="G257" s="293"/>
+      <c r="G257" s="352"/>
       <c r="H257" s="232"/>
     </row>
     <row r="258" spans="1:8" ht="25.5">
@@ -10714,25 +10714,25 @@
       <c r="C258" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="D258" s="296">
+      <c r="D258" s="353">
         <v>741.4</v>
       </c>
-      <c r="E258" s="296"/>
-      <c r="F258" s="292">
+      <c r="E258" s="353"/>
+      <c r="F258" s="351">
         <f>D258*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G258" s="293"/>
+      <c r="G258" s="352"/>
       <c r="H258" s="14"/>
     </row>
     <row r="259" spans="1:8" ht="23.25" customHeight="1">
       <c r="A259" s="33"/>
-      <c r="B259" s="297"/>
-      <c r="C259" s="297"/>
-      <c r="D259" s="297"/>
-      <c r="E259" s="297"/>
-      <c r="F259" s="297"/>
-      <c r="G259" s="297"/>
+      <c r="B259" s="367"/>
+      <c r="C259" s="367"/>
+      <c r="D259" s="367"/>
+      <c r="E259" s="367"/>
+      <c r="F259" s="367"/>
+      <c r="G259" s="367"/>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="1:8" ht="23.25" customHeight="1">
@@ -10767,17 +10767,17 @@
     </row>
     <row r="263" spans="1:8" ht="30" customHeight="1">
       <c r="A263" s="34"/>
-      <c r="B263" s="340" t="s">
+      <c r="B263" s="357" t="s">
         <v>212</v>
       </c>
-      <c r="C263" s="340"/>
-      <c r="D263" s="340"/>
-      <c r="E263" s="340"/>
-      <c r="F263" s="341"/>
-      <c r="G263" s="340"/>
+      <c r="C263" s="357"/>
+      <c r="D263" s="357"/>
+      <c r="E263" s="357"/>
+      <c r="F263" s="358"/>
+      <c r="G263" s="357"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="1:8" ht="63.75">
+    <row r="264" spans="1:8" ht="102">
       <c r="A264" s="35"/>
       <c r="B264" s="234" t="s">
         <v>4</v>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="E264" s="235" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ, умноженная на индекс  сметной стоимости: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F264" s="213" t="s">
         <v>456</v>
@@ -12006,26 +12006,26 @@
     </row>
     <row r="317" spans="1:8" ht="30">
       <c r="A317" s="36"/>
-      <c r="B317" s="294" t="s">
+      <c r="B317" s="371" t="s">
         <v>311</v>
       </c>
-      <c r="C317" s="294"/>
-      <c r="D317" s="294"/>
-      <c r="E317" s="294"/>
-      <c r="F317" s="295"/>
-      <c r="G317" s="294"/>
+      <c r="C317" s="371"/>
+      <c r="D317" s="371"/>
+      <c r="E317" s="371"/>
+      <c r="F317" s="372"/>
+      <c r="G317" s="371"/>
       <c r="H317" s="2"/>
     </row>
     <row r="318" spans="1:8" ht="23.25">
       <c r="A318" s="36"/>
-      <c r="B318" s="337" t="s">
+      <c r="B318" s="354" t="s">
         <v>312</v>
       </c>
-      <c r="C318" s="337"/>
-      <c r="D318" s="337"/>
-      <c r="E318" s="337"/>
-      <c r="F318" s="338"/>
-      <c r="G318" s="337"/>
+      <c r="C318" s="354"/>
+      <c r="D318" s="354"/>
+      <c r="E318" s="354"/>
+      <c r="F318" s="355"/>
+      <c r="G318" s="354"/>
       <c r="H318" s="2"/>
     </row>
     <row r="319" spans="1:8" ht="75">
@@ -12036,11 +12036,11 @@
       <c r="C319" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D319" s="286" t="s">
+      <c r="D319" s="373" t="s">
         <v>262</v>
       </c>
-      <c r="E319" s="287"/>
-      <c r="F319" s="288"/>
+      <c r="E319" s="374"/>
+      <c r="F319" s="375"/>
       <c r="G319" s="276"/>
       <c r="H319" s="2"/>
     </row>
@@ -12052,11 +12052,11 @@
       <c r="C320" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D320" s="286" t="s">
+      <c r="D320" s="373" t="s">
         <v>262</v>
       </c>
-      <c r="E320" s="287"/>
-      <c r="F320" s="288"/>
+      <c r="E320" s="374"/>
+      <c r="F320" s="375"/>
       <c r="G320" s="276"/>
       <c r="H320" s="2"/>
     </row>
@@ -12068,11 +12068,11 @@
       <c r="C321" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D321" s="286" t="s">
+      <c r="D321" s="373" t="s">
         <v>265</v>
       </c>
-      <c r="E321" s="287"/>
-      <c r="F321" s="288"/>
+      <c r="E321" s="374"/>
+      <c r="F321" s="375"/>
       <c r="G321" s="276"/>
       <c r="H321" s="2"/>
     </row>
@@ -12084,11 +12084,11 @@
       <c r="C322" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D322" s="286" t="s">
+      <c r="D322" s="373" t="s">
         <v>267</v>
       </c>
-      <c r="E322" s="287"/>
-      <c r="F322" s="288"/>
+      <c r="E322" s="374"/>
+      <c r="F322" s="375"/>
       <c r="G322" s="276"/>
       <c r="H322" s="2"/>
     </row>
@@ -12100,11 +12100,11 @@
       <c r="C323" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D323" s="286" t="s">
+      <c r="D323" s="373" t="s">
         <v>269</v>
       </c>
-      <c r="E323" s="287"/>
-      <c r="F323" s="288"/>
+      <c r="E323" s="374"/>
+      <c r="F323" s="375"/>
       <c r="G323" s="276"/>
       <c r="H323" s="2"/>
     </row>
@@ -12116,11 +12116,11 @@
       <c r="C324" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D324" s="286" t="s">
+      <c r="D324" s="373" t="s">
         <v>271</v>
       </c>
-      <c r="E324" s="287"/>
-      <c r="F324" s="288"/>
+      <c r="E324" s="374"/>
+      <c r="F324" s="375"/>
       <c r="G324" s="276"/>
       <c r="H324" s="2"/>
     </row>
@@ -12132,11 +12132,11 @@
       <c r="C325" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D325" s="286" t="s">
+      <c r="D325" s="373" t="s">
         <v>273</v>
       </c>
-      <c r="E325" s="287"/>
-      <c r="F325" s="288"/>
+      <c r="E325" s="374"/>
+      <c r="F325" s="375"/>
       <c r="G325" s="276"/>
       <c r="H325" s="2"/>
     </row>
@@ -12148,11 +12148,11 @@
       <c r="C326" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D326" s="286" t="s">
+      <c r="D326" s="373" t="s">
         <v>275</v>
       </c>
-      <c r="E326" s="287"/>
-      <c r="F326" s="288"/>
+      <c r="E326" s="374"/>
+      <c r="F326" s="375"/>
       <c r="G326" s="276"/>
       <c r="H326" s="2"/>
     </row>
@@ -12164,11 +12164,11 @@
       <c r="C327" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D327" s="286" t="s">
+      <c r="D327" s="373" t="s">
         <v>277</v>
       </c>
-      <c r="E327" s="287"/>
-      <c r="F327" s="288"/>
+      <c r="E327" s="374"/>
+      <c r="F327" s="375"/>
       <c r="G327" s="276"/>
       <c r="H327" s="2"/>
     </row>
@@ -12180,11 +12180,11 @@
       <c r="C328" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D328" s="286" t="s">
+      <c r="D328" s="373" t="s">
         <v>411</v>
       </c>
-      <c r="E328" s="287"/>
-      <c r="F328" s="288"/>
+      <c r="E328" s="374"/>
+      <c r="F328" s="375"/>
       <c r="G328" s="276"/>
       <c r="H328" s="2"/>
     </row>
@@ -12196,11 +12196,11 @@
       <c r="C329" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D329" s="286" t="s">
+      <c r="D329" s="373" t="s">
         <v>280</v>
       </c>
-      <c r="E329" s="287"/>
-      <c r="F329" s="288"/>
+      <c r="E329" s="374"/>
+      <c r="F329" s="375"/>
       <c r="G329" s="276"/>
       <c r="H329" s="2"/>
     </row>
@@ -12212,11 +12212,11 @@
       <c r="C330" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D330" s="286" t="s">
+      <c r="D330" s="373" t="s">
         <v>282</v>
       </c>
-      <c r="E330" s="287"/>
-      <c r="F330" s="288"/>
+      <c r="E330" s="374"/>
+      <c r="F330" s="375"/>
       <c r="G330" s="276"/>
       <c r="H330" s="2"/>
     </row>
@@ -12228,11 +12228,11 @@
       <c r="C331" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D331" s="286" t="s">
+      <c r="D331" s="373" t="s">
         <v>409</v>
       </c>
-      <c r="E331" s="287"/>
-      <c r="F331" s="288"/>
+      <c r="E331" s="374"/>
+      <c r="F331" s="375"/>
       <c r="G331" s="276"/>
       <c r="H331" s="2"/>
     </row>
@@ -12244,11 +12244,11 @@
       <c r="C332" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D332" s="286" t="s">
+      <c r="D332" s="373" t="s">
         <v>285</v>
       </c>
-      <c r="E332" s="287"/>
-      <c r="F332" s="288"/>
+      <c r="E332" s="374"/>
+      <c r="F332" s="375"/>
       <c r="G332" s="276"/>
       <c r="H332" s="2"/>
     </row>
@@ -12260,24 +12260,24 @@
       <c r="C333" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D333" s="286" t="s">
+      <c r="D333" s="373" t="s">
         <v>322</v>
       </c>
-      <c r="E333" s="287"/>
-      <c r="F333" s="288"/>
+      <c r="E333" s="374"/>
+      <c r="F333" s="375"/>
       <c r="G333" s="276"/>
       <c r="H333" s="2"/>
     </row>
     <row r="334" spans="1:8" ht="23.25">
       <c r="A334" s="36"/>
-      <c r="B334" s="299" t="s">
+      <c r="B334" s="361" t="s">
         <v>313</v>
       </c>
-      <c r="C334" s="300"/>
-      <c r="D334" s="300"/>
-      <c r="E334" s="300"/>
-      <c r="F334" s="301"/>
-      <c r="G334" s="302"/>
+      <c r="C334" s="362"/>
+      <c r="D334" s="362"/>
+      <c r="E334" s="362"/>
+      <c r="F334" s="363"/>
+      <c r="G334" s="364"/>
       <c r="H334" s="2"/>
     </row>
     <row r="335" spans="1:8" ht="38.25" customHeight="1">
@@ -12288,11 +12288,11 @@
       <c r="C335" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="D335" s="286" t="s">
+      <c r="D335" s="373" t="s">
         <v>296</v>
       </c>
-      <c r="E335" s="287"/>
-      <c r="F335" s="288"/>
+      <c r="E335" s="374"/>
+      <c r="F335" s="375"/>
       <c r="G335" s="276"/>
       <c r="H335" s="2"/>
     </row>
@@ -12304,11 +12304,11 @@
       <c r="C336" s="131" t="s">
         <v>374</v>
       </c>
-      <c r="D336" s="286" t="s">
+      <c r="D336" s="373" t="s">
         <v>296</v>
       </c>
-      <c r="E336" s="287"/>
-      <c r="F336" s="288"/>
+      <c r="E336" s="374"/>
+      <c r="F336" s="375"/>
       <c r="G336" s="276"/>
       <c r="H336" s="2"/>
     </row>
@@ -12320,11 +12320,11 @@
       <c r="C337" s="131" t="s">
         <v>335</v>
       </c>
-      <c r="D337" s="286" t="s">
+      <c r="D337" s="373" t="s">
         <v>287</v>
       </c>
-      <c r="E337" s="287"/>
-      <c r="F337" s="288"/>
+      <c r="E337" s="374"/>
+      <c r="F337" s="375"/>
       <c r="G337" s="276"/>
       <c r="H337" s="2"/>
     </row>
@@ -12336,11 +12336,11 @@
       <c r="C338" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D338" s="286" t="s">
+      <c r="D338" s="373" t="s">
         <v>289</v>
       </c>
-      <c r="E338" s="287"/>
-      <c r="F338" s="288"/>
+      <c r="E338" s="374"/>
+      <c r="F338" s="375"/>
       <c r="G338" s="276"/>
       <c r="H338" s="2"/>
     </row>
@@ -12352,11 +12352,11 @@
       <c r="C339" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D339" s="286" t="s">
+      <c r="D339" s="373" t="s">
         <v>291</v>
       </c>
-      <c r="E339" s="287"/>
-      <c r="F339" s="288"/>
+      <c r="E339" s="374"/>
+      <c r="F339" s="375"/>
       <c r="G339" s="276"/>
       <c r="H339" s="2"/>
     </row>
@@ -12368,11 +12368,11 @@
       <c r="C340" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D340" s="286" t="s">
+      <c r="D340" s="373" t="s">
         <v>293</v>
       </c>
-      <c r="E340" s="287"/>
-      <c r="F340" s="288"/>
+      <c r="E340" s="374"/>
+      <c r="F340" s="375"/>
       <c r="G340" s="276"/>
       <c r="H340" s="2"/>
     </row>
@@ -12384,11 +12384,11 @@
       <c r="C341" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D341" s="286" t="s">
+      <c r="D341" s="373" t="s">
         <v>294</v>
       </c>
-      <c r="E341" s="287"/>
-      <c r="F341" s="288"/>
+      <c r="E341" s="374"/>
+      <c r="F341" s="375"/>
       <c r="G341" s="276"/>
       <c r="H341" s="2"/>
     </row>
@@ -12400,11 +12400,11 @@
       <c r="C342" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D342" s="286" t="s">
+      <c r="D342" s="373" t="s">
         <v>296</v>
       </c>
-      <c r="E342" s="287"/>
-      <c r="F342" s="288"/>
+      <c r="E342" s="374"/>
+      <c r="F342" s="375"/>
       <c r="G342" s="276"/>
       <c r="H342" s="2"/>
     </row>
@@ -12416,11 +12416,11 @@
       <c r="C343" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D343" s="286" t="s">
+      <c r="D343" s="373" t="s">
         <v>296</v>
       </c>
-      <c r="E343" s="287"/>
-      <c r="F343" s="288"/>
+      <c r="E343" s="374"/>
+      <c r="F343" s="375"/>
       <c r="G343" s="276"/>
       <c r="H343" s="2"/>
     </row>
@@ -12432,11 +12432,11 @@
       <c r="C344" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D344" s="286" t="s">
+      <c r="D344" s="373" t="s">
         <v>294</v>
       </c>
-      <c r="E344" s="287"/>
-      <c r="F344" s="288"/>
+      <c r="E344" s="374"/>
+      <c r="F344" s="375"/>
       <c r="G344" s="276"/>
       <c r="H344" s="2"/>
     </row>
@@ -12448,11 +12448,11 @@
       <c r="C345" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D345" s="286" t="s">
+      <c r="D345" s="373" t="s">
         <v>294</v>
       </c>
-      <c r="E345" s="287"/>
-      <c r="F345" s="288"/>
+      <c r="E345" s="374"/>
+      <c r="F345" s="375"/>
       <c r="G345" s="276"/>
       <c r="H345" s="2"/>
     </row>
@@ -12464,11 +12464,11 @@
       <c r="C346" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D346" s="286" t="s">
+      <c r="D346" s="373" t="s">
         <v>300</v>
       </c>
-      <c r="E346" s="287"/>
-      <c r="F346" s="288"/>
+      <c r="E346" s="374"/>
+      <c r="F346" s="375"/>
       <c r="G346" s="276"/>
       <c r="H346" s="2"/>
     </row>
@@ -12480,11 +12480,11 @@
       <c r="C347" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D347" s="286" t="s">
+      <c r="D347" s="373" t="s">
         <v>294</v>
       </c>
-      <c r="E347" s="287"/>
-      <c r="F347" s="288"/>
+      <c r="E347" s="374"/>
+      <c r="F347" s="375"/>
       <c r="G347" s="276"/>
       <c r="H347" s="2"/>
     </row>
@@ -12496,11 +12496,11 @@
       <c r="C348" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D348" s="286" t="s">
+      <c r="D348" s="373" t="s">
         <v>302</v>
       </c>
-      <c r="E348" s="287"/>
-      <c r="F348" s="288"/>
+      <c r="E348" s="374"/>
+      <c r="F348" s="375"/>
       <c r="G348" s="277"/>
       <c r="H348" s="2"/>
     </row>
@@ -12512,11 +12512,11 @@
       <c r="C349" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D349" s="286" t="s">
+      <c r="D349" s="373" t="s">
         <v>304</v>
       </c>
-      <c r="E349" s="287"/>
-      <c r="F349" s="288"/>
+      <c r="E349" s="374"/>
+      <c r="F349" s="375"/>
       <c r="G349" s="277"/>
       <c r="H349" s="2"/>
     </row>
@@ -12528,11 +12528,11 @@
       <c r="C350" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D350" s="286" t="s">
+      <c r="D350" s="373" t="s">
         <v>296</v>
       </c>
-      <c r="E350" s="287"/>
-      <c r="F350" s="288"/>
+      <c r="E350" s="374"/>
+      <c r="F350" s="375"/>
       <c r="G350" s="277"/>
       <c r="H350" s="2"/>
     </row>
@@ -12544,11 +12544,11 @@
       <c r="C351" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D351" s="286" t="s">
+      <c r="D351" s="373" t="s">
         <v>302</v>
       </c>
-      <c r="E351" s="287"/>
-      <c r="F351" s="288"/>
+      <c r="E351" s="374"/>
+      <c r="F351" s="375"/>
       <c r="G351" s="277"/>
       <c r="H351" s="2"/>
     </row>
@@ -12560,11 +12560,11 @@
       <c r="C352" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D352" s="286" t="s">
+      <c r="D352" s="373" t="s">
         <v>307</v>
       </c>
-      <c r="E352" s="287"/>
-      <c r="F352" s="288"/>
+      <c r="E352" s="374"/>
+      <c r="F352" s="375"/>
       <c r="G352" s="276"/>
       <c r="H352" s="2"/>
     </row>
@@ -12576,11 +12576,11 @@
       <c r="C353" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D353" s="286" t="s">
+      <c r="D353" s="373" t="s">
         <v>302</v>
       </c>
-      <c r="E353" s="287"/>
-      <c r="F353" s="288"/>
+      <c r="E353" s="374"/>
+      <c r="F353" s="375"/>
       <c r="G353" s="277"/>
       <c r="H353" s="2"/>
     </row>
@@ -12592,11 +12592,11 @@
       <c r="C354" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D354" s="286" t="s">
+      <c r="D354" s="373" t="s">
         <v>302</v>
       </c>
-      <c r="E354" s="287"/>
-      <c r="F354" s="288"/>
+      <c r="E354" s="374"/>
+      <c r="F354" s="375"/>
       <c r="G354" s="277"/>
       <c r="H354" s="2"/>
     </row>
@@ -12608,24 +12608,24 @@
       <c r="C355" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D355" s="286" t="s">
+      <c r="D355" s="373" t="s">
         <v>410</v>
       </c>
-      <c r="E355" s="287"/>
-      <c r="F355" s="288"/>
+      <c r="E355" s="374"/>
+      <c r="F355" s="375"/>
       <c r="G355" s="276"/>
       <c r="H355" s="2"/>
     </row>
     <row r="356" spans="1:8" ht="23.25">
       <c r="A356" s="36"/>
-      <c r="B356" s="328" t="s">
+      <c r="B356" s="342" t="s">
         <v>332</v>
       </c>
-      <c r="C356" s="329"/>
-      <c r="D356" s="329"/>
-      <c r="E356" s="329"/>
-      <c r="F356" s="330"/>
-      <c r="G356" s="331"/>
+      <c r="C356" s="343"/>
+      <c r="D356" s="343"/>
+      <c r="E356" s="343"/>
+      <c r="F356" s="344"/>
+      <c r="G356" s="345"/>
       <c r="H356" s="2"/>
     </row>
     <row r="357" spans="1:8" ht="15.75" customHeight="1">
@@ -12636,11 +12636,11 @@
       <c r="C357" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D357" s="286" t="s">
+      <c r="D357" s="373" t="s">
         <v>336</v>
       </c>
-      <c r="E357" s="287"/>
-      <c r="F357" s="288"/>
+      <c r="E357" s="374"/>
+      <c r="F357" s="375"/>
       <c r="G357" s="276"/>
       <c r="H357" s="2"/>
     </row>
@@ -12652,11 +12652,11 @@
       <c r="C358" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D358" s="286" t="s">
+      <c r="D358" s="373" t="s">
         <v>336</v>
       </c>
-      <c r="E358" s="287"/>
-      <c r="F358" s="288"/>
+      <c r="E358" s="374"/>
+      <c r="F358" s="375"/>
       <c r="G358" s="276"/>
       <c r="H358" s="2"/>
     </row>
@@ -12668,24 +12668,24 @@
       <c r="C359" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="D359" s="289" t="s">
+      <c r="D359" s="384" t="s">
         <v>336</v>
       </c>
-      <c r="E359" s="290"/>
-      <c r="F359" s="291"/>
+      <c r="E359" s="385"/>
+      <c r="F359" s="386"/>
       <c r="G359" s="276"/>
       <c r="H359" s="2"/>
     </row>
     <row r="360" spans="1:8" ht="26.25">
       <c r="A360" s="36"/>
-      <c r="B360" s="342" t="s">
+      <c r="B360" s="359" t="s">
         <v>213</v>
       </c>
-      <c r="C360" s="342"/>
-      <c r="D360" s="342"/>
-      <c r="E360" s="342"/>
-      <c r="F360" s="342"/>
-      <c r="G360" s="342"/>
+      <c r="C360" s="359"/>
+      <c r="D360" s="359"/>
+      <c r="E360" s="359"/>
+      <c r="F360" s="359"/>
+      <c r="G360" s="359"/>
       <c r="H360" s="2"/>
     </row>
     <row r="361" spans="1:8" ht="15.75">
@@ -12700,14 +12700,14 @@
     </row>
     <row r="362" spans="1:8" ht="14.25">
       <c r="A362" s="36"/>
-      <c r="B362" s="332" t="s">
+      <c r="B362" s="346" t="s">
         <v>413</v>
       </c>
-      <c r="C362" s="332"/>
-      <c r="D362" s="332"/>
-      <c r="E362" s="332"/>
-      <c r="F362" s="332"/>
-      <c r="G362" s="332"/>
+      <c r="C362" s="346"/>
+      <c r="D362" s="346"/>
+      <c r="E362" s="346"/>
+      <c r="F362" s="346"/>
+      <c r="G362" s="346"/>
       <c r="H362" s="2"/>
     </row>
     <row r="363" spans="1:8" ht="15.75">
@@ -12722,26 +12722,26 @@
     </row>
     <row r="364" spans="1:8" ht="14.25" customHeight="1">
       <c r="A364" s="36"/>
-      <c r="B364" s="335" t="s">
+      <c r="B364" s="349" t="s">
         <v>441</v>
       </c>
-      <c r="C364" s="336"/>
-      <c r="D364" s="336"/>
-      <c r="E364" s="336"/>
-      <c r="F364" s="336"/>
-      <c r="G364" s="336"/>
+      <c r="C364" s="350"/>
+      <c r="D364" s="350"/>
+      <c r="E364" s="350"/>
+      <c r="F364" s="350"/>
+      <c r="G364" s="350"/>
       <c r="H364" s="2"/>
     </row>
     <row r="365" spans="1:8" ht="33" customHeight="1">
       <c r="A365" s="36"/>
-      <c r="B365" s="335" t="s">
+      <c r="B365" s="349" t="s">
         <v>442</v>
       </c>
-      <c r="C365" s="336"/>
-      <c r="D365" s="336"/>
-      <c r="E365" s="336"/>
-      <c r="F365" s="336"/>
-      <c r="G365" s="336"/>
+      <c r="C365" s="350"/>
+      <c r="D365" s="350"/>
+      <c r="E365" s="350"/>
+      <c r="F365" s="350"/>
+      <c r="G365" s="350"/>
       <c r="H365" s="2"/>
     </row>
     <row r="366" spans="1:8" ht="15.75">
@@ -12756,12 +12756,12 @@
     </row>
     <row r="367" spans="1:8" ht="14.25">
       <c r="A367" s="36"/>
-      <c r="B367" s="327"/>
-      <c r="C367" s="327"/>
-      <c r="D367" s="327"/>
-      <c r="E367" s="327"/>
-      <c r="F367" s="327"/>
-      <c r="G367" s="327"/>
+      <c r="B367" s="341"/>
+      <c r="C367" s="341"/>
+      <c r="D367" s="341"/>
+      <c r="E367" s="341"/>
+      <c r="F367" s="341"/>
+      <c r="G367" s="341"/>
       <c r="H367" s="2"/>
     </row>
     <row r="368" spans="1:8" ht="14.25">
@@ -12776,36 +12776,36 @@
     </row>
     <row r="369" spans="1:8" ht="16.5" customHeight="1">
       <c r="A369" s="37"/>
-      <c r="B369" s="323"/>
-      <c r="C369" s="323"/>
-      <c r="D369" s="323"/>
-      <c r="E369" s="323"/>
-      <c r="F369" s="323"/>
-      <c r="G369" s="323"/>
+      <c r="B369" s="337"/>
+      <c r="C369" s="337"/>
+      <c r="D369" s="337"/>
+      <c r="E369" s="337"/>
+      <c r="F369" s="337"/>
+      <c r="G369" s="337"/>
       <c r="H369" s="2"/>
     </row>
     <row r="370" spans="1:8" ht="32.25" customHeight="1">
       <c r="A370" s="38"/>
-      <c r="B370" s="324" t="s">
+      <c r="B370" s="338" t="s">
         <v>214</v>
       </c>
-      <c r="C370" s="325"/>
-      <c r="D370" s="325"/>
-      <c r="E370" s="325"/>
-      <c r="F370" s="325"/>
-      <c r="G370" s="326"/>
+      <c r="C370" s="339"/>
+      <c r="D370" s="339"/>
+      <c r="E370" s="339"/>
+      <c r="F370" s="339"/>
+      <c r="G370" s="340"/>
       <c r="H370" s="2"/>
     </row>
     <row r="371" spans="1:8" ht="32.25" customHeight="1">
       <c r="A371" s="38"/>
-      <c r="B371" s="333" t="s">
+      <c r="B371" s="347" t="s">
         <v>159</v>
       </c>
-      <c r="C371" s="334"/>
-      <c r="D371" s="334"/>
-      <c r="E371" s="334"/>
-      <c r="F371" s="334"/>
-      <c r="G371" s="334"/>
+      <c r="C371" s="348"/>
+      <c r="D371" s="348"/>
+      <c r="E371" s="348"/>
+      <c r="F371" s="348"/>
+      <c r="G371" s="348"/>
       <c r="H371" s="2"/>
     </row>
     <row r="372" spans="1:8" ht="15.6" customHeight="1">
@@ -12862,73 +12862,82 @@
     </row>
     <row r="377" spans="1:8" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
-      <c r="B377" s="322"/>
-      <c r="C377" s="322"/>
-      <c r="D377" s="322"/>
-      <c r="E377" s="322"/>
-      <c r="F377" s="322"/>
-      <c r="G377" s="322"/>
+      <c r="B377" s="336"/>
+      <c r="C377" s="336"/>
+      <c r="D377" s="336"/>
+      <c r="E377" s="336"/>
+      <c r="F377" s="336"/>
+      <c r="G377" s="336"/>
       <c r="H377" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B136:G137"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="B377:G377"/>
-    <mergeCell ref="B369:G369"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B367:G367"/>
-    <mergeCell ref="B356:G356"/>
-    <mergeCell ref="B362:G362"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B365:G365"/>
-    <mergeCell ref="B364:G364"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="B318:G318"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="B360:G360"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="D349:F349"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="D351:F351"/>
+    <mergeCell ref="D352:F352"/>
+    <mergeCell ref="D353:F353"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="D338:F338"/>
+    <mergeCell ref="D339:F339"/>
+    <mergeCell ref="D340:F340"/>
+    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D327:F327"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="D251:E251"/>
     <mergeCell ref="D249:E249"/>
@@ -12953,73 +12962,64 @@
     <mergeCell ref="F238:G238"/>
     <mergeCell ref="F239:G239"/>
     <mergeCell ref="B148:G149"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B136:G137"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B152:G153"/>
+    <mergeCell ref="B377:G377"/>
+    <mergeCell ref="B369:G369"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B367:G367"/>
+    <mergeCell ref="B356:G356"/>
+    <mergeCell ref="B362:G362"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B365:G365"/>
+    <mergeCell ref="B364:G364"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="B318:G318"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="B263:G263"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="B360:G360"/>
     <mergeCell ref="B317:G317"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="F254:G254"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="F256:G256"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D327:F327"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D347:F347"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="D349:F349"/>
-    <mergeCell ref="D350:F350"/>
-    <mergeCell ref="D351:F351"/>
-    <mergeCell ref="D352:F352"/>
-    <mergeCell ref="D353:F353"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
-    <mergeCell ref="D338:F338"/>
-    <mergeCell ref="D339:F339"/>
-    <mergeCell ref="D340:F340"/>
-    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="B214:G214"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13032,7 +13032,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75"/>
@@ -13042,7 +13042,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
+++ b/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
@@ -2398,7 +2398,7 @@
     <t>цены указаны без учета НДС 5%</t>
   </si>
   <si>
-    <t>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (</t>
+    <t>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (</t>
   </si>
 </sst>
 </file>
@@ -4851,134 +4851,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="36" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5055,15 +5019,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5082,86 +5037,131 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="7" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="36" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5545,7 +5545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I377"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A259" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
@@ -5562,68 +5562,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="G1" s="360"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="347" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="313" t="s">
+      <c r="B3" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="348"/>
+      <c r="F3" s="348"/>
+      <c r="G3" s="348"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="314" t="s">
+      <c r="B4" s="349" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="314"/>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
+      <c r="C4" s="349"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="349"/>
+      <c r="F4" s="349"/>
+      <c r="G4" s="349"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="315" t="s">
+      <c r="B5" s="350" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
+      <c r="C5" s="350"/>
+      <c r="D5" s="350"/>
+      <c r="E5" s="350"/>
+      <c r="F5" s="350"/>
+      <c r="G5" s="350"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="351" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
+      <c r="C6" s="351"/>
+      <c r="D6" s="351"/>
+      <c r="E6" s="351"/>
+      <c r="F6" s="351"/>
+      <c r="G6" s="351"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="11.25" customHeight="1">
@@ -5638,26 +5638,26 @@
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="318" t="s">
+      <c r="B8" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="318"/>
-      <c r="D8" s="318"/>
-      <c r="E8" s="318"/>
-      <c r="F8" s="318"/>
-      <c r="G8" s="318"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="304"/>
+      <c r="F8" s="304"/>
+      <c r="G8" s="304"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="319" t="s">
+      <c r="B9" s="352" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="319"/>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
+      <c r="C9" s="352"/>
+      <c r="D9" s="352"/>
+      <c r="E9" s="352"/>
+      <c r="F9" s="352"/>
+      <c r="G9" s="352"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="102">
@@ -5673,7 +5673,7 @@
       </c>
       <c r="E10" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F10" s="213" t="s">
         <v>456</v>
@@ -7031,14 +7031,14 @@
     </row>
     <row r="68" spans="1:8" ht="51" customHeight="1">
       <c r="A68" s="15"/>
-      <c r="B68" s="320" t="s">
+      <c r="B68" s="353" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="321"/>
-      <c r="D68" s="321"/>
-      <c r="E68" s="321"/>
-      <c r="F68" s="322"/>
-      <c r="G68" s="323"/>
+      <c r="C68" s="354"/>
+      <c r="D68" s="354"/>
+      <c r="E68" s="354"/>
+      <c r="F68" s="355"/>
+      <c r="G68" s="356"/>
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="6.75" customHeight="1">
@@ -7053,14 +7053,14 @@
     </row>
     <row r="70" spans="1:8" ht="30" customHeight="1">
       <c r="A70" s="7"/>
-      <c r="B70" s="316" t="s">
+      <c r="B70" s="311" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="316"/>
-      <c r="D70" s="316"/>
-      <c r="E70" s="316"/>
-      <c r="F70" s="316"/>
-      <c r="G70" s="316"/>
+      <c r="C70" s="311"/>
+      <c r="D70" s="311"/>
+      <c r="E70" s="311"/>
+      <c r="F70" s="311"/>
+      <c r="G70" s="311"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" ht="102">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="E71" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F71" s="213" t="s">
         <v>456</v>
@@ -7552,14 +7552,14 @@
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1">
       <c r="A92" s="7"/>
-      <c r="B92" s="283" t="s">
+      <c r="B92" s="310" t="s">
         <v>459</v>
       </c>
-      <c r="C92" s="283"/>
-      <c r="D92" s="283"/>
-      <c r="E92" s="283"/>
-      <c r="F92" s="283"/>
-      <c r="G92" s="283"/>
+      <c r="C92" s="310"/>
+      <c r="D92" s="310"/>
+      <c r="E92" s="310"/>
+      <c r="F92" s="310"/>
+      <c r="G92" s="310"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" ht="102">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="E93" s="245" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F93" s="245" t="s">
         <v>456</v>
@@ -7907,14 +7907,14 @@
     </row>
     <row r="108" spans="1:8" s="266" customFormat="1" ht="30" customHeight="1">
       <c r="A108" s="15"/>
-      <c r="B108" s="283" t="s">
+      <c r="B108" s="310" t="s">
         <v>460</v>
       </c>
-      <c r="C108" s="283"/>
-      <c r="D108" s="283"/>
-      <c r="E108" s="283"/>
-      <c r="F108" s="283"/>
-      <c r="G108" s="283"/>
+      <c r="C108" s="310"/>
+      <c r="D108" s="310"/>
+      <c r="E108" s="310"/>
+      <c r="F108" s="310"/>
+      <c r="G108" s="310"/>
       <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" s="266" customFormat="1" ht="102">
@@ -7930,12 +7930,12 @@
       </c>
       <c r="E109" s="245" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
-      </c>
-      <c r="F109" s="284" t="s">
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="F109" s="385" t="s">
         <v>462</v>
       </c>
-      <c r="G109" s="285"/>
+      <c r="G109" s="386"/>
       <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" ht="25.5">
@@ -7953,11 +7953,11 @@
         <f>D110*Лист2!$B$3</f>
         <v>8701.8619999999992</v>
       </c>
-      <c r="F110" s="281">
+      <c r="F110" s="383">
         <f>E110*4</f>
         <v>34807.447999999997</v>
       </c>
-      <c r="G110" s="282"/>
+      <c r="G110" s="384"/>
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" ht="25.5">
@@ -7975,11 +7975,11 @@
         <f>D111*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F111" s="281">
+      <c r="F111" s="383">
         <f>E111*4</f>
         <v>41871.479999999996</v>
       </c>
-      <c r="G111" s="282"/>
+      <c r="G111" s="384"/>
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" ht="76.5">
@@ -7997,11 +7997,11 @@
         <f>D112*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F112" s="281">
+      <c r="F112" s="383">
         <f>E112*3</f>
         <v>35740.298999999999</v>
       </c>
-      <c r="G112" s="282"/>
+      <c r="G112" s="384"/>
       <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="76.5">
@@ -8019,11 +8019,11 @@
         <f>D113*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F113" s="281">
+      <c r="F113" s="383">
         <f>E113*3</f>
         <v>44541.854999999996</v>
       </c>
-      <c r="G113" s="282"/>
+      <c r="G113" s="384"/>
       <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="76.5">
@@ -8041,11 +8041,11 @@
         <f>D114*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F114" s="281">
+      <c r="F114" s="383">
         <f>E114*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G114" s="282"/>
+      <c r="G114" s="384"/>
       <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:9" ht="76.5">
@@ -8063,11 +8063,11 @@
         <f>D115*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F115" s="281">
+      <c r="F115" s="383">
         <f>E115*3.5</f>
         <v>51965.49749999999</v>
       </c>
-      <c r="G115" s="282"/>
+      <c r="G115" s="384"/>
       <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="38.25">
@@ -8085,11 +8085,11 @@
         <f>D116*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F116" s="281">
+      <c r="F116" s="383">
         <f>E116*1.2</f>
         <v>14296.119599999998</v>
       </c>
-      <c r="G116" s="282"/>
+      <c r="G116" s="384"/>
       <c r="H116" s="14"/>
       <c r="I116" s="129"/>
     </row>
@@ -8108,11 +8108,11 @@
         <f>D117*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F117" s="281">
+      <c r="F117" s="383">
         <f>E117*1.2</f>
         <v>17816.741999999998</v>
       </c>
-      <c r="G117" s="282"/>
+      <c r="G117" s="384"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:9" ht="14.25">
@@ -8130,11 +8130,11 @@
         <f>D118*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F118" s="281">
+      <c r="F118" s="383">
         <f>E118*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G118" s="282"/>
+      <c r="G118" s="384"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:9" s="210" customFormat="1" ht="14.25">
@@ -8152,11 +8152,11 @@
         <f>D119*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F119" s="281">
+      <c r="F119" s="383">
         <f>E119*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G119" s="282"/>
+      <c r="G119" s="384"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:9" ht="14.25">
@@ -8174,11 +8174,11 @@
         <f>D120*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F120" s="281">
+      <c r="F120" s="383">
         <f>E120*5</f>
         <v>52339.349999999991</v>
       </c>
-      <c r="G120" s="282"/>
+      <c r="G120" s="384"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:9" ht="51">
@@ -8196,11 +8196,11 @@
         <f>D121*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F121" s="281">
+      <c r="F121" s="383">
         <f>E121*2</f>
         <v>13188.091999999999</v>
       </c>
-      <c r="G121" s="282"/>
+      <c r="G121" s="384"/>
       <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:9" s="275" customFormat="1" ht="14.25">
@@ -8215,14 +8215,14 @@
     </row>
     <row r="123" spans="1:9" ht="25.5" customHeight="1">
       <c r="A123" s="15"/>
-      <c r="B123" s="316" t="s">
+      <c r="B123" s="311" t="s">
         <v>340</v>
       </c>
-      <c r="C123" s="316"/>
-      <c r="D123" s="316"/>
-      <c r="E123" s="316"/>
-      <c r="F123" s="316"/>
-      <c r="G123" s="316"/>
+      <c r="C123" s="311"/>
+      <c r="D123" s="311"/>
+      <c r="E123" s="311"/>
+      <c r="F123" s="311"/>
+      <c r="G123" s="311"/>
       <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:9" ht="102">
@@ -8238,12 +8238,12 @@
       </c>
       <c r="E124" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
-      </c>
-      <c r="F124" s="376" t="s">
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="F124" s="281" t="s">
         <v>343</v>
       </c>
-      <c r="G124" s="377"/>
+      <c r="G124" s="282"/>
       <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:9" ht="63.75">
@@ -8261,11 +8261,11 @@
         <f>D125*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F125" s="378">
+      <c r="F125" s="283">
         <f>E125*1.2</f>
         <v>63354.112799999995</v>
       </c>
-      <c r="G125" s="379"/>
+      <c r="G125" s="284"/>
       <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
@@ -8280,26 +8280,26 @@
     </row>
     <row r="127" spans="1:9" ht="34.35" customHeight="1">
       <c r="A127" s="25"/>
-      <c r="B127" s="316" t="s">
+      <c r="B127" s="311" t="s">
         <v>338</v>
       </c>
-      <c r="C127" s="316"/>
-      <c r="D127" s="316"/>
-      <c r="E127" s="316"/>
-      <c r="F127" s="316"/>
-      <c r="G127" s="316"/>
+      <c r="C127" s="311"/>
+      <c r="D127" s="311"/>
+      <c r="E127" s="311"/>
+      <c r="F127" s="311"/>
+      <c r="G127" s="311"/>
       <c r="H127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="34.35" customHeight="1">
       <c r="A128" s="25"/>
-      <c r="B128" s="331" t="s">
+      <c r="B128" s="319" t="s">
         <v>372</v>
       </c>
-      <c r="C128" s="332"/>
-      <c r="D128" s="332"/>
-      <c r="E128" s="332"/>
-      <c r="F128" s="332"/>
-      <c r="G128" s="333"/>
+      <c r="C128" s="320"/>
+      <c r="D128" s="320"/>
+      <c r="E128" s="320"/>
+      <c r="F128" s="320"/>
+      <c r="G128" s="321"/>
       <c r="H128" s="26"/>
     </row>
     <row r="129" spans="1:8" ht="102">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="E129" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F129" s="213" t="s">
         <v>456</v>
@@ -8468,34 +8468,34 @@
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1">
       <c r="A136" s="28"/>
-      <c r="B136" s="325"/>
-      <c r="C136" s="326"/>
-      <c r="D136" s="326"/>
-      <c r="E136" s="326"/>
-      <c r="F136" s="326"/>
-      <c r="G136" s="327"/>
+      <c r="B136" s="313"/>
+      <c r="C136" s="314"/>
+      <c r="D136" s="314"/>
+      <c r="E136" s="314"/>
+      <c r="F136" s="314"/>
+      <c r="G136" s="315"/>
       <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1">
       <c r="A137" s="28"/>
-      <c r="B137" s="328"/>
-      <c r="C137" s="329"/>
-      <c r="D137" s="329"/>
-      <c r="E137" s="329"/>
-      <c r="F137" s="329"/>
-      <c r="G137" s="330"/>
+      <c r="B137" s="316"/>
+      <c r="C137" s="317"/>
+      <c r="D137" s="317"/>
+      <c r="E137" s="317"/>
+      <c r="F137" s="317"/>
+      <c r="G137" s="318"/>
       <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" ht="18">
       <c r="A138" s="25"/>
-      <c r="B138" s="324" t="s">
+      <c r="B138" s="312" t="s">
         <v>339</v>
       </c>
-      <c r="C138" s="324"/>
-      <c r="D138" s="324"/>
-      <c r="E138" s="324"/>
-      <c r="F138" s="324"/>
-      <c r="G138" s="324"/>
+      <c r="C138" s="312"/>
+      <c r="D138" s="312"/>
+      <c r="E138" s="312"/>
+      <c r="F138" s="312"/>
+      <c r="G138" s="312"/>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8" ht="102">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="E139" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F139" s="213" t="s">
         <v>456</v>
@@ -8711,24 +8711,24 @@
     </row>
     <row r="148" spans="1:8" ht="15">
       <c r="A148" s="16"/>
-      <c r="B148" s="367" t="s">
+      <c r="B148" s="298" t="s">
         <v>104</v>
       </c>
-      <c r="C148" s="367"/>
-      <c r="D148" s="367"/>
-      <c r="E148" s="367"/>
-      <c r="F148" s="367"/>
-      <c r="G148" s="367"/>
+      <c r="C148" s="298"/>
+      <c r="D148" s="298"/>
+      <c r="E148" s="298"/>
+      <c r="F148" s="298"/>
+      <c r="G148" s="298"/>
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8" ht="15">
       <c r="A149" s="16"/>
-      <c r="B149" s="367"/>
-      <c r="C149" s="367"/>
-      <c r="D149" s="367"/>
-      <c r="E149" s="367"/>
-      <c r="F149" s="367"/>
-      <c r="G149" s="367"/>
+      <c r="B149" s="298"/>
+      <c r="C149" s="298"/>
+      <c r="D149" s="298"/>
+      <c r="E149" s="298"/>
+      <c r="F149" s="298"/>
+      <c r="G149" s="298"/>
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8" ht="12" customHeight="1">
@@ -8753,24 +8753,24 @@
     </row>
     <row r="152" spans="1:8" ht="15">
       <c r="A152" s="16"/>
-      <c r="B152" s="334" t="s">
+      <c r="B152" s="322" t="s">
         <v>455</v>
       </c>
-      <c r="C152" s="334"/>
-      <c r="D152" s="334"/>
-      <c r="E152" s="334"/>
-      <c r="F152" s="334"/>
-      <c r="G152" s="334"/>
+      <c r="C152" s="322"/>
+      <c r="D152" s="322"/>
+      <c r="E152" s="322"/>
+      <c r="F152" s="322"/>
+      <c r="G152" s="322"/>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="1:8" ht="18" customHeight="1">
       <c r="A153" s="16"/>
-      <c r="B153" s="335"/>
-      <c r="C153" s="335"/>
-      <c r="D153" s="335"/>
-      <c r="E153" s="335"/>
-      <c r="F153" s="335"/>
-      <c r="G153" s="335"/>
+      <c r="B153" s="323"/>
+      <c r="C153" s="323"/>
+      <c r="D153" s="323"/>
+      <c r="E153" s="323"/>
+      <c r="F153" s="323"/>
+      <c r="G153" s="323"/>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8" ht="102">
@@ -8786,7 +8786,7 @@
       </c>
       <c r="E154" s="279" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F154" s="279" t="s">
         <v>456</v>
@@ -8820,26 +8820,26 @@
     </row>
     <row r="156" spans="1:8" ht="18">
       <c r="A156" s="16"/>
-      <c r="B156" s="289" t="s">
+      <c r="B156" s="360" t="s">
         <v>414</v>
       </c>
-      <c r="C156" s="290"/>
-      <c r="D156" s="290"/>
-      <c r="E156" s="290"/>
-      <c r="F156" s="291"/>
-      <c r="G156" s="292"/>
+      <c r="C156" s="361"/>
+      <c r="D156" s="361"/>
+      <c r="E156" s="361"/>
+      <c r="F156" s="362"/>
+      <c r="G156" s="363"/>
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8" ht="12" customHeight="1">
       <c r="A157" s="16"/>
-      <c r="B157" s="295" t="s">
+      <c r="B157" s="366" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="296"/>
-      <c r="D157" s="296"/>
-      <c r="E157" s="296"/>
-      <c r="F157" s="297"/>
-      <c r="G157" s="298"/>
+      <c r="C157" s="367"/>
+      <c r="D157" s="367"/>
+      <c r="E157" s="367"/>
+      <c r="F157" s="368"/>
+      <c r="G157" s="369"/>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="1:8" ht="12" customHeight="1">
@@ -8974,14 +8974,14 @@
     </row>
     <row r="164" spans="1:8" ht="15">
       <c r="A164" s="16"/>
-      <c r="B164" s="299" t="s">
+      <c r="B164" s="370" t="s">
         <v>217</v>
       </c>
-      <c r="C164" s="300"/>
-      <c r="D164" s="300"/>
-      <c r="E164" s="300"/>
-      <c r="F164" s="301"/>
-      <c r="G164" s="302"/>
+      <c r="C164" s="371"/>
+      <c r="D164" s="371"/>
+      <c r="E164" s="371"/>
+      <c r="F164" s="372"/>
+      <c r="G164" s="373"/>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:8" ht="15" customHeight="1">
@@ -9126,26 +9126,26 @@
     </row>
     <row r="172" spans="1:8" ht="18">
       <c r="A172" s="16"/>
-      <c r="B172" s="293" t="s">
+      <c r="B172" s="364" t="s">
         <v>415</v>
       </c>
-      <c r="C172" s="293"/>
-      <c r="D172" s="293"/>
-      <c r="E172" s="293"/>
-      <c r="F172" s="294"/>
-      <c r="G172" s="293"/>
+      <c r="C172" s="364"/>
+      <c r="D172" s="364"/>
+      <c r="E172" s="364"/>
+      <c r="F172" s="365"/>
+      <c r="G172" s="364"/>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8" ht="15">
       <c r="A173" s="16"/>
-      <c r="B173" s="295" t="s">
+      <c r="B173" s="366" t="s">
         <v>215</v>
       </c>
-      <c r="C173" s="296"/>
-      <c r="D173" s="296"/>
-      <c r="E173" s="296"/>
-      <c r="F173" s="297"/>
-      <c r="G173" s="298"/>
+      <c r="C173" s="367"/>
+      <c r="D173" s="367"/>
+      <c r="E173" s="367"/>
+      <c r="F173" s="368"/>
+      <c r="G173" s="369"/>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8" ht="15">
@@ -9304,14 +9304,14 @@
     </row>
     <row r="181" spans="1:8" ht="15">
       <c r="A181" s="16"/>
-      <c r="B181" s="299" t="s">
+      <c r="B181" s="370" t="s">
         <v>217</v>
       </c>
-      <c r="C181" s="300"/>
-      <c r="D181" s="300"/>
-      <c r="E181" s="300"/>
-      <c r="F181" s="301"/>
-      <c r="G181" s="302"/>
+      <c r="C181" s="371"/>
+      <c r="D181" s="371"/>
+      <c r="E181" s="371"/>
+      <c r="F181" s="372"/>
+      <c r="G181" s="373"/>
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="1:8" ht="15">
@@ -9490,14 +9490,14 @@
     </row>
     <row r="191" spans="1:8" ht="38.25" customHeight="1">
       <c r="A191" s="16"/>
-      <c r="B191" s="303" t="s">
+      <c r="B191" s="374" t="s">
         <v>326</v>
       </c>
-      <c r="C191" s="303"/>
-      <c r="D191" s="303"/>
-      <c r="E191" s="303"/>
-      <c r="F191" s="304"/>
-      <c r="G191" s="305"/>
+      <c r="C191" s="374"/>
+      <c r="D191" s="374"/>
+      <c r="E191" s="374"/>
+      <c r="F191" s="375"/>
+      <c r="G191" s="376"/>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1">
@@ -9642,14 +9642,14 @@
     </row>
     <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="16"/>
-      <c r="B199" s="303" t="s">
+      <c r="B199" s="374" t="s">
         <v>344</v>
       </c>
-      <c r="C199" s="303"/>
-      <c r="D199" s="303"/>
-      <c r="E199" s="303"/>
-      <c r="F199" s="304"/>
-      <c r="G199" s="305"/>
+      <c r="C199" s="374"/>
+      <c r="D199" s="374"/>
+      <c r="E199" s="374"/>
+      <c r="F199" s="375"/>
+      <c r="G199" s="376"/>
       <c r="H199" s="2"/>
     </row>
     <row r="200" spans="1:8" s="212" customFormat="1" ht="102">
@@ -9665,12 +9665,12 @@
       </c>
       <c r="E200" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
-      </c>
-      <c r="F200" s="380" t="s">
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="F200" s="285" t="s">
         <v>454</v>
       </c>
-      <c r="G200" s="381"/>
+      <c r="G200" s="286"/>
       <c r="H200" s="211"/>
     </row>
     <row r="201" spans="1:8" ht="12" customHeight="1">
@@ -9688,11 +9688,11 @@
         <f>D201*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F201" s="382">
+      <c r="F201" s="287">
         <f>E201*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G201" s="383"/>
+      <c r="G201" s="288"/>
       <c r="H201" s="2"/>
     </row>
     <row r="202" spans="1:8" s="164" customFormat="1" ht="12" customHeight="1">
@@ -9727,14 +9727,14 @@
     </row>
     <row r="205" spans="1:8" s="164" customFormat="1" ht="45.75" customHeight="1">
       <c r="A205" s="16"/>
-      <c r="B205" s="286" t="s">
+      <c r="B205" s="357" t="s">
         <v>431</v>
       </c>
-      <c r="C205" s="286"/>
-      <c r="D205" s="286"/>
-      <c r="E205" s="286"/>
-      <c r="F205" s="287"/>
-      <c r="G205" s="288"/>
+      <c r="C205" s="357"/>
+      <c r="D205" s="357"/>
+      <c r="E205" s="357"/>
+      <c r="F205" s="358"/>
+      <c r="G205" s="359"/>
       <c r="H205" s="163"/>
     </row>
     <row r="206" spans="1:8" s="164" customFormat="1" ht="102">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="E206" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F206" s="213" t="s">
         <v>456</v>
@@ -9888,14 +9888,14 @@
     </row>
     <row r="214" spans="1:8" ht="33.75" customHeight="1">
       <c r="A214" s="16"/>
-      <c r="B214" s="309" t="s">
+      <c r="B214" s="380" t="s">
         <v>412</v>
       </c>
-      <c r="C214" s="310"/>
-      <c r="D214" s="310"/>
-      <c r="E214" s="310"/>
-      <c r="F214" s="311"/>
-      <c r="G214" s="310"/>
+      <c r="C214" s="381"/>
+      <c r="D214" s="381"/>
+      <c r="E214" s="381"/>
+      <c r="F214" s="382"/>
+      <c r="G214" s="381"/>
       <c r="H214" s="2"/>
     </row>
     <row r="215" spans="1:8" ht="26.25" customHeight="1">
@@ -9903,13 +9903,13 @@
       <c r="B215" s="122" t="s">
         <v>444</v>
       </c>
-      <c r="C215" s="306" t="s">
+      <c r="C215" s="377" t="s">
         <v>443</v>
       </c>
-      <c r="D215" s="307"/>
-      <c r="E215" s="307"/>
-      <c r="F215" s="308"/>
-      <c r="G215" s="307"/>
+      <c r="D215" s="378"/>
+      <c r="E215" s="378"/>
+      <c r="F215" s="379"/>
+      <c r="G215" s="378"/>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="1:8" ht="12" customHeight="1">
@@ -9944,14 +9944,14 @@
     </row>
     <row r="219" spans="1:8" ht="36" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="318" t="s">
+      <c r="B219" s="304" t="s">
         <v>105</v>
       </c>
-      <c r="C219" s="318"/>
-      <c r="D219" s="318"/>
-      <c r="E219" s="318"/>
-      <c r="F219" s="318"/>
-      <c r="G219" s="318"/>
+      <c r="C219" s="304"/>
+      <c r="D219" s="304"/>
+      <c r="E219" s="304"/>
+      <c r="F219" s="304"/>
+      <c r="G219" s="304"/>
       <c r="H219" s="2"/>
     </row>
     <row r="220" spans="1:8" ht="102">
@@ -9967,7 +9967,7 @@
       </c>
       <c r="E220" s="133" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F220" s="213" t="s">
         <v>456</v>
@@ -10265,14 +10265,14 @@
     </row>
     <row r="233" spans="1:8" ht="27.6" customHeight="1">
       <c r="A233" s="32"/>
-      <c r="B233" s="367" t="s">
+      <c r="B233" s="298" t="s">
         <v>121</v>
       </c>
-      <c r="C233" s="367"/>
-      <c r="D233" s="367"/>
-      <c r="E233" s="367"/>
-      <c r="F233" s="367"/>
-      <c r="G233" s="367"/>
+      <c r="C233" s="298"/>
+      <c r="D233" s="298"/>
+      <c r="E233" s="298"/>
+      <c r="F233" s="298"/>
+      <c r="G233" s="298"/>
       <c r="H233" s="2"/>
     </row>
     <row r="234" spans="1:8" ht="15" customHeight="1">
@@ -10297,14 +10297,14 @@
     </row>
     <row r="236" spans="1:8" ht="36" customHeight="1">
       <c r="A236" s="7"/>
-      <c r="B236" s="365" t="s">
+      <c r="B236" s="305" t="s">
         <v>122</v>
       </c>
-      <c r="C236" s="365"/>
-      <c r="D236" s="366"/>
-      <c r="E236" s="366"/>
-      <c r="F236" s="366"/>
-      <c r="G236" s="366"/>
+      <c r="C236" s="305"/>
+      <c r="D236" s="306"/>
+      <c r="E236" s="306"/>
+      <c r="F236" s="306"/>
+      <c r="G236" s="306"/>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="1:8" ht="114.75" customHeight="1">
@@ -10315,15 +10315,15 @@
       <c r="C237" s="133" t="s">
         <v>458</v>
       </c>
-      <c r="D237" s="368" t="s">
+      <c r="D237" s="307" t="s">
         <v>451</v>
       </c>
-      <c r="E237" s="368"/>
-      <c r="F237" s="369" t="str">
+      <c r="E237" s="307"/>
+      <c r="F237" s="308" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
-      </c>
-      <c r="G237" s="370"/>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
+      </c>
+      <c r="G237" s="309"/>
       <c r="H237" s="14"/>
     </row>
     <row r="238" spans="1:8" ht="25.5">
@@ -10334,15 +10334,15 @@
       <c r="C238" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="D238" s="353" t="s">
+      <c r="D238" s="297" t="s">
         <v>125</v>
       </c>
-      <c r="E238" s="353"/>
-      <c r="F238" s="351">
+      <c r="E238" s="297"/>
+      <c r="F238" s="295">
         <f>D238*Лист2!$B$3</f>
         <v>498.46999999999997</v>
       </c>
-      <c r="G238" s="352"/>
+      <c r="G238" s="296"/>
       <c r="H238" s="14"/>
     </row>
     <row r="239" spans="1:8" ht="25.5">
@@ -10353,15 +10353,15 @@
       <c r="C239" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="D239" s="353" t="s">
+      <c r="D239" s="297" t="s">
         <v>127</v>
       </c>
-      <c r="E239" s="353"/>
-      <c r="F239" s="351">
+      <c r="E239" s="297"/>
+      <c r="F239" s="295">
         <f>D239*Лист2!$B$3</f>
         <v>284.83999999999997</v>
       </c>
-      <c r="G239" s="352"/>
+      <c r="G239" s="296"/>
       <c r="H239" s="14"/>
     </row>
     <row r="240" spans="1:8" ht="14.25">
@@ -10372,15 +10372,15 @@
       <c r="C240" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="D240" s="353">
+      <c r="D240" s="297">
         <v>20.2</v>
       </c>
-      <c r="E240" s="353"/>
-      <c r="F240" s="351">
+      <c r="E240" s="297"/>
+      <c r="F240" s="295">
         <f>D240*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="G240" s="352"/>
+      <c r="G240" s="296"/>
       <c r="H240" s="14"/>
     </row>
     <row r="241" spans="1:8" ht="14.25">
@@ -10391,15 +10391,15 @@
       <c r="C241" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="D241" s="353" t="s">
+      <c r="D241" s="297" t="s">
         <v>131</v>
       </c>
-      <c r="E241" s="353"/>
-      <c r="F241" s="351">
+      <c r="E241" s="297"/>
+      <c r="F241" s="295">
         <f>D241*Лист2!$B$3</f>
         <v>512.71199999999999</v>
       </c>
-      <c r="G241" s="352"/>
+      <c r="G241" s="296"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8" ht="25.5">
@@ -10410,15 +10410,15 @@
       <c r="C242" s="208" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="353">
+      <c r="D242" s="297">
         <v>19.600000000000001</v>
       </c>
-      <c r="E242" s="353"/>
-      <c r="F242" s="351">
+      <c r="E242" s="297"/>
+      <c r="F242" s="295">
         <f>D242*Лист2!$B$3</f>
         <v>1395.7159999999999</v>
       </c>
-      <c r="G242" s="352"/>
+      <c r="G242" s="296"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8" ht="38.25">
@@ -10429,15 +10429,15 @@
       <c r="C243" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="D243" s="353" t="s">
+      <c r="D243" s="297" t="s">
         <v>134</v>
       </c>
-      <c r="E243" s="353"/>
-      <c r="F243" s="351">
+      <c r="E243" s="297"/>
+      <c r="F243" s="295">
         <f>D243*Лист2!$B$3</f>
         <v>2848.3999999999996</v>
       </c>
-      <c r="G243" s="352"/>
+      <c r="G243" s="296"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8" ht="14.25">
@@ -10448,15 +10448,15 @@
       <c r="C244" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="D244" s="353">
+      <c r="D244" s="297">
         <v>8</v>
       </c>
-      <c r="E244" s="353"/>
-      <c r="F244" s="351">
+      <c r="E244" s="297"/>
+      <c r="F244" s="295">
         <f>D244*Лист2!$B$3</f>
         <v>569.67999999999995</v>
       </c>
-      <c r="G244" s="352"/>
+      <c r="G244" s="296"/>
       <c r="H244" s="14"/>
     </row>
     <row r="245" spans="1:8" ht="25.5">
@@ -10467,15 +10467,15 @@
       <c r="C245" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="D245" s="353" t="s">
+      <c r="D245" s="297" t="s">
         <v>137</v>
       </c>
-      <c r="E245" s="353"/>
-      <c r="F245" s="351">
+      <c r="E245" s="297"/>
+      <c r="F245" s="295">
         <f>D245*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="G245" s="352"/>
+      <c r="G245" s="296"/>
       <c r="H245" s="14"/>
     </row>
     <row r="246" spans="1:8" ht="25.5">
@@ -10486,15 +10486,15 @@
       <c r="C246" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="D246" s="353" t="s">
+      <c r="D246" s="297" t="s">
         <v>137</v>
       </c>
-      <c r="E246" s="353"/>
-      <c r="F246" s="351">
+      <c r="E246" s="297"/>
+      <c r="F246" s="295">
         <f>D246*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="G246" s="352"/>
+      <c r="G246" s="296"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8" ht="38.25">
@@ -10505,15 +10505,15 @@
       <c r="C247" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="D247" s="353" t="s">
+      <c r="D247" s="297" t="s">
         <v>140</v>
       </c>
-      <c r="E247" s="353"/>
-      <c r="F247" s="351">
+      <c r="E247" s="297"/>
+      <c r="F247" s="295">
         <f>D247*Лист2!$B$3</f>
         <v>11941.916999999998</v>
       </c>
-      <c r="G247" s="352"/>
+      <c r="G247" s="296"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8" ht="51">
@@ -10524,15 +10524,15 @@
       <c r="C248" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="D248" s="353" t="s">
+      <c r="D248" s="297" t="s">
         <v>143</v>
       </c>
-      <c r="E248" s="353"/>
-      <c r="F248" s="351">
+      <c r="E248" s="297"/>
+      <c r="F248" s="295">
         <f>D248*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="G248" s="352"/>
+      <c r="G248" s="296"/>
       <c r="H248" s="14"/>
     </row>
     <row r="249" spans="1:8" ht="51">
@@ -10543,15 +10543,15 @@
       <c r="C249" s="208" t="s">
         <v>142</v>
       </c>
-      <c r="D249" s="353" t="s">
+      <c r="D249" s="297" t="s">
         <v>143</v>
       </c>
-      <c r="E249" s="353"/>
-      <c r="F249" s="351">
+      <c r="E249" s="297"/>
+      <c r="F249" s="295">
         <f>D249*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="G249" s="352"/>
+      <c r="G249" s="296"/>
       <c r="H249" s="14"/>
     </row>
     <row r="250" spans="1:8" ht="38.25">
@@ -10562,15 +10562,15 @@
       <c r="C250" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="D250" s="353" t="s">
+      <c r="D250" s="297" t="s">
         <v>146</v>
       </c>
-      <c r="E250" s="353"/>
-      <c r="F250" s="351">
+      <c r="E250" s="297"/>
+      <c r="F250" s="295">
         <f>D250*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G250" s="352"/>
+      <c r="G250" s="296"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8" ht="38.25">
@@ -10581,15 +10581,15 @@
       <c r="C251" s="208" t="s">
         <v>148</v>
       </c>
-      <c r="D251" s="353">
+      <c r="D251" s="297">
         <v>411.9</v>
       </c>
-      <c r="E251" s="353"/>
-      <c r="F251" s="351">
+      <c r="E251" s="297"/>
+      <c r="F251" s="295">
         <f>D251*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="G251" s="352"/>
+      <c r="G251" s="296"/>
       <c r="H251" s="14"/>
     </row>
     <row r="252" spans="1:8" ht="38.25">
@@ -10600,15 +10600,15 @@
       <c r="C252" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="D252" s="353">
+      <c r="D252" s="297">
         <v>114.4</v>
       </c>
-      <c r="E252" s="353"/>
-      <c r="F252" s="351">
+      <c r="E252" s="297"/>
+      <c r="F252" s="295">
         <f>D252*Лист2!$B$3</f>
         <v>8146.424</v>
       </c>
-      <c r="G252" s="352"/>
+      <c r="G252" s="296"/>
       <c r="H252" s="14"/>
     </row>
     <row r="253" spans="1:8" ht="38.25">
@@ -10619,15 +10619,15 @@
       <c r="C253" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="D253" s="356" t="s">
+      <c r="D253" s="341" t="s">
         <v>151</v>
       </c>
-      <c r="E253" s="356"/>
-      <c r="F253" s="351">
+      <c r="E253" s="341"/>
+      <c r="F253" s="295">
         <f>D253*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="G253" s="352"/>
+      <c r="G253" s="296"/>
       <c r="H253" s="232"/>
     </row>
     <row r="254" spans="1:8" ht="25.5">
@@ -10638,15 +10638,15 @@
       <c r="C254" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="D254" s="356">
+      <c r="D254" s="341">
         <v>741.4</v>
       </c>
-      <c r="E254" s="356"/>
-      <c r="F254" s="351">
+      <c r="E254" s="341"/>
+      <c r="F254" s="295">
         <f>D254*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G254" s="352"/>
+      <c r="G254" s="296"/>
       <c r="H254" s="233"/>
     </row>
     <row r="255" spans="1:8" ht="14.25">
@@ -10657,15 +10657,15 @@
       <c r="C255" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="D255" s="353">
+      <c r="D255" s="297">
         <v>225.5</v>
       </c>
-      <c r="E255" s="353"/>
-      <c r="F255" s="351">
+      <c r="E255" s="297"/>
+      <c r="F255" s="295">
         <f>D255*Лист2!$B$3</f>
         <v>16057.854999999998</v>
       </c>
-      <c r="G255" s="352"/>
+      <c r="G255" s="296"/>
       <c r="H255" s="232"/>
     </row>
     <row r="256" spans="1:8" ht="25.5">
@@ -10676,15 +10676,15 @@
       <c r="C256" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="D256" s="353">
+      <c r="D256" s="297">
         <v>20.2</v>
       </c>
-      <c r="E256" s="353"/>
-      <c r="F256" s="351">
+      <c r="E256" s="297"/>
+      <c r="F256" s="295">
         <f>D256*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="G256" s="352"/>
+      <c r="G256" s="296"/>
       <c r="H256" s="232"/>
     </row>
     <row r="257" spans="1:8" ht="25.5">
@@ -10695,15 +10695,15 @@
       <c r="C257" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="353" t="s">
+      <c r="D257" s="297" t="s">
         <v>129</v>
       </c>
-      <c r="E257" s="353"/>
-      <c r="F257" s="351">
+      <c r="E257" s="297"/>
+      <c r="F257" s="295">
         <f>D257*Лист2!$B$3</f>
         <v>1296.0219999999999</v>
       </c>
-      <c r="G257" s="352"/>
+      <c r="G257" s="296"/>
       <c r="H257" s="232"/>
     </row>
     <row r="258" spans="1:8" ht="25.5">
@@ -10714,25 +10714,25 @@
       <c r="C258" s="208" t="s">
         <v>103</v>
       </c>
-      <c r="D258" s="353">
+      <c r="D258" s="297">
         <v>741.4</v>
       </c>
-      <c r="E258" s="353"/>
-      <c r="F258" s="351">
+      <c r="E258" s="297"/>
+      <c r="F258" s="295">
         <f>D258*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G258" s="352"/>
+      <c r="G258" s="296"/>
       <c r="H258" s="14"/>
     </row>
     <row r="259" spans="1:8" ht="23.25" customHeight="1">
       <c r="A259" s="33"/>
-      <c r="B259" s="367"/>
-      <c r="C259" s="367"/>
-      <c r="D259" s="367"/>
-      <c r="E259" s="367"/>
-      <c r="F259" s="367"/>
-      <c r="G259" s="367"/>
+      <c r="B259" s="298"/>
+      <c r="C259" s="298"/>
+      <c r="D259" s="298"/>
+      <c r="E259" s="298"/>
+      <c r="F259" s="298"/>
+      <c r="G259" s="298"/>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="1:8" ht="23.25" customHeight="1">
@@ -10767,14 +10767,14 @@
     </row>
     <row r="263" spans="1:8" ht="30" customHeight="1">
       <c r="A263" s="34"/>
-      <c r="B263" s="357" t="s">
+      <c r="B263" s="342" t="s">
         <v>212</v>
       </c>
-      <c r="C263" s="357"/>
-      <c r="D263" s="357"/>
-      <c r="E263" s="357"/>
-      <c r="F263" s="358"/>
-      <c r="G263" s="357"/>
+      <c r="C263" s="342"/>
+      <c r="D263" s="342"/>
+      <c r="E263" s="342"/>
+      <c r="F263" s="343"/>
+      <c r="G263" s="342"/>
       <c r="H263" s="2"/>
     </row>
     <row r="264" spans="1:8" ht="102">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="E264" s="235" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
-        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстрой России на IV кв 2024 г.: (71,21) руб.</v>
+        <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
       <c r="F264" s="213" t="s">
         <v>456</v>
@@ -12006,26 +12006,26 @@
     </row>
     <row r="317" spans="1:8" ht="30">
       <c r="A317" s="36"/>
-      <c r="B317" s="371" t="s">
+      <c r="B317" s="345" t="s">
         <v>311</v>
       </c>
-      <c r="C317" s="371"/>
-      <c r="D317" s="371"/>
-      <c r="E317" s="371"/>
-      <c r="F317" s="372"/>
-      <c r="G317" s="371"/>
+      <c r="C317" s="345"/>
+      <c r="D317" s="345"/>
+      <c r="E317" s="345"/>
+      <c r="F317" s="346"/>
+      <c r="G317" s="345"/>
       <c r="H317" s="2"/>
     </row>
     <row r="318" spans="1:8" ht="23.25">
       <c r="A318" s="36"/>
-      <c r="B318" s="354" t="s">
+      <c r="B318" s="339" t="s">
         <v>312</v>
       </c>
-      <c r="C318" s="354"/>
-      <c r="D318" s="354"/>
-      <c r="E318" s="354"/>
-      <c r="F318" s="355"/>
-      <c r="G318" s="354"/>
+      <c r="C318" s="339"/>
+      <c r="D318" s="339"/>
+      <c r="E318" s="339"/>
+      <c r="F318" s="340"/>
+      <c r="G318" s="339"/>
       <c r="H318" s="2"/>
     </row>
     <row r="319" spans="1:8" ht="75">
@@ -12036,11 +12036,11 @@
       <c r="C319" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D319" s="373" t="s">
+      <c r="D319" s="289" t="s">
         <v>262</v>
       </c>
-      <c r="E319" s="374"/>
-      <c r="F319" s="375"/>
+      <c r="E319" s="290"/>
+      <c r="F319" s="291"/>
       <c r="G319" s="276"/>
       <c r="H319" s="2"/>
     </row>
@@ -12052,11 +12052,11 @@
       <c r="C320" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D320" s="373" t="s">
+      <c r="D320" s="289" t="s">
         <v>262</v>
       </c>
-      <c r="E320" s="374"/>
-      <c r="F320" s="375"/>
+      <c r="E320" s="290"/>
+      <c r="F320" s="291"/>
       <c r="G320" s="276"/>
       <c r="H320" s="2"/>
     </row>
@@ -12068,11 +12068,11 @@
       <c r="C321" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D321" s="373" t="s">
+      <c r="D321" s="289" t="s">
         <v>265</v>
       </c>
-      <c r="E321" s="374"/>
-      <c r="F321" s="375"/>
+      <c r="E321" s="290"/>
+      <c r="F321" s="291"/>
       <c r="G321" s="276"/>
       <c r="H321" s="2"/>
     </row>
@@ -12084,11 +12084,11 @@
       <c r="C322" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D322" s="373" t="s">
+      <c r="D322" s="289" t="s">
         <v>267</v>
       </c>
-      <c r="E322" s="374"/>
-      <c r="F322" s="375"/>
+      <c r="E322" s="290"/>
+      <c r="F322" s="291"/>
       <c r="G322" s="276"/>
       <c r="H322" s="2"/>
     </row>
@@ -12100,11 +12100,11 @@
       <c r="C323" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D323" s="373" t="s">
+      <c r="D323" s="289" t="s">
         <v>269</v>
       </c>
-      <c r="E323" s="374"/>
-      <c r="F323" s="375"/>
+      <c r="E323" s="290"/>
+      <c r="F323" s="291"/>
       <c r="G323" s="276"/>
       <c r="H323" s="2"/>
     </row>
@@ -12116,11 +12116,11 @@
       <c r="C324" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D324" s="373" t="s">
+      <c r="D324" s="289" t="s">
         <v>271</v>
       </c>
-      <c r="E324" s="374"/>
-      <c r="F324" s="375"/>
+      <c r="E324" s="290"/>
+      <c r="F324" s="291"/>
       <c r="G324" s="276"/>
       <c r="H324" s="2"/>
     </row>
@@ -12132,11 +12132,11 @@
       <c r="C325" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D325" s="373" t="s">
+      <c r="D325" s="289" t="s">
         <v>273</v>
       </c>
-      <c r="E325" s="374"/>
-      <c r="F325" s="375"/>
+      <c r="E325" s="290"/>
+      <c r="F325" s="291"/>
       <c r="G325" s="276"/>
       <c r="H325" s="2"/>
     </row>
@@ -12148,11 +12148,11 @@
       <c r="C326" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D326" s="373" t="s">
+      <c r="D326" s="289" t="s">
         <v>275</v>
       </c>
-      <c r="E326" s="374"/>
-      <c r="F326" s="375"/>
+      <c r="E326" s="290"/>
+      <c r="F326" s="291"/>
       <c r="G326" s="276"/>
       <c r="H326" s="2"/>
     </row>
@@ -12164,11 +12164,11 @@
       <c r="C327" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D327" s="373" t="s">
+      <c r="D327" s="289" t="s">
         <v>277</v>
       </c>
-      <c r="E327" s="374"/>
-      <c r="F327" s="375"/>
+      <c r="E327" s="290"/>
+      <c r="F327" s="291"/>
       <c r="G327" s="276"/>
       <c r="H327" s="2"/>
     </row>
@@ -12180,11 +12180,11 @@
       <c r="C328" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D328" s="373" t="s">
+      <c r="D328" s="289" t="s">
         <v>411</v>
       </c>
-      <c r="E328" s="374"/>
-      <c r="F328" s="375"/>
+      <c r="E328" s="290"/>
+      <c r="F328" s="291"/>
       <c r="G328" s="276"/>
       <c r="H328" s="2"/>
     </row>
@@ -12196,11 +12196,11 @@
       <c r="C329" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D329" s="373" t="s">
+      <c r="D329" s="289" t="s">
         <v>280</v>
       </c>
-      <c r="E329" s="374"/>
-      <c r="F329" s="375"/>
+      <c r="E329" s="290"/>
+      <c r="F329" s="291"/>
       <c r="G329" s="276"/>
       <c r="H329" s="2"/>
     </row>
@@ -12212,11 +12212,11 @@
       <c r="C330" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D330" s="373" t="s">
+      <c r="D330" s="289" t="s">
         <v>282</v>
       </c>
-      <c r="E330" s="374"/>
-      <c r="F330" s="375"/>
+      <c r="E330" s="290"/>
+      <c r="F330" s="291"/>
       <c r="G330" s="276"/>
       <c r="H330" s="2"/>
     </row>
@@ -12228,11 +12228,11 @@
       <c r="C331" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D331" s="373" t="s">
+      <c r="D331" s="289" t="s">
         <v>409</v>
       </c>
-      <c r="E331" s="374"/>
-      <c r="F331" s="375"/>
+      <c r="E331" s="290"/>
+      <c r="F331" s="291"/>
       <c r="G331" s="276"/>
       <c r="H331" s="2"/>
     </row>
@@ -12244,11 +12244,11 @@
       <c r="C332" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D332" s="373" t="s">
+      <c r="D332" s="289" t="s">
         <v>285</v>
       </c>
-      <c r="E332" s="374"/>
-      <c r="F332" s="375"/>
+      <c r="E332" s="290"/>
+      <c r="F332" s="291"/>
       <c r="G332" s="276"/>
       <c r="H332" s="2"/>
     </row>
@@ -12260,24 +12260,24 @@
       <c r="C333" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D333" s="373" t="s">
+      <c r="D333" s="289" t="s">
         <v>322</v>
       </c>
-      <c r="E333" s="374"/>
-      <c r="F333" s="375"/>
+      <c r="E333" s="290"/>
+      <c r="F333" s="291"/>
       <c r="G333" s="276"/>
       <c r="H333" s="2"/>
     </row>
     <row r="334" spans="1:8" ht="23.25">
       <c r="A334" s="36"/>
-      <c r="B334" s="361" t="s">
+      <c r="B334" s="300" t="s">
         <v>313</v>
       </c>
-      <c r="C334" s="362"/>
-      <c r="D334" s="362"/>
-      <c r="E334" s="362"/>
-      <c r="F334" s="363"/>
-      <c r="G334" s="364"/>
+      <c r="C334" s="301"/>
+      <c r="D334" s="301"/>
+      <c r="E334" s="301"/>
+      <c r="F334" s="302"/>
+      <c r="G334" s="303"/>
       <c r="H334" s="2"/>
     </row>
     <row r="335" spans="1:8" ht="38.25" customHeight="1">
@@ -12288,11 +12288,11 @@
       <c r="C335" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="D335" s="373" t="s">
+      <c r="D335" s="289" t="s">
         <v>296</v>
       </c>
-      <c r="E335" s="374"/>
-      <c r="F335" s="375"/>
+      <c r="E335" s="290"/>
+      <c r="F335" s="291"/>
       <c r="G335" s="276"/>
       <c r="H335" s="2"/>
     </row>
@@ -12304,11 +12304,11 @@
       <c r="C336" s="131" t="s">
         <v>374</v>
       </c>
-      <c r="D336" s="373" t="s">
+      <c r="D336" s="289" t="s">
         <v>296</v>
       </c>
-      <c r="E336" s="374"/>
-      <c r="F336" s="375"/>
+      <c r="E336" s="290"/>
+      <c r="F336" s="291"/>
       <c r="G336" s="276"/>
       <c r="H336" s="2"/>
     </row>
@@ -12320,11 +12320,11 @@
       <c r="C337" s="131" t="s">
         <v>335</v>
       </c>
-      <c r="D337" s="373" t="s">
+      <c r="D337" s="289" t="s">
         <v>287</v>
       </c>
-      <c r="E337" s="374"/>
-      <c r="F337" s="375"/>
+      <c r="E337" s="290"/>
+      <c r="F337" s="291"/>
       <c r="G337" s="276"/>
       <c r="H337" s="2"/>
     </row>
@@ -12336,11 +12336,11 @@
       <c r="C338" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D338" s="373" t="s">
+      <c r="D338" s="289" t="s">
         <v>289</v>
       </c>
-      <c r="E338" s="374"/>
-      <c r="F338" s="375"/>
+      <c r="E338" s="290"/>
+      <c r="F338" s="291"/>
       <c r="G338" s="276"/>
       <c r="H338" s="2"/>
     </row>
@@ -12352,11 +12352,11 @@
       <c r="C339" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D339" s="373" t="s">
+      <c r="D339" s="289" t="s">
         <v>291</v>
       </c>
-      <c r="E339" s="374"/>
-      <c r="F339" s="375"/>
+      <c r="E339" s="290"/>
+      <c r="F339" s="291"/>
       <c r="G339" s="276"/>
       <c r="H339" s="2"/>
     </row>
@@ -12368,11 +12368,11 @@
       <c r="C340" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D340" s="373" t="s">
+      <c r="D340" s="289" t="s">
         <v>293</v>
       </c>
-      <c r="E340" s="374"/>
-      <c r="F340" s="375"/>
+      <c r="E340" s="290"/>
+      <c r="F340" s="291"/>
       <c r="G340" s="276"/>
       <c r="H340" s="2"/>
     </row>
@@ -12384,11 +12384,11 @@
       <c r="C341" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D341" s="373" t="s">
+      <c r="D341" s="289" t="s">
         <v>294</v>
       </c>
-      <c r="E341" s="374"/>
-      <c r="F341" s="375"/>
+      <c r="E341" s="290"/>
+      <c r="F341" s="291"/>
       <c r="G341" s="276"/>
       <c r="H341" s="2"/>
     </row>
@@ -12400,11 +12400,11 @@
       <c r="C342" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D342" s="373" t="s">
+      <c r="D342" s="289" t="s">
         <v>296</v>
       </c>
-      <c r="E342" s="374"/>
-      <c r="F342" s="375"/>
+      <c r="E342" s="290"/>
+      <c r="F342" s="291"/>
       <c r="G342" s="276"/>
       <c r="H342" s="2"/>
     </row>
@@ -12416,11 +12416,11 @@
       <c r="C343" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D343" s="373" t="s">
+      <c r="D343" s="289" t="s">
         <v>296</v>
       </c>
-      <c r="E343" s="374"/>
-      <c r="F343" s="375"/>
+      <c r="E343" s="290"/>
+      <c r="F343" s="291"/>
       <c r="G343" s="276"/>
       <c r="H343" s="2"/>
     </row>
@@ -12432,11 +12432,11 @@
       <c r="C344" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D344" s="373" t="s">
+      <c r="D344" s="289" t="s">
         <v>294</v>
       </c>
-      <c r="E344" s="374"/>
-      <c r="F344" s="375"/>
+      <c r="E344" s="290"/>
+      <c r="F344" s="291"/>
       <c r="G344" s="276"/>
       <c r="H344" s="2"/>
     </row>
@@ -12448,11 +12448,11 @@
       <c r="C345" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D345" s="373" t="s">
+      <c r="D345" s="289" t="s">
         <v>294</v>
       </c>
-      <c r="E345" s="374"/>
-      <c r="F345" s="375"/>
+      <c r="E345" s="290"/>
+      <c r="F345" s="291"/>
       <c r="G345" s="276"/>
       <c r="H345" s="2"/>
     </row>
@@ -12464,11 +12464,11 @@
       <c r="C346" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D346" s="373" t="s">
+      <c r="D346" s="289" t="s">
         <v>300</v>
       </c>
-      <c r="E346" s="374"/>
-      <c r="F346" s="375"/>
+      <c r="E346" s="290"/>
+      <c r="F346" s="291"/>
       <c r="G346" s="276"/>
       <c r="H346" s="2"/>
     </row>
@@ -12480,11 +12480,11 @@
       <c r="C347" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D347" s="373" t="s">
+      <c r="D347" s="289" t="s">
         <v>294</v>
       </c>
-      <c r="E347" s="374"/>
-      <c r="F347" s="375"/>
+      <c r="E347" s="290"/>
+      <c r="F347" s="291"/>
       <c r="G347" s="276"/>
       <c r="H347" s="2"/>
     </row>
@@ -12496,11 +12496,11 @@
       <c r="C348" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D348" s="373" t="s">
+      <c r="D348" s="289" t="s">
         <v>302</v>
       </c>
-      <c r="E348" s="374"/>
-      <c r="F348" s="375"/>
+      <c r="E348" s="290"/>
+      <c r="F348" s="291"/>
       <c r="G348" s="277"/>
       <c r="H348" s="2"/>
     </row>
@@ -12512,11 +12512,11 @@
       <c r="C349" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D349" s="373" t="s">
+      <c r="D349" s="289" t="s">
         <v>304</v>
       </c>
-      <c r="E349" s="374"/>
-      <c r="F349" s="375"/>
+      <c r="E349" s="290"/>
+      <c r="F349" s="291"/>
       <c r="G349" s="277"/>
       <c r="H349" s="2"/>
     </row>
@@ -12528,11 +12528,11 @@
       <c r="C350" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D350" s="373" t="s">
+      <c r="D350" s="289" t="s">
         <v>296</v>
       </c>
-      <c r="E350" s="374"/>
-      <c r="F350" s="375"/>
+      <c r="E350" s="290"/>
+      <c r="F350" s="291"/>
       <c r="G350" s="277"/>
       <c r="H350" s="2"/>
     </row>
@@ -12544,11 +12544,11 @@
       <c r="C351" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D351" s="373" t="s">
+      <c r="D351" s="289" t="s">
         <v>302</v>
       </c>
-      <c r="E351" s="374"/>
-      <c r="F351" s="375"/>
+      <c r="E351" s="290"/>
+      <c r="F351" s="291"/>
       <c r="G351" s="277"/>
       <c r="H351" s="2"/>
     </row>
@@ -12560,11 +12560,11 @@
       <c r="C352" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D352" s="373" t="s">
+      <c r="D352" s="289" t="s">
         <v>307</v>
       </c>
-      <c r="E352" s="374"/>
-      <c r="F352" s="375"/>
+      <c r="E352" s="290"/>
+      <c r="F352" s="291"/>
       <c r="G352" s="276"/>
       <c r="H352" s="2"/>
     </row>
@@ -12576,11 +12576,11 @@
       <c r="C353" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D353" s="373" t="s">
+      <c r="D353" s="289" t="s">
         <v>302</v>
       </c>
-      <c r="E353" s="374"/>
-      <c r="F353" s="375"/>
+      <c r="E353" s="290"/>
+      <c r="F353" s="291"/>
       <c r="G353" s="277"/>
       <c r="H353" s="2"/>
     </row>
@@ -12592,11 +12592,11 @@
       <c r="C354" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D354" s="373" t="s">
+      <c r="D354" s="289" t="s">
         <v>302</v>
       </c>
-      <c r="E354" s="374"/>
-      <c r="F354" s="375"/>
+      <c r="E354" s="290"/>
+      <c r="F354" s="291"/>
       <c r="G354" s="277"/>
       <c r="H354" s="2"/>
     </row>
@@ -12608,24 +12608,24 @@
       <c r="C355" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D355" s="373" t="s">
+      <c r="D355" s="289" t="s">
         <v>410</v>
       </c>
-      <c r="E355" s="374"/>
-      <c r="F355" s="375"/>
+      <c r="E355" s="290"/>
+      <c r="F355" s="291"/>
       <c r="G355" s="276"/>
       <c r="H355" s="2"/>
     </row>
     <row r="356" spans="1:8" ht="23.25">
       <c r="A356" s="36"/>
-      <c r="B356" s="342" t="s">
+      <c r="B356" s="330" t="s">
         <v>332</v>
       </c>
-      <c r="C356" s="343"/>
-      <c r="D356" s="343"/>
-      <c r="E356" s="343"/>
-      <c r="F356" s="344"/>
-      <c r="G356" s="345"/>
+      <c r="C356" s="331"/>
+      <c r="D356" s="331"/>
+      <c r="E356" s="331"/>
+      <c r="F356" s="332"/>
+      <c r="G356" s="333"/>
       <c r="H356" s="2"/>
     </row>
     <row r="357" spans="1:8" ht="15.75" customHeight="1">
@@ -12636,11 +12636,11 @@
       <c r="C357" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D357" s="373" t="s">
+      <c r="D357" s="289" t="s">
         <v>336</v>
       </c>
-      <c r="E357" s="374"/>
-      <c r="F357" s="375"/>
+      <c r="E357" s="290"/>
+      <c r="F357" s="291"/>
       <c r="G357" s="276"/>
       <c r="H357" s="2"/>
     </row>
@@ -12652,11 +12652,11 @@
       <c r="C358" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D358" s="373" t="s">
+      <c r="D358" s="289" t="s">
         <v>336</v>
       </c>
-      <c r="E358" s="374"/>
-      <c r="F358" s="375"/>
+      <c r="E358" s="290"/>
+      <c r="F358" s="291"/>
       <c r="G358" s="276"/>
       <c r="H358" s="2"/>
     </row>
@@ -12668,24 +12668,24 @@
       <c r="C359" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="D359" s="384" t="s">
+      <c r="D359" s="292" t="s">
         <v>336</v>
       </c>
-      <c r="E359" s="385"/>
-      <c r="F359" s="386"/>
+      <c r="E359" s="293"/>
+      <c r="F359" s="294"/>
       <c r="G359" s="276"/>
       <c r="H359" s="2"/>
     </row>
     <row r="360" spans="1:8" ht="26.25">
       <c r="A360" s="36"/>
-      <c r="B360" s="359" t="s">
+      <c r="B360" s="344" t="s">
         <v>213</v>
       </c>
-      <c r="C360" s="359"/>
-      <c r="D360" s="359"/>
-      <c r="E360" s="359"/>
-      <c r="F360" s="359"/>
-      <c r="G360" s="359"/>
+      <c r="C360" s="344"/>
+      <c r="D360" s="344"/>
+      <c r="E360" s="344"/>
+      <c r="F360" s="344"/>
+      <c r="G360" s="344"/>
       <c r="H360" s="2"/>
     </row>
     <row r="361" spans="1:8" ht="15.75">
@@ -12700,14 +12700,14 @@
     </row>
     <row r="362" spans="1:8" ht="14.25">
       <c r="A362" s="36"/>
-      <c r="B362" s="346" t="s">
+      <c r="B362" s="334" t="s">
         <v>413</v>
       </c>
-      <c r="C362" s="346"/>
-      <c r="D362" s="346"/>
-      <c r="E362" s="346"/>
-      <c r="F362" s="346"/>
-      <c r="G362" s="346"/>
+      <c r="C362" s="334"/>
+      <c r="D362" s="334"/>
+      <c r="E362" s="334"/>
+      <c r="F362" s="334"/>
+      <c r="G362" s="334"/>
       <c r="H362" s="2"/>
     </row>
     <row r="363" spans="1:8" ht="15.75">
@@ -12722,26 +12722,26 @@
     </row>
     <row r="364" spans="1:8" ht="14.25" customHeight="1">
       <c r="A364" s="36"/>
-      <c r="B364" s="349" t="s">
+      <c r="B364" s="337" t="s">
         <v>441</v>
       </c>
-      <c r="C364" s="350"/>
-      <c r="D364" s="350"/>
-      <c r="E364" s="350"/>
-      <c r="F364" s="350"/>
-      <c r="G364" s="350"/>
+      <c r="C364" s="338"/>
+      <c r="D364" s="338"/>
+      <c r="E364" s="338"/>
+      <c r="F364" s="338"/>
+      <c r="G364" s="338"/>
       <c r="H364" s="2"/>
     </row>
     <row r="365" spans="1:8" ht="33" customHeight="1">
       <c r="A365" s="36"/>
-      <c r="B365" s="349" t="s">
+      <c r="B365" s="337" t="s">
         <v>442</v>
       </c>
-      <c r="C365" s="350"/>
-      <c r="D365" s="350"/>
-      <c r="E365" s="350"/>
-      <c r="F365" s="350"/>
-      <c r="G365" s="350"/>
+      <c r="C365" s="338"/>
+      <c r="D365" s="338"/>
+      <c r="E365" s="338"/>
+      <c r="F365" s="338"/>
+      <c r="G365" s="338"/>
       <c r="H365" s="2"/>
     </row>
     <row r="366" spans="1:8" ht="15.75">
@@ -12756,12 +12756,12 @@
     </row>
     <row r="367" spans="1:8" ht="14.25">
       <c r="A367" s="36"/>
-      <c r="B367" s="341"/>
-      <c r="C367" s="341"/>
-      <c r="D367" s="341"/>
-      <c r="E367" s="341"/>
-      <c r="F367" s="341"/>
-      <c r="G367" s="341"/>
+      <c r="B367" s="329"/>
+      <c r="C367" s="329"/>
+      <c r="D367" s="329"/>
+      <c r="E367" s="329"/>
+      <c r="F367" s="329"/>
+      <c r="G367" s="329"/>
       <c r="H367" s="2"/>
     </row>
     <row r="368" spans="1:8" ht="14.25">
@@ -12776,36 +12776,36 @@
     </row>
     <row r="369" spans="1:8" ht="16.5" customHeight="1">
       <c r="A369" s="37"/>
-      <c r="B369" s="337"/>
-      <c r="C369" s="337"/>
-      <c r="D369" s="337"/>
-      <c r="E369" s="337"/>
-      <c r="F369" s="337"/>
-      <c r="G369" s="337"/>
+      <c r="B369" s="325"/>
+      <c r="C369" s="325"/>
+      <c r="D369" s="325"/>
+      <c r="E369" s="325"/>
+      <c r="F369" s="325"/>
+      <c r="G369" s="325"/>
       <c r="H369" s="2"/>
     </row>
     <row r="370" spans="1:8" ht="32.25" customHeight="1">
       <c r="A370" s="38"/>
-      <c r="B370" s="338" t="s">
+      <c r="B370" s="326" t="s">
         <v>214</v>
       </c>
-      <c r="C370" s="339"/>
-      <c r="D370" s="339"/>
-      <c r="E370" s="339"/>
-      <c r="F370" s="339"/>
-      <c r="G370" s="340"/>
+      <c r="C370" s="327"/>
+      <c r="D370" s="327"/>
+      <c r="E370" s="327"/>
+      <c r="F370" s="327"/>
+      <c r="G370" s="328"/>
       <c r="H370" s="2"/>
     </row>
     <row r="371" spans="1:8" ht="32.25" customHeight="1">
       <c r="A371" s="38"/>
-      <c r="B371" s="347" t="s">
+      <c r="B371" s="335" t="s">
         <v>159</v>
       </c>
-      <c r="C371" s="348"/>
-      <c r="D371" s="348"/>
-      <c r="E371" s="348"/>
-      <c r="F371" s="348"/>
-      <c r="G371" s="348"/>
+      <c r="C371" s="336"/>
+      <c r="D371" s="336"/>
+      <c r="E371" s="336"/>
+      <c r="F371" s="336"/>
+      <c r="G371" s="336"/>
       <c r="H371" s="2"/>
     </row>
     <row r="372" spans="1:8" ht="15.6" customHeight="1">
@@ -12862,16 +12862,140 @@
     </row>
     <row r="377" spans="1:8" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
-      <c r="B377" s="336"/>
-      <c r="C377" s="336"/>
-      <c r="D377" s="336"/>
-      <c r="E377" s="336"/>
-      <c r="F377" s="336"/>
-      <c r="G377" s="336"/>
+      <c r="B377" s="324"/>
+      <c r="C377" s="324"/>
+      <c r="D377" s="324"/>
+      <c r="E377" s="324"/>
+      <c r="F377" s="324"/>
+      <c r="G377" s="324"/>
       <c r="H377" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="B318:G318"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="B263:G263"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="B360:G360"/>
+    <mergeCell ref="B317:G317"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B377:G377"/>
+    <mergeCell ref="B369:G369"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B367:G367"/>
+    <mergeCell ref="B356:G356"/>
+    <mergeCell ref="B362:G362"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B365:G365"/>
+    <mergeCell ref="B364:G364"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="B148:G149"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B136:G137"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B152:G153"/>
+    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="B214:G214"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="B259:G259"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D327:F327"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="B334:G334"/>
     <mergeCell ref="F124:G124"/>
     <mergeCell ref="F125:G125"/>
     <mergeCell ref="F200:G200"/>
@@ -12896,130 +13020,6 @@
     <mergeCell ref="D339:F339"/>
     <mergeCell ref="D340:F340"/>
     <mergeCell ref="D341:F341"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D327:F327"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="F254:G254"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="F256:G256"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="B334:G334"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="B236:G236"/>
-    <mergeCell ref="B233:G233"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="B148:G149"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B136:G137"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="B377:G377"/>
-    <mergeCell ref="B369:G369"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B367:G367"/>
-    <mergeCell ref="B356:G356"/>
-    <mergeCell ref="B362:G362"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B365:G365"/>
-    <mergeCell ref="B364:G364"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="B318:G318"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="B360:G360"/>
-    <mergeCell ref="B317:G317"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13032,7 +13032,7 @@
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75"/>

--- a/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
+++ b/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="464">
   <si>
     <t>ПРАЙС-ЛИСТ</t>
   </si>
@@ -1302,10 +1302,6 @@
   </si>
   <si>
     <t>Определение параметров виброползучести грунтов методом циклических трехосных сжатий (песчаные грунты)</t>
-  </si>
-  <si>
-    <t>Цена с повыш. коэфф., 1,2
- руб.</t>
   </si>
   <si>
     <t>Скальные грунты</t>
@@ -2885,7 +2881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -4053,13 +4049,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4430,9 +4472,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4851,47 +4890,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4902,83 +4905,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5019,119 +5064,56 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5151,16 +5133,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5545,8 +5590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I377"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E267" sqref="E267"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5556,74 +5601,74 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625"/>
-    <col min="6" max="6" width="16" style="244" customWidth="1"/>
+    <col min="6" max="6" width="16" style="243" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
+      <c r="E1" s="368"/>
+      <c r="F1" s="368"/>
+      <c r="G1" s="368"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="347" t="s">
+      <c r="B2" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="348" t="s">
+      <c r="B3" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="348"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="348"/>
-      <c r="F3" s="348"/>
-      <c r="G3" s="348"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="349" t="s">
-        <v>450</v>
-      </c>
-      <c r="C4" s="349"/>
-      <c r="D4" s="349"/>
-      <c r="E4" s="349"/>
-      <c r="F4" s="349"/>
-      <c r="G4" s="349"/>
+      <c r="B4" s="295" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="350" t="s">
-        <v>463</v>
-      </c>
-      <c r="C5" s="350"/>
-      <c r="D5" s="350"/>
-      <c r="E5" s="350"/>
-      <c r="F5" s="350"/>
-      <c r="G5" s="350"/>
+      <c r="B5" s="296" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="351" t="s">
+      <c r="B6" s="298" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="351"/>
-      <c r="D6" s="351"/>
-      <c r="E6" s="351"/>
-      <c r="F6" s="351"/>
-      <c r="G6" s="351"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="11.25" customHeight="1">
@@ -5638,1056 +5683,1056 @@
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="304" t="s">
+      <c r="B8" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="304"/>
-      <c r="F8" s="304"/>
-      <c r="G8" s="304"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="352" t="s">
+      <c r="B9" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="352"/>
-      <c r="D9" s="352"/>
-      <c r="E9" s="352"/>
-      <c r="F9" s="352"/>
-      <c r="G9" s="352"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="300"/>
+      <c r="F9" s="300"/>
+      <c r="G9" s="300"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="102">
       <c r="A10" s="8"/>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D10" s="240" t="s">
-        <v>451</v>
-      </c>
-      <c r="E10" s="133" t="str">
+      <c r="C10" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="239" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F10" s="213" t="s">
-        <v>456</v>
-      </c>
-      <c r="G10" s="133" t="s">
-        <v>452</v>
+      <c r="F10" s="212" t="s">
+        <v>455</v>
+      </c>
+      <c r="G10" s="132" t="s">
+        <v>451</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="134">
+      <c r="B11" s="133">
         <v>1</v>
       </c>
-      <c r="C11" s="135">
+      <c r="C11" s="134">
         <v>2</v>
       </c>
-      <c r="D11" s="135">
+      <c r="D11" s="134">
         <v>3</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="134">
         <v>4</v>
       </c>
-      <c r="F11" s="246">
+      <c r="F11" s="245">
         <v>5</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="134">
         <v>7</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="14.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="138">
+      <c r="D12" s="137">
         <v>5.7</v>
       </c>
-      <c r="E12" s="139">
+      <c r="E12" s="138">
         <f>D12*Лист2!$B$3</f>
         <v>405.89699999999999</v>
       </c>
-      <c r="F12" s="261">
+      <c r="F12" s="260">
         <v>55</v>
       </c>
-      <c r="G12" s="139">
+      <c r="G12" s="138">
         <f>E12-E12*F12/100</f>
         <v>182.65365</v>
       </c>
-      <c r="H12" s="214"/>
+      <c r="H12" s="213"/>
     </row>
     <row r="13" spans="1:8" ht="14.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="137">
         <v>4</v>
       </c>
-      <c r="E13" s="139">
+      <c r="E13" s="138">
         <f>D13*Лист2!$B$3</f>
         <v>284.83999999999997</v>
       </c>
-      <c r="F13" s="261">
+      <c r="F13" s="260">
         <v>55</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="138">
         <f t="shared" ref="G13:G65" si="0">E13-E13*F13/100</f>
         <v>128.178</v>
       </c>
-      <c r="H13" s="214"/>
+      <c r="H13" s="213"/>
     </row>
     <row r="14" spans="1:8" ht="14.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="138">
+      <c r="D14" s="137">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E14" s="139">
+      <c r="E14" s="138">
         <f>D14*Лист2!$B$3</f>
         <v>690.73699999999985</v>
       </c>
-      <c r="F14" s="261">
+      <c r="F14" s="260">
         <v>55</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="138">
         <f t="shared" si="0"/>
         <v>310.83164999999997</v>
       </c>
-      <c r="H14" s="214"/>
+      <c r="H14" s="213"/>
     </row>
     <row r="15" spans="1:8" ht="14.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="137">
         <v>7.2</v>
       </c>
-      <c r="E15" s="139">
+      <c r="E15" s="138">
         <f>D15*Лист2!$B$3</f>
         <v>512.71199999999999</v>
       </c>
-      <c r="F15" s="261">
+      <c r="F15" s="260">
         <v>55</v>
       </c>
-      <c r="G15" s="139">
+      <c r="G15" s="138">
         <f t="shared" si="0"/>
         <v>230.72039999999998</v>
       </c>
-      <c r="H15" s="214"/>
+      <c r="H15" s="213"/>
     </row>
     <row r="16" spans="1:8" ht="14.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="138">
+      <c r="D16" s="137">
         <v>18.2</v>
       </c>
-      <c r="E16" s="139">
+      <c r="E16" s="138">
         <f>D16*Лист2!$B$3</f>
         <v>1296.0219999999999</v>
       </c>
-      <c r="F16" s="261">
+      <c r="F16" s="260">
         <v>55</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="138">
         <f t="shared" si="0"/>
         <v>583.20990000000006</v>
       </c>
-      <c r="H16" s="214"/>
+      <c r="H16" s="213"/>
     </row>
     <row r="17" spans="1:8" ht="14.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="138">
+      <c r="D17" s="137">
         <v>20.2</v>
       </c>
-      <c r="E17" s="139">
+      <c r="E17" s="138">
         <f>D17*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="F17" s="261">
+      <c r="F17" s="260">
         <v>55</v>
       </c>
-      <c r="G17" s="139">
+      <c r="G17" s="138">
         <f t="shared" si="0"/>
         <v>647.2989</v>
       </c>
-      <c r="H17" s="214"/>
+      <c r="H17" s="213"/>
     </row>
     <row r="18" spans="1:8" ht="25.5">
       <c r="A18" s="15"/>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="C18" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="137">
         <v>19.600000000000001</v>
       </c>
-      <c r="E18" s="139">
+      <c r="E18" s="138">
         <f>D18*Лист2!$B$3</f>
         <v>1395.7159999999999</v>
       </c>
-      <c r="F18" s="261">
+      <c r="F18" s="260">
         <v>55</v>
       </c>
-      <c r="G18" s="139">
+      <c r="G18" s="138">
         <f t="shared" si="0"/>
         <v>628.07219999999995</v>
       </c>
-      <c r="H18" s="214"/>
+      <c r="H18" s="213"/>
     </row>
     <row r="19" spans="1:8" ht="25.5">
       <c r="A19" s="15"/>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="137">
         <v>13.7</v>
       </c>
-      <c r="E19" s="139">
+      <c r="E19" s="138">
         <f>D19*Лист2!$B$3</f>
         <v>975.57699999999988</v>
       </c>
-      <c r="F19" s="261">
+      <c r="F19" s="260">
         <v>55</v>
       </c>
-      <c r="G19" s="139">
+      <c r="G19" s="138">
         <f t="shared" si="0"/>
         <v>439.00964999999997</v>
       </c>
-      <c r="H19" s="214"/>
+      <c r="H19" s="213"/>
     </row>
     <row r="20" spans="1:8" ht="14.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="138">
+      <c r="D20" s="137">
         <v>7.1</v>
       </c>
-      <c r="E20" s="139">
+      <c r="E20" s="138">
         <f>D20*Лист2!$B$3</f>
         <v>505.59099999999995</v>
       </c>
-      <c r="F20" s="261">
+      <c r="F20" s="260">
         <v>55</v>
       </c>
-      <c r="G20" s="139">
+      <c r="G20" s="138">
         <f t="shared" si="0"/>
         <v>227.51594999999998</v>
       </c>
-      <c r="H20" s="214"/>
+      <c r="H20" s="213"/>
     </row>
     <row r="21" spans="1:8" ht="14.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="138">
+      <c r="D21" s="137">
         <v>5</v>
       </c>
-      <c r="E21" s="139">
+      <c r="E21" s="138">
         <f>D21*Лист2!$B$3</f>
         <v>356.04999999999995</v>
       </c>
-      <c r="F21" s="261">
+      <c r="F21" s="260">
         <v>55</v>
       </c>
-      <c r="G21" s="139">
+      <c r="G21" s="138">
         <f t="shared" si="0"/>
         <v>160.2225</v>
       </c>
-      <c r="H21" s="214"/>
+      <c r="H21" s="213"/>
     </row>
     <row r="22" spans="1:8" ht="38.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="C22" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="138">
+      <c r="D22" s="137">
         <v>47.1</v>
       </c>
-      <c r="E22" s="139">
+      <c r="E22" s="138">
         <f>D22*Лист2!$B$3</f>
         <v>3353.991</v>
       </c>
-      <c r="F22" s="261">
+      <c r="F22" s="260">
         <v>55</v>
       </c>
-      <c r="G22" s="139">
+      <c r="G22" s="138">
         <f t="shared" si="0"/>
         <v>1509.2959499999999</v>
       </c>
-      <c r="H22" s="214"/>
+      <c r="H22" s="213"/>
     </row>
     <row r="23" spans="1:8" ht="25.5">
       <c r="A23" s="15"/>
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="137" t="s">
+      <c r="C23" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="138">
+      <c r="D23" s="137">
         <v>68.099999999999994</v>
       </c>
-      <c r="E23" s="139">
+      <c r="E23" s="138">
         <f>D23*Лист2!$B$3</f>
         <v>4849.4009999999989</v>
       </c>
-      <c r="F23" s="261">
+      <c r="F23" s="260">
         <v>55</v>
       </c>
-      <c r="G23" s="139">
+      <c r="G23" s="138">
         <f t="shared" si="0"/>
         <v>2182.2304499999996</v>
       </c>
-      <c r="H23" s="214"/>
+      <c r="H23" s="213"/>
     </row>
     <row r="24" spans="1:8" ht="14.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="C24" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="138">
+      <c r="D24" s="137">
         <v>16.3</v>
       </c>
-      <c r="E24" s="139">
+      <c r="E24" s="138">
         <f>D24*Лист2!$B$3</f>
         <v>1160.723</v>
       </c>
-      <c r="F24" s="261">
+      <c r="F24" s="260">
         <v>55</v>
       </c>
-      <c r="G24" s="139">
+      <c r="G24" s="138">
         <f t="shared" si="0"/>
         <v>522.32534999999996</v>
       </c>
-      <c r="H24" s="214"/>
-    </row>
-    <row r="25" spans="1:8" s="178" customFormat="1" ht="14.25">
+      <c r="H24" s="213"/>
+    </row>
+    <row r="25" spans="1:8" s="177" customFormat="1" ht="14.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="135" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="179" t="s">
         <v>424</v>
       </c>
-      <c r="C25" s="180" t="s">
-        <v>425</v>
-      </c>
-      <c r="D25" s="181">
+      <c r="D25" s="180">
         <v>18.2</v>
       </c>
-      <c r="E25" s="139">
+      <c r="E25" s="138">
         <f>D25*Лист2!$B$3</f>
         <v>1296.0219999999999</v>
       </c>
-      <c r="F25" s="261">
+      <c r="F25" s="260">
         <v>55</v>
       </c>
-      <c r="G25" s="139">
+      <c r="G25" s="138">
         <f t="shared" si="0"/>
         <v>583.20990000000006</v>
       </c>
-      <c r="H25" s="214"/>
+      <c r="H25" s="213"/>
     </row>
     <row r="26" spans="1:8" ht="14.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="138">
+      <c r="D26" s="137">
         <v>13.5</v>
       </c>
-      <c r="E26" s="139">
+      <c r="E26" s="138">
         <f>D26*Лист2!$B$3</f>
         <v>961.33499999999992</v>
       </c>
-      <c r="F26" s="261">
+      <c r="F26" s="260">
         <v>55</v>
       </c>
-      <c r="G26" s="139">
+      <c r="G26" s="138">
         <f t="shared" si="0"/>
         <v>432.60074999999995</v>
       </c>
-      <c r="H26" s="214"/>
+      <c r="H26" s="213"/>
     </row>
     <row r="27" spans="1:8" ht="38.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="C27" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="138">
+      <c r="D27" s="137">
         <v>135</v>
       </c>
-      <c r="E27" s="139">
+      <c r="E27" s="138">
         <f>D27*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="F27" s="261">
+      <c r="F27" s="260">
         <v>55</v>
       </c>
-      <c r="G27" s="139">
+      <c r="G27" s="138">
         <f t="shared" si="0"/>
         <v>4326.0074999999997</v>
       </c>
-      <c r="H27" s="214"/>
+      <c r="H27" s="213"/>
     </row>
     <row r="28" spans="1:8" ht="14.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="138">
+      <c r="D28" s="137">
         <v>225.5</v>
       </c>
-      <c r="E28" s="139">
+      <c r="E28" s="138">
         <f>D28*Лист2!$B$3</f>
         <v>16057.854999999998</v>
       </c>
-      <c r="F28" s="261">
+      <c r="F28" s="260">
         <v>55</v>
       </c>
-      <c r="G28" s="139">
+      <c r="G28" s="138">
         <f t="shared" si="0"/>
         <v>7226.0347499999989</v>
       </c>
-      <c r="H28" s="214"/>
+      <c r="H28" s="213"/>
     </row>
     <row r="29" spans="1:8" ht="38.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="138">
+      <c r="D29" s="137">
         <v>114.4</v>
       </c>
-      <c r="E29" s="139">
+      <c r="E29" s="138">
         <f>D29*Лист2!$B$3</f>
         <v>8146.424</v>
       </c>
-      <c r="F29" s="261">
+      <c r="F29" s="260">
         <v>55</v>
       </c>
-      <c r="G29" s="139">
+      <c r="G29" s="138">
         <f t="shared" si="0"/>
         <v>3665.8908000000001</v>
       </c>
-      <c r="H29" s="214"/>
+      <c r="H29" s="213"/>
     </row>
     <row r="30" spans="1:8" ht="51">
       <c r="A30" s="15"/>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="138">
+      <c r="D30" s="137">
         <v>154.80000000000001</v>
       </c>
-      <c r="E30" s="139">
+      <c r="E30" s="138">
         <f>D30*Лист2!$B$3</f>
         <v>11023.307999999999</v>
       </c>
-      <c r="F30" s="261">
+      <c r="F30" s="260">
         <v>55</v>
       </c>
-      <c r="G30" s="139">
+      <c r="G30" s="138">
         <f t="shared" si="0"/>
         <v>4960.4885999999997</v>
       </c>
-      <c r="H30" s="214"/>
+      <c r="H30" s="213"/>
     </row>
     <row r="31" spans="1:8" ht="14.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="138">
+      <c r="D31" s="137">
         <v>264.7</v>
       </c>
-      <c r="E31" s="139">
+      <c r="E31" s="138">
         <f>D31*Лист2!$B$3</f>
         <v>18849.286999999997</v>
       </c>
-      <c r="F31" s="261">
+      <c r="F31" s="260">
         <v>55</v>
       </c>
-      <c r="G31" s="139">
+      <c r="G31" s="138">
         <f t="shared" si="0"/>
         <v>8482.1791499999981</v>
       </c>
-      <c r="H31" s="214"/>
+      <c r="H31" s="213"/>
     </row>
     <row r="32" spans="1:8" ht="51">
       <c r="A32" s="15"/>
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="137" t="s">
+      <c r="C32" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="138">
+      <c r="D32" s="137">
         <v>134.4</v>
       </c>
-      <c r="E32" s="139">
+      <c r="E32" s="138">
         <f>D32*Лист2!$B$3</f>
         <v>9570.6239999999998</v>
       </c>
-      <c r="F32" s="261">
+      <c r="F32" s="260">
         <v>55</v>
       </c>
-      <c r="G32" s="139">
+      <c r="G32" s="138">
         <f t="shared" si="0"/>
         <v>4306.7808000000005</v>
       </c>
-      <c r="H32" s="214"/>
+      <c r="H32" s="213"/>
     </row>
     <row r="33" spans="1:8" ht="51">
       <c r="A33" s="15"/>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="137" t="s">
+      <c r="C33" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="138">
+      <c r="D33" s="137">
         <v>101.9</v>
       </c>
-      <c r="E33" s="139">
+      <c r="E33" s="138">
         <f>D33*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="F33" s="261">
+      <c r="F33" s="260">
         <v>55</v>
       </c>
-      <c r="G33" s="139">
+      <c r="G33" s="138">
         <f t="shared" si="0"/>
         <v>3265.33455</v>
       </c>
-      <c r="H33" s="214"/>
+      <c r="H33" s="213"/>
     </row>
     <row r="34" spans="1:8" ht="14.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="136" t="s">
+      <c r="B34" s="135" t="s">
         <v>251</v>
       </c>
-      <c r="C34" s="137" t="s">
+      <c r="C34" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="138">
+      <c r="D34" s="137">
         <v>147.5</v>
       </c>
-      <c r="E34" s="139">
+      <c r="E34" s="138">
         <f>D34*Лист2!$B$3</f>
         <v>10503.474999999999</v>
       </c>
-      <c r="F34" s="261">
+      <c r="F34" s="260">
         <v>55</v>
       </c>
-      <c r="G34" s="139">
+      <c r="G34" s="138">
         <f t="shared" si="0"/>
         <v>4726.5637499999993</v>
       </c>
-      <c r="H34" s="214"/>
+      <c r="H34" s="213"/>
     </row>
     <row r="35" spans="1:8" ht="25.5">
       <c r="A35" s="15"/>
-      <c r="B35" s="136" t="s">
+      <c r="B35" s="135" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" s="136" t="s">
         <v>357</v>
       </c>
-      <c r="C35" s="137" t="s">
-        <v>358</v>
-      </c>
-      <c r="D35" s="138">
+      <c r="D35" s="137">
         <v>368.75</v>
       </c>
-      <c r="E35" s="139">
+      <c r="E35" s="138">
         <f>D35*Лист2!$B$3</f>
         <v>26258.687499999996</v>
       </c>
-      <c r="F35" s="261">
+      <c r="F35" s="260">
         <v>55</v>
       </c>
-      <c r="G35" s="139">
+      <c r="G35" s="138">
         <f t="shared" si="0"/>
         <v>11816.409374999999</v>
       </c>
-      <c r="H35" s="214"/>
+      <c r="H35" s="213"/>
     </row>
     <row r="36" spans="1:8" ht="38.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="137" t="s">
+      <c r="C36" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="138">
+      <c r="D36" s="137">
         <v>182.5</v>
       </c>
-      <c r="E36" s="139">
+      <c r="E36" s="138">
         <f>D36*Лист2!$B$3</f>
         <v>12995.824999999999</v>
       </c>
-      <c r="F36" s="261">
+      <c r="F36" s="260">
         <v>55</v>
       </c>
-      <c r="G36" s="139">
+      <c r="G36" s="138">
         <f t="shared" si="0"/>
         <v>5848.1212500000001</v>
       </c>
-      <c r="H36" s="214"/>
+      <c r="H36" s="213"/>
     </row>
     <row r="37" spans="1:8" ht="51">
       <c r="A37" s="15"/>
-      <c r="B37" s="136" t="s">
+      <c r="B37" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="137" t="s">
+      <c r="C37" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="138">
+      <c r="D37" s="137">
         <v>129.6</v>
       </c>
-      <c r="E37" s="139">
+      <c r="E37" s="138">
         <f>D37*Лист2!$B$3</f>
         <v>9228.8159999999989</v>
       </c>
-      <c r="F37" s="261">
+      <c r="F37" s="260">
         <v>55</v>
       </c>
-      <c r="G37" s="139">
+      <c r="G37" s="138">
         <f t="shared" si="0"/>
         <v>4152.9671999999991</v>
       </c>
-      <c r="H37" s="214"/>
+      <c r="H37" s="213"/>
     </row>
     <row r="38" spans="1:8" ht="38.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="136" t="s">
+      <c r="B38" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="137" t="s">
+      <c r="C38" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="138">
+      <c r="D38" s="137">
         <v>201.5</v>
       </c>
-      <c r="E38" s="139">
+      <c r="E38" s="138">
         <f>D38*Лист2!$B$3</f>
         <v>14348.814999999999</v>
       </c>
-      <c r="F38" s="261">
+      <c r="F38" s="260">
         <v>55</v>
       </c>
-      <c r="G38" s="139">
+      <c r="G38" s="138">
         <f t="shared" si="0"/>
         <v>6456.9667499999996</v>
       </c>
-      <c r="H38" s="214"/>
+      <c r="H38" s="213"/>
     </row>
     <row r="39" spans="1:8" ht="38.25">
       <c r="A39" s="15"/>
-      <c r="B39" s="136" t="s">
+      <c r="B39" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="137" t="s">
+      <c r="C39" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="138">
+      <c r="D39" s="137">
         <v>225</v>
       </c>
-      <c r="E39" s="139">
+      <c r="E39" s="138">
         <f>D39*Лист2!$B$3</f>
         <v>16022.249999999998</v>
       </c>
-      <c r="F39" s="261">
+      <c r="F39" s="260">
         <v>55</v>
       </c>
-      <c r="G39" s="139">
+      <c r="G39" s="138">
         <f t="shared" si="0"/>
         <v>7210.0124999999989</v>
       </c>
-      <c r="H39" s="214"/>
+      <c r="H39" s="213"/>
     </row>
     <row r="40" spans="1:8" ht="51">
       <c r="A40" s="15"/>
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="138">
+      <c r="D40" s="137">
         <v>193</v>
       </c>
-      <c r="E40" s="139">
+      <c r="E40" s="138">
         <f>D40*Лист2!$B$3</f>
         <v>13743.529999999999</v>
       </c>
-      <c r="F40" s="261">
+      <c r="F40" s="260">
         <v>55</v>
       </c>
-      <c r="G40" s="139">
+      <c r="G40" s="138">
         <f t="shared" si="0"/>
         <v>6184.5884999999998</v>
       </c>
-      <c r="H40" s="214"/>
+      <c r="H40" s="213"/>
     </row>
     <row r="41" spans="1:8" ht="14.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="136" t="s">
+      <c r="B41" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="137" t="s">
+      <c r="C41" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="138">
+      <c r="D41" s="137">
         <v>314.60000000000002</v>
       </c>
-      <c r="E41" s="139">
+      <c r="E41" s="138">
         <f>D41*Лист2!$B$3</f>
         <v>22402.666000000001</v>
       </c>
-      <c r="F41" s="261">
+      <c r="F41" s="260">
         <v>55</v>
       </c>
-      <c r="G41" s="139">
+      <c r="G41" s="138">
         <f t="shared" si="0"/>
         <v>10081.199699999999</v>
       </c>
-      <c r="H41" s="214"/>
+      <c r="H41" s="213"/>
     </row>
     <row r="42" spans="1:8" ht="51">
       <c r="A42" s="15"/>
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="137" t="s">
+      <c r="C42" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="138">
+      <c r="D42" s="137">
         <v>178.1</v>
       </c>
-      <c r="E42" s="139">
+      <c r="E42" s="138">
         <f>D42*Лист2!$B$3</f>
         <v>12682.500999999998</v>
       </c>
-      <c r="F42" s="261">
+      <c r="F42" s="260">
         <v>55</v>
       </c>
-      <c r="G42" s="139">
+      <c r="G42" s="138">
         <f t="shared" si="0"/>
         <v>5707.1254499999986</v>
       </c>
-      <c r="H42" s="214"/>
+      <c r="H42" s="213"/>
     </row>
     <row r="43" spans="1:8" ht="63.75">
       <c r="A43" s="15"/>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="C43" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="138">
+      <c r="D43" s="137">
         <v>220.2</v>
       </c>
-      <c r="E43" s="139">
+      <c r="E43" s="138">
         <f>D43*Лист2!$B$3</f>
         <v>15680.441999999997</v>
       </c>
-      <c r="F43" s="261">
+      <c r="F43" s="260">
         <v>55</v>
       </c>
-      <c r="G43" s="139">
+      <c r="G43" s="138">
         <f t="shared" si="0"/>
         <v>7056.1988999999994</v>
       </c>
-      <c r="H43" s="214"/>
+      <c r="H43" s="213"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="137" t="s">
+      <c r="C44" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="138">
+      <c r="D44" s="137">
         <v>353.6</v>
       </c>
-      <c r="E44" s="139">
+      <c r="E44" s="138">
         <f>D44*Лист2!$B$3</f>
         <v>25179.856</v>
       </c>
-      <c r="F44" s="261">
+      <c r="F44" s="260">
         <v>55</v>
       </c>
-      <c r="G44" s="139">
+      <c r="G44" s="138">
         <f t="shared" si="0"/>
         <v>11330.9352</v>
       </c>
-      <c r="H44" s="214"/>
+      <c r="H44" s="213"/>
     </row>
     <row r="45" spans="1:8" ht="38.25">
       <c r="A45" s="15"/>
-      <c r="B45" s="136" t="s">
+      <c r="B45" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="137" t="s">
+      <c r="C45" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="138">
+      <c r="D45" s="137">
         <v>199.8</v>
       </c>
-      <c r="E45" s="139">
+      <c r="E45" s="138">
         <f>D45*Лист2!$B$3</f>
         <v>14227.758</v>
       </c>
-      <c r="F45" s="261">
+      <c r="F45" s="260">
         <v>55</v>
       </c>
-      <c r="G45" s="139">
+      <c r="G45" s="138">
         <f t="shared" si="0"/>
         <v>6402.4911000000002</v>
       </c>
-      <c r="H45" s="214"/>
+      <c r="H45" s="213"/>
     </row>
     <row r="46" spans="1:8" ht="14.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="137" t="s">
+      <c r="C46" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="138">
+      <c r="D46" s="137">
         <v>101.9</v>
       </c>
-      <c r="E46" s="139">
+      <c r="E46" s="138">
         <f>D46*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="F46" s="261">
+      <c r="F46" s="260">
         <v>55</v>
       </c>
-      <c r="G46" s="139">
+      <c r="G46" s="138">
         <f t="shared" si="0"/>
         <v>3265.33455</v>
       </c>
-      <c r="H46" s="214"/>
+      <c r="H46" s="213"/>
     </row>
     <row r="47" spans="1:8" ht="25.5">
       <c r="A47" s="15"/>
-      <c r="B47" s="136" t="s">
+      <c r="B47" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="137" t="s">
+      <c r="C47" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="138">
+      <c r="D47" s="137">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E47" s="139">
+      <c r="E47" s="138">
         <f>D47*Лист2!$B$3</f>
         <v>619.52699999999993</v>
       </c>
-      <c r="F47" s="261">
+      <c r="F47" s="260">
         <v>55</v>
       </c>
-      <c r="G47" s="139">
+      <c r="G47" s="138">
         <f t="shared" si="0"/>
         <v>278.78715</v>
       </c>
-      <c r="H47" s="214"/>
+      <c r="H47" s="213"/>
     </row>
     <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="136" t="s">
+      <c r="B48" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="137" t="s">
+      <c r="C48" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="138">
+      <c r="D48" s="137">
         <v>14.4</v>
       </c>
-      <c r="E48" s="139">
+      <c r="E48" s="138">
         <f>D48*Лист2!$B$3</f>
         <v>1025.424</v>
       </c>
-      <c r="F48" s="261">
+      <c r="F48" s="260">
         <v>55</v>
       </c>
-      <c r="G48" s="139">
+      <c r="G48" s="138">
         <f t="shared" si="0"/>
         <v>461.44079999999997</v>
       </c>
-      <c r="H48" s="214"/>
+      <c r="H48" s="213"/>
     </row>
     <row r="49" spans="1:8" ht="38.25">
       <c r="A49" s="15"/>
-      <c r="B49" s="136" t="s">
-        <v>428</v>
-      </c>
-      <c r="C49" s="137" t="s">
+      <c r="B49" s="135" t="s">
+        <v>427</v>
+      </c>
+      <c r="C49" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="138">
+      <c r="D49" s="137">
         <v>26.9</v>
       </c>
-      <c r="E49" s="139">
+      <c r="E49" s="138">
         <f>D49*Лист2!$B$3</f>
         <v>1915.5489999999998</v>
       </c>
-      <c r="F49" s="261">
+      <c r="F49" s="260">
         <v>55</v>
       </c>
-      <c r="G49" s="139">
+      <c r="G49" s="138">
         <f t="shared" si="0"/>
         <v>861.99704999999972</v>
       </c>
-      <c r="H49" s="214"/>
-    </row>
-    <row r="50" spans="1:8" s="178" customFormat="1" ht="38.25">
+      <c r="H49" s="213"/>
+    </row>
+    <row r="50" spans="1:8" s="177" customFormat="1" ht="38.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="136" t="s">
-        <v>429</v>
-      </c>
-      <c r="C50" s="137" t="s">
-        <v>426</v>
-      </c>
-      <c r="D50" s="181">
+      <c r="B50" s="135" t="s">
+        <v>428</v>
+      </c>
+      <c r="C50" s="136" t="s">
+        <v>425</v>
+      </c>
+      <c r="D50" s="180">
         <v>37.5</v>
       </c>
-      <c r="E50" s="139">
+      <c r="E50" s="138">
         <f>D50*Лист2!$B$3</f>
         <v>2670.3749999999995</v>
       </c>
-      <c r="F50" s="261">
+      <c r="F50" s="260">
         <v>55</v>
       </c>
-      <c r="G50" s="139">
+      <c r="G50" s="138">
         <f t="shared" si="0"/>
         <v>1201.6687499999998</v>
       </c>
-      <c r="H50" s="214"/>
-    </row>
-    <row r="51" spans="1:8" s="179" customFormat="1" ht="14.25">
+      <c r="H50" s="213"/>
+    </row>
+    <row r="51" spans="1:8" s="178" customFormat="1" ht="14.25">
       <c r="A51" s="15"/>
-      <c r="B51" s="182" t="s">
-        <v>427</v>
-      </c>
-      <c r="C51" s="137" t="s">
+      <c r="B51" s="181" t="s">
+        <v>426</v>
+      </c>
+      <c r="C51" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="138">
+      <c r="D51" s="137">
         <v>26.9</v>
       </c>
-      <c r="E51" s="139">
+      <c r="E51" s="138">
         <f>D51*Лист2!$B$3</f>
         <v>1915.5489999999998</v>
       </c>
-      <c r="F51" s="261">
+      <c r="F51" s="260">
         <v>55</v>
       </c>
-      <c r="G51" s="139">
+      <c r="G51" s="138">
         <f t="shared" si="0"/>
         <v>861.99704999999972</v>
       </c>
-      <c r="H51" s="214"/>
+      <c r="H51" s="213"/>
     </row>
     <row r="52" spans="1:8" ht="14.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="136" t="s">
+      <c r="B52" s="135" t="s">
         <v>314</v>
       </c>
-      <c r="C52" s="137" t="s">
+      <c r="C52" s="136" t="s">
         <v>315</v>
       </c>
-      <c r="D52" s="138">
+      <c r="D52" s="137">
         <v>8.6</v>
       </c>
-      <c r="E52" s="139">
+      <c r="E52" s="138">
         <f>D52*Лист2!$B$3</f>
         <v>612.40599999999995</v>
       </c>
-      <c r="F52" s="261">
+      <c r="F52" s="260">
         <v>55</v>
       </c>
-      <c r="G52" s="139">
+      <c r="G52" s="138">
         <f t="shared" si="0"/>
         <v>275.58269999999999</v>
       </c>
-      <c r="H52" s="214"/>
+      <c r="H52" s="213"/>
     </row>
     <row r="53" spans="1:8" ht="89.25">
       <c r="A53" s="15"/>
@@ -6700,18 +6745,18 @@
       <c r="D53" s="118">
         <v>200.3</v>
       </c>
-      <c r="E53" s="201">
+      <c r="E53" s="200">
         <f>D53*Лист2!$B$3</f>
         <v>14263.362999999999</v>
       </c>
-      <c r="F53" s="262">
+      <c r="F53" s="261">
         <v>55</v>
       </c>
-      <c r="G53" s="201">
+      <c r="G53" s="200">
         <f t="shared" si="0"/>
         <v>6418.5133499999993</v>
       </c>
-      <c r="H53" s="214"/>
+      <c r="H53" s="213"/>
     </row>
     <row r="54" spans="1:8" ht="63.75">
       <c r="A54" s="15"/>
@@ -6724,66 +6769,66 @@
       <c r="D54" s="118">
         <v>221.1</v>
       </c>
-      <c r="E54" s="201">
+      <c r="E54" s="200">
         <f>D54*Лист2!$B$3</f>
         <v>15744.530999999999</v>
       </c>
-      <c r="F54" s="262">
+      <c r="F54" s="261">
         <v>55</v>
       </c>
-      <c r="G54" s="201">
+      <c r="G54" s="200">
         <f t="shared" si="0"/>
         <v>7085.0389500000001</v>
       </c>
-      <c r="H54" s="214"/>
-    </row>
-    <row r="55" spans="1:8" s="184" customFormat="1" ht="89.25">
+      <c r="H54" s="213"/>
+    </row>
+    <row r="55" spans="1:8" s="183" customFormat="1" ht="89.25">
       <c r="A55" s="15"/>
-      <c r="B55" s="190" t="s">
+      <c r="B55" s="189" t="s">
+        <v>435</v>
+      </c>
+      <c r="C55" s="184" t="s">
         <v>436</v>
       </c>
-      <c r="C55" s="185" t="s">
-        <v>437</v>
-      </c>
-      <c r="D55" s="186">
+      <c r="D55" s="185">
         <v>227.5</v>
       </c>
-      <c r="E55" s="201">
+      <c r="E55" s="200">
         <f>D55*Лист2!$B$3</f>
         <v>16200.274999999998</v>
       </c>
-      <c r="F55" s="262">
+      <c r="F55" s="261">
         <v>55</v>
       </c>
-      <c r="G55" s="201">
+      <c r="G55" s="200">
         <f t="shared" si="0"/>
         <v>7290.1237499999988</v>
       </c>
-      <c r="H55" s="214"/>
-    </row>
-    <row r="56" spans="1:8" s="184" customFormat="1" ht="89.25">
+      <c r="H55" s="213"/>
+    </row>
+    <row r="56" spans="1:8" s="183" customFormat="1" ht="89.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="190" t="s">
+      <c r="B56" s="189" t="s">
+        <v>437</v>
+      </c>
+      <c r="C56" s="184" t="s">
         <v>438</v>
       </c>
-      <c r="C56" s="185" t="s">
-        <v>439</v>
-      </c>
-      <c r="D56" s="186">
+      <c r="D56" s="185">
         <v>248.3</v>
       </c>
-      <c r="E56" s="201">
+      <c r="E56" s="200">
         <f>D56*Лист2!$B$3</f>
         <v>17681.442999999999</v>
       </c>
-      <c r="F56" s="262">
+      <c r="F56" s="261">
         <v>55</v>
       </c>
-      <c r="G56" s="201">
+      <c r="G56" s="200">
         <f t="shared" si="0"/>
         <v>7956.6493499999997</v>
       </c>
-      <c r="H56" s="214"/>
+      <c r="H56" s="213"/>
     </row>
     <row r="57" spans="1:8" ht="89.25">
       <c r="A57" s="15"/>
@@ -6796,18 +6841,18 @@
       <c r="D57" s="118">
         <v>321.89999999999998</v>
       </c>
-      <c r="E57" s="201">
+      <c r="E57" s="200">
         <f>D57*Лист2!$B$3</f>
         <v>22922.498999999996</v>
       </c>
-      <c r="F57" s="262">
+      <c r="F57" s="261">
         <v>55</v>
       </c>
-      <c r="G57" s="201">
+      <c r="G57" s="200">
         <f t="shared" si="0"/>
         <v>10315.124549999999</v>
       </c>
-      <c r="H57" s="214"/>
+      <c r="H57" s="213"/>
     </row>
     <row r="58" spans="1:8" ht="63.75">
       <c r="A58" s="15"/>
@@ -6820,18 +6865,18 @@
       <c r="D58" s="118">
         <v>342.7</v>
       </c>
-      <c r="E58" s="201">
+      <c r="E58" s="200">
         <f>D58*Лист2!$B$3</f>
         <v>24403.666999999998</v>
       </c>
-      <c r="F58" s="262">
+      <c r="F58" s="261">
         <v>55</v>
       </c>
-      <c r="G58" s="201">
+      <c r="G58" s="200">
         <f t="shared" si="0"/>
         <v>10981.650149999999</v>
       </c>
-      <c r="H58" s="214"/>
+      <c r="H58" s="213"/>
     </row>
     <row r="59" spans="1:8" ht="51">
       <c r="A59" s="15"/>
@@ -6844,18 +6889,18 @@
       <c r="D59" s="118">
         <v>131.80000000000001</v>
       </c>
-      <c r="E59" s="201">
+      <c r="E59" s="200">
         <f>D59*Лист2!$B$3</f>
         <v>9385.4779999999992</v>
       </c>
-      <c r="F59" s="262">
+      <c r="F59" s="261">
         <v>55</v>
       </c>
-      <c r="G59" s="201">
+      <c r="G59" s="200">
         <f t="shared" si="0"/>
         <v>4223.4650999999994</v>
       </c>
-      <c r="H59" s="214"/>
+      <c r="H59" s="213"/>
     </row>
     <row r="60" spans="1:8" ht="38.25">
       <c r="A60" s="15"/>
@@ -6868,18 +6913,18 @@
       <c r="D60" s="118">
         <v>149.4</v>
       </c>
-      <c r="E60" s="201">
+      <c r="E60" s="200">
         <f>D60*Лист2!$B$3</f>
         <v>10638.773999999999</v>
       </c>
-      <c r="F60" s="262">
+      <c r="F60" s="261">
         <v>55</v>
       </c>
-      <c r="G60" s="201">
+      <c r="G60" s="200">
         <f t="shared" si="0"/>
         <v>4787.4483</v>
       </c>
-      <c r="H60" s="214"/>
+      <c r="H60" s="213"/>
     </row>
     <row r="61" spans="1:8" ht="51">
       <c r="A61" s="15"/>
@@ -6892,18 +6937,18 @@
       <c r="D61" s="118">
         <v>222.3</v>
       </c>
-      <c r="E61" s="201">
+      <c r="E61" s="200">
         <f>D61*Лист2!$B$3</f>
         <v>15829.983</v>
       </c>
-      <c r="F61" s="262">
+      <c r="F61" s="261">
         <v>55</v>
       </c>
-      <c r="G61" s="201">
+      <c r="G61" s="200">
         <f t="shared" si="0"/>
         <v>7123.4923500000004</v>
       </c>
-      <c r="H61" s="214"/>
+      <c r="H61" s="213"/>
     </row>
     <row r="62" spans="1:8" ht="38.25">
       <c r="A62" s="15"/>
@@ -6916,66 +6961,66 @@
       <c r="D62" s="118">
         <v>239.9</v>
       </c>
-      <c r="E62" s="201">
+      <c r="E62" s="200">
         <f>D62*Лист2!$B$3</f>
         <v>17083.278999999999</v>
       </c>
-      <c r="F62" s="262">
+      <c r="F62" s="261">
         <v>55</v>
       </c>
-      <c r="G62" s="201">
+      <c r="G62" s="200">
         <f t="shared" si="0"/>
         <v>7687.4755499999992</v>
       </c>
-      <c r="H62" s="214"/>
-    </row>
-    <row r="63" spans="1:8" s="184" customFormat="1" ht="14.25">
+      <c r="H62" s="213"/>
+    </row>
+    <row r="63" spans="1:8" s="183" customFormat="1" ht="14.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="187" t="s">
-        <v>432</v>
-      </c>
-      <c r="C63" s="188" t="s">
-        <v>434</v>
-      </c>
-      <c r="D63" s="189">
+      <c r="B63" s="186" t="s">
+        <v>431</v>
+      </c>
+      <c r="C63" s="187" t="s">
+        <v>433</v>
+      </c>
+      <c r="D63" s="188">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E63" s="139">
+      <c r="E63" s="138">
         <f>D63*Лист2!$B$3</f>
         <v>348.92899999999997</v>
       </c>
-      <c r="F63" s="261">
+      <c r="F63" s="260">
         <v>55</v>
       </c>
-      <c r="G63" s="139">
+      <c r="G63" s="138">
         <f t="shared" si="0"/>
         <v>157.01804999999999</v>
       </c>
-      <c r="H63" s="214"/>
-    </row>
-    <row r="64" spans="1:8" s="184" customFormat="1" ht="14.25">
+      <c r="H63" s="213"/>
+    </row>
+    <row r="64" spans="1:8" s="183" customFormat="1" ht="14.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="187" t="s">
-        <v>433</v>
-      </c>
-      <c r="C64" s="188" t="s">
-        <v>435</v>
-      </c>
-      <c r="D64" s="189">
+      <c r="B64" s="186" t="s">
+        <v>432</v>
+      </c>
+      <c r="C64" s="187" t="s">
+        <v>434</v>
+      </c>
+      <c r="D64" s="188">
         <v>7.7</v>
       </c>
-      <c r="E64" s="139">
+      <c r="E64" s="138">
         <f>D64*Лист2!$B$3</f>
         <v>548.31700000000001</v>
       </c>
-      <c r="F64" s="261">
+      <c r="F64" s="260">
         <v>55</v>
       </c>
-      <c r="G64" s="139">
+      <c r="G64" s="138">
         <f t="shared" si="0"/>
         <v>246.74264999999997</v>
       </c>
-      <c r="H64" s="214"/>
+      <c r="H64" s="213"/>
     </row>
     <row r="65" spans="1:8" ht="14.25">
       <c r="A65" s="15"/>
@@ -6988,18 +7033,18 @@
       <c r="D65" s="95">
         <v>69.8</v>
       </c>
-      <c r="E65" s="139">
+      <c r="E65" s="138">
         <f>D65*Лист2!$B$3</f>
         <v>4970.4579999999996</v>
       </c>
-      <c r="F65" s="261">
+      <c r="F65" s="260">
         <v>55</v>
       </c>
-      <c r="G65" s="139">
+      <c r="G65" s="138">
         <f t="shared" si="0"/>
         <v>2236.7060999999994</v>
       </c>
-      <c r="H65" s="214"/>
+      <c r="H65" s="213"/>
     </row>
     <row r="66" spans="1:8" ht="38.25">
       <c r="A66" s="15"/>
@@ -7008,8 +7053,8 @@
       </c>
       <c r="C66" s="97"/>
       <c r="D66" s="95"/>
-      <c r="E66" s="139"/>
-      <c r="F66" s="247"/>
+      <c r="E66" s="138"/>
+      <c r="F66" s="246"/>
       <c r="G66" s="98">
         <v>6000</v>
       </c>
@@ -7023,7 +7068,7 @@
       <c r="C67" s="110"/>
       <c r="D67" s="111"/>
       <c r="E67" s="112"/>
-      <c r="F67" s="248"/>
+      <c r="F67" s="247"/>
       <c r="G67" s="112">
         <v>6000</v>
       </c>
@@ -7031,14 +7076,14 @@
     </row>
     <row r="68" spans="1:8" ht="51" customHeight="1">
       <c r="A68" s="15"/>
-      <c r="B68" s="353" t="s">
+      <c r="B68" s="301" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="354"/>
-      <c r="D68" s="354"/>
-      <c r="E68" s="354"/>
-      <c r="F68" s="355"/>
-      <c r="G68" s="356"/>
+      <c r="C68" s="302"/>
+      <c r="D68" s="302"/>
+      <c r="E68" s="302"/>
+      <c r="F68" s="303"/>
+      <c r="G68" s="304"/>
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="6.75" customHeight="1">
@@ -7047,402 +7092,402 @@
       <c r="C69" s="57"/>
       <c r="D69" s="57"/>
       <c r="E69" s="57"/>
-      <c r="F69" s="249"/>
+      <c r="F69" s="248"/>
       <c r="G69" s="57"/>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="30" customHeight="1">
       <c r="A70" s="7"/>
-      <c r="B70" s="311" t="s">
+      <c r="B70" s="297" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="311"/>
-      <c r="D70" s="311"/>
-      <c r="E70" s="311"/>
-      <c r="F70" s="311"/>
-      <c r="G70" s="311"/>
+      <c r="C70" s="297"/>
+      <c r="D70" s="297"/>
+      <c r="E70" s="297"/>
+      <c r="F70" s="297"/>
+      <c r="G70" s="297"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" ht="102">
       <c r="A71" s="8"/>
-      <c r="B71" s="202" t="s">
+      <c r="B71" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D71" s="240" t="s">
-        <v>451</v>
-      </c>
-      <c r="E71" s="133" t="str">
+      <c r="C71" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D71" s="239" t="s">
+        <v>450</v>
+      </c>
+      <c r="E71" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F71" s="213" t="s">
-        <v>456</v>
-      </c>
-      <c r="G71" s="133" t="s">
-        <v>452</v>
+      <c r="F71" s="212" t="s">
+        <v>455</v>
+      </c>
+      <c r="G71" s="132" t="s">
+        <v>451</v>
       </c>
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" ht="15">
       <c r="A72" s="18"/>
-      <c r="B72" s="203">
+      <c r="B72" s="202">
         <v>1</v>
       </c>
-      <c r="C72" s="203">
+      <c r="C72" s="202">
         <v>2</v>
       </c>
-      <c r="D72" s="203">
+      <c r="D72" s="202">
         <v>3</v>
       </c>
-      <c r="E72" s="203">
+      <c r="E72" s="202">
         <v>4</v>
       </c>
-      <c r="F72" s="246">
+      <c r="F72" s="245">
         <v>5</v>
       </c>
-      <c r="G72" s="135">
+      <c r="G72" s="134">
         <v>7</v>
       </c>
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" ht="14.25">
       <c r="A73" s="15"/>
-      <c r="B73" s="204" t="s">
+      <c r="B73" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="205" t="s">
+      <c r="C73" s="204" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="206">
+      <c r="D73" s="205">
         <v>45.5</v>
       </c>
-      <c r="E73" s="207">
+      <c r="E73" s="206">
         <f>D73*Лист2!$B$3</f>
         <v>3240.0549999999998</v>
       </c>
-      <c r="F73" s="263">
+      <c r="F73" s="262">
         <v>55</v>
       </c>
-      <c r="G73" s="207">
+      <c r="G73" s="206">
         <f>E73-E73*F73/100</f>
         <v>1458.0247499999998</v>
       </c>
-      <c r="H73" s="214"/>
+      <c r="H73" s="213"/>
     </row>
     <row r="74" spans="1:8" ht="25.5">
       <c r="A74" s="15"/>
-      <c r="B74" s="204" t="s">
+      <c r="B74" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="205" t="s">
+      <c r="C74" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="206">
+      <c r="D74" s="205">
         <v>40</v>
       </c>
-      <c r="E74" s="207">
+      <c r="E74" s="206">
         <f>D74*Лист2!$B$3</f>
         <v>2848.3999999999996</v>
       </c>
-      <c r="F74" s="263">
+      <c r="F74" s="262">
         <v>55</v>
       </c>
-      <c r="G74" s="207">
+      <c r="G74" s="206">
         <f t="shared" ref="G74:G90" si="1">E74-E74*F74/100</f>
         <v>1281.78</v>
       </c>
-      <c r="H74" s="214"/>
+      <c r="H74" s="213"/>
     </row>
     <row r="75" spans="1:8" ht="14.25">
       <c r="A75" s="15"/>
-      <c r="B75" s="204" t="s">
+      <c r="B75" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="205" t="s">
+      <c r="C75" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="206">
+      <c r="D75" s="205">
         <v>1.9</v>
       </c>
-      <c r="E75" s="207">
+      <c r="E75" s="206">
         <f>D75*Лист2!$B$3</f>
         <v>135.29899999999998</v>
       </c>
-      <c r="F75" s="263">
+      <c r="F75" s="262">
         <v>55</v>
       </c>
-      <c r="G75" s="207">
+      <c r="G75" s="206">
         <f t="shared" si="1"/>
         <v>60.88454999999999</v>
       </c>
-      <c r="H75" s="214"/>
+      <c r="H75" s="213"/>
     </row>
     <row r="76" spans="1:8" ht="14.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="204" t="s">
+      <c r="B76" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="205" t="s">
+      <c r="C76" s="204" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="206">
+      <c r="D76" s="205">
         <v>2.9</v>
       </c>
-      <c r="E76" s="207">
+      <c r="E76" s="206">
         <f>D76*Лист2!$B$3</f>
         <v>206.50899999999999</v>
       </c>
-      <c r="F76" s="263">
+      <c r="F76" s="262">
         <v>55</v>
       </c>
-      <c r="G76" s="207">
+      <c r="G76" s="206">
         <f t="shared" si="1"/>
         <v>92.929049999999989</v>
       </c>
-      <c r="H76" s="214"/>
+      <c r="H76" s="213"/>
     </row>
     <row r="77" spans="1:8" ht="14.25">
       <c r="A77" s="15"/>
-      <c r="B77" s="204" t="s">
+      <c r="B77" s="203" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="205" t="s">
+      <c r="C77" s="204" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="206">
+      <c r="D77" s="205">
         <v>3.4</v>
       </c>
-      <c r="E77" s="207">
+      <c r="E77" s="206">
         <f>D77*Лист2!$B$3</f>
         <v>242.11399999999998</v>
       </c>
-      <c r="F77" s="263">
+      <c r="F77" s="262">
         <v>55</v>
       </c>
-      <c r="G77" s="207">
+      <c r="G77" s="206">
         <f t="shared" si="1"/>
         <v>108.9513</v>
       </c>
-      <c r="H77" s="214"/>
+      <c r="H77" s="213"/>
     </row>
     <row r="78" spans="1:8" ht="14.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="204" t="s">
+      <c r="B78" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="205" t="s">
+      <c r="C78" s="204" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="206">
+      <c r="D78" s="205">
         <v>16.2</v>
       </c>
-      <c r="E78" s="207">
+      <c r="E78" s="206">
         <f>D78*Лист2!$B$3</f>
         <v>1153.6019999999999</v>
       </c>
-      <c r="F78" s="263">
+      <c r="F78" s="262">
         <v>55</v>
       </c>
-      <c r="G78" s="207">
+      <c r="G78" s="206">
         <f t="shared" si="1"/>
         <v>519.12089999999989</v>
       </c>
-      <c r="H78" s="214"/>
+      <c r="H78" s="213"/>
     </row>
     <row r="79" spans="1:8" ht="25.5">
       <c r="A79" s="15"/>
-      <c r="B79" s="204" t="s">
+      <c r="B79" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="205" t="s">
+      <c r="C79" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="206">
+      <c r="D79" s="205">
         <v>7.1</v>
       </c>
-      <c r="E79" s="207">
+      <c r="E79" s="206">
         <f>D79*Лист2!$B$3</f>
         <v>505.59099999999995</v>
       </c>
-      <c r="F79" s="263">
+      <c r="F79" s="262">
         <v>55</v>
       </c>
-      <c r="G79" s="207">
+      <c r="G79" s="206">
         <f t="shared" si="1"/>
         <v>227.51594999999998</v>
       </c>
-      <c r="H79" s="214"/>
+      <c r="H79" s="213"/>
     </row>
     <row r="80" spans="1:8" ht="25.5">
       <c r="A80" s="15"/>
-      <c r="B80" s="204" t="s">
+      <c r="B80" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="205" t="s">
+      <c r="C80" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="206">
+      <c r="D80" s="205">
         <v>13.7</v>
       </c>
-      <c r="E80" s="207">
+      <c r="E80" s="206">
         <f>D80*Лист2!$B$3</f>
         <v>975.57699999999988</v>
       </c>
-      <c r="F80" s="263">
+      <c r="F80" s="262">
         <v>55</v>
       </c>
-      <c r="G80" s="207">
+      <c r="G80" s="206">
         <f t="shared" si="1"/>
         <v>439.00964999999997</v>
       </c>
-      <c r="H80" s="214"/>
+      <c r="H80" s="213"/>
     </row>
     <row r="81" spans="1:8" ht="38.25">
       <c r="A81" s="15"/>
-      <c r="B81" s="204" t="s">
+      <c r="B81" s="203" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="205" t="s">
+      <c r="C81" s="204" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="206">
+      <c r="D81" s="205">
         <v>94.6</v>
       </c>
-      <c r="E81" s="207">
+      <c r="E81" s="206">
         <f>D81*Лист2!$B$3</f>
         <v>6736.4659999999994</v>
       </c>
-      <c r="F81" s="263">
+      <c r="F81" s="262">
         <v>55</v>
       </c>
-      <c r="G81" s="207">
+      <c r="G81" s="206">
         <f t="shared" si="1"/>
         <v>3031.4097000000002</v>
       </c>
-      <c r="H81" s="214"/>
+      <c r="H81" s="213"/>
     </row>
     <row r="82" spans="1:8" ht="14.25">
       <c r="A82" s="15"/>
-      <c r="B82" s="204" t="s">
+      <c r="B82" s="203" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="205" t="s">
+      <c r="C82" s="204" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="206">
+      <c r="D82" s="205">
         <v>145.4</v>
       </c>
-      <c r="E82" s="207">
+      <c r="E82" s="206">
         <f>D82*Лист2!$B$3</f>
         <v>10353.933999999999</v>
       </c>
-      <c r="F82" s="263">
+      <c r="F82" s="262">
         <v>55</v>
       </c>
-      <c r="G82" s="207">
+      <c r="G82" s="206">
         <f t="shared" si="1"/>
         <v>4659.2702999999992</v>
       </c>
-      <c r="H82" s="214"/>
+      <c r="H82" s="213"/>
     </row>
     <row r="83" spans="1:8" ht="38.25">
       <c r="A83" s="15"/>
-      <c r="B83" s="204" t="s">
+      <c r="B83" s="203" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="205" t="s">
+      <c r="C83" s="204" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="206">
+      <c r="D83" s="205">
         <v>82.1</v>
       </c>
-      <c r="E83" s="207">
+      <c r="E83" s="206">
         <f>D83*Лист2!$B$3</f>
         <v>5846.3409999999994</v>
       </c>
-      <c r="F83" s="263">
+      <c r="F83" s="262">
         <v>55</v>
       </c>
-      <c r="G83" s="207">
+      <c r="G83" s="206">
         <f t="shared" si="1"/>
         <v>2630.8534500000001</v>
       </c>
-      <c r="H83" s="214"/>
+      <c r="H83" s="213"/>
     </row>
     <row r="84" spans="1:8" ht="14.25">
       <c r="A84" s="15"/>
-      <c r="B84" s="204" t="s">
+      <c r="B84" s="203" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="205" t="s">
+      <c r="C84" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="206">
+      <c r="D84" s="205">
         <v>97.3</v>
       </c>
-      <c r="E84" s="207">
+      <c r="E84" s="206">
         <f>D84*Лист2!$B$3</f>
         <v>6928.7329999999993</v>
       </c>
-      <c r="F84" s="263">
+      <c r="F84" s="262">
         <v>55</v>
       </c>
-      <c r="G84" s="207">
+      <c r="G84" s="206">
         <f t="shared" si="1"/>
         <v>3117.92985</v>
       </c>
-      <c r="H84" s="214"/>
+      <c r="H84" s="213"/>
     </row>
     <row r="85" spans="1:8" ht="38.25">
       <c r="A85" s="15"/>
-      <c r="B85" s="204" t="s">
+      <c r="B85" s="203" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="205" t="s">
+      <c r="C85" s="204" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="206">
+      <c r="D85" s="205">
         <v>125.9</v>
       </c>
-      <c r="E85" s="207">
+      <c r="E85" s="206">
         <f>D85*Лист2!$B$3</f>
         <v>8965.3389999999999</v>
       </c>
-      <c r="F85" s="263">
+      <c r="F85" s="262">
         <v>55</v>
       </c>
-      <c r="G85" s="207">
+      <c r="G85" s="206">
         <f t="shared" si="1"/>
         <v>4034.4025499999998</v>
       </c>
-      <c r="H85" s="214"/>
+      <c r="H85" s="213"/>
     </row>
     <row r="86" spans="1:8" ht="14.25">
       <c r="A86" s="15"/>
-      <c r="B86" s="204" t="s">
+      <c r="B86" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="205" t="s">
+      <c r="C86" s="204" t="s">
         <v>95</v>
       </c>
-      <c r="D86" s="206">
+      <c r="D86" s="205">
         <v>10.5</v>
       </c>
-      <c r="E86" s="207">
+      <c r="E86" s="206">
         <f>D86*Лист2!$B$3</f>
         <v>747.70499999999993</v>
       </c>
-      <c r="F86" s="263">
+      <c r="F86" s="262">
         <v>55</v>
       </c>
-      <c r="G86" s="207">
+      <c r="G86" s="206">
         <f t="shared" si="1"/>
         <v>336.46724999999998</v>
       </c>
-      <c r="H86" s="214"/>
+      <c r="H86" s="213"/>
     </row>
     <row r="87" spans="1:8" ht="51">
       <c r="A87" s="15"/>
@@ -7459,14 +7504,14 @@
         <f>D87*Лист2!$B$3</f>
         <v>9713.0439999999999</v>
       </c>
-      <c r="F87" s="264">
+      <c r="F87" s="263">
         <v>55</v>
       </c>
-      <c r="G87" s="215">
+      <c r="G87" s="214">
         <f t="shared" si="1"/>
         <v>4370.8697999999995</v>
       </c>
-      <c r="H87" s="214"/>
+      <c r="H87" s="213"/>
     </row>
     <row r="88" spans="1:8" ht="51">
       <c r="A88" s="15"/>
@@ -7483,14 +7528,14 @@
         <f>D88*Лист2!$B$3</f>
         <v>13893.070999999998</v>
       </c>
-      <c r="F88" s="264">
+      <c r="F88" s="263">
         <v>55</v>
       </c>
-      <c r="G88" s="215">
+      <c r="G88" s="214">
         <f t="shared" si="1"/>
         <v>6251.8819499999991</v>
       </c>
-      <c r="H88" s="214"/>
+      <c r="H88" s="213"/>
     </row>
     <row r="89" spans="1:8" ht="51">
       <c r="A89" s="15"/>
@@ -7507,14 +7552,14 @@
         <f>D89*Лист2!$B$3</f>
         <v>7484.1709999999994</v>
       </c>
-      <c r="F89" s="264">
+      <c r="F89" s="263">
         <v>55</v>
       </c>
-      <c r="G89" s="215">
+      <c r="G89" s="214">
         <f t="shared" si="1"/>
         <v>3367.8769499999999</v>
       </c>
-      <c r="H89" s="214"/>
+      <c r="H89" s="213"/>
     </row>
     <row r="90" spans="1:8" ht="51">
       <c r="A90" s="19"/>
@@ -7531,14 +7576,14 @@
         <f>D90*Лист2!$B$3</f>
         <v>11101.638999999999</v>
       </c>
-      <c r="F90" s="264">
+      <c r="F90" s="263">
         <v>55</v>
       </c>
-      <c r="G90" s="215">
+      <c r="G90" s="214">
         <f t="shared" si="1"/>
         <v>4995.7375499999998</v>
       </c>
-      <c r="H90" s="214"/>
+      <c r="H90" s="213"/>
     </row>
     <row r="91" spans="1:8" ht="14.25">
       <c r="A91" s="19"/>
@@ -7552,57 +7597,57 @@
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1">
       <c r="A92" s="7"/>
-      <c r="B92" s="310" t="s">
-        <v>459</v>
-      </c>
-      <c r="C92" s="310"/>
-      <c r="D92" s="310"/>
-      <c r="E92" s="310"/>
-      <c r="F92" s="310"/>
-      <c r="G92" s="310"/>
+      <c r="B92" s="344" t="s">
+        <v>458</v>
+      </c>
+      <c r="C92" s="344"/>
+      <c r="D92" s="344"/>
+      <c r="E92" s="344"/>
+      <c r="F92" s="344"/>
+      <c r="G92" s="344"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" ht="102">
       <c r="A93" s="23"/>
-      <c r="B93" s="258" t="s">
+      <c r="B93" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D93" s="259" t="s">
-        <v>451</v>
-      </c>
-      <c r="E93" s="245" t="str">
+      <c r="C93" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D93" s="258" t="s">
+        <v>450</v>
+      </c>
+      <c r="E93" s="244" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F93" s="245" t="s">
-        <v>456</v>
-      </c>
-      <c r="G93" s="260" t="s">
-        <v>461</v>
+      <c r="F93" s="244" t="s">
+        <v>455</v>
+      </c>
+      <c r="G93" s="259" t="s">
+        <v>460</v>
       </c>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8" ht="14.25">
       <c r="A94" s="24"/>
-      <c r="B94" s="256">
+      <c r="B94" s="255">
         <v>1</v>
       </c>
-      <c r="C94" s="256">
+      <c r="C94" s="255">
         <v>2</v>
       </c>
-      <c r="D94" s="256">
+      <c r="D94" s="255">
         <v>3</v>
       </c>
-      <c r="E94" s="256">
+      <c r="E94" s="255">
         <v>4</v>
       </c>
-      <c r="F94" s="257">
+      <c r="F94" s="256">
         <v>5</v>
       </c>
-      <c r="G94" s="257">
+      <c r="G94" s="256">
         <v>7</v>
       </c>
       <c r="H94" s="14"/>
@@ -7618,18 +7663,18 @@
       <c r="D95" s="93">
         <v>6</v>
       </c>
-      <c r="E95" s="207">
+      <c r="E95" s="206">
         <f>D95*Лист2!$B$3</f>
         <v>427.26</v>
       </c>
-      <c r="F95" s="261">
+      <c r="F95" s="260">
         <v>55</v>
       </c>
       <c r="G95" s="124">
         <f>E95-E95*F95/100</f>
         <v>192.267</v>
       </c>
-      <c r="H95" s="214"/>
+      <c r="H95" s="213"/>
     </row>
     <row r="96" spans="1:8" ht="14.25">
       <c r="A96" s="15"/>
@@ -7642,18 +7687,18 @@
       <c r="D96" s="92">
         <v>1.9</v>
       </c>
-      <c r="E96" s="207">
+      <c r="E96" s="206">
         <f>D96*Лист2!$B$3</f>
         <v>135.29899999999998</v>
       </c>
-      <c r="F96" s="261">
+      <c r="F96" s="260">
         <v>55</v>
       </c>
       <c r="G96" s="124">
         <f t="shared" ref="G96:G106" si="2">E96-E96*F96/100</f>
         <v>60.88454999999999</v>
       </c>
-      <c r="H96" s="214"/>
+      <c r="H96" s="213"/>
     </row>
     <row r="97" spans="1:8" ht="14.25">
       <c r="A97" s="15"/>
@@ -7666,23 +7711,23 @@
       <c r="D97" s="92">
         <v>8</v>
       </c>
-      <c r="E97" s="207">
+      <c r="E97" s="206">
         <f>D97*Лист2!$B$3</f>
         <v>569.67999999999995</v>
       </c>
-      <c r="F97" s="261">
+      <c r="F97" s="260">
         <v>55</v>
       </c>
       <c r="G97" s="124">
         <f t="shared" si="2"/>
         <v>256.35599999999999</v>
       </c>
-      <c r="H97" s="214"/>
+      <c r="H97" s="213"/>
     </row>
     <row r="98" spans="1:8" ht="25.5">
       <c r="A98" s="15"/>
       <c r="B98" s="91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C98" s="92" t="s">
         <v>100</v>
@@ -7690,18 +7735,18 @@
       <c r="D98" s="93">
         <v>122.2</v>
       </c>
-      <c r="E98" s="207">
+      <c r="E98" s="206">
         <f>D98*Лист2!$B$3</f>
         <v>8701.8619999999992</v>
       </c>
-      <c r="F98" s="261">
+      <c r="F98" s="260">
         <v>55</v>
       </c>
       <c r="G98" s="124">
         <f t="shared" si="2"/>
         <v>3915.8378999999995</v>
       </c>
-      <c r="H98" s="214"/>
+      <c r="H98" s="213"/>
     </row>
     <row r="99" spans="1:8" ht="25.5">
       <c r="A99" s="15"/>
@@ -7714,518 +7759,518 @@
       <c r="D99" s="93">
         <v>147</v>
       </c>
-      <c r="E99" s="207">
+      <c r="E99" s="206">
         <f>D99*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F99" s="261">
+      <c r="F99" s="260">
         <v>55</v>
       </c>
       <c r="G99" s="124">
         <f t="shared" si="2"/>
         <v>4710.5414999999994</v>
       </c>
-      <c r="H99" s="214"/>
+      <c r="H99" s="213"/>
     </row>
     <row r="100" spans="1:8" ht="57">
       <c r="A100" s="15"/>
-      <c r="B100" s="216" t="s">
-        <v>345</v>
-      </c>
-      <c r="C100" s="217" t="s">
+      <c r="B100" s="215" t="s">
+        <v>344</v>
+      </c>
+      <c r="C100" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="D100" s="218">
+      <c r="D100" s="217">
         <v>122.2</v>
       </c>
-      <c r="E100" s="219">
+      <c r="E100" s="218">
         <f>D100*Лист2!$B$3</f>
         <v>8701.8619999999992</v>
       </c>
-      <c r="F100" s="265">
+      <c r="F100" s="264">
         <v>15</v>
       </c>
       <c r="G100" s="124">
         <f t="shared" si="2"/>
         <v>7396.582699999999</v>
       </c>
-      <c r="H100" s="214"/>
+      <c r="H100" s="213"/>
     </row>
     <row r="101" spans="1:8" ht="44.25">
       <c r="A101" s="15"/>
-      <c r="B101" s="216" t="s">
-        <v>346</v>
-      </c>
-      <c r="C101" s="217" t="s">
+      <c r="B101" s="215" t="s">
+        <v>345</v>
+      </c>
+      <c r="C101" s="216" t="s">
         <v>319</v>
       </c>
-      <c r="D101" s="218">
+      <c r="D101" s="217">
         <v>147</v>
       </c>
-      <c r="E101" s="219">
+      <c r="E101" s="218">
         <f>D101*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F101" s="265">
+      <c r="F101" s="264">
         <v>15</v>
       </c>
       <c r="G101" s="124">
         <f t="shared" si="2"/>
         <v>8897.6894999999986</v>
       </c>
-      <c r="H101" s="214"/>
+      <c r="H101" s="213"/>
     </row>
     <row r="102" spans="1:8" ht="51">
       <c r="A102" s="15"/>
-      <c r="B102" s="216" t="s">
+      <c r="B102" s="215" t="s">
         <v>317</v>
       </c>
-      <c r="C102" s="217" t="s">
+      <c r="C102" s="216" t="s">
         <v>316</v>
       </c>
-      <c r="D102" s="218">
+      <c r="D102" s="217">
         <v>167.3</v>
       </c>
-      <c r="E102" s="219">
+      <c r="E102" s="218">
         <f>D102*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F102" s="265">
+      <c r="F102" s="264">
         <v>55</v>
       </c>
       <c r="G102" s="124">
         <f t="shared" si="2"/>
         <v>5361.0448499999993</v>
       </c>
-      <c r="H102" s="214"/>
+      <c r="H102" s="213"/>
     </row>
     <row r="103" spans="1:8" ht="38.25">
       <c r="A103" s="15"/>
-      <c r="B103" s="216" t="s">
+      <c r="B103" s="215" t="s">
         <v>320</v>
       </c>
-      <c r="C103" s="217" t="s">
+      <c r="C103" s="216" t="s">
         <v>321</v>
       </c>
-      <c r="D103" s="218">
+      <c r="D103" s="217">
         <v>208.5</v>
       </c>
-      <c r="E103" s="219">
+      <c r="E103" s="218">
         <f>D103*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F103" s="265">
+      <c r="F103" s="264">
         <v>55</v>
       </c>
       <c r="G103" s="124">
         <f t="shared" si="2"/>
         <v>6681.2782499999985</v>
       </c>
-      <c r="H103" s="214"/>
+      <c r="H103" s="213"/>
     </row>
     <row r="104" spans="1:8" ht="63.75">
       <c r="A104" s="15"/>
-      <c r="B104" s="216" t="s">
-        <v>348</v>
-      </c>
-      <c r="C104" s="217" t="s">
+      <c r="B104" s="215" t="s">
+        <v>347</v>
+      </c>
+      <c r="C104" s="216" t="s">
         <v>316</v>
       </c>
-      <c r="D104" s="218">
+      <c r="D104" s="217">
         <v>167.3</v>
       </c>
-      <c r="E104" s="219">
+      <c r="E104" s="218">
         <f>D104*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F104" s="265">
+      <c r="F104" s="264">
         <v>15</v>
       </c>
       <c r="G104" s="124">
         <f t="shared" si="2"/>
         <v>10126.418049999998</v>
       </c>
-      <c r="H104" s="214"/>
+      <c r="H104" s="213"/>
     </row>
     <row r="105" spans="1:8" ht="63.75">
       <c r="A105" s="15"/>
-      <c r="B105" s="216" t="s">
-        <v>349</v>
-      </c>
-      <c r="C105" s="217" t="s">
+      <c r="B105" s="215" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="216" t="s">
         <v>321</v>
       </c>
-      <c r="D105" s="218">
+      <c r="D105" s="217">
         <v>208.5</v>
       </c>
-      <c r="E105" s="219">
+      <c r="E105" s="218">
         <f>D105*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F105" s="265">
+      <c r="F105" s="264">
         <v>15</v>
       </c>
       <c r="G105" s="124">
         <f t="shared" si="2"/>
         <v>12620.192249999998</v>
       </c>
-      <c r="H105" s="214"/>
-    </row>
-    <row r="106" spans="1:8" s="266" customFormat="1" ht="25.5">
+      <c r="H105" s="213"/>
+    </row>
+    <row r="106" spans="1:8" s="265" customFormat="1" ht="25.5">
       <c r="A106" s="15"/>
-      <c r="B106" s="228" t="s">
-        <v>360</v>
-      </c>
-      <c r="C106" s="229" t="s">
+      <c r="B106" s="227" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" s="228" t="s">
         <v>206</v>
       </c>
-      <c r="D106" s="230">
+      <c r="D106" s="229">
         <v>92.6</v>
       </c>
-      <c r="E106" s="219">
+      <c r="E106" s="218">
         <f>D106*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F106" s="265">
+      <c r="F106" s="264">
         <v>45</v>
       </c>
       <c r="G106" s="124">
         <f t="shared" si="2"/>
         <v>3626.7253000000001</v>
       </c>
-      <c r="H106" s="214"/>
-    </row>
-    <row r="107" spans="1:8" s="266" customFormat="1" ht="14.25">
+      <c r="H106" s="213"/>
+    </row>
+    <row r="107" spans="1:8" s="265" customFormat="1" ht="14.25">
       <c r="A107" s="15"/>
-      <c r="B107" s="268"/>
-      <c r="C107" s="269"/>
-      <c r="D107" s="270"/>
-      <c r="E107" s="271"/>
-      <c r="F107" s="272"/>
-      <c r="G107" s="271"/>
+      <c r="B107" s="267"/>
+      <c r="C107" s="268"/>
+      <c r="D107" s="269"/>
+      <c r="E107" s="270"/>
+      <c r="F107" s="271"/>
+      <c r="G107" s="270"/>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" s="266" customFormat="1" ht="30" customHeight="1">
+    <row r="108" spans="1:8" s="265" customFormat="1" ht="30" customHeight="1">
       <c r="A108" s="15"/>
-      <c r="B108" s="310" t="s">
-        <v>460</v>
-      </c>
-      <c r="C108" s="310"/>
-      <c r="D108" s="310"/>
-      <c r="E108" s="310"/>
-      <c r="F108" s="310"/>
-      <c r="G108" s="310"/>
+      <c r="B108" s="344" t="s">
+        <v>459</v>
+      </c>
+      <c r="C108" s="344"/>
+      <c r="D108" s="344"/>
+      <c r="E108" s="344"/>
+      <c r="F108" s="344"/>
+      <c r="G108" s="344"/>
       <c r="H108" s="14"/>
     </row>
-    <row r="109" spans="1:8" s="266" customFormat="1" ht="102">
+    <row r="109" spans="1:8" s="265" customFormat="1" ht="102">
       <c r="A109" s="15"/>
-      <c r="B109" s="258" t="s">
+      <c r="B109" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D109" s="259" t="s">
-        <v>451</v>
-      </c>
-      <c r="E109" s="245" t="str">
+      <c r="C109" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D109" s="258" t="s">
+        <v>450</v>
+      </c>
+      <c r="E109" s="244" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F109" s="385" t="s">
-        <v>462</v>
-      </c>
-      <c r="G109" s="386"/>
+      <c r="F109" s="363" t="s">
+        <v>461</v>
+      </c>
+      <c r="G109" s="364"/>
       <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" ht="25.5">
       <c r="A110" s="15"/>
-      <c r="B110" s="220" t="s">
-        <v>351</v>
-      </c>
-      <c r="C110" s="217" t="s">
+      <c r="B110" s="219" t="s">
+        <v>350</v>
+      </c>
+      <c r="C110" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="D110" s="218">
+      <c r="D110" s="217">
         <v>122.2</v>
       </c>
-      <c r="E110" s="219">
+      <c r="E110" s="218">
         <f>D110*Лист2!$B$3</f>
         <v>8701.8619999999992</v>
       </c>
-      <c r="F110" s="383">
+      <c r="F110" s="280">
         <f>E110*4</f>
         <v>34807.447999999997</v>
       </c>
-      <c r="G110" s="384"/>
+      <c r="G110" s="281"/>
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" ht="25.5">
       <c r="A111" s="15"/>
-      <c r="B111" s="220" t="s">
-        <v>352</v>
-      </c>
-      <c r="C111" s="217" t="s">
+      <c r="B111" s="219" t="s">
+        <v>351</v>
+      </c>
+      <c r="C111" s="216" t="s">
         <v>319</v>
       </c>
-      <c r="D111" s="218">
+      <c r="D111" s="217">
         <v>147</v>
       </c>
-      <c r="E111" s="219">
+      <c r="E111" s="218">
         <f>D111*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F111" s="383">
+      <c r="F111" s="280">
         <f>E111*4</f>
         <v>41871.479999999996</v>
       </c>
-      <c r="G111" s="384"/>
+      <c r="G111" s="281"/>
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" ht="76.5">
       <c r="A112" s="15"/>
-      <c r="B112" s="221" t="s">
-        <v>363</v>
-      </c>
-      <c r="C112" s="217" t="s">
+      <c r="B112" s="220" t="s">
+        <v>362</v>
+      </c>
+      <c r="C112" s="216" t="s">
         <v>316</v>
       </c>
-      <c r="D112" s="222">
+      <c r="D112" s="221">
         <v>167.3</v>
       </c>
-      <c r="E112" s="219">
+      <c r="E112" s="218">
         <f>D112*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F112" s="383">
+      <c r="F112" s="280">
         <f>E112*3</f>
         <v>35740.298999999999</v>
       </c>
-      <c r="G112" s="384"/>
+      <c r="G112" s="281"/>
       <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="76.5">
       <c r="A113" s="15"/>
-      <c r="B113" s="221" t="s">
-        <v>364</v>
-      </c>
-      <c r="C113" s="223" t="s">
+      <c r="B113" s="220" t="s">
+        <v>363</v>
+      </c>
+      <c r="C113" s="222" t="s">
         <v>321</v>
       </c>
-      <c r="D113" s="222">
+      <c r="D113" s="221">
         <v>208.5</v>
       </c>
-      <c r="E113" s="219">
+      <c r="E113" s="218">
         <f>D113*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F113" s="383">
+      <c r="F113" s="280">
         <f>E113*3</f>
         <v>44541.854999999996</v>
       </c>
-      <c r="G113" s="384"/>
+      <c r="G113" s="281"/>
       <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="76.5">
       <c r="A114" s="15"/>
-      <c r="B114" s="224" t="s">
-        <v>361</v>
-      </c>
-      <c r="C114" s="217" t="s">
+      <c r="B114" s="223" t="s">
+        <v>360</v>
+      </c>
+      <c r="C114" s="216" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="222">
+      <c r="D114" s="221">
         <v>167.3</v>
       </c>
-      <c r="E114" s="219">
+      <c r="E114" s="218">
         <f>D114*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F114" s="383">
+      <c r="F114" s="280">
         <f>E114*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G114" s="384"/>
+      <c r="G114" s="281"/>
       <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:9" ht="76.5">
       <c r="A115" s="15"/>
-      <c r="B115" s="221" t="s">
-        <v>362</v>
-      </c>
-      <c r="C115" s="223" t="s">
+      <c r="B115" s="220" t="s">
+        <v>361</v>
+      </c>
+      <c r="C115" s="222" t="s">
         <v>321</v>
       </c>
-      <c r="D115" s="222">
+      <c r="D115" s="221">
         <v>208.5</v>
       </c>
-      <c r="E115" s="219">
+      <c r="E115" s="218">
         <f>D115*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F115" s="383">
+      <c r="F115" s="280">
         <f>E115*3.5</f>
         <v>51965.49749999999</v>
       </c>
-      <c r="G115" s="384"/>
+      <c r="G115" s="281"/>
       <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="38.25">
       <c r="A116" s="15"/>
-      <c r="B116" s="225" t="s">
-        <v>365</v>
-      </c>
-      <c r="C116" s="217" t="s">
+      <c r="B116" s="224" t="s">
+        <v>364</v>
+      </c>
+      <c r="C116" s="216" t="s">
         <v>316</v>
       </c>
-      <c r="D116" s="222">
+      <c r="D116" s="221">
         <v>167.3</v>
       </c>
-      <c r="E116" s="219">
+      <c r="E116" s="218">
         <f>D116*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F116" s="383">
+      <c r="F116" s="280">
         <f>E116*1.2</f>
         <v>14296.119599999998</v>
       </c>
-      <c r="G116" s="384"/>
+      <c r="G116" s="281"/>
       <c r="H116" s="14"/>
-      <c r="I116" s="129"/>
+      <c r="I116" s="128"/>
     </row>
     <row r="117" spans="1:9" ht="38.25">
       <c r="A117" s="15"/>
-      <c r="B117" s="225" t="s">
-        <v>366</v>
-      </c>
-      <c r="C117" s="223" t="s">
+      <c r="B117" s="224" t="s">
+        <v>365</v>
+      </c>
+      <c r="C117" s="222" t="s">
         <v>321</v>
       </c>
-      <c r="D117" s="222">
+      <c r="D117" s="221">
         <v>208.5</v>
       </c>
-      <c r="E117" s="219">
+      <c r="E117" s="218">
         <f>D117*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F117" s="383">
+      <c r="F117" s="280">
         <f>E117*1.2</f>
         <v>17816.741999999998</v>
       </c>
-      <c r="G117" s="384"/>
+      <c r="G117" s="281"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:9" ht="14.25">
       <c r="A118" s="15"/>
-      <c r="B118" s="226" t="s">
-        <v>359</v>
-      </c>
-      <c r="C118" s="217" t="s">
+      <c r="B118" s="225" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" s="216" t="s">
         <v>319</v>
       </c>
-      <c r="D118" s="218">
+      <c r="D118" s="217">
         <v>147</v>
       </c>
-      <c r="E118" s="219">
+      <c r="E118" s="218">
         <f>D118*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F118" s="383">
+      <c r="F118" s="280">
         <f>E118*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G118" s="384"/>
+      <c r="G118" s="281"/>
       <c r="H118" s="14"/>
     </row>
-    <row r="119" spans="1:9" s="210" customFormat="1" ht="14.25">
+    <row r="119" spans="1:9" s="209" customFormat="1" ht="14.25">
       <c r="A119" s="15"/>
-      <c r="B119" s="227" t="s">
-        <v>449</v>
-      </c>
-      <c r="C119" s="217" t="s">
+      <c r="B119" s="226" t="s">
+        <v>448</v>
+      </c>
+      <c r="C119" s="216" t="s">
         <v>319</v>
       </c>
-      <c r="D119" s="218">
+      <c r="D119" s="217">
         <v>147</v>
       </c>
-      <c r="E119" s="219">
+      <c r="E119" s="218">
         <f>D119*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F119" s="383">
+      <c r="F119" s="280">
         <f>E119*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G119" s="384"/>
+      <c r="G119" s="281"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:9" ht="14.25">
       <c r="A120" s="15"/>
-      <c r="B120" s="226" t="s">
-        <v>368</v>
-      </c>
-      <c r="C120" s="217" t="s">
+      <c r="B120" s="225" t="s">
+        <v>367</v>
+      </c>
+      <c r="C120" s="216" t="s">
         <v>319</v>
       </c>
-      <c r="D120" s="218">
+      <c r="D120" s="217">
         <v>147</v>
       </c>
-      <c r="E120" s="219">
+      <c r="E120" s="218">
         <f>D120*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F120" s="383">
+      <c r="F120" s="280">
         <f>E120*5</f>
         <v>52339.349999999991</v>
       </c>
-      <c r="G120" s="384"/>
+      <c r="G120" s="281"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:9" ht="51">
       <c r="A121" s="15"/>
-      <c r="B121" s="228" t="s">
-        <v>367</v>
-      </c>
-      <c r="C121" s="229" t="s">
+      <c r="B121" s="227" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" s="228" t="s">
         <v>206</v>
       </c>
-      <c r="D121" s="230">
+      <c r="D121" s="229">
         <v>92.6</v>
       </c>
-      <c r="E121" s="219">
+      <c r="E121" s="218">
         <f>D121*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F121" s="383">
+      <c r="F121" s="280">
         <f>E121*2</f>
         <v>13188.091999999999</v>
       </c>
-      <c r="G121" s="384"/>
+      <c r="G121" s="281"/>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:9" s="275" customFormat="1" ht="14.25">
-      <c r="A122" s="273"/>
-      <c r="B122" s="268"/>
-      <c r="C122" s="269"/>
-      <c r="D122" s="270"/>
-      <c r="E122" s="271"/>
-      <c r="F122" s="271"/>
-      <c r="G122" s="271"/>
-      <c r="H122" s="274"/>
+    <row r="122" spans="1:9" s="274" customFormat="1" ht="14.25">
+      <c r="A122" s="272"/>
+      <c r="B122" s="267"/>
+      <c r="C122" s="268"/>
+      <c r="D122" s="269"/>
+      <c r="E122" s="270"/>
+      <c r="F122" s="270"/>
+      <c r="G122" s="270"/>
+      <c r="H122" s="273"/>
     </row>
     <row r="123" spans="1:9" ht="25.5" customHeight="1">
       <c r="A123" s="15"/>
-      <c r="B123" s="311" t="s">
+      <c r="B123" s="297" t="s">
         <v>340</v>
       </c>
-      <c r="C123" s="311"/>
-      <c r="D123" s="311"/>
-      <c r="E123" s="311"/>
-      <c r="F123" s="311"/>
-      <c r="G123" s="311"/>
+      <c r="C123" s="297"/>
+      <c r="D123" s="297"/>
+      <c r="E123" s="297"/>
+      <c r="F123" s="297"/>
+      <c r="G123" s="297"/>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:9" ht="102">
+    <row r="124" spans="1:9" ht="102" customHeight="1">
       <c r="A124" s="15"/>
       <c r="B124" s="9" t="s">
         <v>4</v>
@@ -8236,14 +8281,12 @@
       <c r="D124" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="133" t="str">
+      <c r="E124" s="375" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F124" s="281" t="s">
-        <v>343</v>
-      </c>
-      <c r="G124" s="282"/>
+      <c r="F124" s="384"/>
+      <c r="G124" s="376"/>
       <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:9" ht="63.75">
@@ -8257,15 +8300,12 @@
       <c r="D125" s="127">
         <v>741.4</v>
       </c>
-      <c r="E125" s="128">
+      <c r="E125" s="385">
         <f>D125*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F125" s="283">
-        <f>E125*1.2</f>
-        <v>63354.112799999995</v>
-      </c>
-      <c r="G125" s="284"/>
+      <c r="F125" s="386"/>
+      <c r="G125" s="387"/>
       <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
@@ -8274,32 +8314,32 @@
       <c r="C126" s="114"/>
       <c r="D126" s="115"/>
       <c r="E126" s="116"/>
-      <c r="F126" s="250"/>
+      <c r="F126" s="249"/>
       <c r="G126" s="114"/>
       <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="34.35" customHeight="1">
       <c r="A127" s="25"/>
-      <c r="B127" s="311" t="s">
+      <c r="B127" s="297" t="s">
         <v>338</v>
       </c>
-      <c r="C127" s="311"/>
-      <c r="D127" s="311"/>
-      <c r="E127" s="311"/>
-      <c r="F127" s="311"/>
-      <c r="G127" s="311"/>
+      <c r="C127" s="297"/>
+      <c r="D127" s="297"/>
+      <c r="E127" s="297"/>
+      <c r="F127" s="297"/>
+      <c r="G127" s="297"/>
       <c r="H127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="34.35" customHeight="1">
       <c r="A128" s="25"/>
-      <c r="B128" s="319" t="s">
-        <v>372</v>
-      </c>
-      <c r="C128" s="320"/>
-      <c r="D128" s="320"/>
-      <c r="E128" s="320"/>
-      <c r="F128" s="320"/>
-      <c r="G128" s="321"/>
+      <c r="B128" s="352" t="s">
+        <v>371</v>
+      </c>
+      <c r="C128" s="353"/>
+      <c r="D128" s="353"/>
+      <c r="E128" s="353"/>
+      <c r="F128" s="353"/>
+      <c r="G128" s="354"/>
       <c r="H128" s="26"/>
     </row>
     <row r="129" spans="1:8" ht="102">
@@ -8307,21 +8347,21 @@
       <c r="B129" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D129" s="240" t="s">
-        <v>451</v>
-      </c>
-      <c r="E129" s="133" t="str">
+      <c r="C129" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D129" s="239" t="s">
+        <v>450</v>
+      </c>
+      <c r="E129" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F129" s="213" t="s">
-        <v>456</v>
+      <c r="F129" s="212" t="s">
+        <v>455</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15">
@@ -8357,18 +8397,18 @@
       <c r="D131" s="51">
         <v>741.4</v>
       </c>
-      <c r="E131" s="207">
+      <c r="E131" s="206">
         <f>D131*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F131" s="261">
+      <c r="F131" s="260">
         <v>75</v>
       </c>
       <c r="G131" s="75">
         <f>E131-E131*F131/100</f>
         <v>13198.773499999996</v>
       </c>
-      <c r="H131" s="214"/>
+      <c r="H131" s="213"/>
     </row>
     <row r="132" spans="1:8" ht="63.75">
       <c r="A132" s="18"/>
@@ -8381,18 +8421,18 @@
       <c r="D132" s="51">
         <v>411.9</v>
       </c>
-      <c r="E132" s="207">
+      <c r="E132" s="206">
         <f>D132*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="F132" s="261">
+      <c r="F132" s="260">
         <v>75</v>
       </c>
       <c r="G132" s="75">
         <f t="shared" ref="G132:G135" si="3">E132-E132*F132/100</f>
         <v>7332.8497500000012</v>
       </c>
-      <c r="H132" s="214"/>
+      <c r="H132" s="213"/>
     </row>
     <row r="133" spans="1:8" ht="63.75">
       <c r="A133" s="27"/>
@@ -8405,18 +8445,18 @@
       <c r="D133" s="43">
         <v>167.7</v>
       </c>
-      <c r="E133" s="207">
+      <c r="E133" s="206">
         <f>D133*Лист2!$B$3</f>
         <v>11941.916999999998</v>
       </c>
-      <c r="F133" s="261">
+      <c r="F133" s="260">
         <v>75</v>
       </c>
       <c r="G133" s="75">
         <f t="shared" si="3"/>
         <v>2985.4792500000003</v>
       </c>
-      <c r="H133" s="214"/>
+      <c r="H133" s="213"/>
     </row>
     <row r="134" spans="1:8" ht="76.5">
       <c r="A134" s="28"/>
@@ -8429,18 +8469,18 @@
       <c r="D134" s="51">
         <v>376.5</v>
       </c>
-      <c r="E134" s="207">
+      <c r="E134" s="206">
         <f>D134*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="F134" s="261">
+      <c r="F134" s="260">
         <v>75</v>
       </c>
       <c r="G134" s="75">
         <f t="shared" si="3"/>
         <v>6702.6412499999969</v>
       </c>
-      <c r="H134" s="214"/>
+      <c r="H134" s="213"/>
     </row>
     <row r="135" spans="1:8" ht="51">
       <c r="A135" s="28"/>
@@ -8453,146 +8493,146 @@
       <c r="D135" s="51">
         <v>87.5</v>
       </c>
-      <c r="E135" s="207">
+      <c r="E135" s="206">
         <f>D135*Лист2!$B$3</f>
         <v>6230.8749999999991</v>
       </c>
-      <c r="F135" s="261">
+      <c r="F135" s="260">
         <v>75</v>
       </c>
       <c r="G135" s="75">
         <f t="shared" si="3"/>
         <v>1557.71875</v>
       </c>
-      <c r="H135" s="214"/>
+      <c r="H135" s="213"/>
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1">
       <c r="A136" s="28"/>
-      <c r="B136" s="313"/>
-      <c r="C136" s="314"/>
-      <c r="D136" s="314"/>
-      <c r="E136" s="314"/>
-      <c r="F136" s="314"/>
-      <c r="G136" s="315"/>
+      <c r="B136" s="346"/>
+      <c r="C136" s="347"/>
+      <c r="D136" s="347"/>
+      <c r="E136" s="347"/>
+      <c r="F136" s="347"/>
+      <c r="G136" s="348"/>
       <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1">
       <c r="A137" s="28"/>
-      <c r="B137" s="316"/>
-      <c r="C137" s="317"/>
-      <c r="D137" s="317"/>
-      <c r="E137" s="317"/>
-      <c r="F137" s="317"/>
-      <c r="G137" s="318"/>
+      <c r="B137" s="349"/>
+      <c r="C137" s="350"/>
+      <c r="D137" s="350"/>
+      <c r="E137" s="350"/>
+      <c r="F137" s="350"/>
+      <c r="G137" s="351"/>
       <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" ht="18">
       <c r="A138" s="25"/>
-      <c r="B138" s="312" t="s">
+      <c r="B138" s="345" t="s">
         <v>339</v>
       </c>
-      <c r="C138" s="312"/>
-      <c r="D138" s="312"/>
-      <c r="E138" s="312"/>
-      <c r="F138" s="312"/>
-      <c r="G138" s="312"/>
+      <c r="C138" s="345"/>
+      <c r="D138" s="345"/>
+      <c r="E138" s="345"/>
+      <c r="F138" s="345"/>
+      <c r="G138" s="345"/>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8" ht="102">
       <c r="A139" s="23"/>
-      <c r="B139" s="158" t="s">
+      <c r="B139" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D139" s="240" t="s">
-        <v>451</v>
-      </c>
-      <c r="E139" s="133" t="str">
+      <c r="C139" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D139" s="239" t="s">
+        <v>450</v>
+      </c>
+      <c r="E139" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F139" s="213" t="s">
-        <v>456</v>
+      <c r="F139" s="212" t="s">
+        <v>455</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8" ht="15">
       <c r="A140" s="29"/>
-      <c r="B140" s="159">
+      <c r="B140" s="158">
         <v>1</v>
       </c>
-      <c r="C140" s="160">
+      <c r="C140" s="159">
         <v>2</v>
       </c>
-      <c r="D140" s="160">
+      <c r="D140" s="159">
         <v>3</v>
       </c>
-      <c r="E140" s="159">
+      <c r="E140" s="158">
         <v>4</v>
       </c>
-      <c r="F140" s="251"/>
-      <c r="G140" s="159">
+      <c r="F140" s="250"/>
+      <c r="G140" s="158">
         <v>6</v>
       </c>
       <c r="H140" s="2"/>
     </row>
     <row r="141" spans="1:8" ht="39">
       <c r="A141" s="29"/>
-      <c r="B141" s="156" t="s">
-        <v>375</v>
-      </c>
-      <c r="C141" s="161" t="s">
+      <c r="B141" s="155" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="D141" s="161">
+      <c r="D141" s="160">
         <v>741.4</v>
       </c>
-      <c r="E141" s="207">
+      <c r="E141" s="206">
         <f>D141*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F141" s="261">
+      <c r="F141" s="260">
         <v>55</v>
       </c>
-      <c r="G141" s="162">
+      <c r="G141" s="161">
         <f>E141-E141*F141/100</f>
         <v>23757.792299999997</v>
       </c>
-      <c r="H141" s="231"/>
+      <c r="H141" s="230"/>
     </row>
     <row r="142" spans="1:8" ht="39">
       <c r="A142" s="29"/>
-      <c r="B142" s="156" t="s">
-        <v>376</v>
-      </c>
-      <c r="C142" s="161" t="s">
+      <c r="B142" s="155" t="s">
+        <v>375</v>
+      </c>
+      <c r="C142" s="160" t="s">
         <v>148</v>
       </c>
-      <c r="D142" s="161">
+      <c r="D142" s="160">
         <v>741.4</v>
       </c>
-      <c r="E142" s="207">
+      <c r="E142" s="206">
         <f>D142*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F142" s="261">
+      <c r="F142" s="260">
         <v>55</v>
       </c>
-      <c r="G142" s="162">
+      <c r="G142" s="161">
         <f t="shared" ref="G142:G147" si="4">E142-E142*F142/100</f>
         <v>23757.792299999997</v>
       </c>
-      <c r="H142" s="231"/>
+      <c r="H142" s="230"/>
     </row>
     <row r="143" spans="1:8" ht="25.5">
       <c r="A143" s="30"/>
-      <c r="B143" s="157" t="s">
-        <v>416</v>
+      <c r="B143" s="156" t="s">
+        <v>415</v>
       </c>
       <c r="C143" s="119" t="s">
         <v>103</v>
@@ -8600,46 +8640,46 @@
       <c r="D143" s="120">
         <v>741.4</v>
       </c>
-      <c r="E143" s="207">
+      <c r="E143" s="206">
         <f>D143*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F143" s="261">
+      <c r="F143" s="260">
         <v>55</v>
       </c>
-      <c r="G143" s="162">
+      <c r="G143" s="161">
         <f t="shared" si="4"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H143" s="231"/>
+      <c r="H143" s="230"/>
     </row>
     <row r="144" spans="1:8" ht="25.5">
       <c r="A144" s="30"/>
-      <c r="B144" s="157" t="s">
+      <c r="B144" s="156" t="s">
         <v>342</v>
       </c>
       <c r="C144" s="121" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D144" s="120">
         <v>741.4</v>
       </c>
-      <c r="E144" s="207">
+      <c r="E144" s="206">
         <f>D144*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F144" s="261">
+      <c r="F144" s="260">
         <v>55</v>
       </c>
-      <c r="G144" s="162">
+      <c r="G144" s="161">
         <f t="shared" si="4"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H144" s="231"/>
+      <c r="H144" s="230"/>
     </row>
     <row r="145" spans="1:8" ht="25.5">
       <c r="A145" s="30"/>
-      <c r="B145" s="157" t="s">
+      <c r="B145" s="156" t="s">
         <v>166</v>
       </c>
       <c r="C145" s="119" t="s">
@@ -8648,23 +8688,23 @@
       <c r="D145" s="120">
         <v>741.4</v>
       </c>
-      <c r="E145" s="207">
+      <c r="E145" s="206">
         <f>D145*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F145" s="261">
+      <c r="F145" s="260">
         <v>55</v>
       </c>
-      <c r="G145" s="162">
+      <c r="G145" s="161">
         <f t="shared" si="4"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H145" s="231"/>
+      <c r="H145" s="230"/>
     </row>
     <row r="146" spans="1:8" ht="14.25">
       <c r="A146" s="30"/>
-      <c r="B146" s="157" t="s">
-        <v>440</v>
+      <c r="B146" s="156" t="s">
+        <v>439</v>
       </c>
       <c r="C146" s="119" t="s">
         <v>103</v>
@@ -8672,22 +8712,22 @@
       <c r="D146" s="120">
         <v>741.4</v>
       </c>
-      <c r="E146" s="207">
+      <c r="E146" s="206">
         <f>D146*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F146" s="261">
+      <c r="F146" s="260">
         <v>55</v>
       </c>
-      <c r="G146" s="162">
+      <c r="G146" s="161">
         <f t="shared" si="4"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H146" s="231"/>
+      <c r="H146" s="230"/>
     </row>
     <row r="147" spans="1:8" ht="14.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="157" t="s">
+      <c r="B147" s="156" t="s">
         <v>330</v>
       </c>
       <c r="C147" s="119" t="s">
@@ -8696,39 +8736,39 @@
       <c r="D147" s="120">
         <v>741.4</v>
       </c>
-      <c r="E147" s="207">
+      <c r="E147" s="206">
         <f>D147*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F147" s="261">
+      <c r="F147" s="260">
         <v>55</v>
       </c>
-      <c r="G147" s="162">
+      <c r="G147" s="161">
         <f t="shared" si="4"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H147" s="231"/>
+      <c r="H147" s="230"/>
     </row>
     <row r="148" spans="1:8" ht="15">
       <c r="A148" s="16"/>
-      <c r="B148" s="298" t="s">
+      <c r="B148" s="343" t="s">
         <v>104</v>
       </c>
-      <c r="C148" s="298"/>
-      <c r="D148" s="298"/>
-      <c r="E148" s="298"/>
-      <c r="F148" s="298"/>
-      <c r="G148" s="298"/>
+      <c r="C148" s="343"/>
+      <c r="D148" s="343"/>
+      <c r="E148" s="343"/>
+      <c r="F148" s="343"/>
+      <c r="G148" s="343"/>
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8" ht="15">
       <c r="A149" s="16"/>
-      <c r="B149" s="298"/>
-      <c r="C149" s="298"/>
-      <c r="D149" s="298"/>
-      <c r="E149" s="298"/>
-      <c r="F149" s="298"/>
-      <c r="G149" s="298"/>
+      <c r="B149" s="343"/>
+      <c r="C149" s="343"/>
+      <c r="D149" s="343"/>
+      <c r="E149" s="343"/>
+      <c r="F149" s="343"/>
+      <c r="G149" s="343"/>
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8" ht="12" customHeight="1">
@@ -8737,7 +8777,7 @@
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
-      <c r="F150" s="241"/>
+      <c r="F150" s="240"/>
       <c r="G150" s="17"/>
       <c r="H150" s="2"/>
     </row>
@@ -8753,46 +8793,46 @@
     </row>
     <row r="152" spans="1:8" ht="15">
       <c r="A152" s="16"/>
-      <c r="B152" s="322" t="s">
-        <v>455</v>
-      </c>
-      <c r="C152" s="322"/>
-      <c r="D152" s="322"/>
-      <c r="E152" s="322"/>
-      <c r="F152" s="322"/>
-      <c r="G152" s="322"/>
+      <c r="B152" s="355" t="s">
+        <v>454</v>
+      </c>
+      <c r="C152" s="355"/>
+      <c r="D152" s="355"/>
+      <c r="E152" s="355"/>
+      <c r="F152" s="355"/>
+      <c r="G152" s="355"/>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="1:8" ht="18" customHeight="1">
       <c r="A153" s="16"/>
-      <c r="B153" s="323"/>
-      <c r="C153" s="323"/>
-      <c r="D153" s="323"/>
-      <c r="E153" s="323"/>
-      <c r="F153" s="323"/>
-      <c r="G153" s="323"/>
+      <c r="B153" s="356"/>
+      <c r="C153" s="356"/>
+      <c r="D153" s="356"/>
+      <c r="E153" s="356"/>
+      <c r="F153" s="356"/>
+      <c r="G153" s="356"/>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8" ht="102">
       <c r="A154" s="16"/>
-      <c r="B154" s="278" t="s">
+      <c r="B154" s="277" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="279" t="s">
-        <v>458</v>
-      </c>
-      <c r="D154" s="280" t="s">
-        <v>451</v>
-      </c>
-      <c r="E154" s="279" t="str">
+      <c r="C154" s="278" t="s">
+        <v>457</v>
+      </c>
+      <c r="D154" s="279" t="s">
+        <v>450</v>
+      </c>
+      <c r="E154" s="278" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F154" s="279" t="s">
-        <v>456</v>
-      </c>
-      <c r="G154" s="279" t="s">
-        <v>453</v>
+      <c r="F154" s="278" t="s">
+        <v>455</v>
+      </c>
+      <c r="G154" s="278" t="s">
+        <v>452</v>
       </c>
       <c r="H154" s="2"/>
     </row>
@@ -8810,7 +8850,7 @@
       <c r="E155" s="55">
         <v>4</v>
       </c>
-      <c r="F155" s="252">
+      <c r="F155" s="251">
         <v>5</v>
       </c>
       <c r="G155" s="54">
@@ -8820,26 +8860,26 @@
     </row>
     <row r="156" spans="1:8" ht="18">
       <c r="A156" s="16"/>
-      <c r="B156" s="360" t="s">
-        <v>414</v>
-      </c>
-      <c r="C156" s="361"/>
-      <c r="D156" s="361"/>
-      <c r="E156" s="361"/>
-      <c r="F156" s="362"/>
-      <c r="G156" s="363"/>
+      <c r="B156" s="308" t="s">
+        <v>413</v>
+      </c>
+      <c r="C156" s="309"/>
+      <c r="D156" s="309"/>
+      <c r="E156" s="309"/>
+      <c r="F156" s="310"/>
+      <c r="G156" s="311"/>
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8" ht="12" customHeight="1">
       <c r="A157" s="16"/>
-      <c r="B157" s="366" t="s">
+      <c r="B157" s="314" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="367"/>
-      <c r="D157" s="367"/>
-      <c r="E157" s="367"/>
-      <c r="F157" s="368"/>
-      <c r="G157" s="369"/>
+      <c r="C157" s="315"/>
+      <c r="D157" s="315"/>
+      <c r="E157" s="315"/>
+      <c r="F157" s="316"/>
+      <c r="G157" s="317"/>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="1:8" ht="12" customHeight="1">
@@ -8853,18 +8893,18 @@
       <c r="D158" s="75">
         <v>135</v>
       </c>
-      <c r="E158" s="207">
+      <c r="E158" s="206">
         <f>D158*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="F158" s="261">
+      <c r="F158" s="260">
         <v>55</v>
       </c>
       <c r="G158" s="75">
         <f>E158-E158*F158/100</f>
         <v>4326.0074999999997</v>
       </c>
-      <c r="H158" s="231"/>
+      <c r="H158" s="230"/>
     </row>
     <row r="159" spans="1:8" ht="63.75">
       <c r="A159" s="16"/>
@@ -8877,18 +8917,18 @@
       <c r="D159" s="43">
         <v>129.6</v>
       </c>
-      <c r="E159" s="207">
+      <c r="E159" s="206">
         <f>D159*Лист2!$B$3</f>
         <v>9228.8159999999989</v>
       </c>
-      <c r="F159" s="261">
+      <c r="F159" s="260">
         <v>55</v>
       </c>
       <c r="G159" s="75">
         <f t="shared" ref="G159:G162" si="5">E159-E159*F159/100</f>
         <v>4152.9671999999991</v>
       </c>
-      <c r="H159" s="231"/>
+      <c r="H159" s="230"/>
     </row>
     <row r="160" spans="1:8" ht="38.25">
       <c r="A160" s="16"/>
@@ -8901,23 +8941,23 @@
       <c r="D160" s="45">
         <v>247.13</v>
       </c>
-      <c r="E160" s="207">
+      <c r="E160" s="206">
         <f>D160*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F160" s="261">
+      <c r="F160" s="260">
         <v>70</v>
       </c>
       <c r="G160" s="75">
         <f t="shared" si="5"/>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H160" s="231"/>
+      <c r="H160" s="230"/>
     </row>
     <row r="161" spans="1:8" ht="51">
       <c r="A161" s="16"/>
       <c r="B161" s="46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C161" s="45" t="s">
         <v>103</v>
@@ -8925,18 +8965,18 @@
       <c r="D161" s="45">
         <v>741.4</v>
       </c>
-      <c r="E161" s="207">
+      <c r="E161" s="206">
         <f>D161*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F161" s="261">
+      <c r="F161" s="260">
         <v>70</v>
       </c>
       <c r="G161" s="75">
         <f t="shared" si="5"/>
         <v>15838.528200000001</v>
       </c>
-      <c r="H161" s="231"/>
+      <c r="H161" s="230"/>
     </row>
     <row r="162" spans="1:8" ht="28.5">
       <c r="A162" s="16"/>
@@ -8949,18 +8989,18 @@
       <c r="D162" s="45">
         <v>247.13</v>
       </c>
-      <c r="E162" s="207">
+      <c r="E162" s="206">
         <f>D162*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F162" s="261">
+      <c r="F162" s="260">
         <v>70</v>
       </c>
       <c r="G162" s="75">
         <f t="shared" si="5"/>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H162" s="231"/>
+      <c r="H162" s="230"/>
     </row>
     <row r="163" spans="1:8" ht="15">
       <c r="A163" s="16"/>
@@ -8968,20 +9008,20 @@
       <c r="C163" s="80"/>
       <c r="D163" s="80"/>
       <c r="E163" s="81"/>
-      <c r="F163" s="253"/>
+      <c r="F163" s="252"/>
       <c r="G163" s="83"/>
       <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8" ht="15">
       <c r="A164" s="16"/>
-      <c r="B164" s="370" t="s">
+      <c r="B164" s="318" t="s">
         <v>217</v>
       </c>
-      <c r="C164" s="371"/>
-      <c r="D164" s="371"/>
-      <c r="E164" s="371"/>
-      <c r="F164" s="372"/>
-      <c r="G164" s="373"/>
+      <c r="C164" s="319"/>
+      <c r="D164" s="319"/>
+      <c r="E164" s="319"/>
+      <c r="F164" s="320"/>
+      <c r="G164" s="321"/>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:8" ht="15" customHeight="1">
@@ -8995,18 +9035,18 @@
       <c r="D165" s="67">
         <v>94.6</v>
       </c>
-      <c r="E165" s="207">
+      <c r="E165" s="206">
         <f>D165*Лист2!$B$3</f>
         <v>6736.4659999999994</v>
       </c>
-      <c r="F165" s="261">
+      <c r="F165" s="260">
         <v>55</v>
       </c>
       <c r="G165" s="76">
         <f>E165-E165*F165/100</f>
         <v>3031.4097000000002</v>
       </c>
-      <c r="H165" s="231"/>
+      <c r="H165" s="230"/>
     </row>
     <row r="166" spans="1:8" ht="51">
       <c r="A166" s="16"/>
@@ -9019,18 +9059,18 @@
       <c r="D166" s="67">
         <v>82.1</v>
       </c>
-      <c r="E166" s="207">
+      <c r="E166" s="206">
         <f>D166*Лист2!$B$3</f>
         <v>5846.3409999999994</v>
       </c>
-      <c r="F166" s="261">
+      <c r="F166" s="260">
         <v>55</v>
       </c>
       <c r="G166" s="76">
         <f t="shared" ref="G166:G169" si="6">E166-E166*F166/100</f>
         <v>2630.8534500000001</v>
       </c>
-      <c r="H166" s="231"/>
+      <c r="H166" s="230"/>
     </row>
     <row r="167" spans="1:8" ht="38.25">
       <c r="A167" s="16"/>
@@ -9043,23 +9083,23 @@
       <c r="D167" s="67">
         <v>137.30000000000001</v>
       </c>
-      <c r="E167" s="207">
+      <c r="E167" s="206">
         <f>D167*Лист2!$B$3</f>
         <v>9777.1329999999998</v>
       </c>
-      <c r="F167" s="261">
+      <c r="F167" s="260">
         <v>70</v>
       </c>
       <c r="G167" s="76">
         <f t="shared" si="6"/>
         <v>2933.1399000000001</v>
       </c>
-      <c r="H167" s="231"/>
+      <c r="H167" s="230"/>
     </row>
     <row r="168" spans="1:8" ht="51">
       <c r="A168" s="16"/>
       <c r="B168" s="46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C168" s="67" t="s">
         <v>148</v>
@@ -9067,18 +9107,18 @@
       <c r="D168" s="67">
         <v>411.9</v>
       </c>
-      <c r="E168" s="207">
+      <c r="E168" s="206">
         <f>D168*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="F168" s="261">
+      <c r="F168" s="260">
         <v>70</v>
       </c>
       <c r="G168" s="76">
         <f t="shared" si="6"/>
         <v>8799.4196999999986</v>
       </c>
-      <c r="H168" s="231"/>
+      <c r="H168" s="230"/>
     </row>
     <row r="169" spans="1:8" ht="25.5">
       <c r="A169" s="16"/>
@@ -9091,18 +9131,18 @@
       <c r="D169" s="67">
         <v>137.30000000000001</v>
       </c>
-      <c r="E169" s="207">
+      <c r="E169" s="206">
         <f>D169*Лист2!$B$3</f>
         <v>9777.1329999999998</v>
       </c>
-      <c r="F169" s="261">
+      <c r="F169" s="260">
         <v>70</v>
       </c>
       <c r="G169" s="76">
         <f t="shared" si="6"/>
         <v>2933.1399000000001</v>
       </c>
-      <c r="H169" s="231"/>
+      <c r="H169" s="230"/>
     </row>
     <row r="170" spans="1:8" ht="15">
       <c r="A170" s="16"/>
@@ -9126,26 +9166,26 @@
     </row>
     <row r="172" spans="1:8" ht="18">
       <c r="A172" s="16"/>
-      <c r="B172" s="364" t="s">
-        <v>415</v>
-      </c>
-      <c r="C172" s="364"/>
-      <c r="D172" s="364"/>
-      <c r="E172" s="364"/>
-      <c r="F172" s="365"/>
-      <c r="G172" s="364"/>
+      <c r="B172" s="312" t="s">
+        <v>414</v>
+      </c>
+      <c r="C172" s="312"/>
+      <c r="D172" s="312"/>
+      <c r="E172" s="312"/>
+      <c r="F172" s="313"/>
+      <c r="G172" s="312"/>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8" ht="15">
       <c r="A173" s="16"/>
-      <c r="B173" s="366" t="s">
+      <c r="B173" s="314" t="s">
         <v>215</v>
       </c>
-      <c r="C173" s="367"/>
-      <c r="D173" s="367"/>
-      <c r="E173" s="367"/>
-      <c r="F173" s="368"/>
-      <c r="G173" s="369"/>
+      <c r="C173" s="315"/>
+      <c r="D173" s="315"/>
+      <c r="E173" s="315"/>
+      <c r="F173" s="316"/>
+      <c r="G173" s="317"/>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8" ht="15">
@@ -9159,18 +9199,18 @@
       <c r="D174" s="75">
         <v>135</v>
       </c>
-      <c r="E174" s="207">
+      <c r="E174" s="206">
         <f>D174*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="F174" s="261">
+      <c r="F174" s="260">
         <v>55</v>
       </c>
       <c r="G174" s="75">
         <f>E174-E174*F174/100</f>
         <v>4326.0074999999997</v>
       </c>
-      <c r="H174" s="231"/>
+      <c r="H174" s="230"/>
     </row>
     <row r="175" spans="1:8" ht="63.75">
       <c r="A175" s="16"/>
@@ -9183,18 +9223,18 @@
       <c r="D175" s="43">
         <v>129.6</v>
       </c>
-      <c r="E175" s="207">
+      <c r="E175" s="206">
         <f>D175*Лист2!$B$3</f>
         <v>9228.8159999999989</v>
       </c>
-      <c r="F175" s="261">
+      <c r="F175" s="260">
         <v>55</v>
       </c>
       <c r="G175" s="75">
         <f t="shared" ref="G175:G179" si="7">E175-E175*F175/100</f>
         <v>4152.9671999999991</v>
       </c>
-      <c r="H175" s="231"/>
+      <c r="H175" s="230"/>
     </row>
     <row r="176" spans="1:8" ht="38.25">
       <c r="A176" s="16"/>
@@ -9207,23 +9247,23 @@
       <c r="D176" s="45">
         <v>247.13</v>
       </c>
-      <c r="E176" s="207">
+      <c r="E176" s="206">
         <f>D176*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F176" s="261">
+      <c r="F176" s="260">
         <v>70</v>
       </c>
       <c r="G176" s="75">
         <f t="shared" si="7"/>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H176" s="231"/>
+      <c r="H176" s="230"/>
     </row>
     <row r="177" spans="1:8" ht="51">
       <c r="A177" s="16"/>
       <c r="B177" s="46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C177" s="45" t="s">
         <v>103</v>
@@ -9231,18 +9271,18 @@
       <c r="D177" s="45">
         <v>741.4</v>
       </c>
-      <c r="E177" s="207">
+      <c r="E177" s="206">
         <f>D177*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F177" s="261">
+      <c r="F177" s="260">
         <v>70</v>
       </c>
       <c r="G177" s="75">
         <f t="shared" si="7"/>
         <v>15838.528200000001</v>
       </c>
-      <c r="H177" s="231"/>
+      <c r="H177" s="230"/>
     </row>
     <row r="178" spans="1:8" ht="28.5">
       <c r="A178" s="16"/>
@@ -9255,18 +9295,18 @@
       <c r="D178" s="45">
         <v>247.13</v>
       </c>
-      <c r="E178" s="207">
+      <c r="E178" s="206">
         <f>D178*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F178" s="261">
+      <c r="F178" s="260">
         <v>70</v>
       </c>
       <c r="G178" s="75">
         <f t="shared" si="7"/>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H178" s="231"/>
+      <c r="H178" s="230"/>
     </row>
     <row r="179" spans="1:8" ht="28.5">
       <c r="A179" s="16"/>
@@ -9279,18 +9319,18 @@
       <c r="D179" s="67">
         <v>741.4</v>
       </c>
-      <c r="E179" s="207">
+      <c r="E179" s="206">
         <f>D179*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F179" s="261">
+      <c r="F179" s="260">
         <v>55</v>
       </c>
       <c r="G179" s="75">
         <f t="shared" si="7"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H179" s="231"/>
+      <c r="H179" s="230"/>
     </row>
     <row r="180" spans="1:8" ht="15">
       <c r="A180" s="16"/>
@@ -9304,14 +9344,14 @@
     </row>
     <row r="181" spans="1:8" ht="15">
       <c r="A181" s="16"/>
-      <c r="B181" s="370" t="s">
+      <c r="B181" s="318" t="s">
         <v>217</v>
       </c>
-      <c r="C181" s="371"/>
-      <c r="D181" s="371"/>
-      <c r="E181" s="371"/>
-      <c r="F181" s="372"/>
-      <c r="G181" s="373"/>
+      <c r="C181" s="319"/>
+      <c r="D181" s="319"/>
+      <c r="E181" s="319"/>
+      <c r="F181" s="320"/>
+      <c r="G181" s="321"/>
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="1:8" ht="15">
@@ -9325,18 +9365,18 @@
       <c r="D182" s="67">
         <v>94.6</v>
       </c>
-      <c r="E182" s="207">
+      <c r="E182" s="206">
         <f>D182*Лист2!$B$3</f>
         <v>6736.4659999999994</v>
       </c>
-      <c r="F182" s="261">
+      <c r="F182" s="260">
         <v>55</v>
       </c>
       <c r="G182" s="76">
         <f>E182-E182*F182/100</f>
         <v>3031.4097000000002</v>
       </c>
-      <c r="H182" s="231"/>
+      <c r="H182" s="230"/>
     </row>
     <row r="183" spans="1:8" ht="51">
       <c r="A183" s="16"/>
@@ -9349,18 +9389,18 @@
       <c r="D183" s="67">
         <v>82.1</v>
       </c>
-      <c r="E183" s="207">
+      <c r="E183" s="206">
         <f>D183*Лист2!$B$3</f>
         <v>5846.3409999999994</v>
       </c>
-      <c r="F183" s="261">
+      <c r="F183" s="260">
         <v>55</v>
       </c>
       <c r="G183" s="76">
         <f t="shared" ref="G183:G187" si="8">E183-E183*F183/100</f>
         <v>2630.8534500000001</v>
       </c>
-      <c r="H183" s="231"/>
+      <c r="H183" s="230"/>
     </row>
     <row r="184" spans="1:8" ht="38.25">
       <c r="A184" s="16"/>
@@ -9373,18 +9413,18 @@
       <c r="D184" s="67">
         <v>137.30000000000001</v>
       </c>
-      <c r="E184" s="207">
+      <c r="E184" s="206">
         <f>D184*Лист2!$B$3</f>
         <v>9777.1329999999998</v>
       </c>
-      <c r="F184" s="261">
+      <c r="F184" s="260">
         <v>70</v>
       </c>
       <c r="G184" s="76">
         <f t="shared" si="8"/>
         <v>2933.1399000000001</v>
       </c>
-      <c r="H184" s="231"/>
+      <c r="H184" s="230"/>
     </row>
     <row r="185" spans="1:8" ht="51">
       <c r="A185" s="16"/>
@@ -9397,23 +9437,23 @@
       <c r="D185" s="67">
         <v>411.9</v>
       </c>
-      <c r="E185" s="207">
+      <c r="E185" s="206">
         <f>D185*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="F185" s="261">
+      <c r="F185" s="260">
         <v>70</v>
       </c>
       <c r="G185" s="76">
         <f t="shared" si="8"/>
         <v>8799.4196999999986</v>
       </c>
-      <c r="H185" s="231"/>
+      <c r="H185" s="230"/>
     </row>
     <row r="186" spans="1:8" ht="25.5">
       <c r="A186" s="16"/>
       <c r="B186" s="46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C186" s="67" t="s">
         <v>218</v>
@@ -9421,18 +9461,18 @@
       <c r="D186" s="67">
         <v>137.30000000000001</v>
       </c>
-      <c r="E186" s="207">
+      <c r="E186" s="206">
         <f>D186*Лист2!$B$3</f>
         <v>9777.1329999999998</v>
       </c>
-      <c r="F186" s="261">
+      <c r="F186" s="260">
         <v>70</v>
       </c>
       <c r="G186" s="76">
         <f t="shared" si="8"/>
         <v>2933.1399000000001</v>
       </c>
-      <c r="H186" s="231"/>
+      <c r="H186" s="230"/>
     </row>
     <row r="187" spans="1:8" ht="28.5">
       <c r="A187" s="16"/>
@@ -9445,18 +9485,18 @@
       <c r="D187" s="67">
         <v>741.4</v>
       </c>
-      <c r="E187" s="207">
+      <c r="E187" s="206">
         <f>D187*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F187" s="261">
+      <c r="F187" s="260">
         <v>55</v>
       </c>
       <c r="G187" s="76">
         <f t="shared" si="8"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H187" s="231"/>
+      <c r="H187" s="230"/>
     </row>
     <row r="188" spans="1:8" ht="15">
       <c r="A188" s="16"/>
@@ -9470,12 +9510,12 @@
     </row>
     <row r="189" spans="1:8" ht="15">
       <c r="A189" s="16"/>
-      <c r="B189" s="152"/>
-      <c r="C189" s="153"/>
-      <c r="D189" s="153"/>
-      <c r="E189" s="154"/>
-      <c r="F189" s="254"/>
-      <c r="G189" s="155"/>
+      <c r="B189" s="151"/>
+      <c r="C189" s="152"/>
+      <c r="D189" s="152"/>
+      <c r="E189" s="153"/>
+      <c r="F189" s="253"/>
+      <c r="G189" s="154"/>
       <c r="H189" s="2"/>
     </row>
     <row r="190" spans="1:8" ht="15">
@@ -9484,20 +9524,20 @@
       <c r="C190" s="103"/>
       <c r="D190" s="103"/>
       <c r="E190" s="104"/>
-      <c r="F190" s="253"/>
+      <c r="F190" s="252"/>
       <c r="G190" s="105"/>
       <c r="H190" s="2"/>
     </row>
     <row r="191" spans="1:8" ht="38.25" customHeight="1">
       <c r="A191" s="16"/>
-      <c r="B191" s="374" t="s">
+      <c r="B191" s="322" t="s">
         <v>326</v>
       </c>
-      <c r="C191" s="374"/>
-      <c r="D191" s="374"/>
-      <c r="E191" s="374"/>
-      <c r="F191" s="375"/>
-      <c r="G191" s="376"/>
+      <c r="C191" s="322"/>
+      <c r="D191" s="322"/>
+      <c r="E191" s="322"/>
+      <c r="F191" s="323"/>
+      <c r="G191" s="324"/>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1">
@@ -9511,18 +9551,18 @@
       <c r="D192" s="75">
         <v>135</v>
       </c>
-      <c r="E192" s="207">
+      <c r="E192" s="206">
         <f>D192*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="F192" s="261">
+      <c r="F192" s="260">
         <v>55</v>
       </c>
       <c r="G192" s="106">
         <f>E192-E192*F192/100</f>
         <v>4326.0074999999997</v>
       </c>
-      <c r="H192" s="231"/>
+      <c r="H192" s="230"/>
     </row>
     <row r="193" spans="1:8" ht="38.25">
       <c r="A193" s="16"/>
@@ -9535,18 +9575,18 @@
       <c r="D193" s="45">
         <v>247.13</v>
       </c>
-      <c r="E193" s="207">
+      <c r="E193" s="206">
         <f>D193*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F193" s="261">
+      <c r="F193" s="260">
         <v>70</v>
       </c>
       <c r="G193" s="106">
         <f t="shared" ref="G193:G196" si="9">E193-E193*F193/100</f>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H193" s="231"/>
+      <c r="H193" s="230"/>
     </row>
     <row r="194" spans="1:8" ht="25.5">
       <c r="A194" s="16"/>
@@ -9559,18 +9599,18 @@
       <c r="D194" s="45">
         <v>494.27</v>
       </c>
-      <c r="E194" s="207">
+      <c r="E194" s="206">
         <f>D194*Лист2!$B$3</f>
         <v>35196.966699999997</v>
       </c>
-      <c r="F194" s="261">
+      <c r="F194" s="260">
         <v>70</v>
       </c>
       <c r="G194" s="106">
         <f t="shared" si="9"/>
         <v>10559.09001</v>
       </c>
-      <c r="H194" s="231"/>
+      <c r="H194" s="230"/>
     </row>
     <row r="195" spans="1:8" ht="51">
       <c r="A195" s="16"/>
@@ -9583,42 +9623,42 @@
       <c r="D195" s="101">
         <v>225</v>
       </c>
-      <c r="E195" s="207">
+      <c r="E195" s="206">
         <f>D195*Лист2!$B$3</f>
         <v>16022.249999999998</v>
       </c>
-      <c r="F195" s="261">
+      <c r="F195" s="260">
         <v>55</v>
       </c>
       <c r="G195" s="106">
         <f t="shared" si="9"/>
         <v>7210.0124999999989</v>
       </c>
-      <c r="H195" s="231"/>
+      <c r="H195" s="230"/>
     </row>
     <row r="196" spans="1:8" ht="38.25">
       <c r="A196" s="16"/>
       <c r="B196" s="100" t="s">
+        <v>368</v>
+      </c>
+      <c r="C196" s="101" t="s">
         <v>369</v>
-      </c>
-      <c r="C196" s="101" t="s">
-        <v>370</v>
       </c>
       <c r="D196" s="101">
         <v>199.2</v>
       </c>
-      <c r="E196" s="207">
+      <c r="E196" s="206">
         <f>D196*Лист2!$B$3</f>
         <v>14185.031999999997</v>
       </c>
-      <c r="F196" s="261">
+      <c r="F196" s="260">
         <v>55</v>
       </c>
       <c r="G196" s="106">
         <f t="shared" si="9"/>
         <v>6383.2643999999982</v>
       </c>
-      <c r="H196" s="231"/>
+      <c r="H196" s="230"/>
     </row>
     <row r="197" spans="1:8" ht="12" customHeight="1">
       <c r="A197" s="16"/>
@@ -9626,7 +9666,7 @@
       <c r="C197" s="17"/>
       <c r="D197" s="17"/>
       <c r="E197" s="17"/>
-      <c r="F197" s="241"/>
+      <c r="F197" s="240"/>
       <c r="G197" s="107"/>
       <c r="H197" s="2"/>
     </row>
@@ -9636,47 +9676,47 @@
       <c r="C198" s="17"/>
       <c r="D198" s="17"/>
       <c r="E198" s="17"/>
-      <c r="F198" s="241"/>
+      <c r="F198" s="240"/>
       <c r="G198" s="107"/>
       <c r="H198" s="2"/>
     </row>
     <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="16"/>
-      <c r="B199" s="374" t="s">
-        <v>344</v>
-      </c>
-      <c r="C199" s="374"/>
-      <c r="D199" s="374"/>
-      <c r="E199" s="374"/>
-      <c r="F199" s="375"/>
-      <c r="G199" s="376"/>
+      <c r="B199" s="322" t="s">
+        <v>343</v>
+      </c>
+      <c r="C199" s="322"/>
+      <c r="D199" s="322"/>
+      <c r="E199" s="322"/>
+      <c r="F199" s="323"/>
+      <c r="G199" s="324"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" s="212" customFormat="1" ht="102">
+    <row r="200" spans="1:8" s="211" customFormat="1" ht="102">
       <c r="A200" s="16"/>
       <c r="B200" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C200" s="133" t="s">
-        <v>458</v>
+      <c r="C200" s="132" t="s">
+        <v>457</v>
       </c>
       <c r="D200" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E200" s="133" t="str">
+      <c r="E200" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F200" s="285" t="s">
-        <v>454</v>
-      </c>
-      <c r="G200" s="286"/>
-      <c r="H200" s="211"/>
+      <c r="F200" s="377" t="s">
+        <v>453</v>
+      </c>
+      <c r="G200" s="378"/>
+      <c r="H200" s="210"/>
     </row>
     <row r="201" spans="1:8" ht="12" customHeight="1">
       <c r="A201" s="16"/>
       <c r="B201" s="91" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C201" s="92" t="s">
         <v>316</v>
@@ -9684,232 +9724,232 @@
       <c r="D201" s="123">
         <v>167.3</v>
       </c>
-      <c r="E201" s="207">
+      <c r="E201" s="206">
         <f>D201*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F201" s="287">
+      <c r="F201" s="379">
         <f>E201*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G201" s="288"/>
+      <c r="G201" s="380"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" s="164" customFormat="1" ht="12" customHeight="1">
+    <row r="202" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
       <c r="A202" s="16"/>
-      <c r="B202" s="165"/>
-      <c r="C202" s="166"/>
-      <c r="D202" s="167"/>
-      <c r="E202" s="168"/>
-      <c r="F202" s="168"/>
-      <c r="G202" s="169"/>
-      <c r="H202" s="163"/>
-    </row>
-    <row r="203" spans="1:8" s="164" customFormat="1" ht="12" customHeight="1">
+      <c r="B202" s="164"/>
+      <c r="C202" s="165"/>
+      <c r="D202" s="166"/>
+      <c r="E202" s="167"/>
+      <c r="F202" s="167"/>
+      <c r="G202" s="168"/>
+      <c r="H202" s="162"/>
+    </row>
+    <row r="203" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
       <c r="A203" s="16"/>
-      <c r="B203" s="165"/>
-      <c r="C203" s="166"/>
-      <c r="D203" s="167"/>
-      <c r="E203" s="168"/>
-      <c r="F203" s="168"/>
-      <c r="G203" s="169"/>
-      <c r="H203" s="163"/>
-    </row>
-    <row r="204" spans="1:8" s="164" customFormat="1" ht="12" customHeight="1">
+      <c r="B203" s="164"/>
+      <c r="C203" s="165"/>
+      <c r="D203" s="166"/>
+      <c r="E203" s="167"/>
+      <c r="F203" s="167"/>
+      <c r="G203" s="168"/>
+      <c r="H203" s="162"/>
+    </row>
+    <row r="204" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
       <c r="A204" s="16"/>
-      <c r="B204" s="165"/>
-      <c r="C204" s="166"/>
-      <c r="D204" s="167"/>
-      <c r="E204" s="168"/>
-      <c r="F204" s="168"/>
-      <c r="G204" s="169"/>
-      <c r="H204" s="163"/>
-    </row>
-    <row r="205" spans="1:8" s="164" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B204" s="164"/>
+      <c r="C204" s="165"/>
+      <c r="D204" s="166"/>
+      <c r="E204" s="167"/>
+      <c r="F204" s="167"/>
+      <c r="G204" s="168"/>
+      <c r="H204" s="162"/>
+    </row>
+    <row r="205" spans="1:8" s="163" customFormat="1" ht="45.75" customHeight="1">
       <c r="A205" s="16"/>
-      <c r="B205" s="357" t="s">
-        <v>431</v>
-      </c>
-      <c r="C205" s="357"/>
-      <c r="D205" s="357"/>
-      <c r="E205" s="357"/>
-      <c r="F205" s="358"/>
-      <c r="G205" s="359"/>
-      <c r="H205" s="163"/>
-    </row>
-    <row r="206" spans="1:8" s="164" customFormat="1" ht="102">
+      <c r="B205" s="305" t="s">
+        <v>430</v>
+      </c>
+      <c r="C205" s="305"/>
+      <c r="D205" s="305"/>
+      <c r="E205" s="305"/>
+      <c r="F205" s="306"/>
+      <c r="G205" s="307"/>
+      <c r="H205" s="162"/>
+    </row>
+    <row r="206" spans="1:8" s="163" customFormat="1" ht="102">
       <c r="A206" s="16"/>
       <c r="B206" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C206" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D206" s="240" t="s">
-        <v>451</v>
-      </c>
-      <c r="E206" s="133" t="str">
+      <c r="C206" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D206" s="239" t="s">
+        <v>450</v>
+      </c>
+      <c r="E206" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F206" s="213" t="s">
-        <v>456</v>
-      </c>
-      <c r="G206" s="133" t="s">
-        <v>452</v>
-      </c>
-      <c r="H206" s="163"/>
-    </row>
-    <row r="207" spans="1:8" s="164" customFormat="1" ht="51">
+      <c r="F206" s="212" t="s">
+        <v>455</v>
+      </c>
+      <c r="G206" s="132" t="s">
+        <v>451</v>
+      </c>
+      <c r="H206" s="162"/>
+    </row>
+    <row r="207" spans="1:8" s="163" customFormat="1" ht="51">
       <c r="A207" s="16"/>
-      <c r="B207" s="238" t="s">
-        <v>423</v>
-      </c>
-      <c r="C207" s="171" t="s">
+      <c r="B207" s="237" t="s">
+        <v>422</v>
+      </c>
+      <c r="C207" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="D207" s="172">
+      <c r="D207" s="171">
         <v>225</v>
       </c>
-      <c r="E207" s="207">
+      <c r="E207" s="206">
         <f>D207*Лист2!$B$3</f>
         <v>16022.249999999998</v>
       </c>
-      <c r="F207" s="261">
+      <c r="F207" s="260">
         <v>55</v>
       </c>
-      <c r="G207" s="174">
+      <c r="G207" s="173">
         <f>E207-E207*F207/100</f>
         <v>7210.0124999999989</v>
       </c>
-      <c r="H207" s="231"/>
-    </row>
-    <row r="208" spans="1:8" s="164" customFormat="1" ht="25.5">
+      <c r="H207" s="230"/>
+    </row>
+    <row r="208" spans="1:8" s="163" customFormat="1" ht="25.5">
       <c r="A208" s="16"/>
-      <c r="B208" s="238" t="s">
-        <v>420</v>
-      </c>
-      <c r="C208" s="171" t="s">
-        <v>370</v>
-      </c>
-      <c r="D208" s="172">
+      <c r="B208" s="237" t="s">
+        <v>419</v>
+      </c>
+      <c r="C208" s="170" t="s">
+        <v>369</v>
+      </c>
+      <c r="D208" s="171">
         <v>199.2</v>
       </c>
-      <c r="E208" s="207">
+      <c r="E208" s="206">
         <f>D208*Лист2!$B$3</f>
         <v>14185.031999999997</v>
       </c>
-      <c r="F208" s="261">
+      <c r="F208" s="260">
         <v>55</v>
       </c>
-      <c r="G208" s="174">
+      <c r="G208" s="173">
         <f t="shared" ref="G208:G210" si="10">E208-E208*F208/100</f>
         <v>6383.2643999999982</v>
       </c>
-      <c r="H208" s="231"/>
-    </row>
-    <row r="209" spans="1:8" s="164" customFormat="1" ht="25.5">
+      <c r="H208" s="230"/>
+    </row>
+    <row r="209" spans="1:8" s="163" customFormat="1" ht="25.5">
       <c r="A209" s="16"/>
-      <c r="B209" s="239" t="s">
-        <v>421</v>
-      </c>
-      <c r="C209" s="171" t="s">
+      <c r="B209" s="238" t="s">
+        <v>420</v>
+      </c>
+      <c r="C209" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="D209" s="172">
+      <c r="D209" s="171">
         <v>741.4</v>
       </c>
-      <c r="E209" s="207">
+      <c r="E209" s="206">
         <f>D209*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F209" s="261">
+      <c r="F209" s="260">
         <v>75</v>
       </c>
-      <c r="G209" s="174">
+      <c r="G209" s="173">
         <f t="shared" si="10"/>
         <v>13198.773499999996</v>
       </c>
-      <c r="H209" s="231"/>
+      <c r="H209" s="230"/>
     </row>
     <row r="210" spans="1:8" ht="12" customHeight="1">
       <c r="A210" s="16"/>
-      <c r="B210" s="239" t="s">
-        <v>422</v>
-      </c>
-      <c r="C210" s="171" t="s">
+      <c r="B210" s="238" t="s">
+        <v>421</v>
+      </c>
+      <c r="C210" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="D210" s="172">
+      <c r="D210" s="171">
         <v>167.7</v>
       </c>
-      <c r="E210" s="207">
+      <c r="E210" s="206">
         <f>D210*Лист2!$B$3</f>
         <v>11941.916999999998</v>
       </c>
-      <c r="F210" s="261">
+      <c r="F210" s="260">
         <v>75</v>
       </c>
-      <c r="G210" s="174">
+      <c r="G210" s="173">
         <f t="shared" si="10"/>
         <v>2985.4792500000003</v>
       </c>
-      <c r="H210" s="231"/>
+      <c r="H210" s="230"/>
     </row>
     <row r="211" spans="1:8" ht="12" customHeight="1">
       <c r="A211" s="16"/>
-      <c r="B211" s="170"/>
-      <c r="C211" s="171"/>
-      <c r="D211" s="172"/>
-      <c r="E211" s="173"/>
-      <c r="F211" s="255"/>
-      <c r="G211" s="177"/>
+      <c r="B211" s="169"/>
+      <c r="C211" s="170"/>
+      <c r="D211" s="171"/>
+      <c r="E211" s="172"/>
+      <c r="F211" s="254"/>
+      <c r="G211" s="176"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" s="164" customFormat="1" ht="12" customHeight="1">
+    <row r="212" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
       <c r="A212" s="16"/>
-      <c r="B212" s="165"/>
-      <c r="C212" s="166"/>
-      <c r="D212" s="167"/>
-      <c r="E212" s="175"/>
-      <c r="F212" s="175"/>
-      <c r="G212" s="176"/>
-      <c r="H212" s="163"/>
-    </row>
-    <row r="213" spans="1:8" s="164" customFormat="1" ht="12" customHeight="1">
+      <c r="B212" s="164"/>
+      <c r="C212" s="165"/>
+      <c r="D212" s="166"/>
+      <c r="E212" s="174"/>
+      <c r="F212" s="174"/>
+      <c r="G212" s="175"/>
+      <c r="H212" s="162"/>
+    </row>
+    <row r="213" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
       <c r="A213" s="16"/>
-      <c r="B213" s="165"/>
-      <c r="C213" s="166"/>
-      <c r="D213" s="167"/>
-      <c r="E213" s="175"/>
-      <c r="F213" s="175"/>
-      <c r="G213" s="176"/>
-      <c r="H213" s="163"/>
+      <c r="B213" s="164"/>
+      <c r="C213" s="165"/>
+      <c r="D213" s="166"/>
+      <c r="E213" s="174"/>
+      <c r="F213" s="174"/>
+      <c r="G213" s="175"/>
+      <c r="H213" s="162"/>
     </row>
     <row r="214" spans="1:8" ht="33.75" customHeight="1">
       <c r="A214" s="16"/>
-      <c r="B214" s="380" t="s">
-        <v>412</v>
-      </c>
-      <c r="C214" s="381"/>
-      <c r="D214" s="381"/>
-      <c r="E214" s="381"/>
-      <c r="F214" s="382"/>
-      <c r="G214" s="381"/>
+      <c r="B214" s="360" t="s">
+        <v>411</v>
+      </c>
+      <c r="C214" s="361"/>
+      <c r="D214" s="361"/>
+      <c r="E214" s="361"/>
+      <c r="F214" s="362"/>
+      <c r="G214" s="361"/>
       <c r="H214" s="2"/>
     </row>
     <row r="215" spans="1:8" ht="26.25" customHeight="1">
       <c r="A215" s="16"/>
       <c r="B215" s="122" t="s">
-        <v>444</v>
-      </c>
-      <c r="C215" s="377" t="s">
         <v>443</v>
       </c>
-      <c r="D215" s="378"/>
-      <c r="E215" s="378"/>
-      <c r="F215" s="379"/>
-      <c r="G215" s="378"/>
+      <c r="C215" s="357" t="s">
+        <v>442</v>
+      </c>
+      <c r="D215" s="358"/>
+      <c r="E215" s="358"/>
+      <c r="F215" s="359"/>
+      <c r="G215" s="358"/>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="1:8" ht="12" customHeight="1">
@@ -9918,7 +9958,7 @@
       <c r="C216" s="17"/>
       <c r="D216" s="17"/>
       <c r="E216" s="17"/>
-      <c r="F216" s="241"/>
+      <c r="F216" s="240"/>
       <c r="G216" s="17"/>
       <c r="H216" s="2"/>
     </row>
@@ -9928,7 +9968,7 @@
       <c r="C217" s="17"/>
       <c r="D217" s="17"/>
       <c r="E217" s="17"/>
-      <c r="F217" s="241"/>
+      <c r="F217" s="240"/>
       <c r="G217" s="17"/>
       <c r="H217" s="2"/>
     </row>
@@ -9938,20 +9978,20 @@
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
       <c r="E218" s="17"/>
-      <c r="F218" s="241"/>
+      <c r="F218" s="240"/>
       <c r="G218" s="17"/>
       <c r="H218" s="2"/>
     </row>
     <row r="219" spans="1:8" ht="36" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="304" t="s">
+      <c r="B219" s="299" t="s">
         <v>105</v>
       </c>
-      <c r="C219" s="304"/>
-      <c r="D219" s="304"/>
-      <c r="E219" s="304"/>
-      <c r="F219" s="304"/>
-      <c r="G219" s="304"/>
+      <c r="C219" s="299"/>
+      <c r="D219" s="299"/>
+      <c r="E219" s="299"/>
+      <c r="F219" s="299"/>
+      <c r="G219" s="299"/>
       <c r="H219" s="2"/>
     </row>
     <row r="220" spans="1:8" ht="102">
@@ -9959,39 +9999,39 @@
       <c r="B220" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C220" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D220" s="240" t="s">
-        <v>451</v>
-      </c>
-      <c r="E220" s="133" t="str">
+      <c r="C220" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D220" s="239" t="s">
+        <v>450</v>
+      </c>
+      <c r="E220" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F220" s="213" t="s">
-        <v>456</v>
-      </c>
-      <c r="G220" s="133" t="s">
-        <v>452</v>
+      <c r="F220" s="212" t="s">
+        <v>455</v>
+      </c>
+      <c r="G220" s="132" t="s">
+        <v>451</v>
       </c>
       <c r="H220" s="2"/>
     </row>
     <row r="221" spans="1:8" ht="14.25" customHeight="1">
       <c r="A221" s="31"/>
-      <c r="B221" s="191">
+      <c r="B221" s="190">
         <v>1</v>
       </c>
-      <c r="C221" s="192">
+      <c r="C221" s="191">
         <v>2</v>
       </c>
-      <c r="D221" s="192">
+      <c r="D221" s="191">
         <v>3</v>
       </c>
-      <c r="E221" s="192">
+      <c r="E221" s="191">
         <v>4</v>
       </c>
-      <c r="F221" s="252">
+      <c r="F221" s="251">
         <v>5</v>
       </c>
       <c r="G221" s="54">
@@ -10001,278 +10041,278 @@
     </row>
     <row r="222" spans="1:8" ht="25.5">
       <c r="A222" s="19"/>
-      <c r="B222" s="193" t="s">
+      <c r="B222" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="C222" s="194" t="s">
+      <c r="C222" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="D222" s="195">
+      <c r="D222" s="194">
         <v>125.9</v>
       </c>
-      <c r="E222" s="207">
+      <c r="E222" s="206">
         <f>D222*Лист2!$B$3</f>
         <v>8965.3389999999999</v>
       </c>
-      <c r="F222" s="261">
+      <c r="F222" s="260">
         <v>55</v>
       </c>
-      <c r="G222" s="196">
+      <c r="G222" s="195">
         <f>E222-E222*F222/100</f>
         <v>4034.4025499999998</v>
       </c>
-      <c r="H222" s="231"/>
-    </row>
-    <row r="223" spans="1:8" s="197" customFormat="1" ht="25.5">
+      <c r="H222" s="230"/>
+    </row>
+    <row r="223" spans="1:8" s="196" customFormat="1" ht="25.5">
       <c r="A223" s="19"/>
-      <c r="B223" s="198" t="s">
+      <c r="B223" s="197" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" s="198" t="s">
         <v>445</v>
       </c>
-      <c r="C223" s="199" t="s">
-        <v>446</v>
-      </c>
-      <c r="D223" s="200">
+      <c r="D223" s="199">
         <v>104.4</v>
       </c>
-      <c r="E223" s="207">
+      <c r="E223" s="206">
         <f>D223*Лист2!$B$3</f>
         <v>7434.3239999999996</v>
       </c>
-      <c r="F223" s="261">
+      <c r="F223" s="260">
         <v>55</v>
       </c>
-      <c r="G223" s="196">
+      <c r="G223" s="195">
         <f t="shared" ref="G223:G232" si="11">E223-E223*F223/100</f>
         <v>3345.4457999999995</v>
       </c>
-      <c r="H223" s="231"/>
+      <c r="H223" s="230"/>
     </row>
     <row r="224" spans="1:8" ht="14.25">
       <c r="A224" s="19"/>
-      <c r="B224" s="193" t="s">
+      <c r="B224" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="C224" s="194" t="s">
+      <c r="C224" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="195">
+      <c r="D224" s="194">
         <v>3.8</v>
       </c>
-      <c r="E224" s="207">
+      <c r="E224" s="206">
         <f>D224*Лист2!$B$3</f>
         <v>270.59799999999996</v>
       </c>
-      <c r="F224" s="261">
+      <c r="F224" s="260">
         <v>55</v>
       </c>
-      <c r="G224" s="196">
+      <c r="G224" s="195">
         <f t="shared" si="11"/>
         <v>121.76909999999998</v>
       </c>
-      <c r="H224" s="231"/>
+      <c r="H224" s="230"/>
     </row>
     <row r="225" spans="1:8" ht="14.25">
       <c r="A225" s="19"/>
-      <c r="B225" s="193" t="s">
+      <c r="B225" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="C225" s="194" t="s">
+      <c r="C225" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="D225" s="195">
+      <c r="D225" s="194">
         <v>58.3</v>
       </c>
-      <c r="E225" s="207">
+      <c r="E225" s="206">
         <f>D225*Лист2!$B$3</f>
         <v>4151.5429999999997</v>
       </c>
-      <c r="F225" s="261">
+      <c r="F225" s="260">
         <v>55</v>
       </c>
-      <c r="G225" s="196">
+      <c r="G225" s="195">
         <f t="shared" si="11"/>
         <v>1868.1943499999998</v>
       </c>
-      <c r="H225" s="231"/>
+      <c r="H225" s="230"/>
     </row>
     <row r="226" spans="1:8" ht="14.25">
       <c r="A226" s="19"/>
-      <c r="B226" s="193" t="s">
+      <c r="B226" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="C226" s="194" t="s">
+      <c r="C226" s="193" t="s">
         <v>113</v>
       </c>
-      <c r="D226" s="195">
+      <c r="D226" s="194">
         <v>21.5</v>
       </c>
-      <c r="E226" s="207">
+      <c r="E226" s="206">
         <f>D226*Лист2!$B$3</f>
         <v>1531.0149999999999</v>
       </c>
-      <c r="F226" s="261">
+      <c r="F226" s="260">
         <v>55</v>
       </c>
-      <c r="G226" s="196">
+      <c r="G226" s="195">
         <f t="shared" si="11"/>
         <v>688.95674999999994</v>
       </c>
-      <c r="H226" s="231"/>
+      <c r="H226" s="230"/>
     </row>
     <row r="227" spans="1:8" ht="25.5">
       <c r="A227" s="19"/>
-      <c r="B227" s="193" t="s">
+      <c r="B227" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="C227" s="194" t="s">
+      <c r="C227" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="D227" s="195">
+      <c r="D227" s="194">
         <v>8</v>
       </c>
-      <c r="E227" s="207">
+      <c r="E227" s="206">
         <f>D227*Лист2!$B$3</f>
         <v>569.67999999999995</v>
       </c>
-      <c r="F227" s="261">
+      <c r="F227" s="260">
         <v>55</v>
       </c>
-      <c r="G227" s="196">
+      <c r="G227" s="195">
         <f t="shared" si="11"/>
         <v>256.35599999999999</v>
       </c>
-      <c r="H227" s="231"/>
+      <c r="H227" s="230"/>
     </row>
     <row r="228" spans="1:8" ht="25.5">
       <c r="A228" s="19"/>
-      <c r="B228" s="193" t="s">
+      <c r="B228" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="C228" s="194" t="s">
+      <c r="C228" s="193" t="s">
         <v>116</v>
       </c>
-      <c r="D228" s="195">
+      <c r="D228" s="194">
         <v>20.5</v>
       </c>
-      <c r="E228" s="207">
+      <c r="E228" s="206">
         <f>D228*Лист2!$B$3</f>
         <v>1459.8049999999998</v>
       </c>
-      <c r="F228" s="261">
+      <c r="F228" s="260">
         <v>55</v>
       </c>
-      <c r="G228" s="196">
+      <c r="G228" s="195">
         <f t="shared" si="11"/>
         <v>656.91224999999986</v>
       </c>
-      <c r="H228" s="231"/>
+      <c r="H228" s="230"/>
     </row>
     <row r="229" spans="1:8" ht="14.25">
       <c r="A229" s="19"/>
-      <c r="B229" s="193" t="s">
+      <c r="B229" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="C229" s="194" t="s">
+      <c r="C229" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="D229" s="195">
+      <c r="D229" s="194">
         <v>25.4</v>
       </c>
-      <c r="E229" s="207">
+      <c r="E229" s="206">
         <f>D229*Лист2!$B$3</f>
         <v>1808.7339999999997</v>
       </c>
-      <c r="F229" s="261">
+      <c r="F229" s="260">
         <v>55</v>
       </c>
-      <c r="G229" s="196">
+      <c r="G229" s="195">
         <f t="shared" si="11"/>
         <v>813.93029999999987</v>
       </c>
-      <c r="H229" s="231"/>
+      <c r="H229" s="230"/>
     </row>
     <row r="230" spans="1:8" ht="14.25">
       <c r="A230" s="19"/>
-      <c r="B230" s="193" t="s">
+      <c r="B230" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="C230" s="194" t="s">
+      <c r="C230" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="D230" s="195">
+      <c r="D230" s="194">
         <v>18.2</v>
       </c>
-      <c r="E230" s="207">
+      <c r="E230" s="206">
         <f>D230*Лист2!$B$3</f>
         <v>1296.0219999999999</v>
       </c>
-      <c r="F230" s="261">
+      <c r="F230" s="260">
         <v>55</v>
       </c>
-      <c r="G230" s="196">
+      <c r="G230" s="195">
         <f t="shared" si="11"/>
         <v>583.20990000000006</v>
       </c>
-      <c r="H230" s="231"/>
+      <c r="H230" s="230"/>
     </row>
     <row r="231" spans="1:8" ht="14.25">
       <c r="A231" s="19"/>
-      <c r="B231" s="193" t="s">
+      <c r="B231" s="192" t="s">
         <v>314</v>
       </c>
-      <c r="C231" s="194" t="s">
-        <v>353</v>
-      </c>
-      <c r="D231" s="195">
+      <c r="C231" s="193" t="s">
+        <v>352</v>
+      </c>
+      <c r="D231" s="194">
         <v>8.6</v>
       </c>
-      <c r="E231" s="207">
+      <c r="E231" s="206">
         <f>D231*Лист2!$B$3</f>
         <v>612.40599999999995</v>
       </c>
-      <c r="F231" s="261">
+      <c r="F231" s="260">
         <v>55</v>
       </c>
-      <c r="G231" s="196">
+      <c r="G231" s="195">
         <f t="shared" si="11"/>
         <v>275.58269999999999</v>
       </c>
-      <c r="H231" s="231"/>
-    </row>
-    <row r="232" spans="1:8" s="183" customFormat="1" ht="14.25">
+      <c r="H231" s="230"/>
+    </row>
+    <row r="232" spans="1:8" s="182" customFormat="1" ht="14.25">
       <c r="A232" s="19"/>
-      <c r="B232" s="193" t="s">
+      <c r="B232" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="C232" s="194" t="s">
-        <v>430</v>
-      </c>
-      <c r="D232" s="195">
+      <c r="C232" s="193" t="s">
+        <v>429</v>
+      </c>
+      <c r="D232" s="194">
         <v>10.9</v>
       </c>
-      <c r="E232" s="207">
+      <c r="E232" s="206">
         <f>D232*Лист2!$B$3</f>
         <v>776.18899999999996</v>
       </c>
-      <c r="F232" s="261">
+      <c r="F232" s="260">
         <v>55</v>
       </c>
-      <c r="G232" s="196">
+      <c r="G232" s="195">
         <f t="shared" si="11"/>
         <v>349.28505000000001</v>
       </c>
-      <c r="H232" s="231"/>
+      <c r="H232" s="230"/>
     </row>
     <row r="233" spans="1:8" ht="27.6" customHeight="1">
       <c r="A233" s="32"/>
-      <c r="B233" s="298" t="s">
+      <c r="B233" s="343" t="s">
         <v>121</v>
       </c>
-      <c r="C233" s="298"/>
-      <c r="D233" s="298"/>
-      <c r="E233" s="298"/>
-      <c r="F233" s="298"/>
-      <c r="G233" s="298"/>
+      <c r="C233" s="343"/>
+      <c r="D233" s="343"/>
+      <c r="E233" s="343"/>
+      <c r="F233" s="343"/>
+      <c r="G233" s="343"/>
       <c r="H233" s="2"/>
     </row>
     <row r="234" spans="1:8" ht="15" customHeight="1">
@@ -10297,442 +10337,442 @@
     </row>
     <row r="236" spans="1:8" ht="36" customHeight="1">
       <c r="A236" s="7"/>
-      <c r="B236" s="305" t="s">
+      <c r="B236" s="369" t="s">
         <v>122</v>
       </c>
-      <c r="C236" s="305"/>
-      <c r="D236" s="306"/>
-      <c r="E236" s="306"/>
-      <c r="F236" s="306"/>
-      <c r="G236" s="306"/>
+      <c r="C236" s="369"/>
+      <c r="D236" s="370"/>
+      <c r="E236" s="370"/>
+      <c r="F236" s="370"/>
+      <c r="G236" s="370"/>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="1:8" ht="114.75" customHeight="1">
       <c r="A237" s="23"/>
-      <c r="B237" s="202" t="s">
+      <c r="B237" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C237" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D237" s="307" t="s">
-        <v>451</v>
-      </c>
-      <c r="E237" s="307"/>
-      <c r="F237" s="308" t="str">
+      <c r="C237" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D237" s="340" t="s">
+        <v>450</v>
+      </c>
+      <c r="E237" s="340"/>
+      <c r="F237" s="341" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="G237" s="309"/>
+      <c r="G237" s="342"/>
       <c r="H237" s="14"/>
     </row>
     <row r="238" spans="1:8" ht="25.5">
       <c r="A238" s="15"/>
-      <c r="B238" s="204" t="s">
+      <c r="B238" s="203" t="s">
         <v>123</v>
       </c>
-      <c r="C238" s="208" t="s">
+      <c r="C238" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="D238" s="297" t="s">
+      <c r="D238" s="284" t="s">
         <v>125</v>
       </c>
-      <c r="E238" s="297"/>
-      <c r="F238" s="295">
+      <c r="E238" s="284"/>
+      <c r="F238" s="282">
         <f>D238*Лист2!$B$3</f>
         <v>498.46999999999997</v>
       </c>
-      <c r="G238" s="296"/>
+      <c r="G238" s="283"/>
       <c r="H238" s="14"/>
     </row>
     <row r="239" spans="1:8" ht="25.5">
       <c r="A239" s="15"/>
-      <c r="B239" s="204" t="s">
+      <c r="B239" s="203" t="s">
         <v>126</v>
       </c>
-      <c r="C239" s="208" t="s">
+      <c r="C239" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D239" s="297" t="s">
+      <c r="D239" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="E239" s="297"/>
-      <c r="F239" s="295">
+      <c r="E239" s="284"/>
+      <c r="F239" s="282">
         <f>D239*Лист2!$B$3</f>
         <v>284.83999999999997</v>
       </c>
-      <c r="G239" s="296"/>
+      <c r="G239" s="283"/>
       <c r="H239" s="14"/>
     </row>
     <row r="240" spans="1:8" ht="14.25">
       <c r="A240" s="15"/>
-      <c r="B240" s="204" t="s">
+      <c r="B240" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="C240" s="208" t="s">
+      <c r="C240" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="D240" s="297">
+      <c r="D240" s="284">
         <v>20.2</v>
       </c>
-      <c r="E240" s="297"/>
-      <c r="F240" s="295">
+      <c r="E240" s="284"/>
+      <c r="F240" s="282">
         <f>D240*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="G240" s="296"/>
+      <c r="G240" s="283"/>
       <c r="H240" s="14"/>
     </row>
     <row r="241" spans="1:8" ht="14.25">
       <c r="A241" s="15"/>
-      <c r="B241" s="204" t="s">
+      <c r="B241" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="C241" s="208" t="s">
+      <c r="C241" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="D241" s="297" t="s">
+      <c r="D241" s="284" t="s">
         <v>131</v>
       </c>
-      <c r="E241" s="297"/>
-      <c r="F241" s="295">
+      <c r="E241" s="284"/>
+      <c r="F241" s="282">
         <f>D241*Лист2!$B$3</f>
         <v>512.71199999999999</v>
       </c>
-      <c r="G241" s="296"/>
+      <c r="G241" s="283"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8" ht="25.5">
       <c r="A242" s="15"/>
-      <c r="B242" s="204" t="s">
+      <c r="B242" s="203" t="s">
         <v>132</v>
       </c>
-      <c r="C242" s="208" t="s">
+      <c r="C242" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="297">
+      <c r="D242" s="284">
         <v>19.600000000000001</v>
       </c>
-      <c r="E242" s="297"/>
-      <c r="F242" s="295">
+      <c r="E242" s="284"/>
+      <c r="F242" s="282">
         <f>D242*Лист2!$B$3</f>
         <v>1395.7159999999999</v>
       </c>
-      <c r="G242" s="296"/>
+      <c r="G242" s="283"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8" ht="38.25">
       <c r="A243" s="15"/>
-      <c r="B243" s="204" t="s">
+      <c r="B243" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="C243" s="208" t="s">
+      <c r="C243" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="D243" s="297" t="s">
+      <c r="D243" s="284" t="s">
         <v>134</v>
       </c>
-      <c r="E243" s="297"/>
-      <c r="F243" s="295">
+      <c r="E243" s="284"/>
+      <c r="F243" s="282">
         <f>D243*Лист2!$B$3</f>
         <v>2848.3999999999996</v>
       </c>
-      <c r="G243" s="296"/>
+      <c r="G243" s="283"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8" ht="14.25">
       <c r="A244" s="15"/>
-      <c r="B244" s="204" t="s">
+      <c r="B244" s="203" t="s">
         <v>135</v>
       </c>
-      <c r="C244" s="205" t="s">
+      <c r="C244" s="204" t="s">
         <v>99</v>
       </c>
-      <c r="D244" s="297">
+      <c r="D244" s="284">
         <v>8</v>
       </c>
-      <c r="E244" s="297"/>
-      <c r="F244" s="295">
+      <c r="E244" s="284"/>
+      <c r="F244" s="282">
         <f>D244*Лист2!$B$3</f>
         <v>569.67999999999995</v>
       </c>
-      <c r="G244" s="296"/>
+      <c r="G244" s="283"/>
       <c r="H244" s="14"/>
     </row>
     <row r="245" spans="1:8" ht="25.5">
       <c r="A245" s="15"/>
-      <c r="B245" s="204" t="s">
+      <c r="B245" s="203" t="s">
         <v>136</v>
       </c>
-      <c r="C245" s="208" t="s">
+      <c r="C245" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="D245" s="297" t="s">
+      <c r="D245" s="284" t="s">
         <v>137</v>
       </c>
-      <c r="E245" s="297"/>
-      <c r="F245" s="295">
+      <c r="E245" s="284"/>
+      <c r="F245" s="282">
         <f>D245*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="G245" s="296"/>
+      <c r="G245" s="283"/>
       <c r="H245" s="14"/>
     </row>
     <row r="246" spans="1:8" ht="25.5">
       <c r="A246" s="15"/>
-      <c r="B246" s="204" t="s">
+      <c r="B246" s="203" t="s">
         <v>138</v>
       </c>
-      <c r="C246" s="208" t="s">
+      <c r="C246" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="D246" s="297" t="s">
+      <c r="D246" s="284" t="s">
         <v>137</v>
       </c>
-      <c r="E246" s="297"/>
-      <c r="F246" s="295">
+      <c r="E246" s="284"/>
+      <c r="F246" s="282">
         <f>D246*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="G246" s="296"/>
+      <c r="G246" s="283"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8" ht="38.25">
       <c r="A247" s="15"/>
-      <c r="B247" s="204" t="s">
+      <c r="B247" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="C247" s="208" t="s">
+      <c r="C247" s="207" t="s">
         <v>102</v>
       </c>
-      <c r="D247" s="297" t="s">
+      <c r="D247" s="284" t="s">
         <v>140</v>
       </c>
-      <c r="E247" s="297"/>
-      <c r="F247" s="295">
+      <c r="E247" s="284"/>
+      <c r="F247" s="282">
         <f>D247*Лист2!$B$3</f>
         <v>11941.916999999998</v>
       </c>
-      <c r="G247" s="296"/>
+      <c r="G247" s="283"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8" ht="51">
       <c r="A248" s="15"/>
-      <c r="B248" s="204" t="s">
+      <c r="B248" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="C248" s="208" t="s">
+      <c r="C248" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="D248" s="297" t="s">
+      <c r="D248" s="284" t="s">
         <v>143</v>
       </c>
-      <c r="E248" s="297"/>
-      <c r="F248" s="295">
+      <c r="E248" s="284"/>
+      <c r="F248" s="282">
         <f>D248*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="G248" s="296"/>
+      <c r="G248" s="283"/>
       <c r="H248" s="14"/>
     </row>
     <row r="249" spans="1:8" ht="51">
       <c r="A249" s="15"/>
-      <c r="B249" s="204" t="s">
+      <c r="B249" s="203" t="s">
         <v>144</v>
       </c>
-      <c r="C249" s="208" t="s">
+      <c r="C249" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="D249" s="297" t="s">
+      <c r="D249" s="284" t="s">
         <v>143</v>
       </c>
-      <c r="E249" s="297"/>
-      <c r="F249" s="295">
+      <c r="E249" s="284"/>
+      <c r="F249" s="282">
         <f>D249*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="G249" s="296"/>
+      <c r="G249" s="283"/>
       <c r="H249" s="14"/>
     </row>
     <row r="250" spans="1:8" ht="38.25">
       <c r="A250" s="15"/>
-      <c r="B250" s="204" t="s">
+      <c r="B250" s="203" t="s">
         <v>145</v>
       </c>
-      <c r="C250" s="208" t="s">
+      <c r="C250" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="D250" s="297" t="s">
+      <c r="D250" s="284" t="s">
         <v>146</v>
       </c>
-      <c r="E250" s="297"/>
-      <c r="F250" s="295">
+      <c r="E250" s="284"/>
+      <c r="F250" s="282">
         <f>D250*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G250" s="296"/>
+      <c r="G250" s="283"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8" ht="38.25">
       <c r="A251" s="15"/>
-      <c r="B251" s="204" t="s">
+      <c r="B251" s="203" t="s">
         <v>147</v>
       </c>
-      <c r="C251" s="208" t="s">
+      <c r="C251" s="207" t="s">
         <v>148</v>
       </c>
-      <c r="D251" s="297">
+      <c r="D251" s="284">
         <v>411.9</v>
       </c>
-      <c r="E251" s="297"/>
-      <c r="F251" s="295">
+      <c r="E251" s="284"/>
+      <c r="F251" s="282">
         <f>D251*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="G251" s="296"/>
+      <c r="G251" s="283"/>
       <c r="H251" s="14"/>
     </row>
     <row r="252" spans="1:8" ht="38.25">
       <c r="A252" s="15"/>
-      <c r="B252" s="204" t="s">
+      <c r="B252" s="203" t="s">
         <v>149</v>
       </c>
-      <c r="C252" s="208" t="s">
+      <c r="C252" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="D252" s="297">
+      <c r="D252" s="284">
         <v>114.4</v>
       </c>
-      <c r="E252" s="297"/>
-      <c r="F252" s="295">
+      <c r="E252" s="284"/>
+      <c r="F252" s="282">
         <f>D252*Лист2!$B$3</f>
         <v>8146.424</v>
       </c>
-      <c r="G252" s="296"/>
+      <c r="G252" s="283"/>
       <c r="H252" s="14"/>
     </row>
     <row r="253" spans="1:8" ht="38.25">
       <c r="A253" s="15"/>
-      <c r="B253" s="204" t="s">
+      <c r="B253" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="C253" s="208" t="s">
+      <c r="C253" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="D253" s="341" t="s">
+      <c r="D253" s="287" t="s">
         <v>151</v>
       </c>
-      <c r="E253" s="341"/>
-      <c r="F253" s="295">
+      <c r="E253" s="287"/>
+      <c r="F253" s="282">
         <f>D253*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="G253" s="296"/>
-      <c r="H253" s="232"/>
+      <c r="G253" s="283"/>
+      <c r="H253" s="231"/>
     </row>
     <row r="254" spans="1:8" ht="25.5">
       <c r="A254" s="15"/>
-      <c r="B254" s="204" t="s">
+      <c r="B254" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="C254" s="208" t="s">
+      <c r="C254" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="D254" s="341">
+      <c r="D254" s="287">
         <v>741.4</v>
       </c>
-      <c r="E254" s="341"/>
-      <c r="F254" s="295">
+      <c r="E254" s="287"/>
+      <c r="F254" s="282">
         <f>D254*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G254" s="296"/>
-      <c r="H254" s="233"/>
+      <c r="G254" s="283"/>
+      <c r="H254" s="232"/>
     </row>
     <row r="255" spans="1:8" ht="14.25">
       <c r="A255" s="15"/>
-      <c r="B255" s="204" t="s">
+      <c r="B255" s="203" t="s">
         <v>153</v>
       </c>
-      <c r="C255" s="208" t="s">
+      <c r="C255" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="D255" s="297">
+      <c r="D255" s="284">
         <v>225.5</v>
       </c>
-      <c r="E255" s="297"/>
-      <c r="F255" s="295">
+      <c r="E255" s="284"/>
+      <c r="F255" s="282">
         <f>D255*Лист2!$B$3</f>
         <v>16057.854999999998</v>
       </c>
-      <c r="G255" s="296"/>
-      <c r="H255" s="232"/>
+      <c r="G255" s="283"/>
+      <c r="H255" s="231"/>
     </row>
     <row r="256" spans="1:8" ht="25.5">
       <c r="A256" s="15"/>
-      <c r="B256" s="204" t="s">
+      <c r="B256" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="C256" s="208" t="s">
+      <c r="C256" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="D256" s="297">
+      <c r="D256" s="284">
         <v>20.2</v>
       </c>
-      <c r="E256" s="297"/>
-      <c r="F256" s="295">
+      <c r="E256" s="284"/>
+      <c r="F256" s="282">
         <f>D256*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="G256" s="296"/>
-      <c r="H256" s="232"/>
+      <c r="G256" s="283"/>
+      <c r="H256" s="231"/>
     </row>
     <row r="257" spans="1:8" ht="25.5">
       <c r="A257" s="15"/>
-      <c r="B257" s="204" t="s">
+      <c r="B257" s="203" t="s">
         <v>155</v>
       </c>
-      <c r="C257" s="208" t="s">
+      <c r="C257" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="297" t="s">
+      <c r="D257" s="284" t="s">
         <v>129</v>
       </c>
-      <c r="E257" s="297"/>
-      <c r="F257" s="295">
+      <c r="E257" s="284"/>
+      <c r="F257" s="282">
         <f>D257*Лист2!$B$3</f>
         <v>1296.0219999999999</v>
       </c>
-      <c r="G257" s="296"/>
-      <c r="H257" s="232"/>
+      <c r="G257" s="283"/>
+      <c r="H257" s="231"/>
     </row>
     <row r="258" spans="1:8" ht="25.5">
       <c r="A258" s="15"/>
-      <c r="B258" s="204" t="s">
+      <c r="B258" s="203" t="s">
         <v>156</v>
       </c>
-      <c r="C258" s="208" t="s">
+      <c r="C258" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="D258" s="297">
+      <c r="D258" s="284">
         <v>741.4</v>
       </c>
-      <c r="E258" s="297"/>
-      <c r="F258" s="295">
+      <c r="E258" s="284"/>
+      <c r="F258" s="282">
         <f>D258*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G258" s="296"/>
+      <c r="G258" s="283"/>
       <c r="H258" s="14"/>
     </row>
     <row r="259" spans="1:8" ht="23.25" customHeight="1">
       <c r="A259" s="33"/>
-      <c r="B259" s="298"/>
-      <c r="C259" s="298"/>
-      <c r="D259" s="298"/>
-      <c r="E259" s="298"/>
-      <c r="F259" s="298"/>
-      <c r="G259" s="298"/>
+      <c r="B259" s="343"/>
+      <c r="C259" s="343"/>
+      <c r="D259" s="343"/>
+      <c r="E259" s="343"/>
+      <c r="F259" s="343"/>
+      <c r="G259" s="343"/>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="1:8" ht="23.25" customHeight="1">
@@ -10741,7 +10781,7 @@
       <c r="C260" s="17"/>
       <c r="D260" s="17"/>
       <c r="E260" s="17"/>
-      <c r="F260" s="241"/>
+      <c r="F260" s="240"/>
       <c r="G260" s="17"/>
       <c r="H260" s="2"/>
     </row>
@@ -10751,7 +10791,7 @@
       <c r="C261" s="17"/>
       <c r="D261" s="17"/>
       <c r="E261" s="17"/>
-      <c r="F261" s="241"/>
+      <c r="F261" s="240"/>
       <c r="G261" s="17"/>
       <c r="H261" s="2"/>
     </row>
@@ -10761,60 +10801,60 @@
       <c r="C262" s="17"/>
       <c r="D262" s="17"/>
       <c r="E262" s="17"/>
-      <c r="F262" s="241"/>
+      <c r="F262" s="240"/>
       <c r="G262" s="17"/>
       <c r="H262" s="2"/>
     </row>
     <row r="263" spans="1:8" ht="30" customHeight="1">
       <c r="A263" s="34"/>
-      <c r="B263" s="342" t="s">
+      <c r="B263" s="288" t="s">
         <v>212</v>
       </c>
-      <c r="C263" s="342"/>
-      <c r="D263" s="342"/>
-      <c r="E263" s="342"/>
-      <c r="F263" s="343"/>
-      <c r="G263" s="342"/>
+      <c r="C263" s="288"/>
+      <c r="D263" s="288"/>
+      <c r="E263" s="288"/>
+      <c r="F263" s="289"/>
+      <c r="G263" s="288"/>
       <c r="H263" s="2"/>
     </row>
     <row r="264" spans="1:8" ht="102">
       <c r="A264" s="35"/>
-      <c r="B264" s="234" t="s">
+      <c r="B264" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="C264" s="133" t="s">
-        <v>458</v>
-      </c>
-      <c r="D264" s="240" t="s">
-        <v>451</v>
-      </c>
-      <c r="E264" s="235" t="str">
+      <c r="C264" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="D264" s="239" t="s">
+        <v>450</v>
+      </c>
+      <c r="E264" s="234" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F264" s="213" t="s">
-        <v>456</v>
-      </c>
-      <c r="G264" s="235" t="s">
-        <v>452</v>
+      <c r="F264" s="212" t="s">
+        <v>455</v>
+      </c>
+      <c r="G264" s="234" t="s">
+        <v>451</v>
       </c>
       <c r="H264" s="2"/>
     </row>
     <row r="265" spans="1:8" ht="14.25">
       <c r="A265" s="36"/>
-      <c r="B265" s="236">
+      <c r="B265" s="235">
         <v>1</v>
       </c>
-      <c r="C265" s="237">
+      <c r="C265" s="236">
         <v>2</v>
       </c>
-      <c r="D265" s="237">
+      <c r="D265" s="236">
         <v>3</v>
       </c>
-      <c r="E265" s="237">
+      <c r="E265" s="236">
         <v>4</v>
       </c>
-      <c r="F265" s="252">
+      <c r="F265" s="251">
         <v>5</v>
       </c>
       <c r="G265" s="54">
@@ -10824,791 +10864,791 @@
     </row>
     <row r="266" spans="1:8" ht="25.5">
       <c r="A266" s="36"/>
-      <c r="B266" s="140" t="s">
+      <c r="B266" s="139" t="s">
         <v>248</v>
       </c>
       <c r="C266" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D266" s="145">
+      <c r="D266" s="144">
         <v>382</v>
       </c>
-      <c r="E266" s="146">
+      <c r="E266" s="145">
         <f>D266*Лист2!$B$3*3</f>
         <v>81606.659999999989</v>
       </c>
-      <c r="F266" s="267">
+      <c r="F266" s="266">
         <v>45</v>
       </c>
-      <c r="G266" s="146">
+      <c r="G266" s="145">
         <f>E266-E266*F266/100</f>
         <v>44883.662999999993</v>
       </c>
-      <c r="H266" s="231"/>
+      <c r="H266" s="230"/>
     </row>
     <row r="267" spans="1:8" ht="14.25">
       <c r="A267" s="36"/>
-      <c r="B267" s="141" t="s">
+      <c r="B267" s="140" t="s">
         <v>191</v>
       </c>
       <c r="C267" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="D267" s="145">
+      <c r="D267" s="144">
         <v>7.1</v>
       </c>
-      <c r="E267" s="146">
+      <c r="E267" s="145">
         <f>D267*Лист2!$B$3</f>
         <v>505.59099999999995</v>
       </c>
-      <c r="F267" s="267">
+      <c r="F267" s="266">
         <v>45</v>
       </c>
-      <c r="G267" s="146">
+      <c r="G267" s="145">
         <f t="shared" ref="G267:G313" si="12">E267-E267*F267/100</f>
         <v>278.07504999999998</v>
       </c>
-      <c r="H267" s="231"/>
+      <c r="H267" s="230"/>
     </row>
     <row r="268" spans="1:8" ht="14.25">
       <c r="A268" s="36"/>
-      <c r="B268" s="141" t="s">
+      <c r="B268" s="140" t="s">
         <v>193</v>
       </c>
       <c r="C268" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="D268" s="147">
+      <c r="D268" s="146">
         <v>4.8</v>
       </c>
-      <c r="E268" s="146">
+      <c r="E268" s="145">
         <f>D268*Лист2!$B$3</f>
         <v>341.80799999999994</v>
       </c>
-      <c r="F268" s="267">
+      <c r="F268" s="266">
         <v>45</v>
       </c>
-      <c r="G268" s="146">
+      <c r="G268" s="145">
         <f t="shared" si="12"/>
         <v>187.99439999999996</v>
       </c>
-      <c r="H268" s="231"/>
+      <c r="H268" s="230"/>
     </row>
     <row r="269" spans="1:8" ht="25.5">
       <c r="A269" s="36"/>
-      <c r="B269" s="141" t="s">
+      <c r="B269" s="140" t="s">
         <v>195</v>
       </c>
       <c r="C269" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="D269" s="145">
+      <c r="D269" s="144">
         <v>7.1</v>
       </c>
-      <c r="E269" s="146">
+      <c r="E269" s="145">
         <f>D269*Лист2!$B$3</f>
         <v>505.59099999999995</v>
       </c>
-      <c r="F269" s="267">
+      <c r="F269" s="266">
         <v>45</v>
       </c>
-      <c r="G269" s="146">
+      <c r="G269" s="145">
         <f t="shared" si="12"/>
         <v>278.07504999999998</v>
       </c>
-      <c r="H269" s="231"/>
+      <c r="H269" s="230"/>
     </row>
     <row r="270" spans="1:8" ht="25.5">
       <c r="A270" s="36"/>
-      <c r="B270" s="141" t="s">
+      <c r="B270" s="140" t="s">
         <v>196</v>
       </c>
       <c r="C270" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="D270" s="147">
+      <c r="D270" s="146">
         <v>4.8</v>
       </c>
-      <c r="E270" s="146">
+      <c r="E270" s="145">
         <f>D270*Лист2!$B$3</f>
         <v>341.80799999999994</v>
       </c>
-      <c r="F270" s="267">
+      <c r="F270" s="266">
         <v>45</v>
       </c>
-      <c r="G270" s="146">
+      <c r="G270" s="145">
         <f t="shared" si="12"/>
         <v>187.99439999999996</v>
       </c>
-      <c r="H270" s="231"/>
+      <c r="H270" s="230"/>
     </row>
     <row r="271" spans="1:8" ht="14.25">
       <c r="A271" s="36"/>
-      <c r="B271" s="141" t="s">
+      <c r="B271" s="140" t="s">
         <v>197</v>
       </c>
       <c r="C271" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="D271" s="145">
+      <c r="D271" s="144">
         <v>5.7</v>
       </c>
-      <c r="E271" s="146">
+      <c r="E271" s="145">
         <f>D271*Лист2!$B$3</f>
         <v>405.89699999999999</v>
       </c>
-      <c r="F271" s="267">
+      <c r="F271" s="266">
         <v>45</v>
       </c>
-      <c r="G271" s="146">
+      <c r="G271" s="145">
         <f t="shared" si="12"/>
         <v>223.24335000000002</v>
       </c>
-      <c r="H271" s="231"/>
+      <c r="H271" s="230"/>
     </row>
     <row r="272" spans="1:8" ht="14.25">
       <c r="A272" s="36"/>
-      <c r="B272" s="141" t="s">
+      <c r="B272" s="140" t="s">
         <v>199</v>
       </c>
       <c r="C272" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="D272" s="147">
+      <c r="D272" s="146">
         <v>2.9</v>
       </c>
-      <c r="E272" s="146">
+      <c r="E272" s="145">
         <f>D272*Лист2!$B$3</f>
         <v>206.50899999999999</v>
       </c>
-      <c r="F272" s="267">
+      <c r="F272" s="266">
         <v>45</v>
       </c>
-      <c r="G272" s="146">
+      <c r="G272" s="145">
         <f t="shared" si="12"/>
         <v>113.57995</v>
       </c>
-      <c r="H272" s="231"/>
+      <c r="H272" s="230"/>
     </row>
     <row r="273" spans="1:8" ht="14.25">
       <c r="A273" s="36"/>
-      <c r="B273" s="141" t="s">
+      <c r="B273" s="140" t="s">
         <v>201</v>
       </c>
       <c r="C273" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="D273" s="147">
+      <c r="D273" s="146">
         <v>38.4</v>
       </c>
-      <c r="E273" s="146">
+      <c r="E273" s="145">
         <f>D273*Лист2!$B$3</f>
         <v>2734.4639999999995</v>
       </c>
-      <c r="F273" s="267">
+      <c r="F273" s="266">
         <v>45</v>
       </c>
-      <c r="G273" s="146">
+      <c r="G273" s="145">
         <f t="shared" si="12"/>
         <v>1503.9551999999996</v>
       </c>
-      <c r="H273" s="231"/>
+      <c r="H273" s="230"/>
     </row>
     <row r="274" spans="1:8" ht="14.25">
       <c r="A274" s="36"/>
-      <c r="B274" s="141" t="s">
+      <c r="B274" s="140" t="s">
         <v>203</v>
       </c>
       <c r="C274" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="D274" s="147">
+      <c r="D274" s="146">
         <v>47.1</v>
       </c>
-      <c r="E274" s="146">
+      <c r="E274" s="145">
         <f>D274*Лист2!$B$3</f>
         <v>3353.991</v>
       </c>
-      <c r="F274" s="267">
+      <c r="F274" s="266">
         <v>45</v>
       </c>
-      <c r="G274" s="146">
+      <c r="G274" s="145">
         <f t="shared" si="12"/>
         <v>1844.69505</v>
       </c>
-      <c r="H274" s="231"/>
+      <c r="H274" s="230"/>
     </row>
     <row r="275" spans="1:8" ht="14.25">
       <c r="A275" s="36"/>
-      <c r="B275" s="141" t="s">
+      <c r="B275" s="140" t="s">
         <v>205</v>
       </c>
       <c r="C275" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="D275" s="148">
+      <c r="D275" s="147">
         <v>92.6</v>
       </c>
-      <c r="E275" s="146">
+      <c r="E275" s="145">
         <f>D275*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F275" s="267">
+      <c r="F275" s="266">
         <v>45</v>
       </c>
-      <c r="G275" s="146">
+      <c r="G275" s="145">
         <f t="shared" si="12"/>
         <v>3626.7253000000001</v>
       </c>
-      <c r="H275" s="231"/>
+      <c r="H275" s="230"/>
     </row>
     <row r="276" spans="1:8" ht="14.25">
       <c r="A276" s="36"/>
-      <c r="B276" s="141" t="s">
+      <c r="B276" s="140" t="s">
         <v>207</v>
       </c>
       <c r="C276" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="D276" s="148">
+      <c r="D276" s="147">
         <v>92.6</v>
       </c>
-      <c r="E276" s="146">
+      <c r="E276" s="145">
         <f>D276*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F276" s="267">
+      <c r="F276" s="266">
         <v>45</v>
       </c>
-      <c r="G276" s="146">
+      <c r="G276" s="145">
         <f t="shared" si="12"/>
         <v>3626.7253000000001</v>
       </c>
-      <c r="H276" s="231"/>
+      <c r="H276" s="230"/>
     </row>
     <row r="277" spans="1:8" ht="25.5">
       <c r="A277" s="36"/>
-      <c r="B277" s="141" t="s">
+      <c r="B277" s="140" t="s">
         <v>221</v>
       </c>
       <c r="C277" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="D277" s="147">
+      <c r="D277" s="146">
         <v>186.4</v>
       </c>
-      <c r="E277" s="146">
+      <c r="E277" s="145">
         <f>D277*Лист2!$B$3</f>
         <v>13273.544</v>
       </c>
-      <c r="F277" s="267">
+      <c r="F277" s="266">
         <v>45</v>
       </c>
-      <c r="G277" s="146">
+      <c r="G277" s="145">
         <f t="shared" si="12"/>
         <v>7300.4492</v>
       </c>
-      <c r="H277" s="231"/>
+      <c r="H277" s="230"/>
     </row>
     <row r="278" spans="1:8" ht="25.5">
       <c r="A278" s="36"/>
-      <c r="B278" s="141" t="s">
-        <v>377</v>
+      <c r="B278" s="140" t="s">
+        <v>376</v>
       </c>
       <c r="C278" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D278" s="147">
+      <c r="D278" s="146">
         <v>246.1</v>
       </c>
-      <c r="E278" s="146">
+      <c r="E278" s="145">
         <f>D278*Лист2!$B$3</f>
         <v>17524.780999999999</v>
       </c>
-      <c r="F278" s="267">
+      <c r="F278" s="266">
         <v>45</v>
       </c>
-      <c r="G278" s="146">
+      <c r="G278" s="145">
         <f t="shared" si="12"/>
         <v>9638.6295499999997</v>
       </c>
-      <c r="H278" s="231"/>
+      <c r="H278" s="230"/>
     </row>
     <row r="279" spans="1:8" ht="25.5">
       <c r="A279" s="36"/>
-      <c r="B279" s="141" t="s">
-        <v>378</v>
+      <c r="B279" s="140" t="s">
+        <v>377</v>
       </c>
       <c r="C279" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="D279" s="147">
+      <c r="D279" s="146">
         <v>164.9</v>
       </c>
-      <c r="E279" s="146">
+      <c r="E279" s="145">
         <f>D279*Лист2!$B$3</f>
         <v>11742.528999999999</v>
       </c>
-      <c r="F279" s="267">
+      <c r="F279" s="266">
         <v>45</v>
       </c>
-      <c r="G279" s="146">
+      <c r="G279" s="145">
         <f t="shared" si="12"/>
         <v>6458.3909499999991</v>
       </c>
-      <c r="H279" s="231"/>
+      <c r="H279" s="230"/>
     </row>
     <row r="280" spans="1:8" ht="25.5">
       <c r="A280" s="36"/>
-      <c r="B280" s="141" t="s">
-        <v>379</v>
+      <c r="B280" s="140" t="s">
+        <v>378</v>
       </c>
       <c r="C280" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="D280" s="147">
+      <c r="D280" s="146">
         <v>225.8</v>
       </c>
-      <c r="E280" s="146">
+      <c r="E280" s="145">
         <f>D280*Лист2!$B$3</f>
         <v>16079.217999999999</v>
       </c>
-      <c r="F280" s="267">
+      <c r="F280" s="266">
         <v>45</v>
       </c>
-      <c r="G280" s="146">
+      <c r="G280" s="145">
         <f t="shared" si="12"/>
         <v>8843.5698999999986</v>
       </c>
-      <c r="H280" s="231"/>
+      <c r="H280" s="230"/>
     </row>
     <row r="281" spans="1:8" ht="25.5">
       <c r="A281" s="36"/>
-      <c r="B281" s="141" t="s">
-        <v>380</v>
+      <c r="B281" s="140" t="s">
+        <v>379</v>
       </c>
       <c r="C281" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="D281" s="147">
+      <c r="D281" s="146">
         <v>186.4</v>
       </c>
-      <c r="E281" s="146">
+      <c r="E281" s="145">
         <f>D281*Лист2!$B$3</f>
         <v>13273.544</v>
       </c>
-      <c r="F281" s="267">
+      <c r="F281" s="266">
         <v>45</v>
       </c>
-      <c r="G281" s="146">
+      <c r="G281" s="145">
         <f t="shared" si="12"/>
         <v>7300.4492</v>
       </c>
-      <c r="H281" s="231"/>
+      <c r="H281" s="230"/>
     </row>
     <row r="282" spans="1:8" ht="25.5">
       <c r="A282" s="36"/>
-      <c r="B282" s="141" t="s">
-        <v>381</v>
+      <c r="B282" s="140" t="s">
+        <v>380</v>
       </c>
       <c r="C282" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D282" s="147">
+      <c r="D282" s="146">
         <v>246.1</v>
       </c>
-      <c r="E282" s="146">
+      <c r="E282" s="145">
         <f>D282*Лист2!$B$3</f>
         <v>17524.780999999999</v>
       </c>
-      <c r="F282" s="267">
+      <c r="F282" s="266">
         <v>45</v>
       </c>
-      <c r="G282" s="146">
+      <c r="G282" s="145">
         <f t="shared" si="12"/>
         <v>9638.6295499999997</v>
       </c>
-      <c r="H282" s="231"/>
+      <c r="H282" s="230"/>
     </row>
     <row r="283" spans="1:8" ht="25.5">
       <c r="A283" s="36"/>
-      <c r="B283" s="141" t="s">
-        <v>382</v>
+      <c r="B283" s="140" t="s">
+        <v>381</v>
       </c>
       <c r="C283" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="D283" s="147">
+      <c r="D283" s="146">
         <v>164.9</v>
       </c>
-      <c r="E283" s="146">
+      <c r="E283" s="145">
         <f>D283*Лист2!$B$3</f>
         <v>11742.528999999999</v>
       </c>
-      <c r="F283" s="267">
+      <c r="F283" s="266">
         <v>45</v>
       </c>
-      <c r="G283" s="146">
+      <c r="G283" s="145">
         <f t="shared" si="12"/>
         <v>6458.3909499999991</v>
       </c>
-      <c r="H283" s="231"/>
+      <c r="H283" s="230"/>
     </row>
     <row r="284" spans="1:8" ht="25.5">
       <c r="A284" s="36"/>
-      <c r="B284" s="141" t="s">
-        <v>383</v>
+      <c r="B284" s="140" t="s">
+        <v>382</v>
       </c>
       <c r="C284" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="D284" s="147">
+      <c r="D284" s="146">
         <v>225.8</v>
       </c>
-      <c r="E284" s="146">
+      <c r="E284" s="145">
         <f>D284*Лист2!$B$3</f>
         <v>16079.217999999999</v>
       </c>
-      <c r="F284" s="267">
+      <c r="F284" s="266">
         <v>45</v>
       </c>
-      <c r="G284" s="146">
+      <c r="G284" s="145">
         <f t="shared" si="12"/>
         <v>8843.5698999999986</v>
       </c>
-      <c r="H284" s="231"/>
+      <c r="H284" s="230"/>
     </row>
     <row r="285" spans="1:8" ht="25.5">
       <c r="A285" s="36"/>
-      <c r="B285" s="141" t="s">
-        <v>384</v>
+      <c r="B285" s="140" t="s">
+        <v>383</v>
       </c>
       <c r="C285" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="D285" s="147">
+      <c r="D285" s="146">
         <v>544.79999999999995</v>
       </c>
-      <c r="E285" s="146">
+      <c r="E285" s="145">
         <f>D285*Лист2!$B$3</f>
         <v>38795.207999999991</v>
       </c>
-      <c r="F285" s="267">
+      <c r="F285" s="266">
         <v>45</v>
       </c>
-      <c r="G285" s="146">
+      <c r="G285" s="145">
         <f t="shared" si="12"/>
         <v>21337.364399999995</v>
       </c>
-      <c r="H285" s="231"/>
+      <c r="H285" s="230"/>
     </row>
     <row r="286" spans="1:8" ht="25.5">
       <c r="A286" s="36"/>
-      <c r="B286" s="141" t="s">
-        <v>385</v>
+      <c r="B286" s="140" t="s">
+        <v>384</v>
       </c>
       <c r="C286" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="D286" s="147">
+      <c r="D286" s="146">
         <v>726.4</v>
       </c>
-      <c r="E286" s="146">
+      <c r="E286" s="145">
         <f>D286*Лист2!$B$3</f>
         <v>51726.943999999996</v>
       </c>
-      <c r="F286" s="267">
+      <c r="F286" s="266">
         <v>45</v>
       </c>
-      <c r="G286" s="146">
+      <c r="G286" s="145">
         <f t="shared" si="12"/>
         <v>28449.819199999994</v>
       </c>
-      <c r="H286" s="231"/>
+      <c r="H286" s="230"/>
     </row>
     <row r="287" spans="1:8" ht="25.5">
       <c r="A287" s="36"/>
-      <c r="B287" s="141" t="s">
-        <v>386</v>
+      <c r="B287" s="140" t="s">
+        <v>385</v>
       </c>
       <c r="C287" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D287" s="147">
+      <c r="D287" s="146">
         <v>506.7</v>
       </c>
-      <c r="E287" s="146">
+      <c r="E287" s="145">
         <f>D287*Лист2!$B$3</f>
         <v>36082.106999999996</v>
       </c>
-      <c r="F287" s="267">
+      <c r="F287" s="266">
         <v>45</v>
       </c>
-      <c r="G287" s="146">
+      <c r="G287" s="145">
         <f t="shared" si="12"/>
         <v>19845.158849999996</v>
       </c>
-      <c r="H287" s="231"/>
+      <c r="H287" s="230"/>
     </row>
     <row r="288" spans="1:8" ht="25.5">
       <c r="A288" s="36"/>
-      <c r="B288" s="141" t="s">
-        <v>387</v>
+      <c r="B288" s="140" t="s">
+        <v>386</v>
       </c>
       <c r="C288" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="D288" s="147">
+      <c r="D288" s="146">
         <v>646.5</v>
       </c>
-      <c r="E288" s="146">
+      <c r="E288" s="145">
         <f>D288*Лист2!$B$3</f>
         <v>46037.264999999999</v>
       </c>
-      <c r="F288" s="267">
+      <c r="F288" s="266">
         <v>45</v>
       </c>
-      <c r="G288" s="146">
+      <c r="G288" s="145">
         <f t="shared" si="12"/>
         <v>25320.495749999998</v>
       </c>
-      <c r="H288" s="231"/>
+      <c r="H288" s="230"/>
     </row>
     <row r="289" spans="1:8" ht="25.5">
       <c r="A289" s="36"/>
-      <c r="B289" s="141" t="s">
-        <v>388</v>
+      <c r="B289" s="140" t="s">
+        <v>387</v>
       </c>
       <c r="C289" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="D289" s="147">
+      <c r="D289" s="146">
         <v>77.2</v>
       </c>
-      <c r="E289" s="146">
+      <c r="E289" s="145">
         <f>D289*Лист2!$B$3</f>
         <v>5497.4119999999994</v>
       </c>
-      <c r="F289" s="267">
+      <c r="F289" s="266">
         <v>45</v>
       </c>
-      <c r="G289" s="146">
+      <c r="G289" s="145">
         <f t="shared" si="12"/>
         <v>3023.5765999999994</v>
       </c>
-      <c r="H289" s="231"/>
+      <c r="H289" s="230"/>
     </row>
     <row r="290" spans="1:8" ht="25.5">
       <c r="A290" s="36"/>
-      <c r="B290" s="141" t="s">
-        <v>389</v>
+      <c r="B290" s="140" t="s">
+        <v>388</v>
       </c>
       <c r="C290" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="D290" s="147">
+      <c r="D290" s="146">
         <v>77.2</v>
       </c>
-      <c r="E290" s="146">
+      <c r="E290" s="145">
         <f>D290*Лист2!$B$3</f>
         <v>5497.4119999999994</v>
       </c>
-      <c r="F290" s="267">
+      <c r="F290" s="266">
         <v>45</v>
       </c>
-      <c r="G290" s="146">
+      <c r="G290" s="145">
         <f t="shared" si="12"/>
         <v>3023.5765999999994</v>
       </c>
-      <c r="H290" s="231"/>
+      <c r="H290" s="230"/>
     </row>
     <row r="291" spans="1:8" ht="25.5">
       <c r="A291" s="36"/>
-      <c r="B291" s="141" t="s">
-        <v>390</v>
+      <c r="B291" s="140" t="s">
+        <v>389</v>
       </c>
       <c r="C291" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="D291" s="147">
+      <c r="D291" s="146">
         <v>152.80000000000001</v>
       </c>
-      <c r="E291" s="146">
+      <c r="E291" s="145">
         <f>D291*Лист2!$B$3</f>
         <v>10880.887999999999</v>
       </c>
-      <c r="F291" s="267">
+      <c r="F291" s="266">
         <v>45</v>
       </c>
-      <c r="G291" s="146">
+      <c r="G291" s="145">
         <f t="shared" si="12"/>
         <v>5984.4883999999993</v>
       </c>
-      <c r="H291" s="231"/>
+      <c r="H291" s="230"/>
     </row>
     <row r="292" spans="1:8" ht="25.5">
       <c r="A292" s="36"/>
-      <c r="B292" s="141" t="s">
-        <v>391</v>
+      <c r="B292" s="140" t="s">
+        <v>390</v>
       </c>
       <c r="C292" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="D292" s="147">
+      <c r="D292" s="146">
         <v>138.9</v>
       </c>
-      <c r="E292" s="146">
+      <c r="E292" s="145">
         <f>D292*Лист2!$B$3</f>
         <v>9891.0689999999995</v>
       </c>
-      <c r="F292" s="267">
+      <c r="F292" s="266">
         <v>45</v>
       </c>
-      <c r="G292" s="146">
+      <c r="G292" s="145">
         <f t="shared" si="12"/>
         <v>5440.0879500000001</v>
       </c>
-      <c r="H292" s="231"/>
+      <c r="H292" s="230"/>
     </row>
     <row r="293" spans="1:8" ht="38.25">
       <c r="A293" s="36"/>
-      <c r="B293" s="141" t="s">
-        <v>392</v>
+      <c r="B293" s="140" t="s">
+        <v>391</v>
       </c>
       <c r="C293" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="D293" s="147">
+      <c r="D293" s="146">
         <v>263.60000000000002</v>
       </c>
-      <c r="E293" s="146">
+      <c r="E293" s="145">
         <f>D293*Лист2!$B$3</f>
         <v>18770.955999999998</v>
       </c>
-      <c r="F293" s="267">
+      <c r="F293" s="266">
         <v>45</v>
       </c>
-      <c r="G293" s="146">
+      <c r="G293" s="145">
         <f t="shared" si="12"/>
         <v>10324.025799999999</v>
       </c>
-      <c r="H293" s="231"/>
+      <c r="H293" s="230"/>
     </row>
     <row r="294" spans="1:8" ht="38.25">
       <c r="A294" s="36"/>
-      <c r="B294" s="141" t="s">
-        <v>393</v>
+      <c r="B294" s="140" t="s">
+        <v>392</v>
       </c>
       <c r="C294" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="D294" s="147">
+      <c r="D294" s="146">
         <v>726.4</v>
       </c>
-      <c r="E294" s="146">
+      <c r="E294" s="145">
         <f>D294*Лист2!$B$3</f>
         <v>51726.943999999996</v>
       </c>
-      <c r="F294" s="267">
+      <c r="F294" s="266">
         <v>45</v>
       </c>
-      <c r="G294" s="146">
+      <c r="G294" s="145">
         <f t="shared" si="12"/>
         <v>28449.819199999994</v>
       </c>
-      <c r="H294" s="231"/>
+      <c r="H294" s="230"/>
     </row>
     <row r="295" spans="1:8" ht="38.25">
       <c r="A295" s="36"/>
-      <c r="B295" s="141" t="s">
-        <v>394</v>
+      <c r="B295" s="140" t="s">
+        <v>393</v>
       </c>
       <c r="C295" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="D295" s="147">
+      <c r="D295" s="146">
         <v>237.8</v>
       </c>
-      <c r="E295" s="146">
+      <c r="E295" s="145">
         <f>D295*Лист2!$B$3</f>
         <v>16933.737999999998</v>
       </c>
-      <c r="F295" s="267">
+      <c r="F295" s="266">
         <v>45</v>
       </c>
-      <c r="G295" s="146">
+      <c r="G295" s="145">
         <f t="shared" si="12"/>
         <v>9313.5558999999994</v>
       </c>
-      <c r="H295" s="231"/>
+      <c r="H295" s="230"/>
     </row>
     <row r="296" spans="1:8" ht="38.25">
       <c r="A296" s="36"/>
-      <c r="B296" s="141" t="s">
-        <v>395</v>
+      <c r="B296" s="140" t="s">
+        <v>394</v>
       </c>
       <c r="C296" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="D296" s="147">
+      <c r="D296" s="146">
         <v>646.5</v>
       </c>
-      <c r="E296" s="146">
+      <c r="E296" s="145">
         <f>D296*Лист2!$B$3</f>
         <v>46037.264999999999</v>
       </c>
-      <c r="F296" s="267">
+      <c r="F296" s="266">
         <v>45</v>
       </c>
-      <c r="G296" s="146">
+      <c r="G296" s="145">
         <f t="shared" si="12"/>
         <v>25320.495749999998</v>
       </c>
-      <c r="H296" s="231"/>
+      <c r="H296" s="230"/>
     </row>
     <row r="297" spans="1:8" ht="25.5">
       <c r="A297" s="36"/>
-      <c r="B297" s="141" t="s">
-        <v>396</v>
+      <c r="B297" s="140" t="s">
+        <v>395</v>
       </c>
       <c r="C297" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="D297" s="147">
+      <c r="D297" s="146">
         <v>544.79999999999995</v>
       </c>
-      <c r="E297" s="146">
+      <c r="E297" s="145">
         <f>D297*Лист2!$B$3</f>
         <v>38795.207999999991</v>
       </c>
-      <c r="F297" s="267">
+      <c r="F297" s="266">
         <v>45</v>
       </c>
-      <c r="G297" s="146">
+      <c r="G297" s="145">
         <f t="shared" si="12"/>
         <v>21337.364399999995</v>
       </c>
-      <c r="H297" s="231"/>
+      <c r="H297" s="230"/>
     </row>
     <row r="298" spans="1:8" ht="25.5">
       <c r="A298" s="36"/>
-      <c r="B298" s="141" t="s">
-        <v>397</v>
+      <c r="B298" s="140" t="s">
+        <v>396</v>
       </c>
       <c r="C298" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="D298" s="147">
+      <c r="D298" s="146">
         <v>506.7</v>
       </c>
-      <c r="E298" s="146">
+      <c r="E298" s="145">
         <f>D298*Лист2!$B$3</f>
         <v>36082.106999999996</v>
       </c>
-      <c r="F298" s="267">
+      <c r="F298" s="266">
         <v>45</v>
       </c>
-      <c r="G298" s="146">
+      <c r="G298" s="145">
         <f t="shared" si="12"/>
         <v>19845.158849999996</v>
       </c>
@@ -11616,23 +11656,23 @@
     </row>
     <row r="299" spans="1:8" ht="25.5">
       <c r="A299" s="36"/>
-      <c r="B299" s="141" t="s">
-        <v>398</v>
+      <c r="B299" s="140" t="s">
+        <v>397</v>
       </c>
       <c r="C299" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="D299" s="147">
+      <c r="D299" s="146">
         <v>263.60000000000002</v>
       </c>
-      <c r="E299" s="146">
+      <c r="E299" s="145">
         <f>D299*Лист2!$B$3</f>
         <v>18770.955999999998</v>
       </c>
-      <c r="F299" s="267">
+      <c r="F299" s="266">
         <v>45</v>
       </c>
-      <c r="G299" s="146">
+      <c r="G299" s="145">
         <f t="shared" si="12"/>
         <v>10324.025799999999</v>
       </c>
@@ -11640,23 +11680,23 @@
     </row>
     <row r="300" spans="1:8" ht="25.5">
       <c r="A300" s="36"/>
-      <c r="B300" s="141" t="s">
-        <v>399</v>
+      <c r="B300" s="140" t="s">
+        <v>398</v>
       </c>
       <c r="C300" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="D300" s="147">
+      <c r="D300" s="146">
         <v>726.4</v>
       </c>
-      <c r="E300" s="146">
+      <c r="E300" s="145">
         <f>D300*Лист2!$B$3</f>
         <v>51726.943999999996</v>
       </c>
-      <c r="F300" s="267">
+      <c r="F300" s="266">
         <v>45</v>
       </c>
-      <c r="G300" s="146">
+      <c r="G300" s="145">
         <f t="shared" si="12"/>
         <v>28449.819199999994</v>
       </c>
@@ -11664,23 +11704,23 @@
     </row>
     <row r="301" spans="1:8" ht="25.5">
       <c r="A301" s="36"/>
-      <c r="B301" s="141" t="s">
-        <v>400</v>
+      <c r="B301" s="140" t="s">
+        <v>399</v>
       </c>
       <c r="C301" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="D301" s="147">
+      <c r="D301" s="146">
         <v>237.8</v>
       </c>
-      <c r="E301" s="146">
+      <c r="E301" s="145">
         <f>D301*Лист2!$B$3</f>
         <v>16933.737999999998</v>
       </c>
-      <c r="F301" s="267">
+      <c r="F301" s="266">
         <v>45</v>
       </c>
-      <c r="G301" s="146">
+      <c r="G301" s="145">
         <f t="shared" si="12"/>
         <v>9313.5558999999994</v>
       </c>
@@ -11688,23 +11728,23 @@
     </row>
     <row r="302" spans="1:8" ht="38.25">
       <c r="A302" s="36"/>
-      <c r="B302" s="141" t="s">
-        <v>401</v>
+      <c r="B302" s="140" t="s">
+        <v>400</v>
       </c>
       <c r="C302" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="D302" s="147">
+      <c r="D302" s="146">
         <v>646.5</v>
       </c>
-      <c r="E302" s="146">
+      <c r="E302" s="145">
         <f>D302*Лист2!$B$3</f>
         <v>46037.264999999999</v>
       </c>
-      <c r="F302" s="267">
+      <c r="F302" s="266">
         <v>45</v>
       </c>
-      <c r="G302" s="146">
+      <c r="G302" s="145">
         <f t="shared" si="12"/>
         <v>25320.495749999998</v>
       </c>
@@ -11712,23 +11752,23 @@
     </row>
     <row r="303" spans="1:8" ht="14.25">
       <c r="A303" s="36"/>
-      <c r="B303" s="141" t="s">
-        <v>407</v>
+      <c r="B303" s="140" t="s">
+        <v>406</v>
       </c>
       <c r="C303" s="64" t="s">
-        <v>406</v>
-      </c>
-      <c r="D303" s="149">
+        <v>405</v>
+      </c>
+      <c r="D303" s="148">
         <v>185.2</v>
       </c>
-      <c r="E303" s="146">
+      <c r="E303" s="145">
         <f>D303*Лист2!$B$3</f>
         <v>13188.091999999999</v>
       </c>
-      <c r="F303" s="267">
+      <c r="F303" s="266">
         <v>45</v>
       </c>
-      <c r="G303" s="146">
+      <c r="G303" s="145">
         <f t="shared" si="12"/>
         <v>7253.4506000000001</v>
       </c>
@@ -11736,23 +11776,23 @@
     </row>
     <row r="304" spans="1:8" ht="14.25">
       <c r="A304" s="36"/>
-      <c r="B304" s="142" t="s">
+      <c r="B304" s="141" t="s">
         <v>323</v>
       </c>
       <c r="C304" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="D304" s="148">
+      <c r="D304" s="147">
         <v>92.6</v>
       </c>
-      <c r="E304" s="146">
+      <c r="E304" s="145">
         <f>D304*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F304" s="267">
+      <c r="F304" s="266">
         <v>45</v>
       </c>
-      <c r="G304" s="146">
+      <c r="G304" s="145">
         <f t="shared" si="12"/>
         <v>3626.7253000000001</v>
       </c>
@@ -11760,23 +11800,23 @@
     </row>
     <row r="305" spans="1:8" ht="14.25">
       <c r="A305" s="36"/>
-      <c r="B305" s="141" t="s">
+      <c r="B305" s="140" t="s">
         <v>208</v>
       </c>
       <c r="C305" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="D305" s="147">
+      <c r="D305" s="146">
         <v>263.60000000000002</v>
       </c>
-      <c r="E305" s="146">
+      <c r="E305" s="145">
         <f>D305*Лист2!$B$3</f>
         <v>18770.955999999998</v>
       </c>
-      <c r="F305" s="267">
+      <c r="F305" s="266">
         <v>45</v>
       </c>
-      <c r="G305" s="146">
+      <c r="G305" s="145">
         <f t="shared" si="12"/>
         <v>10324.025799999999</v>
       </c>
@@ -11784,23 +11824,23 @@
     </row>
     <row r="306" spans="1:8" ht="14.25">
       <c r="A306" s="36"/>
-      <c r="B306" s="143" t="s">
+      <c r="B306" s="142" t="s">
         <v>245</v>
       </c>
       <c r="C306" s="85" t="s">
         <v>246</v>
       </c>
-      <c r="D306" s="150">
+      <c r="D306" s="149">
         <v>10.9</v>
       </c>
-      <c r="E306" s="146">
+      <c r="E306" s="145">
         <f>D306*Лист2!$B$3</f>
         <v>776.18899999999996</v>
       </c>
-      <c r="F306" s="267">
+      <c r="F306" s="266">
         <v>45</v>
       </c>
-      <c r="G306" s="146">
+      <c r="G306" s="145">
         <f t="shared" si="12"/>
         <v>426.90395000000001</v>
       </c>
@@ -11808,23 +11848,23 @@
     </row>
     <row r="307" spans="1:8" ht="38.25">
       <c r="A307" s="36"/>
-      <c r="B307" s="141" t="s">
+      <c r="B307" s="140" t="s">
         <v>209</v>
       </c>
       <c r="C307" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="D307" s="147">
+      <c r="D307" s="146">
         <v>126.2</v>
       </c>
-      <c r="E307" s="146">
+      <c r="E307" s="145">
         <f>D307*Лист2!$B$3</f>
         <v>8986.7019999999993</v>
       </c>
-      <c r="F307" s="267">
+      <c r="F307" s="266">
         <v>45</v>
       </c>
-      <c r="G307" s="146">
+      <c r="G307" s="145">
         <f t="shared" si="12"/>
         <v>4942.686099999999</v>
       </c>
@@ -11832,23 +11872,23 @@
     </row>
     <row r="308" spans="1:8" ht="25.5">
       <c r="A308" s="36"/>
-      <c r="B308" s="141" t="s">
-        <v>402</v>
+      <c r="B308" s="140" t="s">
+        <v>401</v>
       </c>
       <c r="C308" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="D308" s="147">
+      <c r="D308" s="146">
         <v>263.60000000000002</v>
       </c>
-      <c r="E308" s="146">
+      <c r="E308" s="145">
         <f>D308*Лист2!$B$3</f>
         <v>18770.955999999998</v>
       </c>
-      <c r="F308" s="267">
+      <c r="F308" s="266">
         <v>45</v>
       </c>
-      <c r="G308" s="146">
+      <c r="G308" s="145">
         <f t="shared" si="12"/>
         <v>10324.025799999999</v>
       </c>
@@ -11856,23 +11896,23 @@
     </row>
     <row r="309" spans="1:8" ht="25.5">
       <c r="A309" s="36"/>
-      <c r="B309" s="141" t="s">
-        <v>403</v>
+      <c r="B309" s="140" t="s">
+        <v>402</v>
       </c>
       <c r="C309" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="D309" s="147">
+      <c r="D309" s="146">
         <v>726.4</v>
       </c>
-      <c r="E309" s="146">
+      <c r="E309" s="145">
         <f>D309*Лист2!$B$3</f>
         <v>51726.943999999996</v>
       </c>
-      <c r="F309" s="267">
+      <c r="F309" s="266">
         <v>45</v>
       </c>
-      <c r="G309" s="146">
+      <c r="G309" s="145">
         <f t="shared" si="12"/>
         <v>28449.819199999994</v>
       </c>
@@ -11880,23 +11920,23 @@
     </row>
     <row r="310" spans="1:8" ht="25.5">
       <c r="A310" s="36"/>
-      <c r="B310" s="141" t="s">
-        <v>404</v>
+      <c r="B310" s="140" t="s">
+        <v>403</v>
       </c>
       <c r="C310" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="D310" s="147">
+      <c r="D310" s="146">
         <v>237.8</v>
       </c>
-      <c r="E310" s="146">
+      <c r="E310" s="145">
         <f>D310*Лист2!$B$3</f>
         <v>16933.737999999998</v>
       </c>
-      <c r="F310" s="267">
+      <c r="F310" s="266">
         <v>45</v>
       </c>
-      <c r="G310" s="146">
+      <c r="G310" s="145">
         <f t="shared" si="12"/>
         <v>9313.5558999999994</v>
       </c>
@@ -11904,23 +11944,23 @@
     </row>
     <row r="311" spans="1:8" ht="25.5">
       <c r="A311" s="36"/>
-      <c r="B311" s="141" t="s">
-        <v>405</v>
+      <c r="B311" s="140" t="s">
+        <v>404</v>
       </c>
       <c r="C311" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="D311" s="147">
+      <c r="D311" s="146">
         <v>646.5</v>
       </c>
-      <c r="E311" s="146">
+      <c r="E311" s="145">
         <f>D311*Лист2!$B$3</f>
         <v>46037.264999999999</v>
       </c>
-      <c r="F311" s="267">
+      <c r="F311" s="266">
         <v>45</v>
       </c>
-      <c r="G311" s="146">
+      <c r="G311" s="145">
         <f t="shared" si="12"/>
         <v>25320.495749999998</v>
       </c>
@@ -11928,23 +11968,23 @@
     </row>
     <row r="312" spans="1:8" ht="25.5">
       <c r="A312" s="36"/>
-      <c r="B312" s="144" t="s">
+      <c r="B312" s="143" t="s">
         <v>243</v>
       </c>
       <c r="C312" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="D312" s="151">
+      <c r="D312" s="150">
         <v>38.200000000000003</v>
       </c>
-      <c r="E312" s="146">
+      <c r="E312" s="145">
         <f>D312*Лист2!$B$3</f>
         <v>2720.2219999999998</v>
       </c>
-      <c r="F312" s="267">
+      <c r="F312" s="266">
         <v>45</v>
       </c>
-      <c r="G312" s="146">
+      <c r="G312" s="145">
         <f t="shared" si="12"/>
         <v>1496.1220999999998</v>
       </c>
@@ -11952,23 +11992,23 @@
     </row>
     <row r="313" spans="1:8" ht="25.5">
       <c r="A313" s="36"/>
-      <c r="B313" s="144" t="s">
+      <c r="B313" s="143" t="s">
         <v>242</v>
       </c>
       <c r="C313" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="D313" s="151">
+      <c r="D313" s="150">
         <v>31.8</v>
       </c>
-      <c r="E313" s="146">
+      <c r="E313" s="145">
         <f>D313*Лист2!$B$3</f>
         <v>2264.4780000000001</v>
       </c>
-      <c r="F313" s="267">
+      <c r="F313" s="266">
         <v>45</v>
       </c>
-      <c r="G313" s="146">
+      <c r="G313" s="145">
         <f t="shared" si="12"/>
         <v>1245.4629</v>
       </c>
@@ -12006,26 +12046,26 @@
     </row>
     <row r="317" spans="1:8" ht="30">
       <c r="A317" s="36"/>
-      <c r="B317" s="345" t="s">
+      <c r="B317" s="291" t="s">
         <v>311</v>
       </c>
-      <c r="C317" s="345"/>
-      <c r="D317" s="345"/>
-      <c r="E317" s="345"/>
-      <c r="F317" s="346"/>
-      <c r="G317" s="345"/>
+      <c r="C317" s="291"/>
+      <c r="D317" s="291"/>
+      <c r="E317" s="291"/>
+      <c r="F317" s="292"/>
+      <c r="G317" s="291"/>
       <c r="H317" s="2"/>
     </row>
     <row r="318" spans="1:8" ht="23.25">
       <c r="A318" s="36"/>
-      <c r="B318" s="339" t="s">
+      <c r="B318" s="285" t="s">
         <v>312</v>
       </c>
-      <c r="C318" s="339"/>
-      <c r="D318" s="339"/>
-      <c r="E318" s="339"/>
-      <c r="F318" s="340"/>
-      <c r="G318" s="339"/>
+      <c r="C318" s="285"/>
+      <c r="D318" s="285"/>
+      <c r="E318" s="285"/>
+      <c r="F318" s="286"/>
+      <c r="G318" s="285"/>
       <c r="H318" s="2"/>
     </row>
     <row r="319" spans="1:8" ht="75">
@@ -12036,12 +12076,12 @@
       <c r="C319" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D319" s="289" t="s">
+      <c r="D319" s="365" t="s">
         <v>262</v>
       </c>
-      <c r="E319" s="290"/>
-      <c r="F319" s="291"/>
-      <c r="G319" s="276"/>
+      <c r="E319" s="366"/>
+      <c r="F319" s="367"/>
+      <c r="G319" s="275"/>
       <c r="H319" s="2"/>
     </row>
     <row r="320" spans="1:8" ht="60">
@@ -12052,12 +12092,12 @@
       <c r="C320" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D320" s="289" t="s">
+      <c r="D320" s="365" t="s">
         <v>262</v>
       </c>
-      <c r="E320" s="290"/>
-      <c r="F320" s="291"/>
-      <c r="G320" s="276"/>
+      <c r="E320" s="366"/>
+      <c r="F320" s="367"/>
+      <c r="G320" s="275"/>
       <c r="H320" s="2"/>
     </row>
     <row r="321" spans="1:8" ht="38.25" customHeight="1">
@@ -12068,12 +12108,12 @@
       <c r="C321" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D321" s="289" t="s">
+      <c r="D321" s="365" t="s">
         <v>265</v>
       </c>
-      <c r="E321" s="290"/>
-      <c r="F321" s="291"/>
-      <c r="G321" s="276"/>
+      <c r="E321" s="366"/>
+      <c r="F321" s="367"/>
+      <c r="G321" s="275"/>
       <c r="H321" s="2"/>
     </row>
     <row r="322" spans="1:8" ht="38.25" customHeight="1">
@@ -12084,12 +12124,12 @@
       <c r="C322" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D322" s="289" t="s">
+      <c r="D322" s="365" t="s">
         <v>267</v>
       </c>
-      <c r="E322" s="290"/>
-      <c r="F322" s="291"/>
-      <c r="G322" s="276"/>
+      <c r="E322" s="366"/>
+      <c r="F322" s="367"/>
+      <c r="G322" s="275"/>
       <c r="H322" s="2"/>
     </row>
     <row r="323" spans="1:8" ht="38.25" customHeight="1">
@@ -12100,12 +12140,12 @@
       <c r="C323" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D323" s="289" t="s">
+      <c r="D323" s="365" t="s">
         <v>269</v>
       </c>
-      <c r="E323" s="290"/>
-      <c r="F323" s="291"/>
-      <c r="G323" s="276"/>
+      <c r="E323" s="366"/>
+      <c r="F323" s="367"/>
+      <c r="G323" s="275"/>
       <c r="H323" s="2"/>
     </row>
     <row r="324" spans="1:8" ht="38.25" customHeight="1">
@@ -12116,12 +12156,12 @@
       <c r="C324" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D324" s="289" t="s">
+      <c r="D324" s="365" t="s">
         <v>271</v>
       </c>
-      <c r="E324" s="290"/>
-      <c r="F324" s="291"/>
-      <c r="G324" s="276"/>
+      <c r="E324" s="366"/>
+      <c r="F324" s="367"/>
+      <c r="G324" s="275"/>
       <c r="H324" s="2"/>
     </row>
     <row r="325" spans="1:8" ht="38.25" customHeight="1">
@@ -12132,12 +12172,12 @@
       <c r="C325" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D325" s="289" t="s">
+      <c r="D325" s="365" t="s">
         <v>273</v>
       </c>
-      <c r="E325" s="290"/>
-      <c r="F325" s="291"/>
-      <c r="G325" s="276"/>
+      <c r="E325" s="366"/>
+      <c r="F325" s="367"/>
+      <c r="G325" s="275"/>
       <c r="H325" s="2"/>
     </row>
     <row r="326" spans="1:8" ht="30" customHeight="1">
@@ -12148,12 +12188,12 @@
       <c r="C326" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D326" s="289" t="s">
+      <c r="D326" s="365" t="s">
         <v>275</v>
       </c>
-      <c r="E326" s="290"/>
-      <c r="F326" s="291"/>
-      <c r="G326" s="276"/>
+      <c r="E326" s="366"/>
+      <c r="F326" s="367"/>
+      <c r="G326" s="275"/>
       <c r="H326" s="2"/>
     </row>
     <row r="327" spans="1:8" ht="30" customHeight="1">
@@ -12164,12 +12204,12 @@
       <c r="C327" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D327" s="289" t="s">
+      <c r="D327" s="365" t="s">
         <v>277</v>
       </c>
-      <c r="E327" s="290"/>
-      <c r="F327" s="291"/>
-      <c r="G327" s="276"/>
+      <c r="E327" s="366"/>
+      <c r="F327" s="367"/>
+      <c r="G327" s="275"/>
       <c r="H327" s="2"/>
     </row>
     <row r="328" spans="1:8" ht="38.25" customHeight="1">
@@ -12180,12 +12220,12 @@
       <c r="C328" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D328" s="289" t="s">
-        <v>411</v>
-      </c>
-      <c r="E328" s="290"/>
-      <c r="F328" s="291"/>
-      <c r="G328" s="276"/>
+      <c r="D328" s="365" t="s">
+        <v>410</v>
+      </c>
+      <c r="E328" s="366"/>
+      <c r="F328" s="367"/>
+      <c r="G328" s="275"/>
       <c r="H328" s="2"/>
     </row>
     <row r="329" spans="1:8" ht="38.25" customHeight="1">
@@ -12196,12 +12236,12 @@
       <c r="C329" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D329" s="289" t="s">
+      <c r="D329" s="365" t="s">
         <v>280</v>
       </c>
-      <c r="E329" s="290"/>
-      <c r="F329" s="291"/>
-      <c r="G329" s="276"/>
+      <c r="E329" s="366"/>
+      <c r="F329" s="367"/>
+      <c r="G329" s="275"/>
       <c r="H329" s="2"/>
     </row>
     <row r="330" spans="1:8" ht="38.25" customHeight="1">
@@ -12212,12 +12252,12 @@
       <c r="C330" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D330" s="289" t="s">
+      <c r="D330" s="365" t="s">
         <v>282</v>
       </c>
-      <c r="E330" s="290"/>
-      <c r="F330" s="291"/>
-      <c r="G330" s="276"/>
+      <c r="E330" s="366"/>
+      <c r="F330" s="367"/>
+      <c r="G330" s="275"/>
       <c r="H330" s="2"/>
     </row>
     <row r="331" spans="1:8" ht="38.25" customHeight="1">
@@ -12228,12 +12268,12 @@
       <c r="C331" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D331" s="289" t="s">
-        <v>409</v>
-      </c>
-      <c r="E331" s="290"/>
-      <c r="F331" s="291"/>
-      <c r="G331" s="276"/>
+      <c r="D331" s="365" t="s">
+        <v>408</v>
+      </c>
+      <c r="E331" s="366"/>
+      <c r="F331" s="367"/>
+      <c r="G331" s="275"/>
       <c r="H331" s="2"/>
     </row>
     <row r="332" spans="1:8" ht="38.25" customHeight="1">
@@ -12244,12 +12284,12 @@
       <c r="C332" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D332" s="289" t="s">
+      <c r="D332" s="365" t="s">
         <v>285</v>
       </c>
-      <c r="E332" s="290"/>
-      <c r="F332" s="291"/>
-      <c r="G332" s="276"/>
+      <c r="E332" s="366"/>
+      <c r="F332" s="367"/>
+      <c r="G332" s="275"/>
       <c r="H332" s="2"/>
     </row>
     <row r="333" spans="1:8" ht="38.25" customHeight="1">
@@ -12260,72 +12300,72 @@
       <c r="C333" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D333" s="289" t="s">
+      <c r="D333" s="365" t="s">
         <v>322</v>
       </c>
-      <c r="E333" s="290"/>
-      <c r="F333" s="291"/>
-      <c r="G333" s="276"/>
+      <c r="E333" s="366"/>
+      <c r="F333" s="367"/>
+      <c r="G333" s="275"/>
       <c r="H333" s="2"/>
     </row>
     <row r="334" spans="1:8" ht="23.25">
       <c r="A334" s="36"/>
-      <c r="B334" s="300" t="s">
+      <c r="B334" s="371" t="s">
         <v>313</v>
       </c>
-      <c r="C334" s="301"/>
-      <c r="D334" s="301"/>
-      <c r="E334" s="301"/>
-      <c r="F334" s="302"/>
-      <c r="G334" s="303"/>
+      <c r="C334" s="372"/>
+      <c r="D334" s="372"/>
+      <c r="E334" s="372"/>
+      <c r="F334" s="373"/>
+      <c r="G334" s="374"/>
       <c r="H334" s="2"/>
     </row>
     <row r="335" spans="1:8" ht="38.25" customHeight="1">
       <c r="A335" s="36"/>
-      <c r="B335" s="130" t="s">
-        <v>371</v>
-      </c>
-      <c r="C335" s="131" t="s">
+      <c r="B335" s="129" t="s">
+        <v>370</v>
+      </c>
+      <c r="C335" s="130" t="s">
         <v>261</v>
       </c>
-      <c r="D335" s="289" t="s">
+      <c r="D335" s="365" t="s">
         <v>296</v>
       </c>
-      <c r="E335" s="290"/>
-      <c r="F335" s="291"/>
-      <c r="G335" s="276"/>
+      <c r="E335" s="366"/>
+      <c r="F335" s="367"/>
+      <c r="G335" s="275"/>
       <c r="H335" s="2"/>
     </row>
     <row r="336" spans="1:8" ht="38.25" customHeight="1">
       <c r="A336" s="36"/>
-      <c r="B336" s="130" t="s">
+      <c r="B336" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C336" s="131" t="s">
-        <v>374</v>
-      </c>
-      <c r="D336" s="289" t="s">
+      <c r="C336" s="130" t="s">
+        <v>373</v>
+      </c>
+      <c r="D336" s="365" t="s">
         <v>296</v>
       </c>
-      <c r="E336" s="290"/>
-      <c r="F336" s="291"/>
-      <c r="G336" s="276"/>
+      <c r="E336" s="366"/>
+      <c r="F336" s="367"/>
+      <c r="G336" s="275"/>
       <c r="H336" s="2"/>
     </row>
     <row r="337" spans="1:8" ht="51" customHeight="1">
       <c r="A337" s="36"/>
       <c r="B337" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="C337" s="131" t="s">
+        <v>372</v>
+      </c>
+      <c r="C337" s="130" t="s">
         <v>335</v>
       </c>
-      <c r="D337" s="289" t="s">
+      <c r="D337" s="365" t="s">
         <v>287</v>
       </c>
-      <c r="E337" s="290"/>
-      <c r="F337" s="291"/>
-      <c r="G337" s="276"/>
+      <c r="E337" s="366"/>
+      <c r="F337" s="367"/>
+      <c r="G337" s="275"/>
       <c r="H337" s="2"/>
     </row>
     <row r="338" spans="1:8" ht="51" customHeight="1">
@@ -12336,12 +12376,12 @@
       <c r="C338" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D338" s="289" t="s">
+      <c r="D338" s="365" t="s">
         <v>289</v>
       </c>
-      <c r="E338" s="290"/>
-      <c r="F338" s="291"/>
-      <c r="G338" s="276"/>
+      <c r="E338" s="366"/>
+      <c r="F338" s="367"/>
+      <c r="G338" s="275"/>
       <c r="H338" s="2"/>
     </row>
     <row r="339" spans="1:8" ht="51" customHeight="1">
@@ -12352,12 +12392,12 @@
       <c r="C339" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D339" s="289" t="s">
+      <c r="D339" s="365" t="s">
         <v>291</v>
       </c>
-      <c r="E339" s="290"/>
-      <c r="F339" s="291"/>
-      <c r="G339" s="276"/>
+      <c r="E339" s="366"/>
+      <c r="F339" s="367"/>
+      <c r="G339" s="275"/>
       <c r="H339" s="2"/>
     </row>
     <row r="340" spans="1:8" ht="51" customHeight="1">
@@ -12368,12 +12408,12 @@
       <c r="C340" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D340" s="289" t="s">
+      <c r="D340" s="365" t="s">
         <v>293</v>
       </c>
-      <c r="E340" s="290"/>
-      <c r="F340" s="291"/>
-      <c r="G340" s="276"/>
+      <c r="E340" s="366"/>
+      <c r="F340" s="367"/>
+      <c r="G340" s="275"/>
       <c r="H340" s="2"/>
     </row>
     <row r="341" spans="1:8" ht="51" customHeight="1">
@@ -12384,12 +12424,12 @@
       <c r="C341" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D341" s="289" t="s">
+      <c r="D341" s="365" t="s">
         <v>294</v>
       </c>
-      <c r="E341" s="290"/>
-      <c r="F341" s="291"/>
-      <c r="G341" s="276"/>
+      <c r="E341" s="366"/>
+      <c r="F341" s="367"/>
+      <c r="G341" s="275"/>
       <c r="H341" s="2"/>
     </row>
     <row r="342" spans="1:8" ht="30" customHeight="1">
@@ -12400,12 +12440,12 @@
       <c r="C342" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D342" s="289" t="s">
+      <c r="D342" s="365" t="s">
         <v>296</v>
       </c>
-      <c r="E342" s="290"/>
-      <c r="F342" s="291"/>
-      <c r="G342" s="276"/>
+      <c r="E342" s="366"/>
+      <c r="F342" s="367"/>
+      <c r="G342" s="275"/>
       <c r="H342" s="2"/>
     </row>
     <row r="343" spans="1:8" ht="30" customHeight="1">
@@ -12416,12 +12456,12 @@
       <c r="C343" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D343" s="289" t="s">
+      <c r="D343" s="365" t="s">
         <v>296</v>
       </c>
-      <c r="E343" s="290"/>
-      <c r="F343" s="291"/>
-      <c r="G343" s="276"/>
+      <c r="E343" s="366"/>
+      <c r="F343" s="367"/>
+      <c r="G343" s="275"/>
       <c r="H343" s="2"/>
     </row>
     <row r="344" spans="1:8" ht="51" customHeight="1">
@@ -12432,12 +12472,12 @@
       <c r="C344" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D344" s="289" t="s">
+      <c r="D344" s="365" t="s">
         <v>294</v>
       </c>
-      <c r="E344" s="290"/>
-      <c r="F344" s="291"/>
-      <c r="G344" s="276"/>
+      <c r="E344" s="366"/>
+      <c r="F344" s="367"/>
+      <c r="G344" s="275"/>
       <c r="H344" s="2"/>
     </row>
     <row r="345" spans="1:8" ht="51" customHeight="1">
@@ -12448,12 +12488,12 @@
       <c r="C345" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D345" s="289" t="s">
+      <c r="D345" s="365" t="s">
         <v>294</v>
       </c>
-      <c r="E345" s="290"/>
-      <c r="F345" s="291"/>
-      <c r="G345" s="276"/>
+      <c r="E345" s="366"/>
+      <c r="F345" s="367"/>
+      <c r="G345" s="275"/>
       <c r="H345" s="2"/>
     </row>
     <row r="346" spans="1:8" ht="51" customHeight="1">
@@ -12464,12 +12504,12 @@
       <c r="C346" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D346" s="289" t="s">
+      <c r="D346" s="365" t="s">
         <v>300</v>
       </c>
-      <c r="E346" s="290"/>
-      <c r="F346" s="291"/>
-      <c r="G346" s="276"/>
+      <c r="E346" s="366"/>
+      <c r="F346" s="367"/>
+      <c r="G346" s="275"/>
       <c r="H346" s="2"/>
     </row>
     <row r="347" spans="1:8" ht="51" customHeight="1">
@@ -12480,12 +12520,12 @@
       <c r="C347" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D347" s="289" t="s">
+      <c r="D347" s="365" t="s">
         <v>294</v>
       </c>
-      <c r="E347" s="290"/>
-      <c r="F347" s="291"/>
-      <c r="G347" s="276"/>
+      <c r="E347" s="366"/>
+      <c r="F347" s="367"/>
+      <c r="G347" s="275"/>
       <c r="H347" s="2"/>
     </row>
     <row r="348" spans="1:8" ht="51" customHeight="1">
@@ -12496,12 +12536,12 @@
       <c r="C348" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D348" s="289" t="s">
+      <c r="D348" s="365" t="s">
         <v>302</v>
       </c>
-      <c r="E348" s="290"/>
-      <c r="F348" s="291"/>
-      <c r="G348" s="277"/>
+      <c r="E348" s="366"/>
+      <c r="F348" s="367"/>
+      <c r="G348" s="276"/>
       <c r="H348" s="2"/>
     </row>
     <row r="349" spans="1:8" ht="51" customHeight="1">
@@ -12512,12 +12552,12 @@
       <c r="C349" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D349" s="289" t="s">
+      <c r="D349" s="365" t="s">
         <v>304</v>
       </c>
-      <c r="E349" s="290"/>
-      <c r="F349" s="291"/>
-      <c r="G349" s="277"/>
+      <c r="E349" s="366"/>
+      <c r="F349" s="367"/>
+      <c r="G349" s="276"/>
       <c r="H349" s="2"/>
     </row>
     <row r="350" spans="1:8" ht="51" customHeight="1">
@@ -12528,12 +12568,12 @@
       <c r="C350" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D350" s="289" t="s">
+      <c r="D350" s="365" t="s">
         <v>296</v>
       </c>
-      <c r="E350" s="290"/>
-      <c r="F350" s="291"/>
-      <c r="G350" s="277"/>
+      <c r="E350" s="366"/>
+      <c r="F350" s="367"/>
+      <c r="G350" s="276"/>
       <c r="H350" s="2"/>
     </row>
     <row r="351" spans="1:8" ht="51" customHeight="1">
@@ -12544,12 +12584,12 @@
       <c r="C351" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D351" s="289" t="s">
+      <c r="D351" s="365" t="s">
         <v>302</v>
       </c>
-      <c r="E351" s="290"/>
-      <c r="F351" s="291"/>
-      <c r="G351" s="277"/>
+      <c r="E351" s="366"/>
+      <c r="F351" s="367"/>
+      <c r="G351" s="276"/>
       <c r="H351" s="2"/>
     </row>
     <row r="352" spans="1:8" ht="51" customHeight="1">
@@ -12560,12 +12600,12 @@
       <c r="C352" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D352" s="289" t="s">
+      <c r="D352" s="365" t="s">
         <v>307</v>
       </c>
-      <c r="E352" s="290"/>
-      <c r="F352" s="291"/>
-      <c r="G352" s="276"/>
+      <c r="E352" s="366"/>
+      <c r="F352" s="367"/>
+      <c r="G352" s="275"/>
       <c r="H352" s="2"/>
     </row>
     <row r="353" spans="1:8" ht="51" customHeight="1">
@@ -12576,12 +12616,12 @@
       <c r="C353" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D353" s="289" t="s">
+      <c r="D353" s="365" t="s">
         <v>302</v>
       </c>
-      <c r="E353" s="290"/>
-      <c r="F353" s="291"/>
-      <c r="G353" s="277"/>
+      <c r="E353" s="366"/>
+      <c r="F353" s="367"/>
+      <c r="G353" s="276"/>
       <c r="H353" s="2"/>
     </row>
     <row r="354" spans="1:8" ht="51" customHeight="1">
@@ -12592,12 +12632,12 @@
       <c r="C354" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D354" s="289" t="s">
+      <c r="D354" s="365" t="s">
         <v>302</v>
       </c>
-      <c r="E354" s="290"/>
-      <c r="F354" s="291"/>
-      <c r="G354" s="277"/>
+      <c r="E354" s="366"/>
+      <c r="F354" s="367"/>
+      <c r="G354" s="276"/>
       <c r="H354" s="2"/>
     </row>
     <row r="355" spans="1:8" ht="15.75" customHeight="1">
@@ -12608,24 +12648,24 @@
       <c r="C355" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D355" s="289" t="s">
-        <v>410</v>
-      </c>
-      <c r="E355" s="290"/>
-      <c r="F355" s="291"/>
-      <c r="G355" s="276"/>
+      <c r="D355" s="365" t="s">
+        <v>409</v>
+      </c>
+      <c r="E355" s="366"/>
+      <c r="F355" s="367"/>
+      <c r="G355" s="275"/>
       <c r="H355" s="2"/>
     </row>
     <row r="356" spans="1:8" ht="23.25">
       <c r="A356" s="36"/>
-      <c r="B356" s="330" t="s">
+      <c r="B356" s="331" t="s">
         <v>332</v>
       </c>
-      <c r="C356" s="331"/>
-      <c r="D356" s="331"/>
-      <c r="E356" s="331"/>
-      <c r="F356" s="332"/>
-      <c r="G356" s="333"/>
+      <c r="C356" s="332"/>
+      <c r="D356" s="332"/>
+      <c r="E356" s="332"/>
+      <c r="F356" s="333"/>
+      <c r="G356" s="334"/>
       <c r="H356" s="2"/>
     </row>
     <row r="357" spans="1:8" ht="15.75" customHeight="1">
@@ -12636,12 +12676,12 @@
       <c r="C357" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D357" s="289" t="s">
+      <c r="D357" s="365" t="s">
         <v>336</v>
       </c>
-      <c r="E357" s="290"/>
-      <c r="F357" s="291"/>
-      <c r="G357" s="276"/>
+      <c r="E357" s="366"/>
+      <c r="F357" s="367"/>
+      <c r="G357" s="275"/>
       <c r="H357" s="2"/>
     </row>
     <row r="358" spans="1:8" ht="30" customHeight="1">
@@ -12652,12 +12692,12 @@
       <c r="C358" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D358" s="289" t="s">
+      <c r="D358" s="365" t="s">
         <v>336</v>
       </c>
-      <c r="E358" s="290"/>
-      <c r="F358" s="291"/>
-      <c r="G358" s="276"/>
+      <c r="E358" s="366"/>
+      <c r="F358" s="367"/>
+      <c r="G358" s="275"/>
       <c r="H358" s="2"/>
     </row>
     <row r="359" spans="1:8" ht="15.75" customHeight="1">
@@ -12668,24 +12708,24 @@
       <c r="C359" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="D359" s="292" t="s">
+      <c r="D359" s="381" t="s">
         <v>336</v>
       </c>
-      <c r="E359" s="293"/>
-      <c r="F359" s="294"/>
-      <c r="G359" s="276"/>
+      <c r="E359" s="382"/>
+      <c r="F359" s="383"/>
+      <c r="G359" s="275"/>
       <c r="H359" s="2"/>
     </row>
     <row r="360" spans="1:8" ht="26.25">
       <c r="A360" s="36"/>
-      <c r="B360" s="344" t="s">
+      <c r="B360" s="290" t="s">
         <v>213</v>
       </c>
-      <c r="C360" s="344"/>
-      <c r="D360" s="344"/>
-      <c r="E360" s="344"/>
-      <c r="F360" s="344"/>
-      <c r="G360" s="344"/>
+      <c r="C360" s="290"/>
+      <c r="D360" s="290"/>
+      <c r="E360" s="290"/>
+      <c r="F360" s="290"/>
+      <c r="G360" s="290"/>
       <c r="H360" s="2"/>
     </row>
     <row r="361" spans="1:8" ht="15.75">
@@ -12700,14 +12740,14 @@
     </row>
     <row r="362" spans="1:8" ht="14.25">
       <c r="A362" s="36"/>
-      <c r="B362" s="334" t="s">
-        <v>413</v>
-      </c>
-      <c r="C362" s="334"/>
-      <c r="D362" s="334"/>
-      <c r="E362" s="334"/>
-      <c r="F362" s="334"/>
-      <c r="G362" s="334"/>
+      <c r="B362" s="335" t="s">
+        <v>412</v>
+      </c>
+      <c r="C362" s="335"/>
+      <c r="D362" s="335"/>
+      <c r="E362" s="335"/>
+      <c r="F362" s="335"/>
+      <c r="G362" s="335"/>
       <c r="H362" s="2"/>
     </row>
     <row r="363" spans="1:8" ht="15.75">
@@ -12722,26 +12762,26 @@
     </row>
     <row r="364" spans="1:8" ht="14.25" customHeight="1">
       <c r="A364" s="36"/>
-      <c r="B364" s="337" t="s">
-        <v>441</v>
-      </c>
-      <c r="C364" s="338"/>
-      <c r="D364" s="338"/>
-      <c r="E364" s="338"/>
-      <c r="F364" s="338"/>
-      <c r="G364" s="338"/>
+      <c r="B364" s="338" t="s">
+        <v>440</v>
+      </c>
+      <c r="C364" s="339"/>
+      <c r="D364" s="339"/>
+      <c r="E364" s="339"/>
+      <c r="F364" s="339"/>
+      <c r="G364" s="339"/>
       <c r="H364" s="2"/>
     </row>
     <row r="365" spans="1:8" ht="33" customHeight="1">
       <c r="A365" s="36"/>
-      <c r="B365" s="337" t="s">
-        <v>442</v>
-      </c>
-      <c r="C365" s="338"/>
-      <c r="D365" s="338"/>
-      <c r="E365" s="338"/>
-      <c r="F365" s="338"/>
-      <c r="G365" s="338"/>
+      <c r="B365" s="338" t="s">
+        <v>441</v>
+      </c>
+      <c r="C365" s="339"/>
+      <c r="D365" s="339"/>
+      <c r="E365" s="339"/>
+      <c r="F365" s="339"/>
+      <c r="G365" s="339"/>
       <c r="H365" s="2"/>
     </row>
     <row r="366" spans="1:8" ht="15.75">
@@ -12756,12 +12796,12 @@
     </row>
     <row r="367" spans="1:8" ht="14.25">
       <c r="A367" s="36"/>
-      <c r="B367" s="329"/>
-      <c r="C367" s="329"/>
-      <c r="D367" s="329"/>
-      <c r="E367" s="329"/>
-      <c r="F367" s="329"/>
-      <c r="G367" s="329"/>
+      <c r="B367" s="330"/>
+      <c r="C367" s="330"/>
+      <c r="D367" s="330"/>
+      <c r="E367" s="330"/>
+      <c r="F367" s="330"/>
+      <c r="G367" s="330"/>
       <c r="H367" s="2"/>
     </row>
     <row r="368" spans="1:8" ht="14.25">
@@ -12776,36 +12816,36 @@
     </row>
     <row r="369" spans="1:8" ht="16.5" customHeight="1">
       <c r="A369" s="37"/>
-      <c r="B369" s="325"/>
-      <c r="C369" s="325"/>
-      <c r="D369" s="325"/>
-      <c r="E369" s="325"/>
-      <c r="F369" s="325"/>
-      <c r="G369" s="325"/>
+      <c r="B369" s="326"/>
+      <c r="C369" s="326"/>
+      <c r="D369" s="326"/>
+      <c r="E369" s="326"/>
+      <c r="F369" s="326"/>
+      <c r="G369" s="326"/>
       <c r="H369" s="2"/>
     </row>
     <row r="370" spans="1:8" ht="32.25" customHeight="1">
       <c r="A370" s="38"/>
-      <c r="B370" s="326" t="s">
+      <c r="B370" s="327" t="s">
         <v>214</v>
       </c>
-      <c r="C370" s="327"/>
-      <c r="D370" s="327"/>
-      <c r="E370" s="327"/>
-      <c r="F370" s="327"/>
-      <c r="G370" s="328"/>
+      <c r="C370" s="328"/>
+      <c r="D370" s="328"/>
+      <c r="E370" s="328"/>
+      <c r="F370" s="328"/>
+      <c r="G370" s="329"/>
       <c r="H370" s="2"/>
     </row>
     <row r="371" spans="1:8" ht="32.25" customHeight="1">
       <c r="A371" s="38"/>
-      <c r="B371" s="335" t="s">
+      <c r="B371" s="336" t="s">
         <v>159</v>
       </c>
-      <c r="C371" s="336"/>
-      <c r="D371" s="336"/>
-      <c r="E371" s="336"/>
-      <c r="F371" s="336"/>
-      <c r="G371" s="336"/>
+      <c r="C371" s="337"/>
+      <c r="D371" s="337"/>
+      <c r="E371" s="337"/>
+      <c r="F371" s="337"/>
+      <c r="G371" s="337"/>
       <c r="H371" s="2"/>
     </row>
     <row r="372" spans="1:8" ht="15.6" customHeight="1">
@@ -12814,151 +12854,97 @@
       <c r="C372" s="39"/>
       <c r="D372" s="39"/>
       <c r="E372" s="39"/>
-      <c r="F372" s="243"/>
+      <c r="F372" s="242"/>
       <c r="G372" s="39"/>
       <c r="H372" s="2"/>
     </row>
     <row r="373" spans="1:8" ht="15.75" customHeight="1">
       <c r="B373" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H373" s="2"/>
     </row>
     <row r="374" spans="1:8" ht="15.75" customHeight="1">
       <c r="A374" s="40"/>
       <c r="B374" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
-      <c r="F374" s="242"/>
+      <c r="F374" s="241"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
     </row>
     <row r="375" spans="1:8" ht="15.75" customHeight="1">
       <c r="A375" s="41"/>
       <c r="B375" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
-      <c r="F375" s="242"/>
+      <c r="F375" s="241"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
     <row r="376" spans="1:8" ht="15.75" customHeight="1">
       <c r="A376" s="42"/>
       <c r="B376" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
-      <c r="F376" s="242"/>
+      <c r="F376" s="241"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
     </row>
     <row r="377" spans="1:8" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
-      <c r="B377" s="324"/>
-      <c r="C377" s="324"/>
-      <c r="D377" s="324"/>
-      <c r="E377" s="324"/>
-      <c r="F377" s="324"/>
-      <c r="G377" s="324"/>
+      <c r="B377" s="325"/>
+      <c r="C377" s="325"/>
+      <c r="D377" s="325"/>
+      <c r="E377" s="325"/>
+      <c r="F377" s="325"/>
+      <c r="G377" s="325"/>
       <c r="H377" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="B318:G318"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="B360:G360"/>
-    <mergeCell ref="B317:G317"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B377:G377"/>
-    <mergeCell ref="B369:G369"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B367:G367"/>
-    <mergeCell ref="B356:G356"/>
-    <mergeCell ref="B362:G362"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B365:G365"/>
-    <mergeCell ref="B364:G364"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="B148:G149"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B136:G137"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="B236:G236"/>
-    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="D349:F349"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="D351:F351"/>
+    <mergeCell ref="D352:F352"/>
+    <mergeCell ref="D353:F353"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D327:F327"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="B334:G334"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="D338:F338"/>
+    <mergeCell ref="D339:F339"/>
+    <mergeCell ref="D340:F340"/>
+    <mergeCell ref="D341:F341"/>
     <mergeCell ref="D323:F323"/>
     <mergeCell ref="D324:F324"/>
     <mergeCell ref="D325:F325"/>
@@ -12983,43 +12969,97 @@
     <mergeCell ref="D255:E255"/>
     <mergeCell ref="D257:E257"/>
     <mergeCell ref="B259:G259"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D327:F327"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="B334:G334"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="B233:G233"/>
     <mergeCell ref="F200:G200"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D319:F319"/>
     <mergeCell ref="F201:G201"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D347:F347"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="D349:F349"/>
-    <mergeCell ref="D350:F350"/>
-    <mergeCell ref="D351:F351"/>
-    <mergeCell ref="D352:F352"/>
-    <mergeCell ref="D353:F353"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
-    <mergeCell ref="D338:F338"/>
-    <mergeCell ref="D339:F339"/>
-    <mergeCell ref="D340:F340"/>
-    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="B377:G377"/>
+    <mergeCell ref="B369:G369"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B367:G367"/>
+    <mergeCell ref="B356:G356"/>
+    <mergeCell ref="B362:G362"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B365:G365"/>
+    <mergeCell ref="B364:G364"/>
+    <mergeCell ref="B360:G360"/>
+    <mergeCell ref="B317:G317"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="B148:G149"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="B318:G318"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="B263:G263"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B136:G137"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B152:G153"/>
+    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="B214:G214"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13042,20 +13082,20 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B3" s="209">
+        <v>447</v>
+      </c>
+      <c r="B3" s="208">
         <v>71.209999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
+++ b/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
@@ -3857,19 +3857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -4095,6 +4082,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4757,22 +4759,22 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4786,71 +4788,71 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="75" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4875,155 +4877,113 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="76" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="79" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5045,7 +5005,7 @@
     <xf numFmtId="0" fontId="49" fillId="9" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5064,20 +5024,131 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5121,7 +5192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="36" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5130,83 +5201,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="29" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="80" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="92" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5590,8 +5592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I377"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A115" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A349" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G357" sqref="G357:G359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5607,68 +5609,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="329" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="294" t="s">
+      <c r="B3" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="294"/>
-      <c r="D3" s="294"/>
-      <c r="E3" s="294"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="294"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="295" t="s">
+      <c r="B4" s="331" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="295"/>
-      <c r="D4" s="295"/>
-      <c r="E4" s="295"/>
-      <c r="F4" s="295"/>
-      <c r="G4" s="295"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="296" t="s">
+      <c r="B5" s="332" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="298" t="s">
+      <c r="B6" s="334" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="298"/>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
+      <c r="C6" s="334"/>
+      <c r="D6" s="334"/>
+      <c r="E6" s="334"/>
+      <c r="F6" s="334"/>
+      <c r="G6" s="334"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="11.25" customHeight="1">
@@ -5683,26 +5685,26 @@
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="299" t="s">
+      <c r="B8" s="293" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="293"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="293"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="300" t="s">
+      <c r="B9" s="335" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
+      <c r="C9" s="335"/>
+      <c r="D9" s="335"/>
+      <c r="E9" s="335"/>
+      <c r="F9" s="335"/>
+      <c r="G9" s="335"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="102">
@@ -7076,14 +7078,14 @@
     </row>
     <row r="68" spans="1:8" ht="51" customHeight="1">
       <c r="A68" s="15"/>
-      <c r="B68" s="301" t="s">
+      <c r="B68" s="336" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="302"/>
-      <c r="D68" s="302"/>
-      <c r="E68" s="302"/>
-      <c r="F68" s="303"/>
-      <c r="G68" s="304"/>
+      <c r="C68" s="337"/>
+      <c r="D68" s="337"/>
+      <c r="E68" s="337"/>
+      <c r="F68" s="338"/>
+      <c r="G68" s="339"/>
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="6.75" customHeight="1">
@@ -7098,14 +7100,14 @@
     </row>
     <row r="70" spans="1:8" ht="30" customHeight="1">
       <c r="A70" s="7"/>
-      <c r="B70" s="297" t="s">
+      <c r="B70" s="333" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="297"/>
-      <c r="D70" s="297"/>
-      <c r="E70" s="297"/>
-      <c r="F70" s="297"/>
-      <c r="G70" s="297"/>
+      <c r="C70" s="333"/>
+      <c r="D70" s="333"/>
+      <c r="E70" s="333"/>
+      <c r="F70" s="333"/>
+      <c r="G70" s="333"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" ht="102">
@@ -7597,14 +7599,14 @@
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1">
       <c r="A92" s="7"/>
-      <c r="B92" s="344" t="s">
+      <c r="B92" s="300" t="s">
         <v>458</v>
       </c>
-      <c r="C92" s="344"/>
-      <c r="D92" s="344"/>
-      <c r="E92" s="344"/>
-      <c r="F92" s="344"/>
-      <c r="G92" s="344"/>
+      <c r="C92" s="300"/>
+      <c r="D92" s="300"/>
+      <c r="E92" s="300"/>
+      <c r="F92" s="300"/>
+      <c r="G92" s="300"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" ht="102">
@@ -7952,14 +7954,14 @@
     </row>
     <row r="108" spans="1:8" s="265" customFormat="1" ht="30" customHeight="1">
       <c r="A108" s="15"/>
-      <c r="B108" s="344" t="s">
+      <c r="B108" s="300" t="s">
         <v>459</v>
       </c>
-      <c r="C108" s="344"/>
-      <c r="D108" s="344"/>
-      <c r="E108" s="344"/>
-      <c r="F108" s="344"/>
-      <c r="G108" s="344"/>
+      <c r="C108" s="300"/>
+      <c r="D108" s="300"/>
+      <c r="E108" s="300"/>
+      <c r="F108" s="300"/>
+      <c r="G108" s="300"/>
       <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" s="265" customFormat="1" ht="102">
@@ -7977,10 +7979,10 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F109" s="363" t="s">
+      <c r="F109" s="301" t="s">
         <v>461</v>
       </c>
-      <c r="G109" s="364"/>
+      <c r="G109" s="302"/>
       <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" ht="25.5">
@@ -7998,11 +8000,11 @@
         <f>D110*Лист2!$B$3</f>
         <v>8701.8619999999992</v>
       </c>
-      <c r="F110" s="280">
+      <c r="F110" s="298">
         <f>E110*4</f>
         <v>34807.447999999997</v>
       </c>
-      <c r="G110" s="281"/>
+      <c r="G110" s="299"/>
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" ht="25.5">
@@ -8020,11 +8022,11 @@
         <f>D111*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F111" s="280">
+      <c r="F111" s="298">
         <f>E111*4</f>
         <v>41871.479999999996</v>
       </c>
-      <c r="G111" s="281"/>
+      <c r="G111" s="299"/>
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" ht="76.5">
@@ -8042,11 +8044,11 @@
         <f>D112*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F112" s="280">
+      <c r="F112" s="298">
         <f>E112*3</f>
         <v>35740.298999999999</v>
       </c>
-      <c r="G112" s="281"/>
+      <c r="G112" s="299"/>
       <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="76.5">
@@ -8064,11 +8066,11 @@
         <f>D113*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F113" s="280">
+      <c r="F113" s="298">
         <f>E113*3</f>
         <v>44541.854999999996</v>
       </c>
-      <c r="G113" s="281"/>
+      <c r="G113" s="299"/>
       <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="76.5">
@@ -8086,11 +8088,11 @@
         <f>D114*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F114" s="280">
+      <c r="F114" s="298">
         <f>E114*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G114" s="281"/>
+      <c r="G114" s="299"/>
       <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:9" ht="76.5">
@@ -8108,11 +8110,11 @@
         <f>D115*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F115" s="280">
+      <c r="F115" s="298">
         <f>E115*3.5</f>
         <v>51965.49749999999</v>
       </c>
-      <c r="G115" s="281"/>
+      <c r="G115" s="299"/>
       <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="38.25">
@@ -8130,11 +8132,11 @@
         <f>D116*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F116" s="280">
+      <c r="F116" s="298">
         <f>E116*1.2</f>
         <v>14296.119599999998</v>
       </c>
-      <c r="G116" s="281"/>
+      <c r="G116" s="299"/>
       <c r="H116" s="14"/>
       <c r="I116" s="128"/>
     </row>
@@ -8153,11 +8155,11 @@
         <f>D117*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F117" s="280">
+      <c r="F117" s="298">
         <f>E117*1.2</f>
         <v>17816.741999999998</v>
       </c>
-      <c r="G117" s="281"/>
+      <c r="G117" s="299"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:9" ht="14.25">
@@ -8175,11 +8177,11 @@
         <f>D118*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F118" s="280">
+      <c r="F118" s="298">
         <f>E118*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G118" s="281"/>
+      <c r="G118" s="299"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:9" s="209" customFormat="1" ht="14.25">
@@ -8197,11 +8199,11 @@
         <f>D119*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F119" s="280">
+      <c r="F119" s="298">
         <f>E119*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G119" s="281"/>
+      <c r="G119" s="299"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:9" ht="14.25">
@@ -8219,11 +8221,11 @@
         <f>D120*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F120" s="280">
+      <c r="F120" s="298">
         <f>E120*5</f>
         <v>52339.349999999991</v>
       </c>
-      <c r="G120" s="281"/>
+      <c r="G120" s="299"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:9" ht="51">
@@ -8241,11 +8243,11 @@
         <f>D121*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F121" s="280">
+      <c r="F121" s="298">
         <f>E121*2</f>
         <v>13188.091999999999</v>
       </c>
-      <c r="G121" s="281"/>
+      <c r="G121" s="299"/>
       <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:9" s="274" customFormat="1" ht="14.25">
@@ -8260,14 +8262,14 @@
     </row>
     <row r="123" spans="1:9" ht="25.5" customHeight="1">
       <c r="A123" s="15"/>
-      <c r="B123" s="297" t="s">
+      <c r="B123" s="333" t="s">
         <v>340</v>
       </c>
-      <c r="C123" s="297"/>
-      <c r="D123" s="297"/>
-      <c r="E123" s="297"/>
-      <c r="F123" s="297"/>
-      <c r="G123" s="297"/>
+      <c r="C123" s="333"/>
+      <c r="D123" s="333"/>
+      <c r="E123" s="333"/>
+      <c r="F123" s="333"/>
+      <c r="G123" s="333"/>
       <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:9" ht="102" customHeight="1">
@@ -8281,12 +8283,12 @@
       <c r="D124" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="375" t="str">
+      <c r="E124" s="305" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F124" s="384"/>
-      <c r="G124" s="376"/>
+      <c r="F124" s="306"/>
+      <c r="G124" s="307"/>
       <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:9" ht="63.75">
@@ -8300,12 +8302,12 @@
       <c r="D125" s="127">
         <v>741.4</v>
       </c>
-      <c r="E125" s="385">
+      <c r="E125" s="308">
         <f>D125*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F125" s="386"/>
-      <c r="G125" s="387"/>
+      <c r="F125" s="309"/>
+      <c r="G125" s="310"/>
       <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
@@ -8320,26 +8322,26 @@
     </row>
     <row r="127" spans="1:9" ht="34.35" customHeight="1">
       <c r="A127" s="25"/>
-      <c r="B127" s="297" t="s">
+      <c r="B127" s="333" t="s">
         <v>338</v>
       </c>
-      <c r="C127" s="297"/>
-      <c r="D127" s="297"/>
-      <c r="E127" s="297"/>
-      <c r="F127" s="297"/>
-      <c r="G127" s="297"/>
+      <c r="C127" s="333"/>
+      <c r="D127" s="333"/>
+      <c r="E127" s="333"/>
+      <c r="F127" s="333"/>
+      <c r="G127" s="333"/>
       <c r="H127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="34.35" customHeight="1">
       <c r="A128" s="25"/>
-      <c r="B128" s="352" t="s">
+      <c r="B128" s="375" t="s">
         <v>371</v>
       </c>
-      <c r="C128" s="353"/>
-      <c r="D128" s="353"/>
-      <c r="E128" s="353"/>
-      <c r="F128" s="353"/>
-      <c r="G128" s="354"/>
+      <c r="C128" s="376"/>
+      <c r="D128" s="376"/>
+      <c r="E128" s="376"/>
+      <c r="F128" s="376"/>
+      <c r="G128" s="377"/>
       <c r="H128" s="26"/>
     </row>
     <row r="129" spans="1:8" ht="102">
@@ -8508,34 +8510,34 @@
     </row>
     <row r="136" spans="1:8" ht="16.5" customHeight="1">
       <c r="A136" s="28"/>
-      <c r="B136" s="346"/>
-      <c r="C136" s="347"/>
-      <c r="D136" s="347"/>
-      <c r="E136" s="347"/>
-      <c r="F136" s="347"/>
-      <c r="G136" s="348"/>
+      <c r="B136" s="369"/>
+      <c r="C136" s="370"/>
+      <c r="D136" s="370"/>
+      <c r="E136" s="370"/>
+      <c r="F136" s="370"/>
+      <c r="G136" s="371"/>
       <c r="H136" s="14"/>
     </row>
     <row r="137" spans="1:8" ht="16.5" customHeight="1">
       <c r="A137" s="28"/>
-      <c r="B137" s="349"/>
-      <c r="C137" s="350"/>
-      <c r="D137" s="350"/>
-      <c r="E137" s="350"/>
-      <c r="F137" s="350"/>
-      <c r="G137" s="351"/>
+      <c r="B137" s="372"/>
+      <c r="C137" s="373"/>
+      <c r="D137" s="373"/>
+      <c r="E137" s="373"/>
+      <c r="F137" s="373"/>
+      <c r="G137" s="374"/>
       <c r="H137" s="14"/>
     </row>
     <row r="138" spans="1:8" ht="18">
       <c r="A138" s="25"/>
-      <c r="B138" s="345" t="s">
+      <c r="B138" s="368" t="s">
         <v>339</v>
       </c>
-      <c r="C138" s="345"/>
-      <c r="D138" s="345"/>
-      <c r="E138" s="345"/>
-      <c r="F138" s="345"/>
-      <c r="G138" s="345"/>
+      <c r="C138" s="368"/>
+      <c r="D138" s="368"/>
+      <c r="E138" s="368"/>
+      <c r="F138" s="368"/>
+      <c r="G138" s="368"/>
       <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8" ht="102">
@@ -8751,24 +8753,24 @@
     </row>
     <row r="148" spans="1:8" ht="15">
       <c r="A148" s="16"/>
-      <c r="B148" s="343" t="s">
+      <c r="B148" s="291" t="s">
         <v>104</v>
       </c>
-      <c r="C148" s="343"/>
-      <c r="D148" s="343"/>
-      <c r="E148" s="343"/>
-      <c r="F148" s="343"/>
-      <c r="G148" s="343"/>
+      <c r="C148" s="291"/>
+      <c r="D148" s="291"/>
+      <c r="E148" s="291"/>
+      <c r="F148" s="291"/>
+      <c r="G148" s="291"/>
       <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8" ht="15">
       <c r="A149" s="16"/>
-      <c r="B149" s="343"/>
-      <c r="C149" s="343"/>
-      <c r="D149" s="343"/>
-      <c r="E149" s="343"/>
-      <c r="F149" s="343"/>
-      <c r="G149" s="343"/>
+      <c r="B149" s="291"/>
+      <c r="C149" s="291"/>
+      <c r="D149" s="291"/>
+      <c r="E149" s="291"/>
+      <c r="F149" s="291"/>
+      <c r="G149" s="291"/>
       <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8" ht="12" customHeight="1">
@@ -8793,45 +8795,45 @@
     </row>
     <row r="152" spans="1:8" ht="15">
       <c r="A152" s="16"/>
-      <c r="B152" s="355" t="s">
+      <c r="B152" s="378" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="355"/>
-      <c r="D152" s="355"/>
-      <c r="E152" s="355"/>
-      <c r="F152" s="355"/>
-      <c r="G152" s="355"/>
+      <c r="C152" s="378"/>
+      <c r="D152" s="378"/>
+      <c r="E152" s="378"/>
+      <c r="F152" s="378"/>
+      <c r="G152" s="378"/>
       <c r="H152" s="2"/>
     </row>
     <row r="153" spans="1:8" ht="18" customHeight="1">
       <c r="A153" s="16"/>
-      <c r="B153" s="356"/>
-      <c r="C153" s="356"/>
-      <c r="D153" s="356"/>
-      <c r="E153" s="356"/>
-      <c r="F153" s="356"/>
-      <c r="G153" s="356"/>
+      <c r="B153" s="379"/>
+      <c r="C153" s="379"/>
+      <c r="D153" s="379"/>
+      <c r="E153" s="379"/>
+      <c r="F153" s="379"/>
+      <c r="G153" s="379"/>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8" ht="102">
       <c r="A154" s="16"/>
-      <c r="B154" s="277" t="s">
+      <c r="B154" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="278" t="s">
+      <c r="C154" s="276" t="s">
         <v>457</v>
       </c>
-      <c r="D154" s="279" t="s">
+      <c r="D154" s="277" t="s">
         <v>450</v>
       </c>
-      <c r="E154" s="278" t="str">
+      <c r="E154" s="276" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F154" s="278" t="s">
+      <c r="F154" s="276" t="s">
         <v>455</v>
       </c>
-      <c r="G154" s="278" t="s">
+      <c r="G154" s="276" t="s">
         <v>452</v>
       </c>
       <c r="H154" s="2"/>
@@ -8860,26 +8862,26 @@
     </row>
     <row r="156" spans="1:8" ht="18">
       <c r="A156" s="16"/>
-      <c r="B156" s="308" t="s">
+      <c r="B156" s="343" t="s">
         <v>413</v>
       </c>
-      <c r="C156" s="309"/>
-      <c r="D156" s="309"/>
-      <c r="E156" s="309"/>
-      <c r="F156" s="310"/>
-      <c r="G156" s="311"/>
+      <c r="C156" s="344"/>
+      <c r="D156" s="344"/>
+      <c r="E156" s="344"/>
+      <c r="F156" s="345"/>
+      <c r="G156" s="346"/>
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8" ht="12" customHeight="1">
       <c r="A157" s="16"/>
-      <c r="B157" s="314" t="s">
+      <c r="B157" s="349" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="315"/>
-      <c r="D157" s="315"/>
-      <c r="E157" s="315"/>
-      <c r="F157" s="316"/>
-      <c r="G157" s="317"/>
+      <c r="C157" s="350"/>
+      <c r="D157" s="350"/>
+      <c r="E157" s="350"/>
+      <c r="F157" s="351"/>
+      <c r="G157" s="352"/>
       <c r="H157" s="2"/>
     </row>
     <row r="158" spans="1:8" ht="12" customHeight="1">
@@ -9014,14 +9016,14 @@
     </row>
     <row r="164" spans="1:8" ht="15">
       <c r="A164" s="16"/>
-      <c r="B164" s="318" t="s">
+      <c r="B164" s="353" t="s">
         <v>217</v>
       </c>
-      <c r="C164" s="319"/>
-      <c r="D164" s="319"/>
-      <c r="E164" s="319"/>
-      <c r="F164" s="320"/>
-      <c r="G164" s="321"/>
+      <c r="C164" s="354"/>
+      <c r="D164" s="354"/>
+      <c r="E164" s="354"/>
+      <c r="F164" s="355"/>
+      <c r="G164" s="356"/>
       <c r="H164" s="2"/>
     </row>
     <row r="165" spans="1:8" ht="15" customHeight="1">
@@ -9166,26 +9168,26 @@
     </row>
     <row r="172" spans="1:8" ht="18">
       <c r="A172" s="16"/>
-      <c r="B172" s="312" t="s">
+      <c r="B172" s="347" t="s">
         <v>414</v>
       </c>
-      <c r="C172" s="312"/>
-      <c r="D172" s="312"/>
-      <c r="E172" s="312"/>
-      <c r="F172" s="313"/>
-      <c r="G172" s="312"/>
+      <c r="C172" s="347"/>
+      <c r="D172" s="347"/>
+      <c r="E172" s="347"/>
+      <c r="F172" s="348"/>
+      <c r="G172" s="347"/>
       <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8" ht="15">
       <c r="A173" s="16"/>
-      <c r="B173" s="314" t="s">
+      <c r="B173" s="349" t="s">
         <v>215</v>
       </c>
-      <c r="C173" s="315"/>
-      <c r="D173" s="315"/>
-      <c r="E173" s="315"/>
-      <c r="F173" s="316"/>
-      <c r="G173" s="317"/>
+      <c r="C173" s="350"/>
+      <c r="D173" s="350"/>
+      <c r="E173" s="350"/>
+      <c r="F173" s="351"/>
+      <c r="G173" s="352"/>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8" ht="15">
@@ -9344,14 +9346,14 @@
     </row>
     <row r="181" spans="1:8" ht="15">
       <c r="A181" s="16"/>
-      <c r="B181" s="318" t="s">
+      <c r="B181" s="353" t="s">
         <v>217</v>
       </c>
-      <c r="C181" s="319"/>
-      <c r="D181" s="319"/>
-      <c r="E181" s="319"/>
-      <c r="F181" s="320"/>
-      <c r="G181" s="321"/>
+      <c r="C181" s="354"/>
+      <c r="D181" s="354"/>
+      <c r="E181" s="354"/>
+      <c r="F181" s="355"/>
+      <c r="G181" s="356"/>
       <c r="H181" s="2"/>
     </row>
     <row r="182" spans="1:8" ht="15">
@@ -9530,14 +9532,14 @@
     </row>
     <row r="191" spans="1:8" ht="38.25" customHeight="1">
       <c r="A191" s="16"/>
-      <c r="B191" s="322" t="s">
+      <c r="B191" s="357" t="s">
         <v>326</v>
       </c>
-      <c r="C191" s="322"/>
-      <c r="D191" s="322"/>
-      <c r="E191" s="322"/>
-      <c r="F191" s="323"/>
-      <c r="G191" s="324"/>
+      <c r="C191" s="357"/>
+      <c r="D191" s="357"/>
+      <c r="E191" s="357"/>
+      <c r="F191" s="358"/>
+      <c r="G191" s="359"/>
       <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1">
@@ -9682,14 +9684,14 @@
     </row>
     <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A199" s="16"/>
-      <c r="B199" s="322" t="s">
+      <c r="B199" s="357" t="s">
         <v>343</v>
       </c>
-      <c r="C199" s="322"/>
-      <c r="D199" s="322"/>
-      <c r="E199" s="322"/>
-      <c r="F199" s="323"/>
-      <c r="G199" s="324"/>
+      <c r="C199" s="357"/>
+      <c r="D199" s="357"/>
+      <c r="E199" s="357"/>
+      <c r="F199" s="358"/>
+      <c r="G199" s="359"/>
       <c r="H199" s="2"/>
     </row>
     <row r="200" spans="1:8" s="211" customFormat="1" ht="102">
@@ -9707,10 +9709,10 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F200" s="377" t="s">
+      <c r="F200" s="296" t="s">
         <v>453</v>
       </c>
-      <c r="G200" s="378"/>
+      <c r="G200" s="297"/>
       <c r="H200" s="210"/>
     </row>
     <row r="201" spans="1:8" ht="12" customHeight="1">
@@ -9728,11 +9730,11 @@
         <f>D201*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F201" s="379">
+      <c r="F201" s="303">
         <f>E201*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G201" s="380"/>
+      <c r="G201" s="304"/>
       <c r="H201" s="2"/>
     </row>
     <row r="202" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
@@ -9767,14 +9769,14 @@
     </row>
     <row r="205" spans="1:8" s="163" customFormat="1" ht="45.75" customHeight="1">
       <c r="A205" s="16"/>
-      <c r="B205" s="305" t="s">
+      <c r="B205" s="340" t="s">
         <v>430</v>
       </c>
-      <c r="C205" s="305"/>
-      <c r="D205" s="305"/>
-      <c r="E205" s="305"/>
-      <c r="F205" s="306"/>
-      <c r="G205" s="307"/>
+      <c r="C205" s="340"/>
+      <c r="D205" s="340"/>
+      <c r="E205" s="340"/>
+      <c r="F205" s="341"/>
+      <c r="G205" s="342"/>
       <c r="H205" s="162"/>
     </row>
     <row r="206" spans="1:8" s="163" customFormat="1" ht="102">
@@ -9928,14 +9930,14 @@
     </row>
     <row r="214" spans="1:8" ht="33.75" customHeight="1">
       <c r="A214" s="16"/>
-      <c r="B214" s="360" t="s">
+      <c r="B214" s="383" t="s">
         <v>411</v>
       </c>
-      <c r="C214" s="361"/>
-      <c r="D214" s="361"/>
-      <c r="E214" s="361"/>
-      <c r="F214" s="362"/>
-      <c r="G214" s="361"/>
+      <c r="C214" s="384"/>
+      <c r="D214" s="384"/>
+      <c r="E214" s="384"/>
+      <c r="F214" s="385"/>
+      <c r="G214" s="384"/>
       <c r="H214" s="2"/>
     </row>
     <row r="215" spans="1:8" ht="26.25" customHeight="1">
@@ -9943,13 +9945,13 @@
       <c r="B215" s="122" t="s">
         <v>443</v>
       </c>
-      <c r="C215" s="357" t="s">
+      <c r="C215" s="380" t="s">
         <v>442</v>
       </c>
-      <c r="D215" s="358"/>
-      <c r="E215" s="358"/>
-      <c r="F215" s="359"/>
-      <c r="G215" s="358"/>
+      <c r="D215" s="381"/>
+      <c r="E215" s="381"/>
+      <c r="F215" s="382"/>
+      <c r="G215" s="381"/>
       <c r="H215" s="2"/>
     </row>
     <row r="216" spans="1:8" ht="12" customHeight="1">
@@ -9984,14 +9986,14 @@
     </row>
     <row r="219" spans="1:8" ht="36" customHeight="1">
       <c r="A219" s="1"/>
-      <c r="B219" s="299" t="s">
+      <c r="B219" s="293" t="s">
         <v>105</v>
       </c>
-      <c r="C219" s="299"/>
-      <c r="D219" s="299"/>
-      <c r="E219" s="299"/>
-      <c r="F219" s="299"/>
-      <c r="G219" s="299"/>
+      <c r="C219" s="293"/>
+      <c r="D219" s="293"/>
+      <c r="E219" s="293"/>
+      <c r="F219" s="293"/>
+      <c r="G219" s="293"/>
       <c r="H219" s="2"/>
     </row>
     <row r="220" spans="1:8" ht="102">
@@ -10305,14 +10307,14 @@
     </row>
     <row r="233" spans="1:8" ht="27.6" customHeight="1">
       <c r="A233" s="32"/>
-      <c r="B233" s="343" t="s">
+      <c r="B233" s="291" t="s">
         <v>121</v>
       </c>
-      <c r="C233" s="343"/>
-      <c r="D233" s="343"/>
-      <c r="E233" s="343"/>
-      <c r="F233" s="343"/>
-      <c r="G233" s="343"/>
+      <c r="C233" s="291"/>
+      <c r="D233" s="291"/>
+      <c r="E233" s="291"/>
+      <c r="F233" s="291"/>
+      <c r="G233" s="291"/>
       <c r="H233" s="2"/>
     </row>
     <row r="234" spans="1:8" ht="15" customHeight="1">
@@ -10337,14 +10339,14 @@
     </row>
     <row r="236" spans="1:8" ht="36" customHeight="1">
       <c r="A236" s="7"/>
-      <c r="B236" s="369" t="s">
+      <c r="B236" s="294" t="s">
         <v>122</v>
       </c>
-      <c r="C236" s="369"/>
-      <c r="D236" s="370"/>
-      <c r="E236" s="370"/>
-      <c r="F236" s="370"/>
-      <c r="G236" s="370"/>
+      <c r="C236" s="294"/>
+      <c r="D236" s="295"/>
+      <c r="E236" s="295"/>
+      <c r="F236" s="295"/>
+      <c r="G236" s="295"/>
       <c r="H236" s="2"/>
     </row>
     <row r="237" spans="1:8" ht="114.75" customHeight="1">
@@ -10355,15 +10357,15 @@
       <c r="C237" s="132" t="s">
         <v>457</v>
       </c>
-      <c r="D237" s="340" t="s">
+      <c r="D237" s="360" t="s">
         <v>450</v>
       </c>
-      <c r="E237" s="340"/>
-      <c r="F237" s="341" t="str">
+      <c r="E237" s="360"/>
+      <c r="F237" s="361" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="G237" s="342"/>
+      <c r="G237" s="362"/>
       <c r="H237" s="14"/>
     </row>
     <row r="238" spans="1:8" ht="25.5">
@@ -10374,15 +10376,15 @@
       <c r="C238" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="D238" s="284" t="s">
+      <c r="D238" s="290" t="s">
         <v>125</v>
       </c>
-      <c r="E238" s="284"/>
-      <c r="F238" s="282">
+      <c r="E238" s="290"/>
+      <c r="F238" s="288">
         <f>D238*Лист2!$B$3</f>
         <v>498.46999999999997</v>
       </c>
-      <c r="G238" s="283"/>
+      <c r="G238" s="289"/>
       <c r="H238" s="14"/>
     </row>
     <row r="239" spans="1:8" ht="25.5">
@@ -10393,15 +10395,15 @@
       <c r="C239" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="D239" s="284" t="s">
+      <c r="D239" s="290" t="s">
         <v>127</v>
       </c>
-      <c r="E239" s="284"/>
-      <c r="F239" s="282">
+      <c r="E239" s="290"/>
+      <c r="F239" s="288">
         <f>D239*Лист2!$B$3</f>
         <v>284.83999999999997</v>
       </c>
-      <c r="G239" s="283"/>
+      <c r="G239" s="289"/>
       <c r="H239" s="14"/>
     </row>
     <row r="240" spans="1:8" ht="14.25">
@@ -10412,15 +10414,15 @@
       <c r="C240" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="D240" s="284">
+      <c r="D240" s="290">
         <v>20.2</v>
       </c>
-      <c r="E240" s="284"/>
-      <c r="F240" s="282">
+      <c r="E240" s="290"/>
+      <c r="F240" s="288">
         <f>D240*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="G240" s="283"/>
+      <c r="G240" s="289"/>
       <c r="H240" s="14"/>
     </row>
     <row r="241" spans="1:8" ht="14.25">
@@ -10431,15 +10433,15 @@
       <c r="C241" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="D241" s="284" t="s">
+      <c r="D241" s="290" t="s">
         <v>131</v>
       </c>
-      <c r="E241" s="284"/>
-      <c r="F241" s="282">
+      <c r="E241" s="290"/>
+      <c r="F241" s="288">
         <f>D241*Лист2!$B$3</f>
         <v>512.71199999999999</v>
       </c>
-      <c r="G241" s="283"/>
+      <c r="G241" s="289"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8" ht="25.5">
@@ -10450,15 +10452,15 @@
       <c r="C242" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="284">
+      <c r="D242" s="290">
         <v>19.600000000000001</v>
       </c>
-      <c r="E242" s="284"/>
-      <c r="F242" s="282">
+      <c r="E242" s="290"/>
+      <c r="F242" s="288">
         <f>D242*Лист2!$B$3</f>
         <v>1395.7159999999999</v>
       </c>
-      <c r="G242" s="283"/>
+      <c r="G242" s="289"/>
       <c r="H242" s="14"/>
     </row>
     <row r="243" spans="1:8" ht="38.25">
@@ -10469,15 +10471,15 @@
       <c r="C243" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="D243" s="284" t="s">
+      <c r="D243" s="290" t="s">
         <v>134</v>
       </c>
-      <c r="E243" s="284"/>
-      <c r="F243" s="282">
+      <c r="E243" s="290"/>
+      <c r="F243" s="288">
         <f>D243*Лист2!$B$3</f>
         <v>2848.3999999999996</v>
       </c>
-      <c r="G243" s="283"/>
+      <c r="G243" s="289"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8" ht="14.25">
@@ -10488,15 +10490,15 @@
       <c r="C244" s="204" t="s">
         <v>99</v>
       </c>
-      <c r="D244" s="284">
+      <c r="D244" s="290">
         <v>8</v>
       </c>
-      <c r="E244" s="284"/>
-      <c r="F244" s="282">
+      <c r="E244" s="290"/>
+      <c r="F244" s="288">
         <f>D244*Лист2!$B$3</f>
         <v>569.67999999999995</v>
       </c>
-      <c r="G244" s="283"/>
+      <c r="G244" s="289"/>
       <c r="H244" s="14"/>
     </row>
     <row r="245" spans="1:8" ht="25.5">
@@ -10507,15 +10509,15 @@
       <c r="C245" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="D245" s="284" t="s">
+      <c r="D245" s="290" t="s">
         <v>137</v>
       </c>
-      <c r="E245" s="284"/>
-      <c r="F245" s="282">
+      <c r="E245" s="290"/>
+      <c r="F245" s="288">
         <f>D245*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="G245" s="283"/>
+      <c r="G245" s="289"/>
       <c r="H245" s="14"/>
     </row>
     <row r="246" spans="1:8" ht="25.5">
@@ -10526,15 +10528,15 @@
       <c r="C246" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="D246" s="284" t="s">
+      <c r="D246" s="290" t="s">
         <v>137</v>
       </c>
-      <c r="E246" s="284"/>
-      <c r="F246" s="282">
+      <c r="E246" s="290"/>
+      <c r="F246" s="288">
         <f>D246*Лист2!$B$3</f>
         <v>7256.299</v>
       </c>
-      <c r="G246" s="283"/>
+      <c r="G246" s="289"/>
       <c r="H246" s="14"/>
     </row>
     <row r="247" spans="1:8" ht="38.25">
@@ -10545,15 +10547,15 @@
       <c r="C247" s="207" t="s">
         <v>102</v>
       </c>
-      <c r="D247" s="284" t="s">
+      <c r="D247" s="290" t="s">
         <v>140</v>
       </c>
-      <c r="E247" s="284"/>
-      <c r="F247" s="282">
+      <c r="E247" s="290"/>
+      <c r="F247" s="288">
         <f>D247*Лист2!$B$3</f>
         <v>11941.916999999998</v>
       </c>
-      <c r="G247" s="283"/>
+      <c r="G247" s="289"/>
       <c r="H247" s="14"/>
     </row>
     <row r="248" spans="1:8" ht="51">
@@ -10564,15 +10566,15 @@
       <c r="C248" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="D248" s="284" t="s">
+      <c r="D248" s="290" t="s">
         <v>143</v>
       </c>
-      <c r="E248" s="284"/>
-      <c r="F248" s="282">
+      <c r="E248" s="290"/>
+      <c r="F248" s="288">
         <f>D248*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="G248" s="283"/>
+      <c r="G248" s="289"/>
       <c r="H248" s="14"/>
     </row>
     <row r="249" spans="1:8" ht="51">
@@ -10583,15 +10585,15 @@
       <c r="C249" s="207" t="s">
         <v>142</v>
       </c>
-      <c r="D249" s="284" t="s">
+      <c r="D249" s="290" t="s">
         <v>143</v>
       </c>
-      <c r="E249" s="284"/>
-      <c r="F249" s="282">
+      <c r="E249" s="290"/>
+      <c r="F249" s="288">
         <f>D249*Лист2!$B$3</f>
         <v>26810.564999999999</v>
       </c>
-      <c r="G249" s="283"/>
+      <c r="G249" s="289"/>
       <c r="H249" s="14"/>
     </row>
     <row r="250" spans="1:8" ht="38.25">
@@ -10602,15 +10604,15 @@
       <c r="C250" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="D250" s="284" t="s">
+      <c r="D250" s="290" t="s">
         <v>146</v>
       </c>
-      <c r="E250" s="284"/>
-      <c r="F250" s="282">
+      <c r="E250" s="290"/>
+      <c r="F250" s="288">
         <f>D250*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G250" s="283"/>
+      <c r="G250" s="289"/>
       <c r="H250" s="14"/>
     </row>
     <row r="251" spans="1:8" ht="38.25">
@@ -10621,15 +10623,15 @@
       <c r="C251" s="207" t="s">
         <v>148</v>
       </c>
-      <c r="D251" s="284">
+      <c r="D251" s="290">
         <v>411.9</v>
       </c>
-      <c r="E251" s="284"/>
-      <c r="F251" s="282">
+      <c r="E251" s="290"/>
+      <c r="F251" s="288">
         <f>D251*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="G251" s="283"/>
+      <c r="G251" s="289"/>
       <c r="H251" s="14"/>
     </row>
     <row r="252" spans="1:8" ht="38.25">
@@ -10640,15 +10642,15 @@
       <c r="C252" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="D252" s="284">
+      <c r="D252" s="290">
         <v>114.4</v>
       </c>
-      <c r="E252" s="284"/>
-      <c r="F252" s="282">
+      <c r="E252" s="290"/>
+      <c r="F252" s="288">
         <f>D252*Лист2!$B$3</f>
         <v>8146.424</v>
       </c>
-      <c r="G252" s="283"/>
+      <c r="G252" s="289"/>
       <c r="H252" s="14"/>
     </row>
     <row r="253" spans="1:8" ht="38.25">
@@ -10659,15 +10661,15 @@
       <c r="C253" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="D253" s="287" t="s">
+      <c r="D253" s="365" t="s">
         <v>151</v>
       </c>
-      <c r="E253" s="287"/>
-      <c r="F253" s="282">
+      <c r="E253" s="365"/>
+      <c r="F253" s="288">
         <f>D253*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="G253" s="283"/>
+      <c r="G253" s="289"/>
       <c r="H253" s="231"/>
     </row>
     <row r="254" spans="1:8" ht="25.5">
@@ -10678,15 +10680,15 @@
       <c r="C254" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="D254" s="287">
+      <c r="D254" s="365">
         <v>741.4</v>
       </c>
-      <c r="E254" s="287"/>
-      <c r="F254" s="282">
+      <c r="E254" s="365"/>
+      <c r="F254" s="288">
         <f>D254*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G254" s="283"/>
+      <c r="G254" s="289"/>
       <c r="H254" s="232"/>
     </row>
     <row r="255" spans="1:8" ht="14.25">
@@ -10697,15 +10699,15 @@
       <c r="C255" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="D255" s="284">
+      <c r="D255" s="290">
         <v>225.5</v>
       </c>
-      <c r="E255" s="284"/>
-      <c r="F255" s="282">
+      <c r="E255" s="290"/>
+      <c r="F255" s="288">
         <f>D255*Лист2!$B$3</f>
         <v>16057.854999999998</v>
       </c>
-      <c r="G255" s="283"/>
+      <c r="G255" s="289"/>
       <c r="H255" s="231"/>
     </row>
     <row r="256" spans="1:8" ht="25.5">
@@ -10716,15 +10718,15 @@
       <c r="C256" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="D256" s="284">
+      <c r="D256" s="290">
         <v>20.2</v>
       </c>
-      <c r="E256" s="284"/>
-      <c r="F256" s="282">
+      <c r="E256" s="290"/>
+      <c r="F256" s="288">
         <f>D256*Лист2!$B$3</f>
         <v>1438.4419999999998</v>
       </c>
-      <c r="G256" s="283"/>
+      <c r="G256" s="289"/>
       <c r="H256" s="231"/>
     </row>
     <row r="257" spans="1:8" ht="25.5">
@@ -10735,15 +10737,15 @@
       <c r="C257" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="D257" s="284" t="s">
+      <c r="D257" s="290" t="s">
         <v>129</v>
       </c>
-      <c r="E257" s="284"/>
-      <c r="F257" s="282">
+      <c r="E257" s="290"/>
+      <c r="F257" s="288">
         <f>D257*Лист2!$B$3</f>
         <v>1296.0219999999999</v>
       </c>
-      <c r="G257" s="283"/>
+      <c r="G257" s="289"/>
       <c r="H257" s="231"/>
     </row>
     <row r="258" spans="1:8" ht="25.5">
@@ -10754,25 +10756,25 @@
       <c r="C258" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="D258" s="284">
+      <c r="D258" s="290">
         <v>741.4</v>
       </c>
-      <c r="E258" s="284"/>
-      <c r="F258" s="282">
+      <c r="E258" s="290"/>
+      <c r="F258" s="288">
         <f>D258*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G258" s="283"/>
+      <c r="G258" s="289"/>
       <c r="H258" s="14"/>
     </row>
     <row r="259" spans="1:8" ht="23.25" customHeight="1">
       <c r="A259" s="33"/>
-      <c r="B259" s="343"/>
-      <c r="C259" s="343"/>
-      <c r="D259" s="343"/>
-      <c r="E259" s="343"/>
-      <c r="F259" s="343"/>
-      <c r="G259" s="343"/>
+      <c r="B259" s="291"/>
+      <c r="C259" s="291"/>
+      <c r="D259" s="291"/>
+      <c r="E259" s="291"/>
+      <c r="F259" s="291"/>
+      <c r="G259" s="291"/>
       <c r="H259" s="2"/>
     </row>
     <row r="260" spans="1:8" ht="23.25" customHeight="1">
@@ -10807,14 +10809,14 @@
     </row>
     <row r="263" spans="1:8" ht="30" customHeight="1">
       <c r="A263" s="34"/>
-      <c r="B263" s="288" t="s">
+      <c r="B263" s="366" t="s">
         <v>212</v>
       </c>
-      <c r="C263" s="288"/>
-      <c r="D263" s="288"/>
-      <c r="E263" s="288"/>
-      <c r="F263" s="289"/>
-      <c r="G263" s="288"/>
+      <c r="C263" s="366"/>
+      <c r="D263" s="366"/>
+      <c r="E263" s="366"/>
+      <c r="F263" s="367"/>
+      <c r="G263" s="366"/>
       <c r="H263" s="2"/>
     </row>
     <row r="264" spans="1:8" ht="102">
@@ -12046,26 +12048,26 @@
     </row>
     <row r="317" spans="1:8" ht="30">
       <c r="A317" s="36"/>
-      <c r="B317" s="291" t="s">
+      <c r="B317" s="327" t="s">
         <v>311</v>
       </c>
-      <c r="C317" s="291"/>
-      <c r="D317" s="291"/>
-      <c r="E317" s="291"/>
-      <c r="F317" s="292"/>
-      <c r="G317" s="291"/>
+      <c r="C317" s="327"/>
+      <c r="D317" s="327"/>
+      <c r="E317" s="327"/>
+      <c r="F317" s="328"/>
+      <c r="G317" s="327"/>
       <c r="H317" s="2"/>
     </row>
     <row r="318" spans="1:8" ht="23.25">
       <c r="A318" s="36"/>
-      <c r="B318" s="285" t="s">
+      <c r="B318" s="363" t="s">
         <v>312</v>
       </c>
-      <c r="C318" s="285"/>
-      <c r="D318" s="285"/>
-      <c r="E318" s="285"/>
-      <c r="F318" s="286"/>
-      <c r="G318" s="285"/>
+      <c r="C318" s="363"/>
+      <c r="D318" s="363"/>
+      <c r="E318" s="363"/>
+      <c r="F318" s="364"/>
+      <c r="G318" s="363"/>
       <c r="H318" s="2"/>
     </row>
     <row r="319" spans="1:8" ht="75">
@@ -12076,12 +12078,14 @@
       <c r="C319" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D319" s="365" t="s">
+      <c r="D319" s="278" t="s">
         <v>262</v>
       </c>
-      <c r="E319" s="366"/>
-      <c r="F319" s="367"/>
-      <c r="G319" s="275"/>
+      <c r="E319" s="279"/>
+      <c r="F319" s="280"/>
+      <c r="G319" s="386">
+        <v>3000</v>
+      </c>
       <c r="H319" s="2"/>
     </row>
     <row r="320" spans="1:8" ht="60">
@@ -12092,12 +12096,14 @@
       <c r="C320" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D320" s="365" t="s">
+      <c r="D320" s="278" t="s">
         <v>262</v>
       </c>
-      <c r="E320" s="366"/>
-      <c r="F320" s="367"/>
-      <c r="G320" s="275"/>
+      <c r="E320" s="279"/>
+      <c r="F320" s="280"/>
+      <c r="G320" s="386">
+        <v>2000</v>
+      </c>
       <c r="H320" s="2"/>
     </row>
     <row r="321" spans="1:8" ht="38.25" customHeight="1">
@@ -12108,12 +12114,14 @@
       <c r="C321" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D321" s="365" t="s">
+      <c r="D321" s="278" t="s">
         <v>265</v>
       </c>
-      <c r="E321" s="366"/>
-      <c r="F321" s="367"/>
-      <c r="G321" s="275"/>
+      <c r="E321" s="279"/>
+      <c r="F321" s="280"/>
+      <c r="G321" s="386">
+        <v>1000</v>
+      </c>
       <c r="H321" s="2"/>
     </row>
     <row r="322" spans="1:8" ht="38.25" customHeight="1">
@@ -12124,12 +12132,14 @@
       <c r="C322" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D322" s="365" t="s">
+      <c r="D322" s="278" t="s">
         <v>267</v>
       </c>
-      <c r="E322" s="366"/>
-      <c r="F322" s="367"/>
-      <c r="G322" s="275"/>
+      <c r="E322" s="279"/>
+      <c r="F322" s="280"/>
+      <c r="G322" s="386">
+        <v>350</v>
+      </c>
       <c r="H322" s="2"/>
     </row>
     <row r="323" spans="1:8" ht="38.25" customHeight="1">
@@ -12140,12 +12150,14 @@
       <c r="C323" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D323" s="365" t="s">
+      <c r="D323" s="278" t="s">
         <v>269</v>
       </c>
-      <c r="E323" s="366"/>
-      <c r="F323" s="367"/>
-      <c r="G323" s="275"/>
+      <c r="E323" s="279"/>
+      <c r="F323" s="280"/>
+      <c r="G323" s="386">
+        <v>300</v>
+      </c>
       <c r="H323" s="2"/>
     </row>
     <row r="324" spans="1:8" ht="38.25" customHeight="1">
@@ -12156,12 +12168,14 @@
       <c r="C324" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D324" s="365" t="s">
+      <c r="D324" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="E324" s="366"/>
-      <c r="F324" s="367"/>
-      <c r="G324" s="275"/>
+      <c r="E324" s="279"/>
+      <c r="F324" s="280"/>
+      <c r="G324" s="386">
+        <v>350</v>
+      </c>
       <c r="H324" s="2"/>
     </row>
     <row r="325" spans="1:8" ht="38.25" customHeight="1">
@@ -12172,12 +12186,14 @@
       <c r="C325" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D325" s="365" t="s">
+      <c r="D325" s="278" t="s">
         <v>273</v>
       </c>
-      <c r="E325" s="366"/>
-      <c r="F325" s="367"/>
-      <c r="G325" s="275"/>
+      <c r="E325" s="279"/>
+      <c r="F325" s="280"/>
+      <c r="G325" s="386">
+        <v>350</v>
+      </c>
       <c r="H325" s="2"/>
     </row>
     <row r="326" spans="1:8" ht="30" customHeight="1">
@@ -12188,12 +12204,14 @@
       <c r="C326" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D326" s="365" t="s">
+      <c r="D326" s="278" t="s">
         <v>275</v>
       </c>
-      <c r="E326" s="366"/>
-      <c r="F326" s="367"/>
-      <c r="G326" s="275"/>
+      <c r="E326" s="279"/>
+      <c r="F326" s="280"/>
+      <c r="G326" s="386">
+        <v>1300</v>
+      </c>
       <c r="H326" s="2"/>
     </row>
     <row r="327" spans="1:8" ht="30" customHeight="1">
@@ -12204,12 +12222,14 @@
       <c r="C327" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D327" s="365" t="s">
+      <c r="D327" s="278" t="s">
         <v>277</v>
       </c>
-      <c r="E327" s="366"/>
-      <c r="F327" s="367"/>
-      <c r="G327" s="275"/>
+      <c r="E327" s="279"/>
+      <c r="F327" s="280"/>
+      <c r="G327" s="386">
+        <v>1300</v>
+      </c>
       <c r="H327" s="2"/>
     </row>
     <row r="328" spans="1:8" ht="38.25" customHeight="1">
@@ -12220,12 +12240,14 @@
       <c r="C328" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D328" s="365" t="s">
+      <c r="D328" s="278" t="s">
         <v>410</v>
       </c>
-      <c r="E328" s="366"/>
-      <c r="F328" s="367"/>
-      <c r="G328" s="275"/>
+      <c r="E328" s="279"/>
+      <c r="F328" s="280"/>
+      <c r="G328" s="386">
+        <v>400</v>
+      </c>
       <c r="H328" s="2"/>
     </row>
     <row r="329" spans="1:8" ht="38.25" customHeight="1">
@@ -12236,12 +12258,14 @@
       <c r="C329" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D329" s="365" t="s">
+      <c r="D329" s="278" t="s">
         <v>280</v>
       </c>
-      <c r="E329" s="366"/>
-      <c r="F329" s="367"/>
-      <c r="G329" s="275"/>
+      <c r="E329" s="279"/>
+      <c r="F329" s="280"/>
+      <c r="G329" s="386">
+        <v>350</v>
+      </c>
       <c r="H329" s="2"/>
     </row>
     <row r="330" spans="1:8" ht="38.25" customHeight="1">
@@ -12252,12 +12276,14 @@
       <c r="C330" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D330" s="365" t="s">
+      <c r="D330" s="278" t="s">
         <v>282</v>
       </c>
-      <c r="E330" s="366"/>
-      <c r="F330" s="367"/>
-      <c r="G330" s="275"/>
+      <c r="E330" s="279"/>
+      <c r="F330" s="280"/>
+      <c r="G330" s="386">
+        <v>400</v>
+      </c>
       <c r="H330" s="2"/>
     </row>
     <row r="331" spans="1:8" ht="38.25" customHeight="1">
@@ -12268,12 +12294,14 @@
       <c r="C331" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D331" s="365" t="s">
+      <c r="D331" s="278" t="s">
         <v>408</v>
       </c>
-      <c r="E331" s="366"/>
-      <c r="F331" s="367"/>
-      <c r="G331" s="275"/>
+      <c r="E331" s="279"/>
+      <c r="F331" s="280"/>
+      <c r="G331" s="386">
+        <v>4000</v>
+      </c>
       <c r="H331" s="2"/>
     </row>
     <row r="332" spans="1:8" ht="38.25" customHeight="1">
@@ -12284,12 +12312,14 @@
       <c r="C332" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D332" s="365" t="s">
+      <c r="D332" s="278" t="s">
         <v>285</v>
       </c>
-      <c r="E332" s="366"/>
-      <c r="F332" s="367"/>
-      <c r="G332" s="275"/>
+      <c r="E332" s="279"/>
+      <c r="F332" s="280"/>
+      <c r="G332" s="386">
+        <v>500</v>
+      </c>
       <c r="H332" s="2"/>
     </row>
     <row r="333" spans="1:8" ht="38.25" customHeight="1">
@@ -12300,24 +12330,26 @@
       <c r="C333" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D333" s="365" t="s">
+      <c r="D333" s="278" t="s">
         <v>322</v>
       </c>
-      <c r="E333" s="366"/>
-      <c r="F333" s="367"/>
-      <c r="G333" s="275"/>
+      <c r="E333" s="279"/>
+      <c r="F333" s="280"/>
+      <c r="G333" s="386">
+        <v>500</v>
+      </c>
       <c r="H333" s="2"/>
     </row>
     <row r="334" spans="1:8" ht="23.25">
       <c r="A334" s="36"/>
-      <c r="B334" s="371" t="s">
+      <c r="B334" s="284" t="s">
         <v>313</v>
       </c>
-      <c r="C334" s="372"/>
-      <c r="D334" s="372"/>
-      <c r="E334" s="372"/>
-      <c r="F334" s="373"/>
-      <c r="G334" s="374"/>
+      <c r="C334" s="285"/>
+      <c r="D334" s="285"/>
+      <c r="E334" s="285"/>
+      <c r="F334" s="286"/>
+      <c r="G334" s="287"/>
       <c r="H334" s="2"/>
     </row>
     <row r="335" spans="1:8" ht="38.25" customHeight="1">
@@ -12328,12 +12360,14 @@
       <c r="C335" s="130" t="s">
         <v>261</v>
       </c>
-      <c r="D335" s="365" t="s">
+      <c r="D335" s="278" t="s">
         <v>296</v>
       </c>
-      <c r="E335" s="366"/>
-      <c r="F335" s="367"/>
-      <c r="G335" s="275"/>
+      <c r="E335" s="279"/>
+      <c r="F335" s="280"/>
+      <c r="G335" s="386">
+        <v>4500</v>
+      </c>
       <c r="H335" s="2"/>
     </row>
     <row r="336" spans="1:8" ht="38.25" customHeight="1">
@@ -12344,12 +12378,14 @@
       <c r="C336" s="130" t="s">
         <v>373</v>
       </c>
-      <c r="D336" s="365" t="s">
+      <c r="D336" s="278" t="s">
         <v>296</v>
       </c>
-      <c r="E336" s="366"/>
-      <c r="F336" s="367"/>
-      <c r="G336" s="275"/>
+      <c r="E336" s="279"/>
+      <c r="F336" s="280"/>
+      <c r="G336" s="386">
+        <v>300</v>
+      </c>
       <c r="H336" s="2"/>
     </row>
     <row r="337" spans="1:8" ht="51" customHeight="1">
@@ -12360,12 +12396,14 @@
       <c r="C337" s="130" t="s">
         <v>335</v>
       </c>
-      <c r="D337" s="365" t="s">
+      <c r="D337" s="278" t="s">
         <v>287</v>
       </c>
-      <c r="E337" s="366"/>
-      <c r="F337" s="367"/>
-      <c r="G337" s="275"/>
+      <c r="E337" s="279"/>
+      <c r="F337" s="280"/>
+      <c r="G337" s="386">
+        <v>2500</v>
+      </c>
       <c r="H337" s="2"/>
     </row>
     <row r="338" spans="1:8" ht="51" customHeight="1">
@@ -12376,12 +12414,14 @@
       <c r="C338" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D338" s="365" t="s">
+      <c r="D338" s="278" t="s">
         <v>289</v>
       </c>
-      <c r="E338" s="366"/>
-      <c r="F338" s="367"/>
-      <c r="G338" s="275"/>
+      <c r="E338" s="279"/>
+      <c r="F338" s="280"/>
+      <c r="G338" s="386">
+        <v>700</v>
+      </c>
       <c r="H338" s="2"/>
     </row>
     <row r="339" spans="1:8" ht="51" customHeight="1">
@@ -12392,12 +12432,14 @@
       <c r="C339" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D339" s="365" t="s">
+      <c r="D339" s="278" t="s">
         <v>291</v>
       </c>
-      <c r="E339" s="366"/>
-      <c r="F339" s="367"/>
-      <c r="G339" s="275"/>
+      <c r="E339" s="279"/>
+      <c r="F339" s="280"/>
+      <c r="G339" s="386">
+        <v>500</v>
+      </c>
       <c r="H339" s="2"/>
     </row>
     <row r="340" spans="1:8" ht="51" customHeight="1">
@@ -12408,12 +12450,14 @@
       <c r="C340" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D340" s="365" t="s">
+      <c r="D340" s="278" t="s">
         <v>293</v>
       </c>
-      <c r="E340" s="366"/>
-      <c r="F340" s="367"/>
-      <c r="G340" s="275"/>
+      <c r="E340" s="279"/>
+      <c r="F340" s="280"/>
+      <c r="G340" s="386">
+        <v>2000</v>
+      </c>
       <c r="H340" s="2"/>
     </row>
     <row r="341" spans="1:8" ht="51" customHeight="1">
@@ -12424,12 +12468,14 @@
       <c r="C341" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D341" s="365" t="s">
+      <c r="D341" s="278" t="s">
         <v>294</v>
       </c>
-      <c r="E341" s="366"/>
-      <c r="F341" s="367"/>
-      <c r="G341" s="275"/>
+      <c r="E341" s="279"/>
+      <c r="F341" s="280"/>
+      <c r="G341" s="386">
+        <v>5000</v>
+      </c>
       <c r="H341" s="2"/>
     </row>
     <row r="342" spans="1:8" ht="30" customHeight="1">
@@ -12440,12 +12486,14 @@
       <c r="C342" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D342" s="365" t="s">
+      <c r="D342" s="278" t="s">
         <v>296</v>
       </c>
-      <c r="E342" s="366"/>
-      <c r="F342" s="367"/>
-      <c r="G342" s="275"/>
+      <c r="E342" s="279"/>
+      <c r="F342" s="280"/>
+      <c r="G342" s="386">
+        <v>6000</v>
+      </c>
       <c r="H342" s="2"/>
     </row>
     <row r="343" spans="1:8" ht="30" customHeight="1">
@@ -12456,12 +12504,14 @@
       <c r="C343" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D343" s="365" t="s">
+      <c r="D343" s="278" t="s">
         <v>296</v>
       </c>
-      <c r="E343" s="366"/>
-      <c r="F343" s="367"/>
-      <c r="G343" s="275"/>
+      <c r="E343" s="279"/>
+      <c r="F343" s="280"/>
+      <c r="G343" s="386">
+        <v>4000</v>
+      </c>
       <c r="H343" s="2"/>
     </row>
     <row r="344" spans="1:8" ht="51" customHeight="1">
@@ -12472,12 +12522,14 @@
       <c r="C344" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D344" s="365" t="s">
+      <c r="D344" s="278" t="s">
         <v>294</v>
       </c>
-      <c r="E344" s="366"/>
-      <c r="F344" s="367"/>
-      <c r="G344" s="275"/>
+      <c r="E344" s="279"/>
+      <c r="F344" s="280"/>
+      <c r="G344" s="386">
+        <v>500</v>
+      </c>
       <c r="H344" s="2"/>
     </row>
     <row r="345" spans="1:8" ht="51" customHeight="1">
@@ -12488,12 +12540,14 @@
       <c r="C345" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D345" s="365" t="s">
+      <c r="D345" s="278" t="s">
         <v>294</v>
       </c>
-      <c r="E345" s="366"/>
-      <c r="F345" s="367"/>
-      <c r="G345" s="275"/>
+      <c r="E345" s="279"/>
+      <c r="F345" s="280"/>
+      <c r="G345" s="386">
+        <v>500</v>
+      </c>
       <c r="H345" s="2"/>
     </row>
     <row r="346" spans="1:8" ht="51" customHeight="1">
@@ -12504,12 +12558,14 @@
       <c r="C346" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D346" s="365" t="s">
+      <c r="D346" s="278" t="s">
         <v>300</v>
       </c>
-      <c r="E346" s="366"/>
-      <c r="F346" s="367"/>
-      <c r="G346" s="275"/>
+      <c r="E346" s="279"/>
+      <c r="F346" s="280"/>
+      <c r="G346" s="386">
+        <v>500</v>
+      </c>
       <c r="H346" s="2"/>
     </row>
     <row r="347" spans="1:8" ht="51" customHeight="1">
@@ -12520,12 +12576,14 @@
       <c r="C347" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D347" s="365" t="s">
+      <c r="D347" s="278" t="s">
         <v>294</v>
       </c>
-      <c r="E347" s="366"/>
-      <c r="F347" s="367"/>
-      <c r="G347" s="275"/>
+      <c r="E347" s="279"/>
+      <c r="F347" s="280"/>
+      <c r="G347" s="386">
+        <v>400</v>
+      </c>
       <c r="H347" s="2"/>
     </row>
     <row r="348" spans="1:8" ht="51" customHeight="1">
@@ -12536,12 +12594,14 @@
       <c r="C348" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D348" s="365" t="s">
+      <c r="D348" s="278" t="s">
         <v>302</v>
       </c>
-      <c r="E348" s="366"/>
-      <c r="F348" s="367"/>
-      <c r="G348" s="276"/>
+      <c r="E348" s="279"/>
+      <c r="F348" s="280"/>
+      <c r="G348" s="387">
+        <v>500</v>
+      </c>
       <c r="H348" s="2"/>
     </row>
     <row r="349" spans="1:8" ht="51" customHeight="1">
@@ -12552,12 +12612,14 @@
       <c r="C349" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D349" s="365" t="s">
+      <c r="D349" s="278" t="s">
         <v>304</v>
       </c>
-      <c r="E349" s="366"/>
-      <c r="F349" s="367"/>
-      <c r="G349" s="276"/>
+      <c r="E349" s="279"/>
+      <c r="F349" s="280"/>
+      <c r="G349" s="387">
+        <v>500</v>
+      </c>
       <c r="H349" s="2"/>
     </row>
     <row r="350" spans="1:8" ht="51" customHeight="1">
@@ -12568,12 +12630,14 @@
       <c r="C350" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D350" s="365" t="s">
+      <c r="D350" s="278" t="s">
         <v>296</v>
       </c>
-      <c r="E350" s="366"/>
-      <c r="F350" s="367"/>
-      <c r="G350" s="276"/>
+      <c r="E350" s="279"/>
+      <c r="F350" s="280"/>
+      <c r="G350" s="387">
+        <v>500</v>
+      </c>
       <c r="H350" s="2"/>
     </row>
     <row r="351" spans="1:8" ht="51" customHeight="1">
@@ -12584,12 +12648,14 @@
       <c r="C351" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D351" s="365" t="s">
+      <c r="D351" s="278" t="s">
         <v>302</v>
       </c>
-      <c r="E351" s="366"/>
-      <c r="F351" s="367"/>
-      <c r="G351" s="276"/>
+      <c r="E351" s="279"/>
+      <c r="F351" s="280"/>
+      <c r="G351" s="387">
+        <v>500</v>
+      </c>
       <c r="H351" s="2"/>
     </row>
     <row r="352" spans="1:8" ht="51" customHeight="1">
@@ -12600,12 +12666,14 @@
       <c r="C352" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D352" s="365" t="s">
+      <c r="D352" s="278" t="s">
         <v>307</v>
       </c>
-      <c r="E352" s="366"/>
-      <c r="F352" s="367"/>
-      <c r="G352" s="275"/>
+      <c r="E352" s="279"/>
+      <c r="F352" s="280"/>
+      <c r="G352" s="386">
+        <v>3000</v>
+      </c>
       <c r="H352" s="2"/>
     </row>
     <row r="353" spans="1:8" ht="51" customHeight="1">
@@ -12616,12 +12684,14 @@
       <c r="C353" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D353" s="365" t="s">
+      <c r="D353" s="278" t="s">
         <v>302</v>
       </c>
-      <c r="E353" s="366"/>
-      <c r="F353" s="367"/>
-      <c r="G353" s="276"/>
+      <c r="E353" s="279"/>
+      <c r="F353" s="280"/>
+      <c r="G353" s="387">
+        <v>300</v>
+      </c>
       <c r="H353" s="2"/>
     </row>
     <row r="354" spans="1:8" ht="51" customHeight="1">
@@ -12632,12 +12702,14 @@
       <c r="C354" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D354" s="365" t="s">
+      <c r="D354" s="278" t="s">
         <v>302</v>
       </c>
-      <c r="E354" s="366"/>
-      <c r="F354" s="367"/>
-      <c r="G354" s="276"/>
+      <c r="E354" s="279"/>
+      <c r="F354" s="280"/>
+      <c r="G354" s="387">
+        <v>700</v>
+      </c>
       <c r="H354" s="2"/>
     </row>
     <row r="355" spans="1:8" ht="15.75" customHeight="1">
@@ -12648,24 +12720,26 @@
       <c r="C355" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D355" s="365" t="s">
+      <c r="D355" s="278" t="s">
         <v>409</v>
       </c>
-      <c r="E355" s="366"/>
-      <c r="F355" s="367"/>
-      <c r="G355" s="275"/>
+      <c r="E355" s="279"/>
+      <c r="F355" s="280"/>
+      <c r="G355" s="386">
+        <v>7000</v>
+      </c>
       <c r="H355" s="2"/>
     </row>
     <row r="356" spans="1:8" ht="23.25">
       <c r="A356" s="36"/>
-      <c r="B356" s="331" t="s">
+      <c r="B356" s="317" t="s">
         <v>332</v>
       </c>
-      <c r="C356" s="332"/>
-      <c r="D356" s="332"/>
-      <c r="E356" s="332"/>
-      <c r="F356" s="333"/>
-      <c r="G356" s="334"/>
+      <c r="C356" s="318"/>
+      <c r="D356" s="318"/>
+      <c r="E356" s="318"/>
+      <c r="F356" s="319"/>
+      <c r="G356" s="320"/>
       <c r="H356" s="2"/>
     </row>
     <row r="357" spans="1:8" ht="15.75" customHeight="1">
@@ -12676,12 +12750,14 @@
       <c r="C357" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D357" s="365" t="s">
+      <c r="D357" s="278" t="s">
         <v>336</v>
       </c>
-      <c r="E357" s="366"/>
-      <c r="F357" s="367"/>
-      <c r="G357" s="275"/>
+      <c r="E357" s="279"/>
+      <c r="F357" s="280"/>
+      <c r="G357" s="386">
+        <v>2500</v>
+      </c>
       <c r="H357" s="2"/>
     </row>
     <row r="358" spans="1:8" ht="30" customHeight="1">
@@ -12692,12 +12768,14 @@
       <c r="C358" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D358" s="365" t="s">
+      <c r="D358" s="278" t="s">
         <v>336</v>
       </c>
-      <c r="E358" s="366"/>
-      <c r="F358" s="367"/>
-      <c r="G358" s="275"/>
+      <c r="E358" s="279"/>
+      <c r="F358" s="280"/>
+      <c r="G358" s="386">
+        <v>500</v>
+      </c>
       <c r="H358" s="2"/>
     </row>
     <row r="359" spans="1:8" ht="15.75" customHeight="1">
@@ -12708,24 +12786,26 @@
       <c r="C359" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="D359" s="381" t="s">
+      <c r="D359" s="281" t="s">
         <v>336</v>
       </c>
-      <c r="E359" s="382"/>
-      <c r="F359" s="383"/>
-      <c r="G359" s="275"/>
+      <c r="E359" s="282"/>
+      <c r="F359" s="283"/>
+      <c r="G359" s="386">
+        <v>3500</v>
+      </c>
       <c r="H359" s="2"/>
     </row>
     <row r="360" spans="1:8" ht="26.25">
       <c r="A360" s="36"/>
-      <c r="B360" s="290" t="s">
+      <c r="B360" s="326" t="s">
         <v>213</v>
       </c>
-      <c r="C360" s="290"/>
-      <c r="D360" s="290"/>
-      <c r="E360" s="290"/>
-      <c r="F360" s="290"/>
-      <c r="G360" s="290"/>
+      <c r="C360" s="326"/>
+      <c r="D360" s="326"/>
+      <c r="E360" s="326"/>
+      <c r="F360" s="326"/>
+      <c r="G360" s="326"/>
       <c r="H360" s="2"/>
     </row>
     <row r="361" spans="1:8" ht="15.75">
@@ -12740,14 +12820,14 @@
     </row>
     <row r="362" spans="1:8" ht="14.25">
       <c r="A362" s="36"/>
-      <c r="B362" s="335" t="s">
+      <c r="B362" s="321" t="s">
         <v>412</v>
       </c>
-      <c r="C362" s="335"/>
-      <c r="D362" s="335"/>
-      <c r="E362" s="335"/>
-      <c r="F362" s="335"/>
-      <c r="G362" s="335"/>
+      <c r="C362" s="321"/>
+      <c r="D362" s="321"/>
+      <c r="E362" s="321"/>
+      <c r="F362" s="321"/>
+      <c r="G362" s="321"/>
       <c r="H362" s="2"/>
     </row>
     <row r="363" spans="1:8" ht="15.75">
@@ -12762,26 +12842,26 @@
     </row>
     <row r="364" spans="1:8" ht="14.25" customHeight="1">
       <c r="A364" s="36"/>
-      <c r="B364" s="338" t="s">
+      <c r="B364" s="324" t="s">
         <v>440</v>
       </c>
-      <c r="C364" s="339"/>
-      <c r="D364" s="339"/>
-      <c r="E364" s="339"/>
-      <c r="F364" s="339"/>
-      <c r="G364" s="339"/>
+      <c r="C364" s="325"/>
+      <c r="D364" s="325"/>
+      <c r="E364" s="325"/>
+      <c r="F364" s="325"/>
+      <c r="G364" s="325"/>
       <c r="H364" s="2"/>
     </row>
     <row r="365" spans="1:8" ht="33" customHeight="1">
       <c r="A365" s="36"/>
-      <c r="B365" s="338" t="s">
+      <c r="B365" s="324" t="s">
         <v>441</v>
       </c>
-      <c r="C365" s="339"/>
-      <c r="D365" s="339"/>
-      <c r="E365" s="339"/>
-      <c r="F365" s="339"/>
-      <c r="G365" s="339"/>
+      <c r="C365" s="325"/>
+      <c r="D365" s="325"/>
+      <c r="E365" s="325"/>
+      <c r="F365" s="325"/>
+      <c r="G365" s="325"/>
       <c r="H365" s="2"/>
     </row>
     <row r="366" spans="1:8" ht="15.75">
@@ -12796,12 +12876,12 @@
     </row>
     <row r="367" spans="1:8" ht="14.25">
       <c r="A367" s="36"/>
-      <c r="B367" s="330"/>
-      <c r="C367" s="330"/>
-      <c r="D367" s="330"/>
-      <c r="E367" s="330"/>
-      <c r="F367" s="330"/>
-      <c r="G367" s="330"/>
+      <c r="B367" s="316"/>
+      <c r="C367" s="316"/>
+      <c r="D367" s="316"/>
+      <c r="E367" s="316"/>
+      <c r="F367" s="316"/>
+      <c r="G367" s="316"/>
       <c r="H367" s="2"/>
     </row>
     <row r="368" spans="1:8" ht="14.25">
@@ -12816,36 +12896,36 @@
     </row>
     <row r="369" spans="1:8" ht="16.5" customHeight="1">
       <c r="A369" s="37"/>
-      <c r="B369" s="326"/>
-      <c r="C369" s="326"/>
-      <c r="D369" s="326"/>
-      <c r="E369" s="326"/>
-      <c r="F369" s="326"/>
-      <c r="G369" s="326"/>
+      <c r="B369" s="312"/>
+      <c r="C369" s="312"/>
+      <c r="D369" s="312"/>
+      <c r="E369" s="312"/>
+      <c r="F369" s="312"/>
+      <c r="G369" s="312"/>
       <c r="H369" s="2"/>
     </row>
     <row r="370" spans="1:8" ht="32.25" customHeight="1">
       <c r="A370" s="38"/>
-      <c r="B370" s="327" t="s">
+      <c r="B370" s="313" t="s">
         <v>214</v>
       </c>
-      <c r="C370" s="328"/>
-      <c r="D370" s="328"/>
-      <c r="E370" s="328"/>
-      <c r="F370" s="328"/>
-      <c r="G370" s="329"/>
+      <c r="C370" s="314"/>
+      <c r="D370" s="314"/>
+      <c r="E370" s="314"/>
+      <c r="F370" s="314"/>
+      <c r="G370" s="315"/>
       <c r="H370" s="2"/>
     </row>
     <row r="371" spans="1:8" ht="32.25" customHeight="1">
       <c r="A371" s="38"/>
-      <c r="B371" s="336" t="s">
+      <c r="B371" s="322" t="s">
         <v>159</v>
       </c>
-      <c r="C371" s="337"/>
-      <c r="D371" s="337"/>
-      <c r="E371" s="337"/>
-      <c r="F371" s="337"/>
-      <c r="G371" s="337"/>
+      <c r="C371" s="323"/>
+      <c r="D371" s="323"/>
+      <c r="E371" s="323"/>
+      <c r="F371" s="323"/>
+      <c r="G371" s="323"/>
       <c r="H371" s="2"/>
     </row>
     <row r="372" spans="1:8" ht="15.6" customHeight="1">
@@ -12902,49 +12982,107 @@
     </row>
     <row r="377" spans="1:8" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
-      <c r="B377" s="325"/>
-      <c r="C377" s="325"/>
-      <c r="D377" s="325"/>
-      <c r="E377" s="325"/>
-      <c r="F377" s="325"/>
-      <c r="G377" s="325"/>
+      <c r="B377" s="311"/>
+      <c r="C377" s="311"/>
+      <c r="D377" s="311"/>
+      <c r="E377" s="311"/>
+      <c r="F377" s="311"/>
+      <c r="G377" s="311"/>
       <c r="H377" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D347:F347"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="D349:F349"/>
-    <mergeCell ref="D350:F350"/>
-    <mergeCell ref="D351:F351"/>
-    <mergeCell ref="D352:F352"/>
-    <mergeCell ref="D353:F353"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D327:F327"/>
-    <mergeCell ref="D328:F328"/>
-    <mergeCell ref="D329:F329"/>
-    <mergeCell ref="D330:F330"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="B334:G334"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
-    <mergeCell ref="D338:F338"/>
-    <mergeCell ref="D339:F339"/>
-    <mergeCell ref="D340:F340"/>
-    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="B263:G263"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B136:G137"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B152:G153"/>
+    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="B214:G214"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B377:G377"/>
+    <mergeCell ref="B369:G369"/>
+    <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B367:G367"/>
+    <mergeCell ref="B356:G356"/>
+    <mergeCell ref="B362:G362"/>
+    <mergeCell ref="B371:G371"/>
+    <mergeCell ref="B365:G365"/>
+    <mergeCell ref="B364:G364"/>
+    <mergeCell ref="B360:G360"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D319:F319"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="B317:G317"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="B148:G149"/>
+    <mergeCell ref="B318:G318"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="B219:G219"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="B233:G233"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
     <mergeCell ref="D323:F323"/>
     <mergeCell ref="D324:F324"/>
     <mergeCell ref="D325:F325"/>
@@ -12969,97 +13107,39 @@
     <mergeCell ref="D255:E255"/>
     <mergeCell ref="D257:E257"/>
     <mergeCell ref="B259:G259"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="B236:G236"/>
-    <mergeCell ref="B233:G233"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="B377:G377"/>
-    <mergeCell ref="B369:G369"/>
-    <mergeCell ref="B370:G370"/>
-    <mergeCell ref="B367:G367"/>
-    <mergeCell ref="B356:G356"/>
-    <mergeCell ref="B362:G362"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B365:G365"/>
-    <mergeCell ref="B364:G364"/>
-    <mergeCell ref="B360:G360"/>
-    <mergeCell ref="B317:G317"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="B148:G149"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="B318:G318"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B136:G137"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D327:F327"/>
+    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="D329:F329"/>
+    <mergeCell ref="D330:F330"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="B334:G334"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="D337:F337"/>
+    <mergeCell ref="D338:F338"/>
+    <mergeCell ref="D339:F339"/>
+    <mergeCell ref="D340:F340"/>
+    <mergeCell ref="D341:F341"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="D359:F359"/>
+    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="D349:F349"/>
+    <mergeCell ref="D350:F350"/>
+    <mergeCell ref="D351:F351"/>
+    <mergeCell ref="D352:F352"/>
+    <mergeCell ref="D353:F353"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="D355:F355"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
+++ b/src/Components/Price/ПРАЙС-ЛИСТ от 01.01.2025.xlsx
@@ -17,8 +17,8 @@
     <sheet name="Лист3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="зкшсыф" localSheetId="0">Лист1!$C$2:$H$262</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$B$1:$G$377</definedName>
+    <definedName name="зкшсыф" localSheetId="0">Лист1!$C$2:$H$265</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$B$1:$G$380</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="469">
   <si>
     <t>ПРАЙС-ЛИСТ</t>
   </si>
@@ -2395,6 +2395,21 @@
   </si>
   <si>
     <t>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (</t>
+  </si>
+  <si>
+    <t>Определение потери деформируемости при сейсмическом воздействии методом трехосных сжатий</t>
+  </si>
+  <si>
+    <t>Определение потери прочности при сейсмическом воздействии методом трехосных сжатий (глинистые грунты)</t>
+  </si>
+  <si>
+    <t>Определение потери прочности при сейсмическом воздействии методом трехосных сжатий (песчаные грунты)</t>
+  </si>
+  <si>
+    <t>66§4 ÷ 3 * 2</t>
+  </si>
+  <si>
+    <t>66§5 ÷ 3 * 2</t>
   </si>
 </sst>
 </file>
@@ -2881,7 +2896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="93">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -4097,13 +4112,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4886,6 +4916,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="44" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4952,15 +5005,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="29" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4984,6 +5028,87 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5027,12 +5152,6 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5066,84 +5185,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5202,12 +5255,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="44" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5590,10 +5637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A349" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G357" sqref="G357:G359"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A139" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141:I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5605,72 +5652,73 @@
     <col min="5" max="5" width="17.28515625"/>
     <col min="6" max="6" width="16" style="243" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="329" t="s">
+      <c r="B2" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="329"/>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
+      <c r="G3" s="361"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="331" t="s">
+      <c r="B4" s="362" t="s">
         <v>449</v>
       </c>
-      <c r="C4" s="331"/>
-      <c r="D4" s="331"/>
-      <c r="E4" s="331"/>
-      <c r="F4" s="331"/>
-      <c r="G4" s="331"/>
+      <c r="C4" s="362"/>
+      <c r="D4" s="362"/>
+      <c r="E4" s="362"/>
+      <c r="F4" s="362"/>
+      <c r="G4" s="362"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="332" t="s">
+      <c r="B5" s="363" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="332"/>
+      <c r="C5" s="363"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="363"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="334" t="s">
+      <c r="B6" s="365" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="334"/>
-      <c r="D6" s="334"/>
-      <c r="E6" s="334"/>
-      <c r="F6" s="334"/>
-      <c r="G6" s="334"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="365"/>
+      <c r="E6" s="365"/>
+      <c r="F6" s="365"/>
+      <c r="G6" s="365"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="11.25" customHeight="1">
@@ -5685,26 +5733,26 @@
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="293" t="s">
+      <c r="B8" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="293"/>
-      <c r="D8" s="293"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="293"/>
-      <c r="G8" s="293"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="335"/>
-      <c r="D9" s="335"/>
-      <c r="E9" s="335"/>
-      <c r="F9" s="335"/>
-      <c r="G9" s="335"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
+      <c r="G9" s="366"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="102">
@@ -7078,14 +7126,14 @@
     </row>
     <row r="68" spans="1:8" ht="51" customHeight="1">
       <c r="A68" s="15"/>
-      <c r="B68" s="336" t="s">
+      <c r="B68" s="367" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="337"/>
-      <c r="D68" s="337"/>
-      <c r="E68" s="337"/>
-      <c r="F68" s="338"/>
-      <c r="G68" s="339"/>
+      <c r="C68" s="368"/>
+      <c r="D68" s="368"/>
+      <c r="E68" s="368"/>
+      <c r="F68" s="369"/>
+      <c r="G68" s="370"/>
       <c r="H68" s="14"/>
     </row>
     <row r="69" spans="1:8" ht="6.75" customHeight="1">
@@ -7100,14 +7148,14 @@
     </row>
     <row r="70" spans="1:8" ht="30" customHeight="1">
       <c r="A70" s="7"/>
-      <c r="B70" s="333" t="s">
+      <c r="B70" s="364" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="333"/>
-      <c r="D70" s="333"/>
-      <c r="E70" s="333"/>
-      <c r="F70" s="333"/>
-      <c r="G70" s="333"/>
+      <c r="C70" s="364"/>
+      <c r="D70" s="364"/>
+      <c r="E70" s="364"/>
+      <c r="F70" s="364"/>
+      <c r="G70" s="364"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" ht="102">
@@ -7599,14 +7647,14 @@
     </row>
     <row r="92" spans="1:8" ht="30" customHeight="1">
       <c r="A92" s="7"/>
-      <c r="B92" s="300" t="s">
+      <c r="B92" s="371" t="s">
         <v>458</v>
       </c>
-      <c r="C92" s="300"/>
-      <c r="D92" s="300"/>
-      <c r="E92" s="300"/>
-      <c r="F92" s="300"/>
-      <c r="G92" s="300"/>
+      <c r="C92" s="371"/>
+      <c r="D92" s="371"/>
+      <c r="E92" s="371"/>
+      <c r="F92" s="371"/>
+      <c r="G92" s="371"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" ht="102">
@@ -7954,14 +8002,14 @@
     </row>
     <row r="108" spans="1:8" s="265" customFormat="1" ht="30" customHeight="1">
       <c r="A108" s="15"/>
-      <c r="B108" s="300" t="s">
+      <c r="B108" s="371" t="s">
         <v>459</v>
       </c>
-      <c r="C108" s="300"/>
-      <c r="D108" s="300"/>
-      <c r="E108" s="300"/>
-      <c r="F108" s="300"/>
-      <c r="G108" s="300"/>
+      <c r="C108" s="371"/>
+      <c r="D108" s="371"/>
+      <c r="E108" s="371"/>
+      <c r="F108" s="371"/>
+      <c r="G108" s="371"/>
       <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" s="265" customFormat="1" ht="102">
@@ -7979,10 +8027,10 @@
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F109" s="301" t="s">
+      <c r="F109" s="373" t="s">
         <v>461</v>
       </c>
-      <c r="G109" s="302"/>
+      <c r="G109" s="374"/>
       <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:8" ht="25.5">
@@ -8000,11 +8048,11 @@
         <f>D110*Лист2!$B$3</f>
         <v>8701.8619999999992</v>
       </c>
-      <c r="F110" s="298">
+      <c r="F110" s="307">
         <f>E110*4</f>
         <v>34807.447999999997</v>
       </c>
-      <c r="G110" s="299"/>
+      <c r="G110" s="308"/>
       <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" ht="25.5">
@@ -8022,11 +8070,11 @@
         <f>D111*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F111" s="298">
+      <c r="F111" s="307">
         <f>E111*4</f>
         <v>41871.479999999996</v>
       </c>
-      <c r="G111" s="299"/>
+      <c r="G111" s="308"/>
       <c r="H111" s="14"/>
     </row>
     <row r="112" spans="1:8" ht="76.5">
@@ -8044,11 +8092,11 @@
         <f>D112*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F112" s="298">
+      <c r="F112" s="307">
         <f>E112*3</f>
         <v>35740.298999999999</v>
       </c>
-      <c r="G112" s="299"/>
+      <c r="G112" s="308"/>
       <c r="H112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="76.5">
@@ -8066,11 +8114,11 @@
         <f>D113*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F113" s="298">
+      <c r="F113" s="307">
         <f>E113*3</f>
         <v>44541.854999999996</v>
       </c>
-      <c r="G113" s="299"/>
+      <c r="G113" s="308"/>
       <c r="H113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="76.5">
@@ -8088,11 +8136,11 @@
         <f>D114*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F114" s="298">
+      <c r="F114" s="307">
         <f>E114*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G114" s="299"/>
+      <c r="G114" s="308"/>
       <c r="H114" s="14"/>
     </row>
     <row r="115" spans="1:9" ht="76.5">
@@ -8110,11 +8158,11 @@
         <f>D115*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F115" s="298">
+      <c r="F115" s="307">
         <f>E115*3.5</f>
         <v>51965.49749999999</v>
       </c>
-      <c r="G115" s="299"/>
+      <c r="G115" s="308"/>
       <c r="H115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="38.25">
@@ -8132,11 +8180,11 @@
         <f>D116*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F116" s="298">
+      <c r="F116" s="307">
         <f>E116*1.2</f>
         <v>14296.119599999998</v>
       </c>
-      <c r="G116" s="299"/>
+      <c r="G116" s="308"/>
       <c r="H116" s="14"/>
       <c r="I116" s="128"/>
     </row>
@@ -8155,11 +8203,11 @@
         <f>D117*Лист2!$B$3</f>
         <v>14847.284999999998</v>
       </c>
-      <c r="F117" s="298">
+      <c r="F117" s="307">
         <f>E117*1.2</f>
         <v>17816.741999999998</v>
       </c>
-      <c r="G117" s="299"/>
+      <c r="G117" s="308"/>
       <c r="H117" s="14"/>
     </row>
     <row r="118" spans="1:9" ht="14.25">
@@ -8177,11 +8225,11 @@
         <f>D118*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F118" s="298">
+      <c r="F118" s="307">
         <f>E118*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G118" s="299"/>
+      <c r="G118" s="308"/>
       <c r="H118" s="14"/>
     </row>
     <row r="119" spans="1:9" s="209" customFormat="1" ht="14.25">
@@ -8199,11 +8247,11 @@
         <f>D119*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F119" s="298">
+      <c r="F119" s="307">
         <f>E119*3.3</f>
         <v>34543.970999999998</v>
       </c>
-      <c r="G119" s="299"/>
+      <c r="G119" s="308"/>
       <c r="H119" s="14"/>
     </row>
     <row r="120" spans="1:9" ht="14.25">
@@ -8221,11 +8269,11 @@
         <f>D120*Лист2!$B$3</f>
         <v>10467.869999999999</v>
       </c>
-      <c r="F120" s="298">
+      <c r="F120" s="307">
         <f>E120*5</f>
         <v>52339.349999999991</v>
       </c>
-      <c r="G120" s="299"/>
+      <c r="G120" s="308"/>
       <c r="H120" s="14"/>
     </row>
     <row r="121" spans="1:9" ht="51">
@@ -8243,11 +8291,11 @@
         <f>D121*Лист2!$B$3</f>
         <v>6594.0459999999994</v>
       </c>
-      <c r="F121" s="298">
+      <c r="F121" s="307">
         <f>E121*2</f>
         <v>13188.091999999999</v>
       </c>
-      <c r="G121" s="299"/>
+      <c r="G121" s="308"/>
       <c r="H121" s="14"/>
     </row>
     <row r="122" spans="1:9" s="274" customFormat="1" ht="14.25">
@@ -8262,14 +8310,14 @@
     </row>
     <row r="123" spans="1:9" ht="25.5" customHeight="1">
       <c r="A123" s="15"/>
-      <c r="B123" s="333" t="s">
+      <c r="B123" s="364" t="s">
         <v>340</v>
       </c>
-      <c r="C123" s="333"/>
-      <c r="D123" s="333"/>
-      <c r="E123" s="333"/>
-      <c r="F123" s="333"/>
-      <c r="G123" s="333"/>
+      <c r="C123" s="364"/>
+      <c r="D123" s="364"/>
+      <c r="E123" s="364"/>
+      <c r="F123" s="364"/>
+      <c r="G123" s="364"/>
       <c r="H123" s="14"/>
     </row>
     <row r="124" spans="1:9" ht="102" customHeight="1">
@@ -8283,12 +8331,12 @@
       <c r="D124" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="305" t="str">
+      <c r="E124" s="311" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F124" s="306"/>
-      <c r="G124" s="307"/>
+      <c r="F124" s="312"/>
+      <c r="G124" s="313"/>
       <c r="H124" s="14"/>
     </row>
     <row r="125" spans="1:9" ht="63.75">
@@ -8302,12 +8350,12 @@
       <c r="D125" s="127">
         <v>741.4</v>
       </c>
-      <c r="E125" s="308">
+      <c r="E125" s="314">
         <f>D125*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F125" s="309"/>
-      <c r="G125" s="310"/>
+      <c r="F125" s="315"/>
+      <c r="G125" s="316"/>
       <c r="H125" s="14"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1">
@@ -8322,29 +8370,29 @@
     </row>
     <row r="127" spans="1:9" ht="34.35" customHeight="1">
       <c r="A127" s="25"/>
-      <c r="B127" s="333" t="s">
+      <c r="B127" s="364" t="s">
         <v>338</v>
       </c>
-      <c r="C127" s="333"/>
-      <c r="D127" s="333"/>
-      <c r="E127" s="333"/>
-      <c r="F127" s="333"/>
-      <c r="G127" s="333"/>
+      <c r="C127" s="364"/>
+      <c r="D127" s="364"/>
+      <c r="E127" s="364"/>
+      <c r="F127" s="364"/>
+      <c r="G127" s="364"/>
       <c r="H127" s="26"/>
     </row>
     <row r="128" spans="1:9" ht="34.35" customHeight="1">
       <c r="A128" s="25"/>
-      <c r="B128" s="375" t="s">
+      <c r="B128" s="384" t="s">
         <v>371</v>
       </c>
-      <c r="C128" s="376"/>
-      <c r="D128" s="376"/>
-      <c r="E128" s="376"/>
-      <c r="F128" s="376"/>
-      <c r="G128" s="377"/>
+      <c r="C128" s="385"/>
+      <c r="D128" s="385"/>
+      <c r="E128" s="385"/>
+      <c r="F128" s="385"/>
+      <c r="G128" s="386"/>
       <c r="H128" s="26"/>
     </row>
-    <row r="129" spans="1:8" ht="102">
+    <row r="129" spans="1:9" ht="102">
       <c r="A129" s="8"/>
       <c r="B129" s="9" t="s">
         <v>4</v>
@@ -8366,7 +8414,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="18"/>
       <c r="B130" s="13">
         <v>1</v>
@@ -8388,7 +8436,7 @@
       </c>
       <c r="H130" s="14"/>
     </row>
-    <row r="131" spans="1:8" ht="63.75">
+    <row r="131" spans="1:9" ht="63.75">
       <c r="A131" s="18"/>
       <c r="B131" s="49" t="s">
         <v>163</v>
@@ -8412,7 +8460,7 @@
       </c>
       <c r="H131" s="213"/>
     </row>
-    <row r="132" spans="1:8" ht="63.75">
+    <row r="132" spans="1:9" ht="63.75">
       <c r="A132" s="18"/>
       <c r="B132" s="49" t="s">
         <v>164</v>
@@ -8436,7 +8484,7 @@
       </c>
       <c r="H132" s="213"/>
     </row>
-    <row r="133" spans="1:8" ht="63.75">
+    <row r="133" spans="1:9" ht="63.75">
       <c r="A133" s="27"/>
       <c r="B133" s="66" t="s">
         <v>101</v>
@@ -8460,7 +8508,7 @@
       </c>
       <c r="H133" s="213"/>
     </row>
-    <row r="134" spans="1:8" ht="76.5">
+    <row r="134" spans="1:9" ht="76.5">
       <c r="A134" s="28"/>
       <c r="B134" s="49" t="s">
         <v>160</v>
@@ -8484,7 +8532,7 @@
       </c>
       <c r="H134" s="213"/>
     </row>
-    <row r="135" spans="1:8" ht="51">
+    <row r="135" spans="1:9" ht="51">
       <c r="A135" s="28"/>
       <c r="B135" s="49" t="s">
         <v>161</v>
@@ -8508,39 +8556,39 @@
       </c>
       <c r="H135" s="213"/>
     </row>
-    <row r="136" spans="1:8" ht="16.5" customHeight="1">
+    <row r="136" spans="1:9" ht="16.5" customHeight="1">
       <c r="A136" s="28"/>
-      <c r="B136" s="369"/>
-      <c r="C136" s="370"/>
-      <c r="D136" s="370"/>
-      <c r="E136" s="370"/>
-      <c r="F136" s="370"/>
-      <c r="G136" s="371"/>
+      <c r="B136" s="378"/>
+      <c r="C136" s="379"/>
+      <c r="D136" s="379"/>
+      <c r="E136" s="379"/>
+      <c r="F136" s="379"/>
+      <c r="G136" s="380"/>
       <c r="H136" s="14"/>
     </row>
-    <row r="137" spans="1:8" ht="16.5" customHeight="1">
+    <row r="137" spans="1:9" ht="16.5" customHeight="1">
       <c r="A137" s="28"/>
-      <c r="B137" s="372"/>
-      <c r="C137" s="373"/>
-      <c r="D137" s="373"/>
-      <c r="E137" s="373"/>
-      <c r="F137" s="373"/>
-      <c r="G137" s="374"/>
+      <c r="B137" s="381"/>
+      <c r="C137" s="382"/>
+      <c r="D137" s="382"/>
+      <c r="E137" s="382"/>
+      <c r="F137" s="382"/>
+      <c r="G137" s="383"/>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:8" ht="18">
+    <row r="138" spans="1:9" ht="18">
       <c r="A138" s="25"/>
-      <c r="B138" s="368" t="s">
+      <c r="B138" s="377" t="s">
         <v>339</v>
       </c>
-      <c r="C138" s="368"/>
-      <c r="D138" s="368"/>
-      <c r="E138" s="368"/>
-      <c r="F138" s="368"/>
-      <c r="G138" s="368"/>
+      <c r="C138" s="377"/>
+      <c r="D138" s="377"/>
+      <c r="E138" s="377"/>
+      <c r="F138" s="377"/>
+      <c r="G138" s="377"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" ht="102">
+    <row r="139" spans="1:9" ht="102">
       <c r="A139" s="23"/>
       <c r="B139" s="157" t="s">
         <v>4</v>
@@ -8563,7 +8611,7 @@
       </c>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" ht="15">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="29"/>
       <c r="B140" s="158">
         <v>1</v>
@@ -8583,7 +8631,7 @@
       </c>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" ht="39">
+    <row r="141" spans="1:9" ht="39">
       <c r="A141" s="29"/>
       <c r="B141" s="155" t="s">
         <v>374</v>
@@ -8607,7 +8655,7 @@
       </c>
       <c r="H141" s="230"/>
     </row>
-    <row r="142" spans="1:8" ht="39">
+    <row r="142" spans="1:9" ht="39">
       <c r="A142" s="29"/>
       <c r="B142" s="155" t="s">
         <v>375</v>
@@ -8630,8 +8678,9 @@
         <v>23757.792299999997</v>
       </c>
       <c r="H142" s="230"/>
-    </row>
-    <row r="143" spans="1:8" ht="25.5">
+      <c r="I142" s="281"/>
+    </row>
+    <row r="143" spans="1:9" ht="25.5">
       <c r="A143" s="30"/>
       <c r="B143" s="156" t="s">
         <v>415</v>
@@ -8654,8 +8703,9 @@
         <v>23757.792299999997</v>
       </c>
       <c r="H143" s="230"/>
-    </row>
-    <row r="144" spans="1:8" ht="25.5">
+      <c r="I143" s="281"/>
+    </row>
+    <row r="144" spans="1:9" ht="25.5">
       <c r="A144" s="30"/>
       <c r="B144" s="156" t="s">
         <v>342</v>
@@ -8678,8 +8728,9 @@
         <v>23757.792299999997</v>
       </c>
       <c r="H144" s="230"/>
-    </row>
-    <row r="145" spans="1:8" ht="25.5">
+      <c r="I144" s="281"/>
+    </row>
+    <row r="145" spans="1:9" ht="25.5">
       <c r="A145" s="30"/>
       <c r="B145" s="156" t="s">
         <v>166</v>
@@ -8702,8 +8753,9 @@
         <v>23757.792299999997</v>
       </c>
       <c r="H145" s="230"/>
-    </row>
-    <row r="146" spans="1:8" ht="14.25">
+      <c r="I145" s="281"/>
+    </row>
+    <row r="146" spans="1:9" ht="14.25">
       <c r="A146" s="30"/>
       <c r="B146" s="156" t="s">
         <v>439</v>
@@ -8726,8 +8778,9 @@
         <v>23757.792299999997</v>
       </c>
       <c r="H146" s="230"/>
-    </row>
-    <row r="147" spans="1:8" ht="14.25">
+      <c r="I146" s="281"/>
+    </row>
+    <row r="147" spans="1:9" ht="14.25">
       <c r="A147" s="30"/>
       <c r="B147" s="156" t="s">
         <v>330</v>
@@ -8750,3135 +8803,3139 @@
         <v>23757.792299999997</v>
       </c>
       <c r="H147" s="230"/>
-    </row>
-    <row r="148" spans="1:8" ht="15">
-      <c r="A148" s="16"/>
-      <c r="B148" s="291" t="s">
+      <c r="I147" s="281"/>
+    </row>
+    <row r="148" spans="1:9" s="278" customFormat="1" ht="24">
+      <c r="A148" s="30"/>
+      <c r="B148" s="286" t="s">
+        <v>464</v>
+      </c>
+      <c r="C148" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="D148" s="160">
+        <v>741.4</v>
+      </c>
+      <c r="E148" s="206">
+        <f>D148*Лист2!$B$3</f>
+        <v>52795.093999999997</v>
+      </c>
+      <c r="F148" s="260">
+        <v>55</v>
+      </c>
+      <c r="G148" s="161">
+        <f>E148-E148*F148/100</f>
+        <v>23757.792299999997</v>
+      </c>
+      <c r="H148" s="230"/>
+      <c r="I148" s="281"/>
+    </row>
+    <row r="149" spans="1:9" s="278" customFormat="1" ht="24">
+      <c r="A149" s="30"/>
+      <c r="B149" s="286" t="s">
+        <v>465</v>
+      </c>
+      <c r="C149" s="282" t="s">
+        <v>467</v>
+      </c>
+      <c r="D149" s="283">
+        <v>494.26</v>
+      </c>
+      <c r="E149" s="206">
+        <f>D149*Лист2!$B$3</f>
+        <v>35196.254599999993</v>
+      </c>
+      <c r="F149" s="260">
+        <v>75</v>
+      </c>
+      <c r="G149" s="161">
+        <f>E149-E149*F149/100</f>
+        <v>8799.0636500000001</v>
+      </c>
+      <c r="H149" s="230"/>
+      <c r="I149" s="281"/>
+    </row>
+    <row r="150" spans="1:9" s="278" customFormat="1" ht="24">
+      <c r="A150" s="30"/>
+      <c r="B150" s="286" t="s">
+        <v>466</v>
+      </c>
+      <c r="C150" s="282" t="s">
+        <v>468</v>
+      </c>
+      <c r="D150" s="283">
+        <v>274.60000000000002</v>
+      </c>
+      <c r="E150" s="206">
+        <f>D150*Лист2!$B$3</f>
+        <v>19554.266</v>
+      </c>
+      <c r="F150" s="285">
+        <v>75</v>
+      </c>
+      <c r="G150" s="284">
+        <f>E150-E150*F150/100</f>
+        <v>4888.5665000000008</v>
+      </c>
+      <c r="H150" s="230"/>
+      <c r="I150" s="281"/>
+    </row>
+    <row r="151" spans="1:9" ht="15">
+      <c r="A151" s="16"/>
+      <c r="B151" s="300" t="s">
         <v>104</v>
       </c>
-      <c r="C148" s="291"/>
-      <c r="D148" s="291"/>
-      <c r="E148" s="291"/>
-      <c r="F148" s="291"/>
-      <c r="G148" s="291"/>
-      <c r="H148" s="2"/>
-    </row>
-    <row r="149" spans="1:8" ht="15">
-      <c r="A149" s="16"/>
-      <c r="B149" s="291"/>
-      <c r="C149" s="291"/>
-      <c r="D149" s="291"/>
-      <c r="E149" s="291"/>
-      <c r="F149" s="291"/>
-      <c r="G149" s="291"/>
-      <c r="H149" s="2"/>
-    </row>
-    <row r="150" spans="1:8" ht="12" customHeight="1">
-      <c r="A150" s="16"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="240"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="1:8" ht="15">
-      <c r="A151" s="16"/>
-      <c r="B151" s="56"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56"/>
+      <c r="C151" s="300"/>
+      <c r="D151" s="300"/>
+      <c r="E151" s="300"/>
+      <c r="F151" s="300"/>
+      <c r="G151" s="300"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" ht="15">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="16"/>
-      <c r="B152" s="378" t="s">
+      <c r="B152" s="300"/>
+      <c r="C152" s="300"/>
+      <c r="D152" s="300"/>
+      <c r="E152" s="300"/>
+      <c r="F152" s="300"/>
+      <c r="G152" s="300"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" ht="12" customHeight="1">
+      <c r="A153" s="16"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="240"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" ht="15">
+      <c r="A154" s="16"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="56"/>
+      <c r="D154" s="56"/>
+      <c r="E154" s="56"/>
+      <c r="F154" s="56"/>
+      <c r="G154" s="56"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" ht="15">
+      <c r="A155" s="16"/>
+      <c r="B155" s="387" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="378"/>
-      <c r="D152" s="378"/>
-      <c r="E152" s="378"/>
-      <c r="F152" s="378"/>
-      <c r="G152" s="378"/>
-      <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="1:8" ht="18" customHeight="1">
-      <c r="A153" s="16"/>
-      <c r="B153" s="379"/>
-      <c r="C153" s="379"/>
-      <c r="D153" s="379"/>
-      <c r="E153" s="379"/>
-      <c r="F153" s="379"/>
-      <c r="G153" s="379"/>
-      <c r="H153" s="2"/>
-    </row>
-    <row r="154" spans="1:8" ht="102">
-      <c r="A154" s="16"/>
-      <c r="B154" s="275" t="s">
+      <c r="C155" s="387"/>
+      <c r="D155" s="387"/>
+      <c r="E155" s="387"/>
+      <c r="F155" s="387"/>
+      <c r="G155" s="387"/>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" ht="18" customHeight="1">
+      <c r="A156" s="16"/>
+      <c r="B156" s="388"/>
+      <c r="C156" s="388"/>
+      <c r="D156" s="388"/>
+      <c r="E156" s="388"/>
+      <c r="F156" s="388"/>
+      <c r="G156" s="388"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" ht="102">
+      <c r="A157" s="16"/>
+      <c r="B157" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="C154" s="276" t="s">
+      <c r="C157" s="276" t="s">
         <v>457</v>
       </c>
-      <c r="D154" s="277" t="s">
+      <c r="D157" s="277" t="s">
         <v>450</v>
       </c>
-      <c r="E154" s="276" t="str">
+      <c r="E157" s="276" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F154" s="276" t="s">
+      <c r="F157" s="276" t="s">
         <v>455</v>
       </c>
-      <c r="G154" s="276" t="s">
+      <c r="G157" s="276" t="s">
         <v>452</v>
       </c>
-      <c r="H154" s="2"/>
-    </row>
-    <row r="155" spans="1:8" ht="12" customHeight="1">
-      <c r="A155" s="16"/>
-      <c r="B155" s="54">
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" ht="12" customHeight="1">
+      <c r="A158" s="16"/>
+      <c r="B158" s="54">
         <v>1</v>
       </c>
-      <c r="C155" s="55">
+      <c r="C158" s="55">
         <v>2</v>
       </c>
-      <c r="D155" s="55">
+      <c r="D158" s="55">
         <v>3</v>
       </c>
-      <c r="E155" s="55">
+      <c r="E158" s="55">
         <v>4</v>
       </c>
-      <c r="F155" s="251">
+      <c r="F158" s="251">
         <v>5</v>
       </c>
-      <c r="G155" s="54">
+      <c r="G158" s="54">
         <v>7</v>
       </c>
-      <c r="H155" s="2"/>
-    </row>
-    <row r="156" spans="1:8" ht="18">
-      <c r="A156" s="16"/>
-      <c r="B156" s="343" t="s">
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" ht="18">
+      <c r="A159" s="16"/>
+      <c r="B159" s="322" t="s">
         <v>413</v>
       </c>
-      <c r="C156" s="344"/>
-      <c r="D156" s="344"/>
-      <c r="E156" s="344"/>
-      <c r="F156" s="345"/>
-      <c r="G156" s="346"/>
-      <c r="H156" s="2"/>
-    </row>
-    <row r="157" spans="1:8" ht="12" customHeight="1">
-      <c r="A157" s="16"/>
-      <c r="B157" s="349" t="s">
+      <c r="C159" s="323"/>
+      <c r="D159" s="323"/>
+      <c r="E159" s="323"/>
+      <c r="F159" s="324"/>
+      <c r="G159" s="325"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" ht="12" customHeight="1">
+      <c r="A160" s="16"/>
+      <c r="B160" s="328" t="s">
         <v>215</v>
       </c>
-      <c r="C157" s="350"/>
-      <c r="D157" s="350"/>
-      <c r="E157" s="350"/>
-      <c r="F157" s="351"/>
-      <c r="G157" s="352"/>
-      <c r="H157" s="2"/>
-    </row>
-    <row r="158" spans="1:8" ht="12" customHeight="1">
-      <c r="A158" s="16"/>
-      <c r="B158" s="74" t="s">
+      <c r="C160" s="329"/>
+      <c r="D160" s="329"/>
+      <c r="E160" s="329"/>
+      <c r="F160" s="330"/>
+      <c r="G160" s="331"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" ht="12" customHeight="1">
+      <c r="A161" s="16"/>
+      <c r="B161" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C158" s="43" t="s">
+      <c r="C161" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D158" s="75">
+      <c r="D161" s="75">
         <v>135</v>
       </c>
-      <c r="E158" s="206">
-        <f>D158*Лист2!$B$3</f>
+      <c r="E161" s="206">
+        <f>D161*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="F158" s="260">
+      <c r="F161" s="260">
         <v>55</v>
       </c>
-      <c r="G158" s="75">
-        <f>E158-E158*F158/100</f>
+      <c r="G161" s="75">
+        <f>E161-E161*F161/100</f>
         <v>4326.0074999999997</v>
       </c>
-      <c r="H158" s="230"/>
-    </row>
-    <row r="159" spans="1:8" ht="63.75">
-      <c r="A159" s="16"/>
-      <c r="B159" s="66" t="s">
+      <c r="H161" s="230"/>
+    </row>
+    <row r="162" spans="1:8" ht="63.75">
+      <c r="A162" s="16"/>
+      <c r="B162" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="C159" s="43" t="s">
+      <c r="C162" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D159" s="43">
+      <c r="D162" s="43">
         <v>129.6</v>
       </c>
-      <c r="E159" s="206">
-        <f>D159*Лист2!$B$3</f>
+      <c r="E162" s="206">
+        <f>D162*Лист2!$B$3</f>
         <v>9228.8159999999989</v>
       </c>
-      <c r="F159" s="260">
+      <c r="F162" s="260">
         <v>55</v>
       </c>
-      <c r="G159" s="75">
-        <f t="shared" ref="G159:G162" si="5">E159-E159*F159/100</f>
+      <c r="G162" s="75">
+        <f t="shared" ref="G162:G165" si="5">E162-E162*F162/100</f>
         <v>4152.9671999999991</v>
       </c>
-      <c r="H159" s="230"/>
-    </row>
-    <row r="160" spans="1:8" ht="38.25">
-      <c r="A160" s="16"/>
-      <c r="B160" s="44" t="s">
+      <c r="H162" s="230"/>
+    </row>
+    <row r="163" spans="1:8" ht="38.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="C160" s="45" t="s">
+      <c r="C163" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="D160" s="45">
+      <c r="D163" s="45">
         <v>247.13</v>
       </c>
-      <c r="E160" s="206">
-        <f>D160*Лист2!$B$3</f>
+      <c r="E163" s="206">
+        <f>D163*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F160" s="260">
+      <c r="F163" s="260">
         <v>70</v>
       </c>
-      <c r="G160" s="75">
+      <c r="G163" s="75">
         <f t="shared" si="5"/>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H160" s="230"/>
-    </row>
-    <row r="161" spans="1:8" ht="51">
-      <c r="A161" s="16"/>
-      <c r="B161" s="46" t="s">
+      <c r="H163" s="230"/>
+    </row>
+    <row r="164" spans="1:8" ht="51">
+      <c r="A164" s="16"/>
+      <c r="B164" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="C161" s="45" t="s">
+      <c r="C164" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="D161" s="45">
+      <c r="D164" s="45">
         <v>741.4</v>
       </c>
-      <c r="E161" s="206">
-        <f>D161*Лист2!$B$3</f>
+      <c r="E164" s="206">
+        <f>D164*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F161" s="260">
+      <c r="F164" s="260">
         <v>70</v>
       </c>
-      <c r="G161" s="75">
+      <c r="G164" s="75">
         <f t="shared" si="5"/>
         <v>15838.528200000001</v>
       </c>
-      <c r="H161" s="230"/>
-    </row>
-    <row r="162" spans="1:8" ht="28.5">
-      <c r="A162" s="16"/>
-      <c r="B162" s="46" t="s">
+      <c r="H164" s="230"/>
+    </row>
+    <row r="165" spans="1:8" ht="28.5">
+      <c r="A165" s="16"/>
+      <c r="B165" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C162" s="45" t="s">
+      <c r="C165" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="D162" s="45">
+      <c r="D165" s="45">
         <v>247.13</v>
       </c>
-      <c r="E162" s="206">
-        <f>D162*Лист2!$B$3</f>
+      <c r="E165" s="206">
+        <f>D165*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F162" s="260">
+      <c r="F165" s="260">
         <v>70</v>
       </c>
-      <c r="G162" s="75">
+      <c r="G165" s="75">
         <f t="shared" si="5"/>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H162" s="230"/>
-    </row>
-    <row r="163" spans="1:8" ht="15">
-      <c r="A163" s="16"/>
-      <c r="B163" s="82"/>
-      <c r="C163" s="80"/>
-      <c r="D163" s="80"/>
-      <c r="E163" s="81"/>
-      <c r="F163" s="252"/>
-      <c r="G163" s="83"/>
-      <c r="H163" s="2"/>
-    </row>
-    <row r="164" spans="1:8" ht="15">
-      <c r="A164" s="16"/>
-      <c r="B164" s="353" t="s">
+      <c r="H165" s="230"/>
+    </row>
+    <row r="166" spans="1:8" ht="15">
+      <c r="A166" s="16"/>
+      <c r="B166" s="82"/>
+      <c r="C166" s="80"/>
+      <c r="D166" s="80"/>
+      <c r="E166" s="81"/>
+      <c r="F166" s="252"/>
+      <c r="G166" s="83"/>
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="1:8" ht="15">
+      <c r="A167" s="16"/>
+      <c r="B167" s="332" t="s">
         <v>217</v>
       </c>
-      <c r="C164" s="354"/>
-      <c r="D164" s="354"/>
-      <c r="E164" s="354"/>
-      <c r="F164" s="355"/>
-      <c r="G164" s="356"/>
-      <c r="H164" s="2"/>
-    </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1">
-      <c r="A165" s="16"/>
-      <c r="B165" s="74" t="s">
+      <c r="C167" s="333"/>
+      <c r="D167" s="333"/>
+      <c r="E167" s="333"/>
+      <c r="F167" s="334"/>
+      <c r="G167" s="335"/>
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="1:8" ht="15" customHeight="1">
+      <c r="A168" s="16"/>
+      <c r="B168" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C165" s="67" t="s">
+      <c r="C168" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D165" s="67">
+      <c r="D168" s="67">
         <v>94.6</v>
       </c>
-      <c r="E165" s="206">
-        <f>D165*Лист2!$B$3</f>
+      <c r="E168" s="206">
+        <f>D168*Лист2!$B$3</f>
         <v>6736.4659999999994</v>
       </c>
-      <c r="F165" s="260">
+      <c r="F168" s="260">
         <v>55</v>
       </c>
-      <c r="G165" s="76">
-        <f>E165-E165*F165/100</f>
+      <c r="G168" s="76">
+        <f>E168-E168*F168/100</f>
         <v>3031.4097000000002</v>
       </c>
-      <c r="H165" s="230"/>
-    </row>
-    <row r="166" spans="1:8" ht="51">
-      <c r="A166" s="16"/>
-      <c r="B166" s="66" t="s">
+      <c r="H168" s="230"/>
+    </row>
+    <row r="169" spans="1:8" ht="51">
+      <c r="A169" s="16"/>
+      <c r="B169" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="C166" s="67" t="s">
+      <c r="C169" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D166" s="67">
+      <c r="D169" s="67">
         <v>82.1</v>
       </c>
-      <c r="E166" s="206">
-        <f>D166*Лист2!$B$3</f>
+      <c r="E169" s="206">
+        <f>D169*Лист2!$B$3</f>
         <v>5846.3409999999994</v>
       </c>
-      <c r="F166" s="260">
+      <c r="F169" s="260">
         <v>55</v>
       </c>
-      <c r="G166" s="76">
-        <f t="shared" ref="G166:G169" si="6">E166-E166*F166/100</f>
+      <c r="G169" s="76">
+        <f t="shared" ref="G169:G172" si="6">E169-E169*F169/100</f>
         <v>2630.8534500000001</v>
       </c>
-      <c r="H166" s="230"/>
-    </row>
-    <row r="167" spans="1:8" ht="38.25">
-      <c r="A167" s="16"/>
-      <c r="B167" s="44" t="s">
+      <c r="H169" s="230"/>
+    </row>
+    <row r="170" spans="1:8" ht="38.25">
+      <c r="A170" s="16"/>
+      <c r="B170" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="C167" s="67" t="s">
+      <c r="C170" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="D167" s="67">
+      <c r="D170" s="67">
         <v>137.30000000000001</v>
       </c>
-      <c r="E167" s="206">
-        <f>D167*Лист2!$B$3</f>
+      <c r="E170" s="206">
+        <f>D170*Лист2!$B$3</f>
         <v>9777.1329999999998</v>
       </c>
-      <c r="F167" s="260">
+      <c r="F170" s="260">
         <v>70</v>
       </c>
-      <c r="G167" s="76">
+      <c r="G170" s="76">
         <f t="shared" si="6"/>
         <v>2933.1399000000001</v>
       </c>
-      <c r="H167" s="230"/>
-    </row>
-    <row r="168" spans="1:8" ht="51">
-      <c r="A168" s="16"/>
-      <c r="B168" s="46" t="s">
+      <c r="H170" s="230"/>
+    </row>
+    <row r="171" spans="1:8" ht="51">
+      <c r="A171" s="16"/>
+      <c r="B171" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="C168" s="67" t="s">
+      <c r="C171" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="D168" s="67">
+      <c r="D171" s="67">
         <v>411.9</v>
       </c>
-      <c r="E168" s="206">
-        <f>D168*Лист2!$B$3</f>
+      <c r="E171" s="206">
+        <f>D171*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="F168" s="260">
+      <c r="F171" s="260">
         <v>70</v>
       </c>
-      <c r="G168" s="76">
+      <c r="G171" s="76">
         <f t="shared" si="6"/>
         <v>8799.4196999999986</v>
       </c>
-      <c r="H168" s="230"/>
-    </row>
-    <row r="169" spans="1:8" ht="25.5">
-      <c r="A169" s="16"/>
-      <c r="B169" s="46" t="s">
+      <c r="H171" s="230"/>
+    </row>
+    <row r="172" spans="1:8" ht="25.5">
+      <c r="A172" s="16"/>
+      <c r="B172" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="C169" s="67" t="s">
+      <c r="C172" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="D169" s="67">
+      <c r="D172" s="67">
         <v>137.30000000000001</v>
       </c>
-      <c r="E169" s="206">
-        <f>D169*Лист2!$B$3</f>
+      <c r="E172" s="206">
+        <f>D172*Лист2!$B$3</f>
         <v>9777.1329999999998</v>
       </c>
-      <c r="F169" s="260">
+      <c r="F172" s="260">
         <v>70</v>
       </c>
-      <c r="G169" s="76">
+      <c r="G172" s="76">
         <f t="shared" si="6"/>
         <v>2933.1399000000001</v>
       </c>
-      <c r="H169" s="230"/>
-    </row>
-    <row r="170" spans="1:8" ht="15">
-      <c r="A170" s="16"/>
-      <c r="B170" s="77"/>
-      <c r="C170" s="78"/>
-      <c r="D170" s="78"/>
-      <c r="E170" s="79"/>
-      <c r="F170" s="79"/>
-      <c r="G170" s="84"/>
-      <c r="H170" s="2"/>
-    </row>
-    <row r="171" spans="1:8" ht="15">
-      <c r="A171" s="16"/>
-      <c r="B171" s="77"/>
-      <c r="C171" s="78"/>
-      <c r="D171" s="78"/>
-      <c r="E171" s="79"/>
-      <c r="F171" s="79"/>
-      <c r="G171" s="84"/>
-      <c r="H171" s="2"/>
-    </row>
-    <row r="172" spans="1:8" ht="18">
-      <c r="A172" s="16"/>
-      <c r="B172" s="347" t="s">
-        <v>414</v>
-      </c>
-      <c r="C172" s="347"/>
-      <c r="D172" s="347"/>
-      <c r="E172" s="347"/>
-      <c r="F172" s="348"/>
-      <c r="G172" s="347"/>
-      <c r="H172" s="2"/>
+      <c r="H172" s="230"/>
     </row>
     <row r="173" spans="1:8" ht="15">
       <c r="A173" s="16"/>
-      <c r="B173" s="349" t="s">
-        <v>215</v>
-      </c>
-      <c r="C173" s="350"/>
-      <c r="D173" s="350"/>
-      <c r="E173" s="350"/>
-      <c r="F173" s="351"/>
-      <c r="G173" s="352"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="78"/>
+      <c r="D173" s="78"/>
+      <c r="E173" s="79"/>
+      <c r="F173" s="79"/>
+      <c r="G173" s="84"/>
       <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8" ht="15">
       <c r="A174" s="16"/>
-      <c r="B174" s="74" t="s">
+      <c r="B174" s="77"/>
+      <c r="C174" s="78"/>
+      <c r="D174" s="78"/>
+      <c r="E174" s="79"/>
+      <c r="F174" s="79"/>
+      <c r="G174" s="84"/>
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="1:8" ht="18">
+      <c r="A175" s="16"/>
+      <c r="B175" s="326" t="s">
+        <v>414</v>
+      </c>
+      <c r="C175" s="326"/>
+      <c r="D175" s="326"/>
+      <c r="E175" s="326"/>
+      <c r="F175" s="327"/>
+      <c r="G175" s="326"/>
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="1:8" ht="15">
+      <c r="A176" s="16"/>
+      <c r="B176" s="328" t="s">
+        <v>215</v>
+      </c>
+      <c r="C176" s="329"/>
+      <c r="D176" s="329"/>
+      <c r="E176" s="329"/>
+      <c r="F176" s="330"/>
+      <c r="G176" s="331"/>
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="1:8" ht="15">
+      <c r="A177" s="16"/>
+      <c r="B177" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C174" s="43" t="s">
+      <c r="C177" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D174" s="75">
+      <c r="D177" s="75">
         <v>135</v>
       </c>
-      <c r="E174" s="206">
-        <f>D174*Лист2!$B$3</f>
+      <c r="E177" s="206">
+        <f>D177*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="F174" s="260">
+      <c r="F177" s="260">
         <v>55</v>
       </c>
-      <c r="G174" s="75">
-        <f>E174-E174*F174/100</f>
+      <c r="G177" s="75">
+        <f>E177-E177*F177/100</f>
         <v>4326.0074999999997</v>
       </c>
-      <c r="H174" s="230"/>
-    </row>
-    <row r="175" spans="1:8" ht="63.75">
-      <c r="A175" s="16"/>
-      <c r="B175" s="66" t="s">
+      <c r="H177" s="230"/>
+    </row>
+    <row r="178" spans="1:8" ht="63.75">
+      <c r="A178" s="16"/>
+      <c r="B178" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="C175" s="43" t="s">
+      <c r="C178" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D175" s="43">
+      <c r="D178" s="43">
         <v>129.6</v>
       </c>
-      <c r="E175" s="206">
-        <f>D175*Лист2!$B$3</f>
+      <c r="E178" s="206">
+        <f>D178*Лист2!$B$3</f>
         <v>9228.8159999999989</v>
       </c>
-      <c r="F175" s="260">
+      <c r="F178" s="260">
         <v>55</v>
       </c>
-      <c r="G175" s="75">
-        <f t="shared" ref="G175:G179" si="7">E175-E175*F175/100</f>
+      <c r="G178" s="75">
+        <f t="shared" ref="G178:G182" si="7">E178-E178*F178/100</f>
         <v>4152.9671999999991</v>
       </c>
-      <c r="H175" s="230"/>
-    </row>
-    <row r="176" spans="1:8" ht="38.25">
-      <c r="A176" s="16"/>
-      <c r="B176" s="44" t="s">
+      <c r="H178" s="230"/>
+    </row>
+    <row r="179" spans="1:8" ht="38.25">
+      <c r="A179" s="16"/>
+      <c r="B179" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="C176" s="45" t="s">
+      <c r="C179" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="D176" s="45">
+      <c r="D179" s="45">
         <v>247.13</v>
       </c>
-      <c r="E176" s="206">
-        <f>D176*Лист2!$B$3</f>
+      <c r="E179" s="206">
+        <f>D179*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F176" s="260">
+      <c r="F179" s="260">
         <v>70</v>
       </c>
-      <c r="G176" s="75">
+      <c r="G179" s="75">
         <f t="shared" si="7"/>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H176" s="230"/>
-    </row>
-    <row r="177" spans="1:8" ht="51">
-      <c r="A177" s="16"/>
-      <c r="B177" s="46" t="s">
+      <c r="H179" s="230"/>
+    </row>
+    <row r="180" spans="1:8" ht="51">
+      <c r="A180" s="16"/>
+      <c r="B180" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="C177" s="45" t="s">
+      <c r="C180" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="D177" s="45">
+      <c r="D180" s="45">
         <v>741.4</v>
       </c>
-      <c r="E177" s="206">
-        <f>D177*Лист2!$B$3</f>
+      <c r="E180" s="206">
+        <f>D180*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F177" s="260">
+      <c r="F180" s="260">
         <v>70</v>
       </c>
-      <c r="G177" s="75">
+      <c r="G180" s="75">
         <f t="shared" si="7"/>
         <v>15838.528200000001</v>
       </c>
-      <c r="H177" s="230"/>
-    </row>
-    <row r="178" spans="1:8" ht="28.5">
-      <c r="A178" s="16"/>
-      <c r="B178" s="46" t="s">
+      <c r="H180" s="230"/>
+    </row>
+    <row r="181" spans="1:8" ht="28.5">
+      <c r="A181" s="16"/>
+      <c r="B181" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C178" s="45" t="s">
+      <c r="C181" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="D178" s="45">
+      <c r="D181" s="45">
         <v>247.13</v>
       </c>
-      <c r="E178" s="206">
-        <f>D178*Лист2!$B$3</f>
+      <c r="E181" s="206">
+        <f>D181*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F178" s="260">
+      <c r="F181" s="260">
         <v>70</v>
       </c>
-      <c r="G178" s="75">
+      <c r="G181" s="75">
         <f t="shared" si="7"/>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H178" s="230"/>
-    </row>
-    <row r="179" spans="1:8" ht="28.5">
-      <c r="A179" s="16"/>
-      <c r="B179" s="46" t="s">
+      <c r="H181" s="230"/>
+    </row>
+    <row r="182" spans="1:8" ht="28.5">
+      <c r="A182" s="16"/>
+      <c r="B182" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="C179" s="67" t="s">
+      <c r="C182" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="D179" s="67">
+      <c r="D182" s="67">
         <v>741.4</v>
       </c>
-      <c r="E179" s="206">
-        <f>D179*Лист2!$B$3</f>
+      <c r="E182" s="206">
+        <f>D182*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F179" s="260">
+      <c r="F182" s="260">
         <v>55</v>
       </c>
-      <c r="G179" s="75">
+      <c r="G182" s="75">
         <f t="shared" si="7"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H179" s="230"/>
-    </row>
-    <row r="180" spans="1:8" ht="15">
-      <c r="A180" s="16"/>
-      <c r="B180" s="77"/>
-      <c r="C180" s="78"/>
-      <c r="D180" s="78"/>
-      <c r="E180" s="79"/>
-      <c r="F180" s="79"/>
-      <c r="G180" s="84"/>
-      <c r="H180" s="2"/>
-    </row>
-    <row r="181" spans="1:8" ht="15">
-      <c r="A181" s="16"/>
-      <c r="B181" s="353" t="s">
+      <c r="H182" s="230"/>
+    </row>
+    <row r="183" spans="1:8" ht="15">
+      <c r="A183" s="16"/>
+      <c r="B183" s="77"/>
+      <c r="C183" s="78"/>
+      <c r="D183" s="78"/>
+      <c r="E183" s="79"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="84"/>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8" ht="15">
+      <c r="A184" s="16"/>
+      <c r="B184" s="332" t="s">
         <v>217</v>
       </c>
-      <c r="C181" s="354"/>
-      <c r="D181" s="354"/>
-      <c r="E181" s="354"/>
-      <c r="F181" s="355"/>
-      <c r="G181" s="356"/>
-      <c r="H181" s="2"/>
-    </row>
-    <row r="182" spans="1:8" ht="15">
-      <c r="A182" s="16"/>
-      <c r="B182" s="74" t="s">
+      <c r="C184" s="333"/>
+      <c r="D184" s="333"/>
+      <c r="E184" s="333"/>
+      <c r="F184" s="334"/>
+      <c r="G184" s="335"/>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8" ht="15">
+      <c r="A185" s="16"/>
+      <c r="B185" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="C182" s="67" t="s">
+      <c r="C185" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D182" s="67">
+      <c r="D185" s="67">
         <v>94.6</v>
       </c>
-      <c r="E182" s="206">
-        <f>D182*Лист2!$B$3</f>
+      <c r="E185" s="206">
+        <f>D185*Лист2!$B$3</f>
         <v>6736.4659999999994</v>
       </c>
-      <c r="F182" s="260">
+      <c r="F185" s="260">
         <v>55</v>
       </c>
-      <c r="G182" s="76">
-        <f>E182-E182*F182/100</f>
+      <c r="G185" s="76">
+        <f>E185-E185*F185/100</f>
         <v>3031.4097000000002</v>
       </c>
-      <c r="H182" s="230"/>
-    </row>
-    <row r="183" spans="1:8" ht="51">
-      <c r="A183" s="16"/>
-      <c r="B183" s="66" t="s">
+      <c r="H185" s="230"/>
+    </row>
+    <row r="186" spans="1:8" ht="51">
+      <c r="A186" s="16"/>
+      <c r="B186" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="C183" s="67" t="s">
+      <c r="C186" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D183" s="67">
+      <c r="D186" s="67">
         <v>82.1</v>
       </c>
-      <c r="E183" s="206">
-        <f>D183*Лист2!$B$3</f>
+      <c r="E186" s="206">
+        <f>D186*Лист2!$B$3</f>
         <v>5846.3409999999994</v>
       </c>
-      <c r="F183" s="260">
+      <c r="F186" s="260">
         <v>55</v>
       </c>
-      <c r="G183" s="76">
-        <f t="shared" ref="G183:G187" si="8">E183-E183*F183/100</f>
+      <c r="G186" s="76">
+        <f t="shared" ref="G186:G190" si="8">E186-E186*F186/100</f>
         <v>2630.8534500000001</v>
       </c>
-      <c r="H183" s="230"/>
-    </row>
-    <row r="184" spans="1:8" ht="38.25">
-      <c r="A184" s="16"/>
-      <c r="B184" s="44" t="s">
+      <c r="H186" s="230"/>
+    </row>
+    <row r="187" spans="1:8" ht="38.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="C184" s="67" t="s">
+      <c r="C187" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="D184" s="67">
+      <c r="D187" s="67">
         <v>137.30000000000001</v>
       </c>
-      <c r="E184" s="206">
-        <f>D184*Лист2!$B$3</f>
+      <c r="E187" s="206">
+        <f>D187*Лист2!$B$3</f>
         <v>9777.1329999999998</v>
       </c>
-      <c r="F184" s="260">
+      <c r="F187" s="260">
         <v>70</v>
       </c>
-      <c r="G184" s="76">
+      <c r="G187" s="76">
         <f t="shared" si="8"/>
         <v>2933.1399000000001</v>
       </c>
-      <c r="H184" s="230"/>
-    </row>
-    <row r="185" spans="1:8" ht="51">
-      <c r="A185" s="16"/>
-      <c r="B185" s="46" t="s">
+      <c r="H187" s="230"/>
+    </row>
+    <row r="188" spans="1:8" ht="51">
+      <c r="A188" s="16"/>
+      <c r="B188" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="C185" s="67" t="s">
+      <c r="C188" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="D185" s="67">
+      <c r="D188" s="67">
         <v>411.9</v>
       </c>
-      <c r="E185" s="206">
-        <f>D185*Лист2!$B$3</f>
+      <c r="E188" s="206">
+        <f>D188*Лист2!$B$3</f>
         <v>29331.398999999998</v>
       </c>
-      <c r="F185" s="260">
+      <c r="F188" s="260">
         <v>70</v>
       </c>
-      <c r="G185" s="76">
+      <c r="G188" s="76">
         <f t="shared" si="8"/>
         <v>8799.4196999999986</v>
       </c>
-      <c r="H185" s="230"/>
-    </row>
-    <row r="186" spans="1:8" ht="25.5">
-      <c r="A186" s="16"/>
-      <c r="B186" s="46" t="s">
+      <c r="H188" s="230"/>
+    </row>
+    <row r="189" spans="1:8" ht="25.5">
+      <c r="A189" s="16"/>
+      <c r="B189" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="C186" s="67" t="s">
+      <c r="C189" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="D186" s="67">
+      <c r="D189" s="67">
         <v>137.30000000000001</v>
       </c>
-      <c r="E186" s="206">
-        <f>D186*Лист2!$B$3</f>
+      <c r="E189" s="206">
+        <f>D189*Лист2!$B$3</f>
         <v>9777.1329999999998</v>
       </c>
-      <c r="F186" s="260">
+      <c r="F189" s="260">
         <v>70</v>
       </c>
-      <c r="G186" s="76">
+      <c r="G189" s="76">
         <f t="shared" si="8"/>
         <v>2933.1399000000001</v>
       </c>
-      <c r="H186" s="230"/>
-    </row>
-    <row r="187" spans="1:8" ht="28.5">
-      <c r="A187" s="16"/>
-      <c r="B187" s="46" t="s">
+      <c r="H189" s="230"/>
+    </row>
+    <row r="190" spans="1:8" ht="28.5">
+      <c r="A190" s="16"/>
+      <c r="B190" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="C187" s="67" t="s">
+      <c r="C190" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="D187" s="67">
+      <c r="D190" s="67">
         <v>741.4</v>
       </c>
-      <c r="E187" s="206">
-        <f>D187*Лист2!$B$3</f>
+      <c r="E190" s="206">
+        <f>D190*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F187" s="260">
+      <c r="F190" s="260">
         <v>55</v>
       </c>
-      <c r="G187" s="76">
+      <c r="G190" s="76">
         <f t="shared" si="8"/>
         <v>23757.792299999997</v>
       </c>
-      <c r="H187" s="230"/>
-    </row>
-    <row r="188" spans="1:8" ht="15">
-      <c r="A188" s="16"/>
-      <c r="B188" s="77"/>
-      <c r="C188" s="78"/>
-      <c r="D188" s="78"/>
-      <c r="E188" s="79"/>
-      <c r="F188" s="79"/>
-      <c r="G188" s="84"/>
-      <c r="H188" s="2"/>
-    </row>
-    <row r="189" spans="1:8" ht="15">
-      <c r="A189" s="16"/>
-      <c r="B189" s="151"/>
-      <c r="C189" s="152"/>
-      <c r="D189" s="152"/>
-      <c r="E189" s="153"/>
-      <c r="F189" s="253"/>
-      <c r="G189" s="154"/>
-      <c r="H189" s="2"/>
-    </row>
-    <row r="190" spans="1:8" ht="15">
-      <c r="A190" s="16"/>
-      <c r="B190" s="102"/>
-      <c r="C190" s="103"/>
-      <c r="D190" s="103"/>
-      <c r="E190" s="104"/>
-      <c r="F190" s="252"/>
-      <c r="G190" s="105"/>
-      <c r="H190" s="2"/>
-    </row>
-    <row r="191" spans="1:8" ht="38.25" customHeight="1">
+      <c r="H190" s="230"/>
+    </row>
+    <row r="191" spans="1:8" ht="15">
       <c r="A191" s="16"/>
-      <c r="B191" s="357" t="s">
+      <c r="B191" s="77"/>
+      <c r="C191" s="78"/>
+      <c r="D191" s="78"/>
+      <c r="E191" s="79"/>
+      <c r="F191" s="79"/>
+      <c r="G191" s="84"/>
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" spans="1:8" ht="15">
+      <c r="A192" s="16"/>
+      <c r="B192" s="151"/>
+      <c r="C192" s="152"/>
+      <c r="D192" s="152"/>
+      <c r="E192" s="153"/>
+      <c r="F192" s="253"/>
+      <c r="G192" s="154"/>
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="1:8" ht="15">
+      <c r="A193" s="16"/>
+      <c r="B193" s="102"/>
+      <c r="C193" s="103"/>
+      <c r="D193" s="103"/>
+      <c r="E193" s="104"/>
+      <c r="F193" s="252"/>
+      <c r="G193" s="105"/>
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A194" s="16"/>
+      <c r="B194" s="336" t="s">
         <v>326</v>
       </c>
-      <c r="C191" s="357"/>
-      <c r="D191" s="357"/>
-      <c r="E191" s="357"/>
-      <c r="F191" s="358"/>
-      <c r="G191" s="359"/>
-      <c r="H191" s="2"/>
-    </row>
-    <row r="192" spans="1:8" ht="15" customHeight="1">
-      <c r="A192" s="16"/>
-      <c r="B192" s="100" t="s">
+      <c r="C194" s="336"/>
+      <c r="D194" s="336"/>
+      <c r="E194" s="336"/>
+      <c r="F194" s="337"/>
+      <c r="G194" s="338"/>
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="1:8" ht="15" customHeight="1">
+      <c r="A195" s="16"/>
+      <c r="B195" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="C192" s="43" t="s">
+      <c r="C195" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D192" s="75">
+      <c r="D195" s="75">
         <v>135</v>
       </c>
-      <c r="E192" s="206">
-        <f>D192*Лист2!$B$3</f>
+      <c r="E195" s="206">
+        <f>D195*Лист2!$B$3</f>
         <v>9613.3499999999985</v>
       </c>
-      <c r="F192" s="260">
+      <c r="F195" s="260">
         <v>55</v>
       </c>
-      <c r="G192" s="106">
-        <f>E192-E192*F192/100</f>
+      <c r="G195" s="106">
+        <f>E195-E195*F195/100</f>
         <v>4326.0074999999997</v>
       </c>
-      <c r="H192" s="230"/>
-    </row>
-    <row r="193" spans="1:8" ht="38.25">
-      <c r="A193" s="16"/>
-      <c r="B193" s="44" t="s">
+      <c r="H195" s="230"/>
+    </row>
+    <row r="196" spans="1:8" ht="38.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="C193" s="45" t="s">
+      <c r="C196" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="D193" s="45">
+      <c r="D196" s="45">
         <v>247.13</v>
       </c>
-      <c r="E193" s="206">
-        <f>D193*Лист2!$B$3</f>
+      <c r="E196" s="206">
+        <f>D196*Лист2!$B$3</f>
         <v>17598.127299999996</v>
       </c>
-      <c r="F193" s="260">
+      <c r="F196" s="260">
         <v>70</v>
       </c>
-      <c r="G193" s="106">
-        <f t="shared" ref="G193:G196" si="9">E193-E193*F193/100</f>
+      <c r="G196" s="106">
+        <f t="shared" ref="G196:G199" si="9">E196-E196*F196/100</f>
         <v>5279.4381899999971</v>
       </c>
-      <c r="H193" s="230"/>
-    </row>
-    <row r="194" spans="1:8" ht="25.5">
-      <c r="A194" s="16"/>
-      <c r="B194" s="46" t="s">
+      <c r="H196" s="230"/>
+    </row>
+    <row r="197" spans="1:8" ht="25.5">
+      <c r="A197" s="16"/>
+      <c r="B197" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="C194" s="45" t="s">
+      <c r="C197" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="D194" s="45">
+      <c r="D197" s="45">
         <v>494.27</v>
       </c>
-      <c r="E194" s="206">
-        <f>D194*Лист2!$B$3</f>
+      <c r="E197" s="206">
+        <f>D197*Лист2!$B$3</f>
         <v>35196.966699999997</v>
       </c>
-      <c r="F194" s="260">
+      <c r="F197" s="260">
         <v>70</v>
       </c>
-      <c r="G194" s="106">
+      <c r="G197" s="106">
         <f t="shared" si="9"/>
         <v>10559.09001</v>
       </c>
-      <c r="H194" s="230"/>
-    </row>
-    <row r="195" spans="1:8" ht="51">
-      <c r="A195" s="16"/>
-      <c r="B195" s="100" t="s">
+      <c r="H197" s="230"/>
+    </row>
+    <row r="198" spans="1:8" ht="51">
+      <c r="A198" s="16"/>
+      <c r="B198" s="100" t="s">
         <v>329</v>
       </c>
-      <c r="C195" s="101" t="s">
+      <c r="C198" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D195" s="101">
+      <c r="D198" s="101">
         <v>225</v>
       </c>
-      <c r="E195" s="206">
-        <f>D195*Лист2!$B$3</f>
+      <c r="E198" s="206">
+        <f>D198*Лист2!$B$3</f>
         <v>16022.249999999998</v>
       </c>
-      <c r="F195" s="260">
+      <c r="F198" s="260">
         <v>55</v>
       </c>
-      <c r="G195" s="106">
+      <c r="G198" s="106">
         <f t="shared" si="9"/>
         <v>7210.0124999999989</v>
       </c>
-      <c r="H195" s="230"/>
-    </row>
-    <row r="196" spans="1:8" ht="38.25">
-      <c r="A196" s="16"/>
-      <c r="B196" s="100" t="s">
+      <c r="H198" s="230"/>
+    </row>
+    <row r="199" spans="1:8" ht="38.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="100" t="s">
         <v>368</v>
       </c>
-      <c r="C196" s="101" t="s">
+      <c r="C199" s="101" t="s">
         <v>369</v>
       </c>
-      <c r="D196" s="101">
+      <c r="D199" s="101">
         <v>199.2</v>
       </c>
-      <c r="E196" s="206">
-        <f>D196*Лист2!$B$3</f>
+      <c r="E199" s="206">
+        <f>D199*Лист2!$B$3</f>
         <v>14185.031999999997</v>
       </c>
-      <c r="F196" s="260">
+      <c r="F199" s="260">
         <v>55</v>
       </c>
-      <c r="G196" s="106">
+      <c r="G199" s="106">
         <f t="shared" si="9"/>
         <v>6383.2643999999982</v>
       </c>
-      <c r="H196" s="230"/>
-    </row>
-    <row r="197" spans="1:8" ht="12" customHeight="1">
-      <c r="A197" s="16"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="240"/>
-      <c r="G197" s="107"/>
-      <c r="H197" s="2"/>
-    </row>
-    <row r="198" spans="1:8" ht="12" customHeight="1">
-      <c r="A198" s="16"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
-      <c r="F198" s="240"/>
-      <c r="G198" s="107"/>
-      <c r="H198" s="2"/>
-    </row>
-    <row r="199" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="16"/>
-      <c r="B199" s="357" t="s">
+      <c r="H199" s="230"/>
+    </row>
+    <row r="200" spans="1:8" ht="12" customHeight="1">
+      <c r="A200" s="16"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="240"/>
+      <c r="G200" s="107"/>
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="1:8" ht="12" customHeight="1">
+      <c r="A201" s="16"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="17"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="240"/>
+      <c r="G201" s="107"/>
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A202" s="16"/>
+      <c r="B202" s="336" t="s">
         <v>343</v>
       </c>
-      <c r="C199" s="357"/>
-      <c r="D199" s="357"/>
-      <c r="E199" s="357"/>
-      <c r="F199" s="358"/>
-      <c r="G199" s="359"/>
-      <c r="H199" s="2"/>
-    </row>
-    <row r="200" spans="1:8" s="211" customFormat="1" ht="102">
-      <c r="A200" s="16"/>
-      <c r="B200" s="52" t="s">
+      <c r="C202" s="336"/>
+      <c r="D202" s="336"/>
+      <c r="E202" s="336"/>
+      <c r="F202" s="337"/>
+      <c r="G202" s="338"/>
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="1:8" s="211" customFormat="1" ht="102">
+      <c r="A203" s="16"/>
+      <c r="B203" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C200" s="132" t="s">
+      <c r="C203" s="132" t="s">
         <v>457</v>
       </c>
-      <c r="D200" s="53" t="s">
+      <c r="D203" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E200" s="132" t="str">
+      <c r="E203" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F200" s="296" t="s">
+      <c r="F203" s="305" t="s">
         <v>453</v>
       </c>
-      <c r="G200" s="297"/>
-      <c r="H200" s="210"/>
-    </row>
-    <row r="201" spans="1:8" ht="12" customHeight="1">
-      <c r="A201" s="16"/>
-      <c r="B201" s="91" t="s">
+      <c r="G203" s="306"/>
+      <c r="H203" s="210"/>
+    </row>
+    <row r="204" spans="1:8" ht="12" customHeight="1">
+      <c r="A204" s="16"/>
+      <c r="B204" s="91" t="s">
         <v>349</v>
       </c>
-      <c r="C201" s="92" t="s">
+      <c r="C204" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="D201" s="123">
+      <c r="D204" s="123">
         <v>167.3</v>
       </c>
-      <c r="E201" s="206">
-        <f>D201*Лист2!$B$3</f>
+      <c r="E204" s="206">
+        <f>D204*Лист2!$B$3</f>
         <v>11913.432999999999</v>
       </c>
-      <c r="F201" s="303">
-        <f>E201*3.5</f>
+      <c r="F204" s="309">
+        <f>E204*3.5</f>
         <v>41697.015499999994</v>
       </c>
-      <c r="G201" s="304"/>
-      <c r="H201" s="2"/>
-    </row>
-    <row r="202" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
-      <c r="A202" s="16"/>
-      <c r="B202" s="164"/>
-      <c r="C202" s="165"/>
-      <c r="D202" s="166"/>
-      <c r="E202" s="167"/>
-      <c r="F202" s="167"/>
-      <c r="G202" s="168"/>
-      <c r="H202" s="162"/>
-    </row>
-    <row r="203" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
-      <c r="A203" s="16"/>
-      <c r="B203" s="164"/>
-      <c r="C203" s="165"/>
-      <c r="D203" s="166"/>
-      <c r="E203" s="167"/>
-      <c r="F203" s="167"/>
-      <c r="G203" s="168"/>
-      <c r="H203" s="162"/>
-    </row>
-    <row r="204" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
-      <c r="A204" s="16"/>
-      <c r="B204" s="164"/>
-      <c r="C204" s="165"/>
-      <c r="D204" s="166"/>
-      <c r="E204" s="167"/>
-      <c r="F204" s="167"/>
-      <c r="G204" s="168"/>
-      <c r="H204" s="162"/>
-    </row>
-    <row r="205" spans="1:8" s="163" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G204" s="310"/>
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
       <c r="A205" s="16"/>
-      <c r="B205" s="340" t="s">
+      <c r="B205" s="164"/>
+      <c r="C205" s="165"/>
+      <c r="D205" s="166"/>
+      <c r="E205" s="167"/>
+      <c r="F205" s="167"/>
+      <c r="G205" s="168"/>
+      <c r="H205" s="162"/>
+    </row>
+    <row r="206" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
+      <c r="A206" s="16"/>
+      <c r="B206" s="164"/>
+      <c r="C206" s="165"/>
+      <c r="D206" s="166"/>
+      <c r="E206" s="167"/>
+      <c r="F206" s="167"/>
+      <c r="G206" s="168"/>
+      <c r="H206" s="162"/>
+    </row>
+    <row r="207" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
+      <c r="A207" s="16"/>
+      <c r="B207" s="164"/>
+      <c r="C207" s="165"/>
+      <c r="D207" s="166"/>
+      <c r="E207" s="167"/>
+      <c r="F207" s="167"/>
+      <c r="G207" s="168"/>
+      <c r="H207" s="162"/>
+    </row>
+    <row r="208" spans="1:8" s="163" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A208" s="16"/>
+      <c r="B208" s="319" t="s">
         <v>430</v>
       </c>
-      <c r="C205" s="340"/>
-      <c r="D205" s="340"/>
-      <c r="E205" s="340"/>
-      <c r="F205" s="341"/>
-      <c r="G205" s="342"/>
-      <c r="H205" s="162"/>
-    </row>
-    <row r="206" spans="1:8" s="163" customFormat="1" ht="102">
-      <c r="A206" s="16"/>
-      <c r="B206" s="9" t="s">
+      <c r="C208" s="319"/>
+      <c r="D208" s="319"/>
+      <c r="E208" s="319"/>
+      <c r="F208" s="320"/>
+      <c r="G208" s="321"/>
+      <c r="H208" s="162"/>
+    </row>
+    <row r="209" spans="1:8" s="163" customFormat="1" ht="102">
+      <c r="A209" s="16"/>
+      <c r="B209" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C206" s="132" t="s">
+      <c r="C209" s="132" t="s">
         <v>457</v>
       </c>
-      <c r="D206" s="239" t="s">
+      <c r="D209" s="239" t="s">
         <v>450</v>
       </c>
-      <c r="E206" s="132" t="str">
+      <c r="E209" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F206" s="212" t="s">
+      <c r="F209" s="212" t="s">
         <v>455</v>
       </c>
-      <c r="G206" s="132" t="s">
+      <c r="G209" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H206" s="162"/>
-    </row>
-    <row r="207" spans="1:8" s="163" customFormat="1" ht="51">
-      <c r="A207" s="16"/>
-      <c r="B207" s="237" t="s">
+      <c r="H209" s="162"/>
+    </row>
+    <row r="210" spans="1:8" s="163" customFormat="1" ht="51">
+      <c r="A210" s="16"/>
+      <c r="B210" s="237" t="s">
         <v>422</v>
       </c>
-      <c r="C207" s="170" t="s">
+      <c r="C210" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="D207" s="171">
+      <c r="D210" s="171">
         <v>225</v>
       </c>
-      <c r="E207" s="206">
-        <f>D207*Лист2!$B$3</f>
+      <c r="E210" s="206">
+        <f>D210*Лист2!$B$3</f>
         <v>16022.249999999998</v>
       </c>
-      <c r="F207" s="260">
+      <c r="F210" s="260">
         <v>55</v>
       </c>
-      <c r="G207" s="173">
-        <f>E207-E207*F207/100</f>
+      <c r="G210" s="173">
+        <f>E210-E210*F210/100</f>
         <v>7210.0124999999989</v>
       </c>
-      <c r="H207" s="230"/>
-    </row>
-    <row r="208" spans="1:8" s="163" customFormat="1" ht="25.5">
-      <c r="A208" s="16"/>
-      <c r="B208" s="237" t="s">
+      <c r="H210" s="230"/>
+    </row>
+    <row r="211" spans="1:8" s="163" customFormat="1" ht="25.5">
+      <c r="A211" s="16"/>
+      <c r="B211" s="237" t="s">
         <v>419</v>
       </c>
-      <c r="C208" s="170" t="s">
+      <c r="C211" s="170" t="s">
         <v>369</v>
       </c>
-      <c r="D208" s="171">
+      <c r="D211" s="171">
         <v>199.2</v>
       </c>
-      <c r="E208" s="206">
-        <f>D208*Лист2!$B$3</f>
+      <c r="E211" s="206">
+        <f>D211*Лист2!$B$3</f>
         <v>14185.031999999997</v>
       </c>
-      <c r="F208" s="260">
+      <c r="F211" s="260">
         <v>55</v>
       </c>
-      <c r="G208" s="173">
-        <f t="shared" ref="G208:G210" si="10">E208-E208*F208/100</f>
+      <c r="G211" s="173">
+        <f t="shared" ref="G211:G213" si="10">E211-E211*F211/100</f>
         <v>6383.2643999999982</v>
       </c>
-      <c r="H208" s="230"/>
-    </row>
-    <row r="209" spans="1:8" s="163" customFormat="1" ht="25.5">
-      <c r="A209" s="16"/>
-      <c r="B209" s="238" t="s">
+      <c r="H211" s="230"/>
+    </row>
+    <row r="212" spans="1:8" s="163" customFormat="1" ht="25.5">
+      <c r="A212" s="16"/>
+      <c r="B212" s="238" t="s">
         <v>420</v>
       </c>
-      <c r="C209" s="170" t="s">
+      <c r="C212" s="170" t="s">
         <v>103</v>
       </c>
-      <c r="D209" s="171">
+      <c r="D212" s="171">
         <v>741.4</v>
       </c>
-      <c r="E209" s="206">
-        <f>D209*Лист2!$B$3</f>
+      <c r="E212" s="206">
+        <f>D212*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="F209" s="260">
+      <c r="F212" s="260">
         <v>75</v>
       </c>
-      <c r="G209" s="173">
+      <c r="G212" s="173">
         <f t="shared" si="10"/>
         <v>13198.773499999996</v>
       </c>
-      <c r="H209" s="230"/>
-    </row>
-    <row r="210" spans="1:8" ht="12" customHeight="1">
-      <c r="A210" s="16"/>
-      <c r="B210" s="238" t="s">
+      <c r="H212" s="230"/>
+    </row>
+    <row r="213" spans="1:8" ht="12" customHeight="1">
+      <c r="A213" s="16"/>
+      <c r="B213" s="238" t="s">
         <v>421</v>
       </c>
-      <c r="C210" s="170" t="s">
+      <c r="C213" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="D210" s="171">
+      <c r="D213" s="171">
         <v>167.7</v>
       </c>
-      <c r="E210" s="206">
-        <f>D210*Лист2!$B$3</f>
+      <c r="E213" s="206">
+        <f>D213*Лист2!$B$3</f>
         <v>11941.916999999998</v>
       </c>
-      <c r="F210" s="260">
+      <c r="F213" s="260">
         <v>75</v>
       </c>
-      <c r="G210" s="173">
+      <c r="G213" s="173">
         <f t="shared" si="10"/>
         <v>2985.4792500000003</v>
       </c>
-      <c r="H210" s="230"/>
-    </row>
-    <row r="211" spans="1:8" ht="12" customHeight="1">
-      <c r="A211" s="16"/>
-      <c r="B211" s="169"/>
-      <c r="C211" s="170"/>
-      <c r="D211" s="171"/>
-      <c r="E211" s="172"/>
-      <c r="F211" s="254"/>
-      <c r="G211" s="176"/>
-      <c r="H211" s="2"/>
-    </row>
-    <row r="212" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
-      <c r="A212" s="16"/>
-      <c r="B212" s="164"/>
-      <c r="C212" s="165"/>
-      <c r="D212" s="166"/>
-      <c r="E212" s="174"/>
-      <c r="F212" s="174"/>
-      <c r="G212" s="175"/>
-      <c r="H212" s="162"/>
-    </row>
-    <row r="213" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
-      <c r="A213" s="16"/>
-      <c r="B213" s="164"/>
-      <c r="C213" s="165"/>
-      <c r="D213" s="166"/>
-      <c r="E213" s="174"/>
-      <c r="F213" s="174"/>
-      <c r="G213" s="175"/>
-      <c r="H213" s="162"/>
-    </row>
-    <row r="214" spans="1:8" ht="33.75" customHeight="1">
+      <c r="H213" s="230"/>
+    </row>
+    <row r="214" spans="1:8" ht="12" customHeight="1">
       <c r="A214" s="16"/>
-      <c r="B214" s="383" t="s">
+      <c r="B214" s="169"/>
+      <c r="C214" s="170"/>
+      <c r="D214" s="171"/>
+      <c r="E214" s="172"/>
+      <c r="F214" s="254"/>
+      <c r="G214" s="176"/>
+      <c r="H214" s="2"/>
+    </row>
+    <row r="215" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
+      <c r="A215" s="16"/>
+      <c r="B215" s="164"/>
+      <c r="C215" s="165"/>
+      <c r="D215" s="166"/>
+      <c r="E215" s="174"/>
+      <c r="F215" s="174"/>
+      <c r="G215" s="175"/>
+      <c r="H215" s="162"/>
+    </row>
+    <row r="216" spans="1:8" s="163" customFormat="1" ht="12" customHeight="1">
+      <c r="A216" s="16"/>
+      <c r="B216" s="164"/>
+      <c r="C216" s="165"/>
+      <c r="D216" s="166"/>
+      <c r="E216" s="174"/>
+      <c r="F216" s="174"/>
+      <c r="G216" s="175"/>
+      <c r="H216" s="162"/>
+    </row>
+    <row r="217" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A217" s="16"/>
+      <c r="B217" s="392" t="s">
         <v>411</v>
       </c>
-      <c r="C214" s="384"/>
-      <c r="D214" s="384"/>
-      <c r="E214" s="384"/>
-      <c r="F214" s="385"/>
-      <c r="G214" s="384"/>
-      <c r="H214" s="2"/>
-    </row>
-    <row r="215" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A215" s="16"/>
-      <c r="B215" s="122" t="s">
+      <c r="C217" s="393"/>
+      <c r="D217" s="393"/>
+      <c r="E217" s="393"/>
+      <c r="F217" s="394"/>
+      <c r="G217" s="393"/>
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A218" s="16"/>
+      <c r="B218" s="122" t="s">
         <v>443</v>
       </c>
-      <c r="C215" s="380" t="s">
+      <c r="C218" s="389" t="s">
         <v>442</v>
       </c>
-      <c r="D215" s="381"/>
-      <c r="E215" s="381"/>
-      <c r="F215" s="382"/>
-      <c r="G215" s="381"/>
-      <c r="H215" s="2"/>
-    </row>
-    <row r="216" spans="1:8" ht="12" customHeight="1">
-      <c r="A216" s="16"/>
-      <c r="B216" s="17"/>
-      <c r="C216" s="17"/>
-      <c r="D216" s="17"/>
-      <c r="E216" s="17"/>
-      <c r="F216" s="240"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="2"/>
-    </row>
-    <row r="217" spans="1:8" ht="12" customHeight="1">
-      <c r="A217" s="16"/>
-      <c r="B217" s="17"/>
-      <c r="C217" s="17"/>
-      <c r="D217" s="17"/>
-      <c r="E217" s="17"/>
-      <c r="F217" s="240"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="2"/>
-    </row>
-    <row r="218" spans="1:8" ht="12" customHeight="1">
-      <c r="A218" s="16"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="17"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="240"/>
-      <c r="G218" s="17"/>
+      <c r="D218" s="390"/>
+      <c r="E218" s="390"/>
+      <c r="F218" s="391"/>
+      <c r="G218" s="390"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" ht="36" customHeight="1">
-      <c r="A219" s="1"/>
-      <c r="B219" s="293" t="s">
+    <row r="219" spans="1:8" ht="12" customHeight="1">
+      <c r="A219" s="16"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="240"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="1:8" ht="12" customHeight="1">
+      <c r="A220" s="16"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="240"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="1:8" ht="12" customHeight="1">
+      <c r="A221" s="16"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="240"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="2"/>
+    </row>
+    <row r="222" spans="1:8" ht="36" customHeight="1">
+      <c r="A222" s="1"/>
+      <c r="B222" s="302" t="s">
         <v>105</v>
       </c>
-      <c r="C219" s="293"/>
-      <c r="D219" s="293"/>
-      <c r="E219" s="293"/>
-      <c r="F219" s="293"/>
-      <c r="G219" s="293"/>
-      <c r="H219" s="2"/>
-    </row>
-    <row r="220" spans="1:8" ht="102">
-      <c r="A220" s="23"/>
-      <c r="B220" s="9" t="s">
+      <c r="C222" s="302"/>
+      <c r="D222" s="302"/>
+      <c r="E222" s="302"/>
+      <c r="F222" s="302"/>
+      <c r="G222" s="302"/>
+      <c r="H222" s="2"/>
+    </row>
+    <row r="223" spans="1:8" ht="102">
+      <c r="A223" s="23"/>
+      <c r="B223" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C220" s="132" t="s">
+      <c r="C223" s="132" t="s">
         <v>457</v>
       </c>
-      <c r="D220" s="239" t="s">
+      <c r="D223" s="239" t="s">
         <v>450</v>
       </c>
-      <c r="E220" s="132" t="str">
+      <c r="E223" s="132" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F220" s="212" t="s">
+      <c r="F223" s="212" t="s">
         <v>455</v>
       </c>
-      <c r="G220" s="132" t="s">
+      <c r="G223" s="132" t="s">
         <v>451</v>
       </c>
-      <c r="H220" s="2"/>
-    </row>
-    <row r="221" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A221" s="31"/>
-      <c r="B221" s="190">
+      <c r="H223" s="2"/>
+    </row>
+    <row r="224" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A224" s="31"/>
+      <c r="B224" s="190">
         <v>1</v>
       </c>
-      <c r="C221" s="191">
+      <c r="C224" s="191">
         <v>2</v>
       </c>
-      <c r="D221" s="191">
+      <c r="D224" s="191">
         <v>3</v>
       </c>
-      <c r="E221" s="191">
+      <c r="E224" s="191">
         <v>4</v>
       </c>
-      <c r="F221" s="251">
+      <c r="F224" s="251">
         <v>5</v>
       </c>
-      <c r="G221" s="54">
+      <c r="G224" s="54">
         <v>7</v>
       </c>
-      <c r="H221" s="2"/>
-    </row>
-    <row r="222" spans="1:8" ht="25.5">
-      <c r="A222" s="19"/>
-      <c r="B222" s="192" t="s">
+      <c r="H224" s="2"/>
+    </row>
+    <row r="225" spans="1:8" ht="25.5">
+      <c r="A225" s="19"/>
+      <c r="B225" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="C222" s="193" t="s">
+      <c r="C225" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="D222" s="194">
+      <c r="D225" s="194">
         <v>125.9</v>
       </c>
-      <c r="E222" s="206">
-        <f>D222*Лист2!$B$3</f>
+      <c r="E225" s="206">
+        <f>D225*Лист2!$B$3</f>
         <v>8965.3389999999999</v>
       </c>
-      <c r="F222" s="260">
+      <c r="F225" s="260">
         <v>55</v>
       </c>
-      <c r="G222" s="195">
-        <f>E222-E222*F222/100</f>
+      <c r="G225" s="195">
+        <f>E225-E225*F225/100</f>
         <v>4034.4025499999998</v>
       </c>
-      <c r="H222" s="230"/>
-    </row>
-    <row r="223" spans="1:8" s="196" customFormat="1" ht="25.5">
-      <c r="A223" s="19"/>
-      <c r="B223" s="197" t="s">
+      <c r="H225" s="230"/>
+    </row>
+    <row r="226" spans="1:8" s="196" customFormat="1" ht="25.5">
+      <c r="A226" s="19"/>
+      <c r="B226" s="197" t="s">
         <v>444</v>
       </c>
-      <c r="C223" s="198" t="s">
+      <c r="C226" s="198" t="s">
         <v>445</v>
       </c>
-      <c r="D223" s="199">
+      <c r="D226" s="199">
         <v>104.4</v>
       </c>
-      <c r="E223" s="206">
-        <f>D223*Лист2!$B$3</f>
+      <c r="E226" s="206">
+        <f>D226*Лист2!$B$3</f>
         <v>7434.3239999999996</v>
       </c>
-      <c r="F223" s="260">
+      <c r="F226" s="260">
         <v>55</v>
       </c>
-      <c r="G223" s="195">
-        <f t="shared" ref="G223:G232" si="11">E223-E223*F223/100</f>
+      <c r="G226" s="195">
+        <f t="shared" ref="G226:G235" si="11">E226-E226*F226/100</f>
         <v>3345.4457999999995</v>
       </c>
-      <c r="H223" s="230"/>
-    </row>
-    <row r="224" spans="1:8" ht="14.25">
-      <c r="A224" s="19"/>
-      <c r="B224" s="192" t="s">
+      <c r="H226" s="230"/>
+    </row>
+    <row r="227" spans="1:8" ht="14.25">
+      <c r="A227" s="19"/>
+      <c r="B227" s="192" t="s">
         <v>108</v>
       </c>
-      <c r="C224" s="193" t="s">
+      <c r="C227" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="D224" s="194">
+      <c r="D227" s="194">
         <v>3.8</v>
       </c>
-      <c r="E224" s="206">
-        <f>D224*Лист2!$B$3</f>
+      <c r="E227" s="206">
+        <f>D227*Лист2!$B$3</f>
         <v>270.59799999999996</v>
       </c>
-      <c r="F224" s="260">
+      <c r="F227" s="260">
         <v>55</v>
       </c>
-      <c r="G224" s="195">
+      <c r="G227" s="195">
         <f t="shared" si="11"/>
         <v>121.76909999999998</v>
       </c>
-      <c r="H224" s="230"/>
-    </row>
-    <row r="225" spans="1:8" ht="14.25">
-      <c r="A225" s="19"/>
-      <c r="B225" s="192" t="s">
+      <c r="H227" s="230"/>
+    </row>
+    <row r="228" spans="1:8" ht="14.25">
+      <c r="A228" s="19"/>
+      <c r="B228" s="192" t="s">
         <v>110</v>
       </c>
-      <c r="C225" s="193" t="s">
+      <c r="C228" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="D225" s="194">
+      <c r="D228" s="194">
         <v>58.3</v>
       </c>
-      <c r="E225" s="206">
-        <f>D225*Лист2!$B$3</f>
+      <c r="E228" s="206">
+        <f>D228*Лист2!$B$3</f>
         <v>4151.5429999999997</v>
       </c>
-      <c r="F225" s="260">
+      <c r="F228" s="260">
         <v>55</v>
       </c>
-      <c r="G225" s="195">
+      <c r="G228" s="195">
         <f t="shared" si="11"/>
         <v>1868.1943499999998</v>
-      </c>
-      <c r="H225" s="230"/>
-    </row>
-    <row r="226" spans="1:8" ht="14.25">
-      <c r="A226" s="19"/>
-      <c r="B226" s="192" t="s">
-        <v>112</v>
-      </c>
-      <c r="C226" s="193" t="s">
-        <v>113</v>
-      </c>
-      <c r="D226" s="194">
-        <v>21.5</v>
-      </c>
-      <c r="E226" s="206">
-        <f>D226*Лист2!$B$3</f>
-        <v>1531.0149999999999</v>
-      </c>
-      <c r="F226" s="260">
-        <v>55</v>
-      </c>
-      <c r="G226" s="195">
-        <f t="shared" si="11"/>
-        <v>688.95674999999994</v>
-      </c>
-      <c r="H226" s="230"/>
-    </row>
-    <row r="227" spans="1:8" ht="25.5">
-      <c r="A227" s="19"/>
-      <c r="B227" s="192" t="s">
-        <v>114</v>
-      </c>
-      <c r="C227" s="193" t="s">
-        <v>99</v>
-      </c>
-      <c r="D227" s="194">
-        <v>8</v>
-      </c>
-      <c r="E227" s="206">
-        <f>D227*Лист2!$B$3</f>
-        <v>569.67999999999995</v>
-      </c>
-      <c r="F227" s="260">
-        <v>55</v>
-      </c>
-      <c r="G227" s="195">
-        <f t="shared" si="11"/>
-        <v>256.35599999999999</v>
-      </c>
-      <c r="H227" s="230"/>
-    </row>
-    <row r="228" spans="1:8" ht="25.5">
-      <c r="A228" s="19"/>
-      <c r="B228" s="192" t="s">
-        <v>115</v>
-      </c>
-      <c r="C228" s="193" t="s">
-        <v>116</v>
-      </c>
-      <c r="D228" s="194">
-        <v>20.5</v>
-      </c>
-      <c r="E228" s="206">
-        <f>D228*Лист2!$B$3</f>
-        <v>1459.8049999999998</v>
-      </c>
-      <c r="F228" s="260">
-        <v>55</v>
-      </c>
-      <c r="G228" s="195">
-        <f t="shared" si="11"/>
-        <v>656.91224999999986</v>
       </c>
       <c r="H228" s="230"/>
     </row>
     <row r="229" spans="1:8" ht="14.25">
       <c r="A229" s="19"/>
       <c r="B229" s="192" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C229" s="193" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D229" s="194">
-        <v>25.4</v>
+        <v>21.5</v>
       </c>
       <c r="E229" s="206">
         <f>D229*Лист2!$B$3</f>
-        <v>1808.7339999999997</v>
+        <v>1531.0149999999999</v>
       </c>
       <c r="F229" s="260">
         <v>55</v>
       </c>
       <c r="G229" s="195">
         <f t="shared" si="11"/>
-        <v>813.93029999999987</v>
+        <v>688.95674999999994</v>
       </c>
       <c r="H229" s="230"/>
     </row>
-    <row r="230" spans="1:8" ht="14.25">
+    <row r="230" spans="1:8" ht="25.5">
       <c r="A230" s="19"/>
       <c r="B230" s="192" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C230" s="193" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D230" s="194">
-        <v>18.2</v>
+        <v>8</v>
       </c>
       <c r="E230" s="206">
         <f>D230*Лист2!$B$3</f>
-        <v>1296.0219999999999</v>
+        <v>569.67999999999995</v>
       </c>
       <c r="F230" s="260">
         <v>55</v>
       </c>
       <c r="G230" s="195">
         <f t="shared" si="11"/>
-        <v>583.20990000000006</v>
+        <v>256.35599999999999</v>
       </c>
       <c r="H230" s="230"/>
     </row>
-    <row r="231" spans="1:8" ht="14.25">
+    <row r="231" spans="1:8" ht="25.5">
       <c r="A231" s="19"/>
       <c r="B231" s="192" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="C231" s="193" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="D231" s="194">
-        <v>8.6</v>
+        <v>20.5</v>
       </c>
       <c r="E231" s="206">
         <f>D231*Лист2!$B$3</f>
-        <v>612.40599999999995</v>
+        <v>1459.8049999999998</v>
       </c>
       <c r="F231" s="260">
         <v>55</v>
       </c>
       <c r="G231" s="195">
         <f t="shared" si="11"/>
-        <v>275.58269999999999</v>
+        <v>656.91224999999986</v>
       </c>
       <c r="H231" s="230"/>
     </row>
-    <row r="232" spans="1:8" s="182" customFormat="1" ht="14.25">
+    <row r="232" spans="1:8" ht="14.25">
       <c r="A232" s="19"/>
       <c r="B232" s="192" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="C232" s="193" t="s">
-        <v>429</v>
+        <v>118</v>
       </c>
       <c r="D232" s="194">
-        <v>10.9</v>
+        <v>25.4</v>
       </c>
       <c r="E232" s="206">
         <f>D232*Лист2!$B$3</f>
-        <v>776.18899999999996</v>
+        <v>1808.7339999999997</v>
       </c>
       <c r="F232" s="260">
         <v>55</v>
       </c>
       <c r="G232" s="195">
         <f t="shared" si="11"/>
+        <v>813.93029999999987</v>
+      </c>
+      <c r="H232" s="230"/>
+    </row>
+    <row r="233" spans="1:8" ht="14.25">
+      <c r="A233" s="19"/>
+      <c r="B233" s="192" t="s">
+        <v>119</v>
+      </c>
+      <c r="C233" s="193" t="s">
+        <v>120</v>
+      </c>
+      <c r="D233" s="194">
+        <v>18.2</v>
+      </c>
+      <c r="E233" s="206">
+        <f>D233*Лист2!$B$3</f>
+        <v>1296.0219999999999</v>
+      </c>
+      <c r="F233" s="260">
+        <v>55</v>
+      </c>
+      <c r="G233" s="195">
+        <f t="shared" si="11"/>
+        <v>583.20990000000006</v>
+      </c>
+      <c r="H233" s="230"/>
+    </row>
+    <row r="234" spans="1:8" ht="14.25">
+      <c r="A234" s="19"/>
+      <c r="B234" s="192" t="s">
+        <v>314</v>
+      </c>
+      <c r="C234" s="193" t="s">
+        <v>352</v>
+      </c>
+      <c r="D234" s="194">
+        <v>8.6</v>
+      </c>
+      <c r="E234" s="206">
+        <f>D234*Лист2!$B$3</f>
+        <v>612.40599999999995</v>
+      </c>
+      <c r="F234" s="260">
+        <v>55</v>
+      </c>
+      <c r="G234" s="195">
+        <f t="shared" si="11"/>
+        <v>275.58269999999999</v>
+      </c>
+      <c r="H234" s="230"/>
+    </row>
+    <row r="235" spans="1:8" s="182" customFormat="1" ht="14.25">
+      <c r="A235" s="19"/>
+      <c r="B235" s="192" t="s">
+        <v>245</v>
+      </c>
+      <c r="C235" s="193" t="s">
+        <v>429</v>
+      </c>
+      <c r="D235" s="194">
+        <v>10.9</v>
+      </c>
+      <c r="E235" s="206">
+        <f>D235*Лист2!$B$3</f>
+        <v>776.18899999999996</v>
+      </c>
+      <c r="F235" s="260">
+        <v>55</v>
+      </c>
+      <c r="G235" s="195">
+        <f t="shared" si="11"/>
         <v>349.28505000000001</v>
       </c>
-      <c r="H232" s="230"/>
-    </row>
-    <row r="233" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A233" s="32"/>
-      <c r="B233" s="291" t="s">
+      <c r="H235" s="230"/>
+    </row>
+    <row r="236" spans="1:8" ht="27.6" customHeight="1">
+      <c r="A236" s="32"/>
+      <c r="B236" s="300" t="s">
         <v>121</v>
       </c>
-      <c r="C233" s="291"/>
-      <c r="D233" s="291"/>
-      <c r="E233" s="291"/>
-      <c r="F233" s="291"/>
-      <c r="G233" s="291"/>
-      <c r="H233" s="2"/>
-    </row>
-    <row r="234" spans="1:8" ht="15" customHeight="1">
-      <c r="A234" s="32"/>
-      <c r="B234" s="32"/>
-      <c r="C234" s="19"/>
-      <c r="D234" s="20"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="22"/>
-      <c r="H234" s="2"/>
-    </row>
-    <row r="235" spans="1:8" ht="15" customHeight="1">
-      <c r="A235" s="32"/>
-      <c r="B235" s="32"/>
-      <c r="C235" s="19"/>
-      <c r="D235" s="20"/>
-      <c r="E235" s="21"/>
-      <c r="F235" s="21"/>
-      <c r="G235" s="22"/>
-      <c r="H235" s="2"/>
-    </row>
-    <row r="236" spans="1:8" ht="36" customHeight="1">
-      <c r="A236" s="7"/>
-      <c r="B236" s="294" t="s">
+      <c r="C236" s="300"/>
+      <c r="D236" s="300"/>
+      <c r="E236" s="300"/>
+      <c r="F236" s="300"/>
+      <c r="G236" s="300"/>
+      <c r="H236" s="2"/>
+    </row>
+    <row r="237" spans="1:8" ht="15" customHeight="1">
+      <c r="A237" s="32"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="20"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="22"/>
+      <c r="H237" s="2"/>
+    </row>
+    <row r="238" spans="1:8" ht="15" customHeight="1">
+      <c r="A238" s="32"/>
+      <c r="B238" s="32"/>
+      <c r="C238" s="19"/>
+      <c r="D238" s="20"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="22"/>
+      <c r="H238" s="2"/>
+    </row>
+    <row r="239" spans="1:8" ht="36" customHeight="1">
+      <c r="A239" s="7"/>
+      <c r="B239" s="303" t="s">
         <v>122</v>
       </c>
-      <c r="C236" s="294"/>
-      <c r="D236" s="295"/>
-      <c r="E236" s="295"/>
-      <c r="F236" s="295"/>
-      <c r="G236" s="295"/>
-      <c r="H236" s="2"/>
-    </row>
-    <row r="237" spans="1:8" ht="114.75" customHeight="1">
-      <c r="A237" s="23"/>
-      <c r="B237" s="201" t="s">
+      <c r="C239" s="303"/>
+      <c r="D239" s="304"/>
+      <c r="E239" s="304"/>
+      <c r="F239" s="304"/>
+      <c r="G239" s="304"/>
+      <c r="H239" s="2"/>
+    </row>
+    <row r="240" spans="1:8" ht="114.75" customHeight="1">
+      <c r="A240" s="23"/>
+      <c r="B240" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="C237" s="132" t="s">
+      <c r="C240" s="132" t="s">
         <v>457</v>
       </c>
-      <c r="D237" s="360" t="s">
+      <c r="D240" s="339" t="s">
         <v>450</v>
       </c>
-      <c r="E237" s="360"/>
-      <c r="F237" s="361" t="str">
+      <c r="E240" s="339"/>
+      <c r="F240" s="340" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="G237" s="362"/>
-      <c r="H237" s="14"/>
-    </row>
-    <row r="238" spans="1:8" ht="25.5">
-      <c r="A238" s="15"/>
-      <c r="B238" s="203" t="s">
-        <v>123</v>
-      </c>
-      <c r="C238" s="207" t="s">
-        <v>124</v>
-      </c>
-      <c r="D238" s="290" t="s">
-        <v>125</v>
-      </c>
-      <c r="E238" s="290"/>
-      <c r="F238" s="288">
-        <f>D238*Лист2!$B$3</f>
-        <v>498.46999999999997</v>
-      </c>
-      <c r="G238" s="289"/>
-      <c r="H238" s="14"/>
-    </row>
-    <row r="239" spans="1:8" ht="25.5">
-      <c r="A239" s="15"/>
-      <c r="B239" s="203" t="s">
-        <v>126</v>
-      </c>
-      <c r="C239" s="207" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="290" t="s">
-        <v>127</v>
-      </c>
-      <c r="E239" s="290"/>
-      <c r="F239" s="288">
-        <f>D239*Лист2!$B$3</f>
-        <v>284.83999999999997</v>
-      </c>
-      <c r="G239" s="289"/>
-      <c r="H239" s="14"/>
-    </row>
-    <row r="240" spans="1:8" ht="14.25">
-      <c r="A240" s="15"/>
-      <c r="B240" s="203" t="s">
-        <v>128</v>
-      </c>
-      <c r="C240" s="207" t="s">
-        <v>17</v>
-      </c>
-      <c r="D240" s="290">
-        <v>20.2</v>
-      </c>
-      <c r="E240" s="290"/>
-      <c r="F240" s="288">
-        <f>D240*Лист2!$B$3</f>
-        <v>1438.4419999999998</v>
-      </c>
-      <c r="G240" s="289"/>
+      <c r="G240" s="341"/>
       <c r="H240" s="14"/>
     </row>
-    <row r="241" spans="1:8" ht="14.25">
+    <row r="241" spans="1:8" ht="25.5">
       <c r="A241" s="15"/>
       <c r="B241" s="203" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C241" s="207" t="s">
-        <v>13</v>
-      </c>
-      <c r="D241" s="290" t="s">
-        <v>131</v>
-      </c>
-      <c r="E241" s="290"/>
-      <c r="F241" s="288">
+        <v>124</v>
+      </c>
+      <c r="D241" s="299" t="s">
+        <v>125</v>
+      </c>
+      <c r="E241" s="299"/>
+      <c r="F241" s="297">
         <f>D241*Лист2!$B$3</f>
-        <v>512.71199999999999</v>
-      </c>
-      <c r="G241" s="289"/>
+        <v>498.46999999999997</v>
+      </c>
+      <c r="G241" s="298"/>
       <c r="H241" s="14"/>
     </row>
     <row r="242" spans="1:8" ht="25.5">
       <c r="A242" s="15"/>
       <c r="B242" s="203" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C242" s="207" t="s">
-        <v>19</v>
-      </c>
-      <c r="D242" s="290">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="E242" s="290"/>
-      <c r="F242" s="288">
+        <v>9</v>
+      </c>
+      <c r="D242" s="299" t="s">
+        <v>127</v>
+      </c>
+      <c r="E242" s="299"/>
+      <c r="F242" s="297">
         <f>D242*Лист2!$B$3</f>
-        <v>1395.7159999999999</v>
-      </c>
-      <c r="G242" s="289"/>
+        <v>284.83999999999997</v>
+      </c>
+      <c r="G242" s="298"/>
       <c r="H242" s="14"/>
     </row>
-    <row r="243" spans="1:8" ht="38.25">
+    <row r="243" spans="1:8" ht="14.25">
       <c r="A243" s="15"/>
       <c r="B243" s="203" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C243" s="207" t="s">
-        <v>78</v>
-      </c>
-      <c r="D243" s="290" t="s">
-        <v>134</v>
-      </c>
-      <c r="E243" s="290"/>
-      <c r="F243" s="288">
+        <v>17</v>
+      </c>
+      <c r="D243" s="299">
+        <v>20.2</v>
+      </c>
+      <c r="E243" s="299"/>
+      <c r="F243" s="297">
         <f>D243*Лист2!$B$3</f>
-        <v>2848.3999999999996</v>
-      </c>
-      <c r="G243" s="289"/>
+        <v>1438.4419999999998</v>
+      </c>
+      <c r="G243" s="298"/>
       <c r="H243" s="14"/>
     </row>
     <row r="244" spans="1:8" ht="14.25">
       <c r="A244" s="15"/>
       <c r="B244" s="203" t="s">
-        <v>135</v>
-      </c>
-      <c r="C244" s="204" t="s">
-        <v>99</v>
-      </c>
-      <c r="D244" s="290">
-        <v>8</v>
-      </c>
-      <c r="E244" s="290"/>
-      <c r="F244" s="288">
+        <v>130</v>
+      </c>
+      <c r="C244" s="207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" s="299" t="s">
+        <v>131</v>
+      </c>
+      <c r="E244" s="299"/>
+      <c r="F244" s="297">
         <f>D244*Лист2!$B$3</f>
-        <v>569.67999999999995</v>
-      </c>
-      <c r="G244" s="289"/>
+        <v>512.71199999999999</v>
+      </c>
+      <c r="G244" s="298"/>
       <c r="H244" s="14"/>
     </row>
     <row r="245" spans="1:8" ht="25.5">
       <c r="A245" s="15"/>
       <c r="B245" s="203" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C245" s="207" t="s">
-        <v>46</v>
-      </c>
-      <c r="D245" s="290" t="s">
-        <v>137</v>
-      </c>
-      <c r="E245" s="290"/>
-      <c r="F245" s="288">
+        <v>19</v>
+      </c>
+      <c r="D245" s="299">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E245" s="299"/>
+      <c r="F245" s="297">
         <f>D245*Лист2!$B$3</f>
-        <v>7256.299</v>
-      </c>
-      <c r="G245" s="289"/>
+        <v>1395.7159999999999</v>
+      </c>
+      <c r="G245" s="298"/>
       <c r="H245" s="14"/>
     </row>
-    <row r="246" spans="1:8" ht="25.5">
+    <row r="246" spans="1:8" ht="38.25">
       <c r="A246" s="15"/>
       <c r="B246" s="203" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C246" s="207" t="s">
-        <v>46</v>
-      </c>
-      <c r="D246" s="290" t="s">
-        <v>137</v>
-      </c>
-      <c r="E246" s="290"/>
-      <c r="F246" s="288">
+        <v>78</v>
+      </c>
+      <c r="D246" s="299" t="s">
+        <v>134</v>
+      </c>
+      <c r="E246" s="299"/>
+      <c r="F246" s="297">
         <f>D246*Лист2!$B$3</f>
-        <v>7256.299</v>
-      </c>
-      <c r="G246" s="289"/>
+        <v>2848.3999999999996</v>
+      </c>
+      <c r="G246" s="298"/>
       <c r="H246" s="14"/>
     </row>
-    <row r="247" spans="1:8" ht="38.25">
+    <row r="247" spans="1:8" ht="14.25">
       <c r="A247" s="15"/>
       <c r="B247" s="203" t="s">
-        <v>139</v>
-      </c>
-      <c r="C247" s="207" t="s">
-        <v>102</v>
-      </c>
-      <c r="D247" s="290" t="s">
-        <v>140</v>
-      </c>
-      <c r="E247" s="290"/>
-      <c r="F247" s="288">
+        <v>135</v>
+      </c>
+      <c r="C247" s="204" t="s">
+        <v>99</v>
+      </c>
+      <c r="D247" s="299">
+        <v>8</v>
+      </c>
+      <c r="E247" s="299"/>
+      <c r="F247" s="297">
         <f>D247*Лист2!$B$3</f>
-        <v>11941.916999999998</v>
-      </c>
-      <c r="G247" s="289"/>
+        <v>569.67999999999995</v>
+      </c>
+      <c r="G247" s="298"/>
       <c r="H247" s="14"/>
     </row>
-    <row r="248" spans="1:8" ht="51">
+    <row r="248" spans="1:8" ht="25.5">
       <c r="A248" s="15"/>
       <c r="B248" s="203" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C248" s="207" t="s">
-        <v>142</v>
-      </c>
-      <c r="D248" s="290" t="s">
-        <v>143</v>
-      </c>
-      <c r="E248" s="290"/>
-      <c r="F248" s="288">
+        <v>46</v>
+      </c>
+      <c r="D248" s="299" t="s">
+        <v>137</v>
+      </c>
+      <c r="E248" s="299"/>
+      <c r="F248" s="297">
         <f>D248*Лист2!$B$3</f>
-        <v>26810.564999999999</v>
-      </c>
-      <c r="G248" s="289"/>
+        <v>7256.299</v>
+      </c>
+      <c r="G248" s="298"/>
       <c r="H248" s="14"/>
     </row>
-    <row r="249" spans="1:8" ht="51">
+    <row r="249" spans="1:8" ht="25.5">
       <c r="A249" s="15"/>
       <c r="B249" s="203" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C249" s="207" t="s">
-        <v>142</v>
-      </c>
-      <c r="D249" s="290" t="s">
-        <v>143</v>
-      </c>
-      <c r="E249" s="290"/>
-      <c r="F249" s="288">
+        <v>46</v>
+      </c>
+      <c r="D249" s="299" t="s">
+        <v>137</v>
+      </c>
+      <c r="E249" s="299"/>
+      <c r="F249" s="297">
         <f>D249*Лист2!$B$3</f>
-        <v>26810.564999999999</v>
-      </c>
-      <c r="G249" s="289"/>
+        <v>7256.299</v>
+      </c>
+      <c r="G249" s="298"/>
       <c r="H249" s="14"/>
     </row>
     <row r="250" spans="1:8" ht="38.25">
       <c r="A250" s="15"/>
       <c r="B250" s="203" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C250" s="207" t="s">
-        <v>103</v>
-      </c>
-      <c r="D250" s="290" t="s">
-        <v>146</v>
-      </c>
-      <c r="E250" s="290"/>
-      <c r="F250" s="288">
+        <v>102</v>
+      </c>
+      <c r="D250" s="299" t="s">
+        <v>140</v>
+      </c>
+      <c r="E250" s="299"/>
+      <c r="F250" s="297">
         <f>D250*Лист2!$B$3</f>
-        <v>52795.093999999997</v>
-      </c>
-      <c r="G250" s="289"/>
+        <v>11941.916999999998</v>
+      </c>
+      <c r="G250" s="298"/>
       <c r="H250" s="14"/>
     </row>
-    <row r="251" spans="1:8" ht="38.25">
+    <row r="251" spans="1:8" ht="51">
       <c r="A251" s="15"/>
       <c r="B251" s="203" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C251" s="207" t="s">
-        <v>148</v>
-      </c>
-      <c r="D251" s="290">
-        <v>411.9</v>
-      </c>
-      <c r="E251" s="290"/>
-      <c r="F251" s="288">
+        <v>142</v>
+      </c>
+      <c r="D251" s="299" t="s">
+        <v>143</v>
+      </c>
+      <c r="E251" s="299"/>
+      <c r="F251" s="297">
         <f>D251*Лист2!$B$3</f>
-        <v>29331.398999999998</v>
-      </c>
-      <c r="G251" s="289"/>
+        <v>26810.564999999999</v>
+      </c>
+      <c r="G251" s="298"/>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="1:8" ht="38.25">
+    <row r="252" spans="1:8" ht="51">
       <c r="A252" s="15"/>
       <c r="B252" s="203" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C252" s="207" t="s">
-        <v>39</v>
-      </c>
-      <c r="D252" s="290">
-        <v>114.4</v>
-      </c>
-      <c r="E252" s="290"/>
-      <c r="F252" s="288">
+        <v>142</v>
+      </c>
+      <c r="D252" s="299" t="s">
+        <v>143</v>
+      </c>
+      <c r="E252" s="299"/>
+      <c r="F252" s="297">
         <f>D252*Лист2!$B$3</f>
-        <v>8146.424</v>
-      </c>
-      <c r="G252" s="289"/>
+        <v>26810.564999999999</v>
+      </c>
+      <c r="G252" s="298"/>
       <c r="H252" s="14"/>
     </row>
     <row r="253" spans="1:8" ht="38.25">
       <c r="A253" s="15"/>
       <c r="B253" s="203" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C253" s="207" t="s">
-        <v>35</v>
-      </c>
-      <c r="D253" s="365" t="s">
-        <v>151</v>
-      </c>
-      <c r="E253" s="365"/>
-      <c r="F253" s="288">
+        <v>103</v>
+      </c>
+      <c r="D253" s="299" t="s">
+        <v>146</v>
+      </c>
+      <c r="E253" s="299"/>
+      <c r="F253" s="297">
         <f>D253*Лист2!$B$3</f>
-        <v>9613.3499999999985</v>
-      </c>
-      <c r="G253" s="289"/>
-      <c r="H253" s="231"/>
-    </row>
-    <row r="254" spans="1:8" ht="25.5">
+        <v>52795.093999999997</v>
+      </c>
+      <c r="G253" s="298"/>
+      <c r="H253" s="14"/>
+    </row>
+    <row r="254" spans="1:8" ht="38.25">
       <c r="A254" s="15"/>
       <c r="B254" s="203" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C254" s="207" t="s">
-        <v>103</v>
-      </c>
-      <c r="D254" s="365">
-        <v>741.4</v>
-      </c>
-      <c r="E254" s="365"/>
-      <c r="F254" s="288">
+        <v>148</v>
+      </c>
+      <c r="D254" s="299">
+        <v>411.9</v>
+      </c>
+      <c r="E254" s="299"/>
+      <c r="F254" s="297">
         <f>D254*Лист2!$B$3</f>
-        <v>52795.093999999997</v>
-      </c>
-      <c r="G254" s="289"/>
-      <c r="H254" s="232"/>
-    </row>
-    <row r="255" spans="1:8" ht="14.25">
+        <v>29331.398999999998</v>
+      </c>
+      <c r="G254" s="298"/>
+      <c r="H254" s="14"/>
+    </row>
+    <row r="255" spans="1:8" ht="38.25">
       <c r="A255" s="15"/>
       <c r="B255" s="203" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C255" s="207" t="s">
-        <v>37</v>
-      </c>
-      <c r="D255" s="290">
-        <v>225.5</v>
-      </c>
-      <c r="E255" s="290"/>
-      <c r="F255" s="288">
+        <v>39</v>
+      </c>
+      <c r="D255" s="299">
+        <v>114.4</v>
+      </c>
+      <c r="E255" s="299"/>
+      <c r="F255" s="297">
         <f>D255*Лист2!$B$3</f>
-        <v>16057.854999999998</v>
-      </c>
-      <c r="G255" s="289"/>
-      <c r="H255" s="231"/>
-    </row>
-    <row r="256" spans="1:8" ht="25.5">
+        <v>8146.424</v>
+      </c>
+      <c r="G255" s="298"/>
+      <c r="H255" s="14"/>
+    </row>
+    <row r="256" spans="1:8" ht="38.25">
       <c r="A256" s="15"/>
       <c r="B256" s="203" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C256" s="207" t="s">
-        <v>17</v>
-      </c>
-      <c r="D256" s="290">
-        <v>20.2</v>
-      </c>
-      <c r="E256" s="290"/>
-      <c r="F256" s="288">
+        <v>35</v>
+      </c>
+      <c r="D256" s="372" t="s">
+        <v>151</v>
+      </c>
+      <c r="E256" s="372"/>
+      <c r="F256" s="297">
         <f>D256*Лист2!$B$3</f>
-        <v>1438.4419999999998</v>
-      </c>
-      <c r="G256" s="289"/>
+        <v>9613.3499999999985</v>
+      </c>
+      <c r="G256" s="298"/>
       <c r="H256" s="231"/>
     </row>
     <row r="257" spans="1:8" ht="25.5">
       <c r="A257" s="15"/>
       <c r="B257" s="203" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C257" s="207" t="s">
-        <v>15</v>
-      </c>
-      <c r="D257" s="290" t="s">
-        <v>129</v>
-      </c>
-      <c r="E257" s="290"/>
-      <c r="F257" s="288">
+        <v>103</v>
+      </c>
+      <c r="D257" s="372">
+        <v>741.4</v>
+      </c>
+      <c r="E257" s="372"/>
+      <c r="F257" s="297">
         <f>D257*Лист2!$B$3</f>
-        <v>1296.0219999999999</v>
-      </c>
-      <c r="G257" s="289"/>
-      <c r="H257" s="231"/>
-    </row>
-    <row r="258" spans="1:8" ht="25.5">
+        <v>52795.093999999997</v>
+      </c>
+      <c r="G257" s="298"/>
+      <c r="H257" s="232"/>
+    </row>
+    <row r="258" spans="1:8" ht="14.25">
       <c r="A258" s="15"/>
       <c r="B258" s="203" t="s">
+        <v>153</v>
+      </c>
+      <c r="C258" s="207" t="s">
+        <v>37</v>
+      </c>
+      <c r="D258" s="299">
+        <v>225.5</v>
+      </c>
+      <c r="E258" s="299"/>
+      <c r="F258" s="297">
+        <f>D258*Лист2!$B$3</f>
+        <v>16057.854999999998</v>
+      </c>
+      <c r="G258" s="298"/>
+      <c r="H258" s="231"/>
+    </row>
+    <row r="259" spans="1:8" ht="25.5">
+      <c r="A259" s="15"/>
+      <c r="B259" s="203" t="s">
+        <v>154</v>
+      </c>
+      <c r="C259" s="207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="299">
+        <v>20.2</v>
+      </c>
+      <c r="E259" s="299"/>
+      <c r="F259" s="297">
+        <f>D259*Лист2!$B$3</f>
+        <v>1438.4419999999998</v>
+      </c>
+      <c r="G259" s="298"/>
+      <c r="H259" s="231"/>
+    </row>
+    <row r="260" spans="1:8" ht="25.5">
+      <c r="A260" s="15"/>
+      <c r="B260" s="203" t="s">
+        <v>155</v>
+      </c>
+      <c r="C260" s="207" t="s">
+        <v>15</v>
+      </c>
+      <c r="D260" s="299" t="s">
+        <v>129</v>
+      </c>
+      <c r="E260" s="299"/>
+      <c r="F260" s="297">
+        <f>D260*Лист2!$B$3</f>
+        <v>1296.0219999999999</v>
+      </c>
+      <c r="G260" s="298"/>
+      <c r="H260" s="231"/>
+    </row>
+    <row r="261" spans="1:8" ht="25.5">
+      <c r="A261" s="15"/>
+      <c r="B261" s="203" t="s">
         <v>156</v>
       </c>
-      <c r="C258" s="207" t="s">
+      <c r="C261" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="D258" s="290">
+      <c r="D261" s="299">
         <v>741.4</v>
       </c>
-      <c r="E258" s="290"/>
-      <c r="F258" s="288">
-        <f>D258*Лист2!$B$3</f>
+      <c r="E261" s="299"/>
+      <c r="F261" s="297">
+        <f>D261*Лист2!$B$3</f>
         <v>52795.093999999997</v>
       </c>
-      <c r="G258" s="289"/>
-      <c r="H258" s="14"/>
-    </row>
-    <row r="259" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A259" s="33"/>
-      <c r="B259" s="291"/>
-      <c r="C259" s="291"/>
-      <c r="D259" s="291"/>
-      <c r="E259" s="291"/>
-      <c r="F259" s="291"/>
-      <c r="G259" s="291"/>
-      <c r="H259" s="2"/>
-    </row>
-    <row r="260" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A260" s="33"/>
-      <c r="B260" s="17"/>
-      <c r="C260" s="17"/>
-      <c r="D260" s="17"/>
-      <c r="E260" s="17"/>
-      <c r="F260" s="240"/>
-      <c r="G260" s="17"/>
-      <c r="H260" s="2"/>
-    </row>
-    <row r="261" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A261" s="33"/>
-      <c r="B261" s="17"/>
-      <c r="C261" s="17"/>
-      <c r="D261" s="17"/>
-      <c r="E261" s="17"/>
-      <c r="F261" s="240"/>
-      <c r="G261" s="17"/>
-      <c r="H261" s="2"/>
+      <c r="G261" s="298"/>
+      <c r="H261" s="14"/>
     </row>
     <row r="262" spans="1:8" ht="23.25" customHeight="1">
       <c r="A262" s="33"/>
-      <c r="B262" s="17"/>
-      <c r="C262" s="17"/>
-      <c r="D262" s="17"/>
-      <c r="E262" s="17"/>
-      <c r="F262" s="240"/>
-      <c r="G262" s="17"/>
+      <c r="B262" s="300"/>
+      <c r="C262" s="300"/>
+      <c r="D262" s="300"/>
+      <c r="E262" s="300"/>
+      <c r="F262" s="300"/>
+      <c r="G262" s="300"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="1:8" ht="30" customHeight="1">
-      <c r="A263" s="34"/>
-      <c r="B263" s="366" t="s">
+    <row r="263" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A263" s="33"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="17"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="17"/>
+      <c r="F263" s="240"/>
+      <c r="G263" s="17"/>
+      <c r="H263" s="2"/>
+    </row>
+    <row r="264" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A264" s="33"/>
+      <c r="B264" s="17"/>
+      <c r="C264" s="17"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="240"/>
+      <c r="G264" s="17"/>
+      <c r="H264" s="2"/>
+    </row>
+    <row r="265" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A265" s="33"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
+      <c r="F265" s="240"/>
+      <c r="G265" s="17"/>
+      <c r="H265" s="2"/>
+    </row>
+    <row r="266" spans="1:8" ht="30" customHeight="1">
+      <c r="A266" s="34"/>
+      <c r="B266" s="375" t="s">
         <v>212</v>
       </c>
-      <c r="C263" s="366"/>
-      <c r="D263" s="366"/>
-      <c r="E263" s="366"/>
-      <c r="F263" s="367"/>
-      <c r="G263" s="366"/>
-      <c r="H263" s="2"/>
-    </row>
-    <row r="264" spans="1:8" ht="102">
-      <c r="A264" s="35"/>
-      <c r="B264" s="233" t="s">
+      <c r="C266" s="375"/>
+      <c r="D266" s="375"/>
+      <c r="E266" s="375"/>
+      <c r="F266" s="376"/>
+      <c r="G266" s="375"/>
+      <c r="H266" s="2"/>
+    </row>
+    <row r="267" spans="1:8" ht="102">
+      <c r="A267" s="35"/>
+      <c r="B267" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="C264" s="132" t="s">
+      <c r="C267" s="132" t="s">
         <v>457</v>
       </c>
-      <c r="D264" s="239" t="s">
+      <c r="D267" s="239" t="s">
         <v>450</v>
       </c>
-      <c r="E264" s="234" t="str">
+      <c r="E267" s="234" t="str">
         <f>CONCATENATE(Лист2!$B$2,Лист2!$B$3,Лист2!$B$4)</f>
         <v>Цена по СБЦ с учетом  индекса изменения  сметной стоимости Минстроя России на IV кв 2024 г.: (71,21) руб.</v>
       </c>
-      <c r="F264" s="212" t="s">
+      <c r="F267" s="212" t="s">
         <v>455</v>
       </c>
-      <c r="G264" s="234" t="s">
+      <c r="G267" s="234" t="s">
         <v>451</v>
       </c>
-      <c r="H264" s="2"/>
-    </row>
-    <row r="265" spans="1:8" ht="14.25">
-      <c r="A265" s="36"/>
-      <c r="B265" s="235">
-        <v>1</v>
-      </c>
-      <c r="C265" s="236">
-        <v>2</v>
-      </c>
-      <c r="D265" s="236">
-        <v>3</v>
-      </c>
-      <c r="E265" s="236">
-        <v>4</v>
-      </c>
-      <c r="F265" s="251">
-        <v>5</v>
-      </c>
-      <c r="G265" s="54">
-        <v>7</v>
-      </c>
-      <c r="H265" s="2"/>
-    </row>
-    <row r="266" spans="1:8" ht="25.5">
-      <c r="A266" s="36"/>
-      <c r="B266" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="C266" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="D266" s="144">
-        <v>382</v>
-      </c>
-      <c r="E266" s="145">
-        <f>D266*Лист2!$B$3*3</f>
-        <v>81606.659999999989</v>
-      </c>
-      <c r="F266" s="266">
-        <v>45</v>
-      </c>
-      <c r="G266" s="145">
-        <f>E266-E266*F266/100</f>
-        <v>44883.662999999993</v>
-      </c>
-      <c r="H266" s="230"/>
-    </row>
-    <row r="267" spans="1:8" ht="14.25">
-      <c r="A267" s="36"/>
-      <c r="B267" s="140" t="s">
-        <v>191</v>
-      </c>
-      <c r="C267" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="D267" s="144">
-        <v>7.1</v>
-      </c>
-      <c r="E267" s="145">
-        <f>D267*Лист2!$B$3</f>
-        <v>505.59099999999995</v>
-      </c>
-      <c r="F267" s="266">
-        <v>45</v>
-      </c>
-      <c r="G267" s="145">
-        <f t="shared" ref="G267:G313" si="12">E267-E267*F267/100</f>
-        <v>278.07504999999998</v>
-      </c>
-      <c r="H267" s="230"/>
+      <c r="H267" s="2"/>
     </row>
     <row r="268" spans="1:8" ht="14.25">
       <c r="A268" s="36"/>
-      <c r="B268" s="140" t="s">
-        <v>193</v>
-      </c>
-      <c r="C268" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D268" s="146">
-        <v>4.8</v>
-      </c>
-      <c r="E268" s="145">
-        <f>D268*Лист2!$B$3</f>
-        <v>341.80799999999994</v>
-      </c>
-      <c r="F268" s="266">
-        <v>45</v>
-      </c>
-      <c r="G268" s="145">
-        <f t="shared" si="12"/>
-        <v>187.99439999999996</v>
-      </c>
-      <c r="H268" s="230"/>
+      <c r="B268" s="235">
+        <v>1</v>
+      </c>
+      <c r="C268" s="236">
+        <v>2</v>
+      </c>
+      <c r="D268" s="236">
+        <v>3</v>
+      </c>
+      <c r="E268" s="236">
+        <v>4</v>
+      </c>
+      <c r="F268" s="251">
+        <v>5</v>
+      </c>
+      <c r="G268" s="54">
+        <v>7</v>
+      </c>
+      <c r="H268" s="2"/>
     </row>
     <row r="269" spans="1:8" ht="25.5">
       <c r="A269" s="36"/>
-      <c r="B269" s="140" t="s">
-        <v>195</v>
+      <c r="B269" s="139" t="s">
+        <v>248</v>
       </c>
       <c r="C269" s="63" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="D269" s="144">
-        <v>7.1</v>
+        <v>382</v>
       </c>
       <c r="E269" s="145">
-        <f>D269*Лист2!$B$3</f>
-        <v>505.59099999999995</v>
+        <f>D269*Лист2!$B$3*3</f>
+        <v>81606.659999999989</v>
       </c>
       <c r="F269" s="266">
         <v>45</v>
       </c>
       <c r="G269" s="145">
-        <f t="shared" si="12"/>
-        <v>278.07504999999998</v>
+        <f>E269-E269*F269/100</f>
+        <v>44883.662999999993</v>
       </c>
       <c r="H269" s="230"/>
     </row>
-    <row r="270" spans="1:8" ht="25.5">
+    <row r="270" spans="1:8" ht="14.25">
       <c r="A270" s="36"/>
       <c r="B270" s="140" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C270" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="D270" s="146">
-        <v>4.8</v>
+        <v>192</v>
+      </c>
+      <c r="D270" s="144">
+        <v>7.1</v>
       </c>
       <c r="E270" s="145">
         <f>D270*Лист2!$B$3</f>
-        <v>341.80799999999994</v>
+        <v>505.59099999999995</v>
       </c>
       <c r="F270" s="266">
         <v>45</v>
       </c>
       <c r="G270" s="145">
-        <f t="shared" si="12"/>
-        <v>187.99439999999996</v>
+        <f t="shared" ref="G270:G316" si="12">E270-E270*F270/100</f>
+        <v>278.07504999999998</v>
       </c>
       <c r="H270" s="230"/>
     </row>
     <row r="271" spans="1:8" ht="14.25">
       <c r="A271" s="36"/>
       <c r="B271" s="140" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C271" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D271" s="144">
-        <v>5.7</v>
+        <v>194</v>
+      </c>
+      <c r="D271" s="146">
+        <v>4.8</v>
       </c>
       <c r="E271" s="145">
         <f>D271*Лист2!$B$3</f>
-        <v>405.89699999999999</v>
+        <v>341.80799999999994</v>
       </c>
       <c r="F271" s="266">
         <v>45</v>
       </c>
       <c r="G271" s="145">
         <f t="shared" si="12"/>
-        <v>223.24335000000002</v>
+        <v>187.99439999999996</v>
       </c>
       <c r="H271" s="230"/>
     </row>
-    <row r="272" spans="1:8" ht="14.25">
+    <row r="272" spans="1:8" ht="25.5">
       <c r="A272" s="36"/>
       <c r="B272" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="C272" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="D272" s="146">
-        <v>2.9</v>
+        <v>195</v>
+      </c>
+      <c r="C272" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D272" s="144">
+        <v>7.1</v>
       </c>
       <c r="E272" s="145">
         <f>D272*Лист2!$B$3</f>
-        <v>206.50899999999999</v>
+        <v>505.59099999999995</v>
       </c>
       <c r="F272" s="266">
         <v>45</v>
       </c>
       <c r="G272" s="145">
         <f t="shared" si="12"/>
-        <v>113.57995</v>
+        <v>278.07504999999998</v>
       </c>
       <c r="H272" s="230"/>
     </row>
-    <row r="273" spans="1:8" ht="14.25">
+    <row r="273" spans="1:8" ht="25.5">
       <c r="A273" s="36"/>
       <c r="B273" s="140" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C273" s="63" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D273" s="146">
-        <v>38.4</v>
+        <v>4.8</v>
       </c>
       <c r="E273" s="145">
         <f>D273*Лист2!$B$3</f>
-        <v>2734.4639999999995</v>
+        <v>341.80799999999994</v>
       </c>
       <c r="F273" s="266">
         <v>45</v>
       </c>
       <c r="G273" s="145">
         <f t="shared" si="12"/>
-        <v>1503.9551999999996</v>
+        <v>187.99439999999996</v>
       </c>
       <c r="H273" s="230"/>
     </row>
     <row r="274" spans="1:8" ht="14.25">
       <c r="A274" s="36"/>
       <c r="B274" s="140" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C274" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="D274" s="146">
-        <v>47.1</v>
+        <v>198</v>
+      </c>
+      <c r="D274" s="144">
+        <v>5.7</v>
       </c>
       <c r="E274" s="145">
         <f>D274*Лист2!$B$3</f>
-        <v>3353.991</v>
+        <v>405.89699999999999</v>
       </c>
       <c r="F274" s="266">
         <v>45</v>
       </c>
       <c r="G274" s="145">
         <f t="shared" si="12"/>
-        <v>1844.69505</v>
+        <v>223.24335000000002</v>
       </c>
       <c r="H274" s="230"/>
     </row>
     <row r="275" spans="1:8" ht="14.25">
       <c r="A275" s="36"/>
       <c r="B275" s="140" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C275" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D275" s="147">
-        <v>92.6</v>
+        <v>200</v>
+      </c>
+      <c r="D275" s="146">
+        <v>2.9</v>
       </c>
       <c r="E275" s="145">
         <f>D275*Лист2!$B$3</f>
-        <v>6594.0459999999994</v>
+        <v>206.50899999999999</v>
       </c>
       <c r="F275" s="266">
         <v>45</v>
       </c>
       <c r="G275" s="145">
         <f t="shared" si="12"/>
-        <v>3626.7253000000001</v>
+        <v>113.57995</v>
       </c>
       <c r="H275" s="230"/>
     </row>
     <row r="276" spans="1:8" ht="14.25">
       <c r="A276" s="36"/>
       <c r="B276" s="140" t="s">
-        <v>207</v>
-      </c>
-      <c r="C276" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D276" s="147">
-        <v>92.6</v>
+        <v>201</v>
+      </c>
+      <c r="C276" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D276" s="146">
+        <v>38.4</v>
       </c>
       <c r="E276" s="145">
         <f>D276*Лист2!$B$3</f>
-        <v>6594.0459999999994</v>
+        <v>2734.4639999999995</v>
       </c>
       <c r="F276" s="266">
         <v>45</v>
       </c>
       <c r="G276" s="145">
         <f t="shared" si="12"/>
-        <v>3626.7253000000001</v>
+        <v>1503.9551999999996</v>
       </c>
       <c r="H276" s="230"/>
     </row>
-    <row r="277" spans="1:8" ht="25.5">
+    <row r="277" spans="1:8" ht="14.25">
       <c r="A277" s="36"/>
       <c r="B277" s="140" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C277" s="63" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D277" s="146">
-        <v>186.4</v>
+        <v>47.1</v>
       </c>
       <c r="E277" s="145">
         <f>D277*Лист2!$B$3</f>
-        <v>13273.544</v>
+        <v>3353.991</v>
       </c>
       <c r="F277" s="266">
         <v>45</v>
       </c>
       <c r="G277" s="145">
         <f t="shared" si="12"/>
-        <v>7300.4492</v>
+        <v>1844.69505</v>
       </c>
       <c r="H277" s="230"/>
     </row>
-    <row r="278" spans="1:8" ht="25.5">
+    <row r="278" spans="1:8" ht="14.25">
       <c r="A278" s="36"/>
       <c r="B278" s="140" t="s">
-        <v>376</v>
-      </c>
-      <c r="C278" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="D278" s="146">
-        <v>246.1</v>
+        <v>205</v>
+      </c>
+      <c r="C278" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D278" s="147">
+        <v>92.6</v>
       </c>
       <c r="E278" s="145">
         <f>D278*Лист2!$B$3</f>
-        <v>17524.780999999999</v>
+        <v>6594.0459999999994</v>
       </c>
       <c r="F278" s="266">
         <v>45</v>
       </c>
       <c r="G278" s="145">
         <f t="shared" si="12"/>
-        <v>9638.6295499999997</v>
+        <v>3626.7253000000001</v>
       </c>
       <c r="H278" s="230"/>
     </row>
-    <row r="279" spans="1:8" ht="25.5">
+    <row r="279" spans="1:8" ht="14.25">
       <c r="A279" s="36"/>
       <c r="B279" s="140" t="s">
-        <v>377</v>
-      </c>
-      <c r="C279" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="D279" s="146">
-        <v>164.9</v>
+        <v>207</v>
+      </c>
+      <c r="C279" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="D279" s="147">
+        <v>92.6</v>
       </c>
       <c r="E279" s="145">
         <f>D279*Лист2!$B$3</f>
-        <v>11742.528999999999</v>
+        <v>6594.0459999999994</v>
       </c>
       <c r="F279" s="266">
         <v>45</v>
       </c>
       <c r="G279" s="145">
         <f t="shared" si="12"/>
-        <v>6458.3909499999991</v>
+        <v>3626.7253000000001</v>
       </c>
       <c r="H279" s="230"/>
     </row>
     <row r="280" spans="1:8" ht="25.5">
       <c r="A280" s="36"/>
       <c r="B280" s="140" t="s">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="C280" s="63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D280" s="146">
-        <v>225.8</v>
+        <v>186.4</v>
       </c>
       <c r="E280" s="145">
         <f>D280*Лист2!$B$3</f>
-        <v>16079.217999999999</v>
+        <v>13273.544</v>
       </c>
       <c r="F280" s="266">
         <v>45</v>
       </c>
       <c r="G280" s="145">
         <f t="shared" si="12"/>
-        <v>8843.5698999999986</v>
+        <v>7300.4492</v>
       </c>
       <c r="H280" s="230"/>
     </row>
     <row r="281" spans="1:8" ht="25.5">
       <c r="A281" s="36"/>
       <c r="B281" s="140" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C281" s="63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D281" s="146">
-        <v>186.4</v>
+        <v>246.1</v>
       </c>
       <c r="E281" s="145">
         <f>D281*Лист2!$B$3</f>
-        <v>13273.544</v>
+        <v>17524.780999999999</v>
       </c>
       <c r="F281" s="266">
         <v>45</v>
       </c>
       <c r="G281" s="145">
         <f t="shared" si="12"/>
-        <v>7300.4492</v>
+        <v>9638.6295499999997</v>
       </c>
       <c r="H281" s="230"/>
     </row>
     <row r="282" spans="1:8" ht="25.5">
       <c r="A282" s="36"/>
       <c r="B282" s="140" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C282" s="63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D282" s="146">
-        <v>246.1</v>
+        <v>164.9</v>
       </c>
       <c r="E282" s="145">
         <f>D282*Лист2!$B$3</f>
-        <v>17524.780999999999</v>
+        <v>11742.528999999999</v>
       </c>
       <c r="F282" s="266">
         <v>45</v>
       </c>
       <c r="G282" s="145">
         <f t="shared" si="12"/>
-        <v>9638.6295499999997</v>
+        <v>6458.3909499999991</v>
       </c>
       <c r="H282" s="230"/>
     </row>
     <row r="283" spans="1:8" ht="25.5">
       <c r="A283" s="36"/>
       <c r="B283" s="140" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C283" s="63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D283" s="146">
-        <v>164.9</v>
+        <v>225.8</v>
       </c>
       <c r="E283" s="145">
         <f>D283*Лист2!$B$3</f>
-        <v>11742.528999999999</v>
+        <v>16079.217999999999</v>
       </c>
       <c r="F283" s="266">
         <v>45</v>
       </c>
       <c r="G283" s="145">
         <f t="shared" si="12"/>
-        <v>6458.3909499999991</v>
+        <v>8843.5698999999986</v>
       </c>
       <c r="H283" s="230"/>
     </row>
     <row r="284" spans="1:8" ht="25.5">
       <c r="A284" s="36"/>
       <c r="B284" s="140" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C284" s="63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D284" s="146">
-        <v>225.8</v>
+        <v>186.4</v>
       </c>
       <c r="E284" s="145">
         <f>D284*Лист2!$B$3</f>
-        <v>16079.217999999999</v>
+        <v>13273.544</v>
       </c>
       <c r="F284" s="266">
         <v>45</v>
       </c>
       <c r="G284" s="145">
         <f t="shared" si="12"/>
-        <v>8843.5698999999986</v>
+        <v>7300.4492</v>
       </c>
       <c r="H284" s="230"/>
     </row>
     <row r="285" spans="1:8" ht="25.5">
       <c r="A285" s="36"/>
       <c r="B285" s="140" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C285" s="63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D285" s="146">
-        <v>544.79999999999995</v>
+        <v>246.1</v>
       </c>
       <c r="E285" s="145">
         <f>D285*Лист2!$B$3</f>
-        <v>38795.207999999991</v>
+        <v>17524.780999999999</v>
       </c>
       <c r="F285" s="266">
         <v>45</v>
       </c>
       <c r="G285" s="145">
         <f t="shared" si="12"/>
-        <v>21337.364399999995</v>
+        <v>9638.6295499999997</v>
       </c>
       <c r="H285" s="230"/>
     </row>
     <row r="286" spans="1:8" ht="25.5">
       <c r="A286" s="36"/>
       <c r="B286" s="140" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C286" s="63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D286" s="146">
-        <v>726.4</v>
+        <v>164.9</v>
       </c>
       <c r="E286" s="145">
         <f>D286*Лист2!$B$3</f>
-        <v>51726.943999999996</v>
+        <v>11742.528999999999</v>
       </c>
       <c r="F286" s="266">
         <v>45</v>
       </c>
       <c r="G286" s="145">
         <f t="shared" si="12"/>
-        <v>28449.819199999994</v>
+        <v>6458.3909499999991</v>
       </c>
       <c r="H286" s="230"/>
     </row>
     <row r="287" spans="1:8" ht="25.5">
       <c r="A287" s="36"/>
       <c r="B287" s="140" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C287" s="63" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D287" s="146">
-        <v>506.7</v>
+        <v>225.8</v>
       </c>
       <c r="E287" s="145">
         <f>D287*Лист2!$B$3</f>
-        <v>36082.106999999996</v>
+        <v>16079.217999999999</v>
       </c>
       <c r="F287" s="266">
         <v>45</v>
       </c>
       <c r="G287" s="145">
         <f t="shared" si="12"/>
-        <v>19845.158849999996</v>
+        <v>8843.5698999999986</v>
       </c>
       <c r="H287" s="230"/>
     </row>
     <row r="288" spans="1:8" ht="25.5">
       <c r="A288" s="36"/>
       <c r="B288" s="140" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C288" s="63" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D288" s="146">
-        <v>646.5</v>
+        <v>544.79999999999995</v>
       </c>
       <c r="E288" s="145">
         <f>D288*Лист2!$B$3</f>
-        <v>46037.264999999999</v>
+        <v>38795.207999999991</v>
       </c>
       <c r="F288" s="266">
         <v>45</v>
       </c>
       <c r="G288" s="145">
         <f t="shared" si="12"/>
-        <v>25320.495749999998</v>
+        <v>21337.364399999995</v>
       </c>
       <c r="H288" s="230"/>
     </row>
     <row r="289" spans="1:8" ht="25.5">
       <c r="A289" s="36"/>
       <c r="B289" s="140" t="s">
-        <v>387</v>
-      </c>
-      <c r="C289" s="64" t="s">
-        <v>230</v>
+        <v>384</v>
+      </c>
+      <c r="C289" s="63" t="s">
+        <v>227</v>
       </c>
       <c r="D289" s="146">
-        <v>77.2</v>
+        <v>726.4</v>
       </c>
       <c r="E289" s="145">
         <f>D289*Лист2!$B$3</f>
-        <v>5497.4119999999994</v>
+        <v>51726.943999999996</v>
       </c>
       <c r="F289" s="266">
         <v>45</v>
       </c>
       <c r="G289" s="145">
         <f t="shared" si="12"/>
-        <v>3023.5765999999994</v>
+        <v>28449.819199999994</v>
       </c>
       <c r="H289" s="230"/>
     </row>
     <row r="290" spans="1:8" ht="25.5">
       <c r="A290" s="36"/>
       <c r="B290" s="140" t="s">
-        <v>388</v>
-      </c>
-      <c r="C290" s="64" t="s">
-        <v>231</v>
+        <v>385</v>
+      </c>
+      <c r="C290" s="63" t="s">
+        <v>228</v>
       </c>
       <c r="D290" s="146">
-        <v>77.2</v>
+        <v>506.7</v>
       </c>
       <c r="E290" s="145">
         <f>D290*Лист2!$B$3</f>
-        <v>5497.4119999999994</v>
+        <v>36082.106999999996</v>
       </c>
       <c r="F290" s="266">
         <v>45</v>
       </c>
       <c r="G290" s="145">
         <f t="shared" si="12"/>
-        <v>3023.5765999999994</v>
+        <v>19845.158849999996</v>
       </c>
       <c r="H290" s="230"/>
     </row>
     <row r="291" spans="1:8" ht="25.5">
       <c r="A291" s="36"/>
       <c r="B291" s="140" t="s">
-        <v>389</v>
-      </c>
-      <c r="C291" s="64" t="s">
-        <v>232</v>
+        <v>386</v>
+      </c>
+      <c r="C291" s="63" t="s">
+        <v>229</v>
       </c>
       <c r="D291" s="146">
-        <v>152.80000000000001</v>
+        <v>646.5</v>
       </c>
       <c r="E291" s="145">
         <f>D291*Лист2!$B$3</f>
-        <v>10880.887999999999</v>
+        <v>46037.264999999999</v>
       </c>
       <c r="F291" s="266">
         <v>45</v>
       </c>
       <c r="G291" s="145">
         <f t="shared" si="12"/>
-        <v>5984.4883999999993</v>
+        <v>25320.495749999998</v>
       </c>
       <c r="H291" s="230"/>
     </row>
     <row r="292" spans="1:8" ht="25.5">
       <c r="A292" s="36"/>
       <c r="B292" s="140" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C292" s="64" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D292" s="146">
-        <v>138.9</v>
+        <v>77.2</v>
       </c>
       <c r="E292" s="145">
         <f>D292*Лист2!$B$3</f>
-        <v>9891.0689999999995</v>
+        <v>5497.4119999999994</v>
       </c>
       <c r="F292" s="266">
         <v>45</v>
       </c>
       <c r="G292" s="145">
         <f t="shared" si="12"/>
-        <v>5440.0879500000001</v>
+        <v>3023.5765999999994</v>
       </c>
       <c r="H292" s="230"/>
     </row>
-    <row r="293" spans="1:8" ht="38.25">
+    <row r="293" spans="1:8" ht="25.5">
       <c r="A293" s="36"/>
       <c r="B293" s="140" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C293" s="64" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D293" s="146">
-        <v>263.60000000000002</v>
+        <v>77.2</v>
       </c>
       <c r="E293" s="145">
         <f>D293*Лист2!$B$3</f>
-        <v>18770.955999999998</v>
+        <v>5497.4119999999994</v>
       </c>
       <c r="F293" s="266">
         <v>45</v>
       </c>
       <c r="G293" s="145">
         <f t="shared" si="12"/>
-        <v>10324.025799999999</v>
+        <v>3023.5765999999994</v>
       </c>
       <c r="H293" s="230"/>
     </row>
-    <row r="294" spans="1:8" ht="38.25">
+    <row r="294" spans="1:8" ht="25.5">
       <c r="A294" s="36"/>
       <c r="B294" s="140" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C294" s="64" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D294" s="146">
-        <v>726.4</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="E294" s="145">
         <f>D294*Лист2!$B$3</f>
-        <v>51726.943999999996</v>
+        <v>10880.887999999999</v>
       </c>
       <c r="F294" s="266">
         <v>45</v>
       </c>
       <c r="G294" s="145">
         <f t="shared" si="12"/>
-        <v>28449.819199999994</v>
+        <v>5984.4883999999993</v>
       </c>
       <c r="H294" s="230"/>
     </row>
-    <row r="295" spans="1:8" ht="38.25">
+    <row r="295" spans="1:8" ht="25.5">
       <c r="A295" s="36"/>
       <c r="B295" s="140" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C295" s="64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D295" s="146">
-        <v>237.8</v>
+        <v>138.9</v>
       </c>
       <c r="E295" s="145">
         <f>D295*Лист2!$B$3</f>
-        <v>16933.737999999998</v>
+        <v>9891.0689999999995</v>
       </c>
       <c r="F295" s="266">
         <v>45</v>
       </c>
       <c r="G295" s="145">
         <f t="shared" si="12"/>
-        <v>9313.5558999999994</v>
+        <v>5440.0879500000001</v>
       </c>
       <c r="H295" s="230"/>
     </row>
     <row r="296" spans="1:8" ht="38.25">
       <c r="A296" s="36"/>
       <c r="B296" s="140" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C296" s="64" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D296" s="146">
-        <v>646.5</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="E296" s="145">
         <f>D296*Лист2!$B$3</f>
-        <v>46037.264999999999</v>
+        <v>18770.955999999998</v>
       </c>
       <c r="F296" s="266">
         <v>45</v>
       </c>
       <c r="G296" s="145">
         <f t="shared" si="12"/>
-        <v>25320.495749999998</v>
+        <v>10324.025799999999</v>
       </c>
       <c r="H296" s="230"/>
     </row>
-    <row r="297" spans="1:8" ht="25.5">
+    <row r="297" spans="1:8" ht="38.25">
       <c r="A297" s="36"/>
       <c r="B297" s="140" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C297" s="64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D297" s="146">
-        <v>544.79999999999995</v>
+        <v>726.4</v>
       </c>
       <c r="E297" s="145">
         <f>D297*Лист2!$B$3</f>
-        <v>38795.207999999991</v>
+        <v>51726.943999999996</v>
       </c>
       <c r="F297" s="266">
         <v>45</v>
       </c>
       <c r="G297" s="145">
         <f t="shared" si="12"/>
-        <v>21337.364399999995</v>
+        <v>28449.819199999994</v>
       </c>
       <c r="H297" s="230"/>
     </row>
-    <row r="298" spans="1:8" ht="25.5">
+    <row r="298" spans="1:8" ht="38.25">
       <c r="A298" s="36"/>
       <c r="B298" s="140" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C298" s="64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D298" s="146">
-        <v>506.7</v>
+        <v>237.8</v>
       </c>
       <c r="E298" s="145">
         <f>D298*Лист2!$B$3</f>
-        <v>36082.106999999996</v>
+        <v>16933.737999999998</v>
       </c>
       <c r="F298" s="266">
         <v>45</v>
       </c>
       <c r="G298" s="145">
         <f t="shared" si="12"/>
-        <v>19845.158849999996</v>
-      </c>
-      <c r="H298" s="2"/>
-    </row>
-    <row r="299" spans="1:8" ht="25.5">
+        <v>9313.5558999999994</v>
+      </c>
+      <c r="H298" s="230"/>
+    </row>
+    <row r="299" spans="1:8" ht="38.25">
       <c r="A299" s="36"/>
       <c r="B299" s="140" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C299" s="64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D299" s="146">
-        <v>263.60000000000002</v>
+        <v>646.5</v>
       </c>
       <c r="E299" s="145">
         <f>D299*Лист2!$B$3</f>
-        <v>18770.955999999998</v>
+        <v>46037.264999999999</v>
       </c>
       <c r="F299" s="266">
         <v>45</v>
       </c>
       <c r="G299" s="145">
         <f t="shared" si="12"/>
-        <v>10324.025799999999</v>
-      </c>
-      <c r="H299" s="2"/>
+        <v>25320.495749999998</v>
+      </c>
+      <c r="H299" s="230"/>
     </row>
     <row r="300" spans="1:8" ht="25.5">
       <c r="A300" s="36"/>
       <c r="B300" s="140" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C300" s="64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D300" s="146">
-        <v>726.4</v>
+        <v>544.79999999999995</v>
       </c>
       <c r="E300" s="145">
         <f>D300*Лист2!$B$3</f>
-        <v>51726.943999999996</v>
+        <v>38795.207999999991</v>
       </c>
       <c r="F300" s="266">
         <v>45</v>
       </c>
       <c r="G300" s="145">
         <f t="shared" si="12"/>
-        <v>28449.819199999994</v>
-      </c>
-      <c r="H300" s="2"/>
+        <v>21337.364399999995</v>
+      </c>
+      <c r="H300" s="230"/>
     </row>
     <row r="301" spans="1:8" ht="25.5">
       <c r="A301" s="36"/>
       <c r="B301" s="140" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C301" s="64" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D301" s="146">
-        <v>237.8</v>
+        <v>506.7</v>
       </c>
       <c r="E301" s="145">
         <f>D301*Лист2!$B$3</f>
-        <v>16933.737999999998</v>
+        <v>36082.106999999996</v>
       </c>
       <c r="F301" s="266">
         <v>45</v>
       </c>
       <c r="G301" s="145">
         <f t="shared" si="12"/>
-        <v>9313.5558999999994</v>
+        <v>19845.158849999996</v>
       </c>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8" ht="38.25">
+    <row r="302" spans="1:8" ht="25.5">
       <c r="A302" s="36"/>
       <c r="B302" s="140" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C302" s="64" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D302" s="146">
-        <v>646.5</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="E302" s="145">
         <f>D302*Лист2!$B$3</f>
-        <v>46037.264999999999</v>
+        <v>18770.955999999998</v>
       </c>
       <c r="F302" s="266">
         <v>45</v>
       </c>
       <c r="G302" s="145">
         <f t="shared" si="12"/>
-        <v>25320.495749999998</v>
+        <v>10324.025799999999</v>
       </c>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" ht="14.25">
+    <row r="303" spans="1:8" ht="25.5">
       <c r="A303" s="36"/>
       <c r="B303" s="140" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C303" s="64" t="s">
-        <v>405</v>
-      </c>
-      <c r="D303" s="148">
-        <v>185.2</v>
+        <v>238</v>
+      </c>
+      <c r="D303" s="146">
+        <v>726.4</v>
       </c>
       <c r="E303" s="145">
         <f>D303*Лист2!$B$3</f>
-        <v>13188.091999999999</v>
+        <v>51726.943999999996</v>
       </c>
       <c r="F303" s="266">
         <v>45</v>
       </c>
       <c r="G303" s="145">
         <f t="shared" si="12"/>
-        <v>7253.4506000000001</v>
+        <v>28449.819199999994</v>
       </c>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" ht="14.25">
+    <row r="304" spans="1:8" ht="25.5">
       <c r="A304" s="36"/>
-      <c r="B304" s="141" t="s">
-        <v>323</v>
+      <c r="B304" s="140" t="s">
+        <v>399</v>
       </c>
       <c r="C304" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="D304" s="147">
-        <v>92.6</v>
+        <v>241</v>
+      </c>
+      <c r="D304" s="146">
+        <v>237.8</v>
       </c>
       <c r="E304" s="145">
         <f>D304*Лист2!$B$3</f>
-        <v>6594.0459999999994</v>
+        <v>16933.737999999998</v>
       </c>
       <c r="F304" s="266">
         <v>45</v>
       </c>
       <c r="G304" s="145">
         <f t="shared" si="12"/>
-        <v>3626.7253000000001</v>
+        <v>9313.5558999999994</v>
       </c>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8" ht="14.25">
+    <row r="305" spans="1:8" ht="38.25">
       <c r="A305" s="36"/>
       <c r="B305" s="140" t="s">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="C305" s="64" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D305" s="146">
-        <v>263.60000000000002</v>
+        <v>646.5</v>
       </c>
       <c r="E305" s="145">
         <f>D305*Лист2!$B$3</f>
-        <v>18770.955999999998</v>
+        <v>46037.264999999999</v>
       </c>
       <c r="F305" s="266">
         <v>45</v>
       </c>
       <c r="G305" s="145">
         <f t="shared" si="12"/>
-        <v>10324.025799999999</v>
+        <v>25320.495749999998</v>
       </c>
       <c r="H305" s="2"/>
     </row>
     <row r="306" spans="1:8" ht="14.25">
       <c r="A306" s="36"/>
-      <c r="B306" s="142" t="s">
-        <v>245</v>
-      </c>
-      <c r="C306" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="D306" s="149">
-        <v>10.9</v>
+      <c r="B306" s="140" t="s">
+        <v>406</v>
+      </c>
+      <c r="C306" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="D306" s="148">
+        <v>185.2</v>
       </c>
       <c r="E306" s="145">
         <f>D306*Лист2!$B$3</f>
-        <v>776.18899999999996</v>
+        <v>13188.091999999999</v>
       </c>
       <c r="F306" s="266">
         <v>45</v>
       </c>
       <c r="G306" s="145">
         <f t="shared" si="12"/>
-        <v>426.90395000000001</v>
+        <v>7253.4506000000001</v>
       </c>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8" ht="38.25">
+    <row r="307" spans="1:8" ht="14.25">
       <c r="A307" s="36"/>
-      <c r="B307" s="140" t="s">
-        <v>209</v>
+      <c r="B307" s="141" t="s">
+        <v>323</v>
       </c>
       <c r="C307" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="D307" s="146">
-        <v>126.2</v>
+        <v>206</v>
+      </c>
+      <c r="D307" s="147">
+        <v>92.6</v>
       </c>
       <c r="E307" s="145">
         <f>D307*Лист2!$B$3</f>
-        <v>8986.7019999999993</v>
+        <v>6594.0459999999994</v>
       </c>
       <c r="F307" s="266">
         <v>45</v>
       </c>
       <c r="G307" s="145">
         <f t="shared" si="12"/>
-        <v>4942.686099999999</v>
+        <v>3626.7253000000001</v>
       </c>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" ht="25.5">
+    <row r="308" spans="1:8" ht="14.25">
       <c r="A308" s="36"/>
       <c r="B308" s="140" t="s">
-        <v>401</v>
-      </c>
-      <c r="C308" s="65" t="s">
-        <v>240</v>
+        <v>208</v>
+      </c>
+      <c r="C308" s="64" t="s">
+        <v>234</v>
       </c>
       <c r="D308" s="146">
         <v>263.60000000000002</v>
@@ -11896,710 +11953,728 @@
       </c>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" ht="25.5">
+    <row r="309" spans="1:8" ht="14.25">
       <c r="A309" s="36"/>
-      <c r="B309" s="140" t="s">
-        <v>402</v>
-      </c>
-      <c r="C309" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="D309" s="146">
-        <v>726.4</v>
+      <c r="B309" s="142" t="s">
+        <v>245</v>
+      </c>
+      <c r="C309" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="D309" s="149">
+        <v>10.9</v>
       </c>
       <c r="E309" s="145">
         <f>D309*Лист2!$B$3</f>
-        <v>51726.943999999996</v>
+        <v>776.18899999999996</v>
       </c>
       <c r="F309" s="266">
         <v>45</v>
       </c>
       <c r="G309" s="145">
         <f t="shared" si="12"/>
-        <v>28449.819199999994</v>
+        <v>426.90395000000001</v>
       </c>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8" ht="25.5">
+    <row r="310" spans="1:8" ht="38.25">
       <c r="A310" s="36"/>
       <c r="B310" s="140" t="s">
-        <v>403</v>
-      </c>
-      <c r="C310" s="65" t="s">
-        <v>241</v>
+        <v>209</v>
+      </c>
+      <c r="C310" s="64" t="s">
+        <v>210</v>
       </c>
       <c r="D310" s="146">
-        <v>237.8</v>
+        <v>126.2</v>
       </c>
       <c r="E310" s="145">
         <f>D310*Лист2!$B$3</f>
-        <v>16933.737999999998</v>
+        <v>8986.7019999999993</v>
       </c>
       <c r="F310" s="266">
         <v>45</v>
       </c>
       <c r="G310" s="145">
         <f t="shared" si="12"/>
-        <v>9313.5558999999994</v>
+        <v>4942.686099999999</v>
       </c>
       <c r="H310" s="2"/>
     </row>
     <row r="311" spans="1:8" ht="25.5">
       <c r="A311" s="36"/>
       <c r="B311" s="140" t="s">
-        <v>404</v>
-      </c>
-      <c r="C311" s="64" t="s">
-        <v>229</v>
+        <v>401</v>
+      </c>
+      <c r="C311" s="65" t="s">
+        <v>240</v>
       </c>
       <c r="D311" s="146">
-        <v>646.5</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="E311" s="145">
         <f>D311*Лист2!$B$3</f>
-        <v>46037.264999999999</v>
+        <v>18770.955999999998</v>
       </c>
       <c r="F311" s="266">
         <v>45</v>
       </c>
       <c r="G311" s="145">
         <f t="shared" si="12"/>
-        <v>25320.495749999998</v>
+        <v>10324.025799999999</v>
       </c>
       <c r="H311" s="2"/>
     </row>
     <row r="312" spans="1:8" ht="25.5">
       <c r="A312" s="36"/>
-      <c r="B312" s="143" t="s">
-        <v>243</v>
-      </c>
-      <c r="C312" s="89" t="s">
-        <v>244</v>
-      </c>
-      <c r="D312" s="150">
-        <v>38.200000000000003</v>
+      <c r="B312" s="140" t="s">
+        <v>402</v>
+      </c>
+      <c r="C312" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D312" s="146">
+        <v>726.4</v>
       </c>
       <c r="E312" s="145">
         <f>D312*Лист2!$B$3</f>
-        <v>2720.2219999999998</v>
+        <v>51726.943999999996</v>
       </c>
       <c r="F312" s="266">
         <v>45</v>
       </c>
       <c r="G312" s="145">
         <f t="shared" si="12"/>
-        <v>1496.1220999999998</v>
+        <v>28449.819199999994</v>
       </c>
       <c r="H312" s="2"/>
     </row>
     <row r="313" spans="1:8" ht="25.5">
       <c r="A313" s="36"/>
-      <c r="B313" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="C313" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="D313" s="150">
-        <v>31.8</v>
+      <c r="B313" s="140" t="s">
+        <v>403</v>
+      </c>
+      <c r="C313" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="D313" s="146">
+        <v>237.8</v>
       </c>
       <c r="E313" s="145">
         <f>D313*Лист2!$B$3</f>
-        <v>2264.4780000000001</v>
+        <v>16933.737999999998</v>
       </c>
       <c r="F313" s="266">
         <v>45</v>
       </c>
       <c r="G313" s="145">
         <f t="shared" si="12"/>
+        <v>9313.5558999999994</v>
+      </c>
+      <c r="H313" s="2"/>
+    </row>
+    <row r="314" spans="1:8" ht="25.5">
+      <c r="A314" s="36"/>
+      <c r="B314" s="140" t="s">
+        <v>404</v>
+      </c>
+      <c r="C314" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="D314" s="146">
+        <v>646.5</v>
+      </c>
+      <c r="E314" s="145">
+        <f>D314*Лист2!$B$3</f>
+        <v>46037.264999999999</v>
+      </c>
+      <c r="F314" s="266">
+        <v>45</v>
+      </c>
+      <c r="G314" s="145">
+        <f t="shared" si="12"/>
+        <v>25320.495749999998</v>
+      </c>
+      <c r="H314" s="2"/>
+    </row>
+    <row r="315" spans="1:8" ht="25.5">
+      <c r="A315" s="36"/>
+      <c r="B315" s="143" t="s">
+        <v>243</v>
+      </c>
+      <c r="C315" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="D315" s="150">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E315" s="145">
+        <f>D315*Лист2!$B$3</f>
+        <v>2720.2219999999998</v>
+      </c>
+      <c r="F315" s="266">
+        <v>45</v>
+      </c>
+      <c r="G315" s="145">
+        <f t="shared" si="12"/>
+        <v>1496.1220999999998</v>
+      </c>
+      <c r="H315" s="2"/>
+    </row>
+    <row r="316" spans="1:8" ht="25.5">
+      <c r="A316" s="36"/>
+      <c r="B316" s="143" t="s">
+        <v>242</v>
+      </c>
+      <c r="C316" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="D316" s="150">
+        <v>31.8</v>
+      </c>
+      <c r="E316" s="145">
+        <f>D316*Лист2!$B$3</f>
+        <v>2264.4780000000001</v>
+      </c>
+      <c r="F316" s="266">
+        <v>45</v>
+      </c>
+      <c r="G316" s="145">
+        <f t="shared" si="12"/>
         <v>1245.4629</v>
       </c>
-      <c r="H313" s="2"/>
-    </row>
-    <row r="314" spans="1:8" ht="15">
-      <c r="A314" s="36"/>
-      <c r="B314" s="68"/>
-      <c r="C314" s="69"/>
-      <c r="D314" s="70"/>
-      <c r="E314" s="71"/>
-      <c r="F314" s="71"/>
-      <c r="G314" s="71"/>
-      <c r="H314" s="2"/>
-    </row>
-    <row r="315" spans="1:8" ht="15">
-      <c r="A315" s="36"/>
-      <c r="B315" s="68"/>
-      <c r="C315" s="69"/>
-      <c r="D315" s="70"/>
-      <c r="E315" s="71"/>
-      <c r="F315" s="71"/>
-      <c r="G315" s="71"/>
-      <c r="H315" s="2"/>
-    </row>
-    <row r="316" spans="1:8" ht="15">
-      <c r="A316" s="36"/>
-      <c r="B316" s="68"/>
-      <c r="C316" s="69"/>
-      <c r="D316" s="70"/>
-      <c r="E316" s="71"/>
-      <c r="F316" s="71"/>
-      <c r="G316" s="71"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8" ht="30">
+    <row r="317" spans="1:8" ht="15">
       <c r="A317" s="36"/>
-      <c r="B317" s="327" t="s">
+      <c r="B317" s="68"/>
+      <c r="C317" s="69"/>
+      <c r="D317" s="70"/>
+      <c r="E317" s="71"/>
+      <c r="F317" s="71"/>
+      <c r="G317" s="71"/>
+      <c r="H317" s="2"/>
+    </row>
+    <row r="318" spans="1:8" ht="15">
+      <c r="A318" s="36"/>
+      <c r="B318" s="68"/>
+      <c r="C318" s="69"/>
+      <c r="D318" s="70"/>
+      <c r="E318" s="71"/>
+      <c r="F318" s="71"/>
+      <c r="G318" s="71"/>
+      <c r="H318" s="2"/>
+    </row>
+    <row r="319" spans="1:8" ht="15">
+      <c r="A319" s="36"/>
+      <c r="B319" s="68"/>
+      <c r="C319" s="69"/>
+      <c r="D319" s="70"/>
+      <c r="E319" s="71"/>
+      <c r="F319" s="71"/>
+      <c r="G319" s="71"/>
+      <c r="H319" s="2"/>
+    </row>
+    <row r="320" spans="1:8" ht="30">
+      <c r="A320" s="36"/>
+      <c r="B320" s="317" t="s">
         <v>311</v>
       </c>
-      <c r="C317" s="327"/>
-      <c r="D317" s="327"/>
-      <c r="E317" s="327"/>
-      <c r="F317" s="328"/>
-      <c r="G317" s="327"/>
-      <c r="H317" s="2"/>
-    </row>
-    <row r="318" spans="1:8" ht="23.25">
-      <c r="A318" s="36"/>
-      <c r="B318" s="363" t="s">
+      <c r="C320" s="317"/>
+      <c r="D320" s="317"/>
+      <c r="E320" s="317"/>
+      <c r="F320" s="318"/>
+      <c r="G320" s="317"/>
+      <c r="H320" s="2"/>
+    </row>
+    <row r="321" spans="1:8" ht="23.25">
+      <c r="A321" s="36"/>
+      <c r="B321" s="342" t="s">
         <v>312</v>
       </c>
-      <c r="C318" s="363"/>
-      <c r="D318" s="363"/>
-      <c r="E318" s="363"/>
-      <c r="F318" s="364"/>
-      <c r="G318" s="363"/>
-      <c r="H318" s="2"/>
-    </row>
-    <row r="319" spans="1:8" ht="75">
-      <c r="A319" s="36"/>
-      <c r="B319" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="C319" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="D319" s="278" t="s">
-        <v>262</v>
-      </c>
-      <c r="E319" s="279"/>
-      <c r="F319" s="280"/>
-      <c r="G319" s="386">
-        <v>3000</v>
-      </c>
-      <c r="H319" s="2"/>
-    </row>
-    <row r="320" spans="1:8" ht="60">
-      <c r="A320" s="36"/>
-      <c r="B320" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="C320" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="D320" s="278" t="s">
-        <v>262</v>
-      </c>
-      <c r="E320" s="279"/>
-      <c r="F320" s="280"/>
-      <c r="G320" s="386">
-        <v>2000</v>
-      </c>
-      <c r="H320" s="2"/>
-    </row>
-    <row r="321" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A321" s="36"/>
-      <c r="B321" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="C321" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="D321" s="278" t="s">
-        <v>265</v>
-      </c>
-      <c r="E321" s="279"/>
-      <c r="F321" s="280"/>
-      <c r="G321" s="386">
-        <v>1000</v>
-      </c>
+      <c r="C321" s="342"/>
+      <c r="D321" s="342"/>
+      <c r="E321" s="342"/>
+      <c r="F321" s="343"/>
+      <c r="G321" s="342"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8" ht="38.25" customHeight="1">
+    <row r="322" spans="1:8" ht="75">
       <c r="A322" s="36"/>
       <c r="B322" s="62" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C322" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D322" s="278" t="s">
-        <v>267</v>
-      </c>
-      <c r="E322" s="279"/>
-      <c r="F322" s="280"/>
-      <c r="G322" s="386">
-        <v>350</v>
+      <c r="D322" s="287" t="s">
+        <v>262</v>
+      </c>
+      <c r="E322" s="288"/>
+      <c r="F322" s="289"/>
+      <c r="G322" s="279">
+        <v>3000</v>
       </c>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8" ht="38.25" customHeight="1">
+    <row r="323" spans="1:8" ht="60">
       <c r="A323" s="36"/>
       <c r="B323" s="62" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C323" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D323" s="278" t="s">
-        <v>269</v>
-      </c>
-      <c r="E323" s="279"/>
-      <c r="F323" s="280"/>
-      <c r="G323" s="386">
-        <v>300</v>
+      <c r="D323" s="287" t="s">
+        <v>262</v>
+      </c>
+      <c r="E323" s="288"/>
+      <c r="F323" s="289"/>
+      <c r="G323" s="279">
+        <v>2000</v>
       </c>
       <c r="H323" s="2"/>
     </row>
     <row r="324" spans="1:8" ht="38.25" customHeight="1">
       <c r="A324" s="36"/>
       <c r="B324" s="62" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C324" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D324" s="278" t="s">
-        <v>271</v>
-      </c>
-      <c r="E324" s="279"/>
-      <c r="F324" s="280"/>
-      <c r="G324" s="386">
-        <v>350</v>
+      <c r="D324" s="287" t="s">
+        <v>265</v>
+      </c>
+      <c r="E324" s="288"/>
+      <c r="F324" s="289"/>
+      <c r="G324" s="279">
+        <v>1000</v>
       </c>
       <c r="H324" s="2"/>
     </row>
     <row r="325" spans="1:8" ht="38.25" customHeight="1">
       <c r="A325" s="36"/>
       <c r="B325" s="62" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C325" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D325" s="278" t="s">
-        <v>273</v>
-      </c>
-      <c r="E325" s="279"/>
-      <c r="F325" s="280"/>
-      <c r="G325" s="386">
+      <c r="D325" s="287" t="s">
+        <v>267</v>
+      </c>
+      <c r="E325" s="288"/>
+      <c r="F325" s="289"/>
+      <c r="G325" s="279">
         <v>350</v>
       </c>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" ht="30" customHeight="1">
+    <row r="326" spans="1:8" ht="38.25" customHeight="1">
       <c r="A326" s="36"/>
       <c r="B326" s="62" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C326" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D326" s="278" t="s">
-        <v>275</v>
-      </c>
-      <c r="E326" s="279"/>
-      <c r="F326" s="280"/>
-      <c r="G326" s="386">
-        <v>1300</v>
+      <c r="D326" s="287" t="s">
+        <v>269</v>
+      </c>
+      <c r="E326" s="288"/>
+      <c r="F326" s="289"/>
+      <c r="G326" s="279">
+        <v>300</v>
       </c>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" ht="30" customHeight="1">
+    <row r="327" spans="1:8" ht="38.25" customHeight="1">
       <c r="A327" s="36"/>
       <c r="B327" s="62" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C327" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D327" s="278" t="s">
-        <v>277</v>
-      </c>
-      <c r="E327" s="279"/>
-      <c r="F327" s="280"/>
-      <c r="G327" s="386">
-        <v>1300</v>
+      <c r="D327" s="287" t="s">
+        <v>271</v>
+      </c>
+      <c r="E327" s="288"/>
+      <c r="F327" s="289"/>
+      <c r="G327" s="279">
+        <v>350</v>
       </c>
       <c r="H327" s="2"/>
     </row>
     <row r="328" spans="1:8" ht="38.25" customHeight="1">
       <c r="A328" s="36"/>
       <c r="B328" s="62" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C328" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D328" s="278" t="s">
-        <v>410</v>
-      </c>
-      <c r="E328" s="279"/>
-      <c r="F328" s="280"/>
-      <c r="G328" s="386">
-        <v>400</v>
+      <c r="D328" s="287" t="s">
+        <v>273</v>
+      </c>
+      <c r="E328" s="288"/>
+      <c r="F328" s="289"/>
+      <c r="G328" s="279">
+        <v>350</v>
       </c>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="1:8" ht="38.25" customHeight="1">
+    <row r="329" spans="1:8" ht="30" customHeight="1">
       <c r="A329" s="36"/>
       <c r="B329" s="62" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C329" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D329" s="278" t="s">
-        <v>280</v>
-      </c>
-      <c r="E329" s="279"/>
-      <c r="F329" s="280"/>
-      <c r="G329" s="386">
-        <v>350</v>
+      <c r="D329" s="287" t="s">
+        <v>275</v>
+      </c>
+      <c r="E329" s="288"/>
+      <c r="F329" s="289"/>
+      <c r="G329" s="279">
+        <v>1300</v>
       </c>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8" ht="38.25" customHeight="1">
+    <row r="330" spans="1:8" ht="30" customHeight="1">
       <c r="A330" s="36"/>
       <c r="B330" s="62" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C330" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D330" s="278" t="s">
-        <v>282</v>
-      </c>
-      <c r="E330" s="279"/>
-      <c r="F330" s="280"/>
-      <c r="G330" s="386">
-        <v>400</v>
+      <c r="D330" s="287" t="s">
+        <v>277</v>
+      </c>
+      <c r="E330" s="288"/>
+      <c r="F330" s="289"/>
+      <c r="G330" s="279">
+        <v>1300</v>
       </c>
       <c r="H330" s="2"/>
     </row>
     <row r="331" spans="1:8" ht="38.25" customHeight="1">
       <c r="A331" s="36"/>
       <c r="B331" s="62" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C331" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D331" s="278" t="s">
-        <v>408</v>
-      </c>
-      <c r="E331" s="279"/>
-      <c r="F331" s="280"/>
-      <c r="G331" s="386">
-        <v>4000</v>
+      <c r="D331" s="287" t="s">
+        <v>410</v>
+      </c>
+      <c r="E331" s="288"/>
+      <c r="F331" s="289"/>
+      <c r="G331" s="279">
+        <v>400</v>
       </c>
       <c r="H331" s="2"/>
     </row>
     <row r="332" spans="1:8" ht="38.25" customHeight="1">
       <c r="A332" s="36"/>
       <c r="B332" s="62" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C332" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D332" s="278" t="s">
-        <v>285</v>
-      </c>
-      <c r="E332" s="279"/>
-      <c r="F332" s="280"/>
-      <c r="G332" s="386">
-        <v>500</v>
+      <c r="D332" s="287" t="s">
+        <v>280</v>
+      </c>
+      <c r="E332" s="288"/>
+      <c r="F332" s="289"/>
+      <c r="G332" s="279">
+        <v>350</v>
       </c>
       <c r="H332" s="2"/>
     </row>
     <row r="333" spans="1:8" ht="38.25" customHeight="1">
       <c r="A333" s="36"/>
       <c r="B333" s="62" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="C333" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D333" s="278" t="s">
-        <v>322</v>
-      </c>
-      <c r="E333" s="279"/>
-      <c r="F333" s="280"/>
-      <c r="G333" s="386">
-        <v>500</v>
+      <c r="D333" s="287" t="s">
+        <v>282</v>
+      </c>
+      <c r="E333" s="288"/>
+      <c r="F333" s="289"/>
+      <c r="G333" s="279">
+        <v>400</v>
       </c>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8" ht="23.25">
+    <row r="334" spans="1:8" ht="38.25" customHeight="1">
       <c r="A334" s="36"/>
-      <c r="B334" s="284" t="s">
-        <v>313</v>
-      </c>
-      <c r="C334" s="285"/>
-      <c r="D334" s="285"/>
-      <c r="E334" s="285"/>
-      <c r="F334" s="286"/>
-      <c r="G334" s="287"/>
+      <c r="B334" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C334" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D334" s="287" t="s">
+        <v>408</v>
+      </c>
+      <c r="E334" s="288"/>
+      <c r="F334" s="289"/>
+      <c r="G334" s="279">
+        <v>4000</v>
+      </c>
       <c r="H334" s="2"/>
     </row>
     <row r="335" spans="1:8" ht="38.25" customHeight="1">
       <c r="A335" s="36"/>
-      <c r="B335" s="129" t="s">
-        <v>370</v>
-      </c>
-      <c r="C335" s="130" t="s">
+      <c r="B335" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C335" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D335" s="278" t="s">
-        <v>296</v>
-      </c>
-      <c r="E335" s="279"/>
-      <c r="F335" s="280"/>
-      <c r="G335" s="386">
-        <v>4500</v>
+      <c r="D335" s="287" t="s">
+        <v>285</v>
+      </c>
+      <c r="E335" s="288"/>
+      <c r="F335" s="289"/>
+      <c r="G335" s="279">
+        <v>500</v>
       </c>
       <c r="H335" s="2"/>
     </row>
     <row r="336" spans="1:8" ht="38.25" customHeight="1">
       <c r="A336" s="36"/>
-      <c r="B336" s="129" t="s">
+      <c r="B336" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C336" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="D336" s="287" t="s">
+        <v>322</v>
+      </c>
+      <c r="E336" s="288"/>
+      <c r="F336" s="289"/>
+      <c r="G336" s="279">
+        <v>500</v>
+      </c>
+      <c r="H336" s="2"/>
+    </row>
+    <row r="337" spans="1:8" ht="23.25">
+      <c r="A337" s="36"/>
+      <c r="B337" s="293" t="s">
+        <v>313</v>
+      </c>
+      <c r="C337" s="294"/>
+      <c r="D337" s="294"/>
+      <c r="E337" s="294"/>
+      <c r="F337" s="295"/>
+      <c r="G337" s="296"/>
+      <c r="H337" s="2"/>
+    </row>
+    <row r="338" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A338" s="36"/>
+      <c r="B338" s="129" t="s">
+        <v>370</v>
+      </c>
+      <c r="C338" s="130" t="s">
+        <v>261</v>
+      </c>
+      <c r="D338" s="287" t="s">
+        <v>296</v>
+      </c>
+      <c r="E338" s="288"/>
+      <c r="F338" s="289"/>
+      <c r="G338" s="279">
+        <v>4500</v>
+      </c>
+      <c r="H338" s="2"/>
+    </row>
+    <row r="339" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A339" s="36"/>
+      <c r="B339" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C336" s="130" t="s">
+      <c r="C339" s="130" t="s">
         <v>373</v>
       </c>
-      <c r="D336" s="278" t="s">
+      <c r="D339" s="287" t="s">
         <v>296</v>
       </c>
-      <c r="E336" s="279"/>
-      <c r="F336" s="280"/>
-      <c r="G336" s="386">
+      <c r="E339" s="288"/>
+      <c r="F339" s="289"/>
+      <c r="G339" s="279">
         <v>300</v>
-      </c>
-      <c r="H336" s="2"/>
-    </row>
-    <row r="337" spans="1:8" ht="51" customHeight="1">
-      <c r="A337" s="36"/>
-      <c r="B337" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="C337" s="130" t="s">
-        <v>335</v>
-      </c>
-      <c r="D337" s="278" t="s">
-        <v>287</v>
-      </c>
-      <c r="E337" s="279"/>
-      <c r="F337" s="280"/>
-      <c r="G337" s="386">
-        <v>2500</v>
-      </c>
-      <c r="H337" s="2"/>
-    </row>
-    <row r="338" spans="1:8" ht="51" customHeight="1">
-      <c r="A338" s="36"/>
-      <c r="B338" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="C338" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="D338" s="278" t="s">
-        <v>289</v>
-      </c>
-      <c r="E338" s="279"/>
-      <c r="F338" s="280"/>
-      <c r="G338" s="386">
-        <v>700</v>
-      </c>
-      <c r="H338" s="2"/>
-    </row>
-    <row r="339" spans="1:8" ht="51" customHeight="1">
-      <c r="A339" s="36"/>
-      <c r="B339" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="C339" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="D339" s="278" t="s">
-        <v>291</v>
-      </c>
-      <c r="E339" s="279"/>
-      <c r="F339" s="280"/>
-      <c r="G339" s="386">
-        <v>500</v>
       </c>
       <c r="H339" s="2"/>
     </row>
     <row r="340" spans="1:8" ht="51" customHeight="1">
       <c r="A340" s="36"/>
       <c r="B340" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C340" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="D340" s="278" t="s">
-        <v>293</v>
-      </c>
-      <c r="E340" s="279"/>
-      <c r="F340" s="280"/>
-      <c r="G340" s="386">
-        <v>2000</v>
+        <v>372</v>
+      </c>
+      <c r="C340" s="130" t="s">
+        <v>335</v>
+      </c>
+      <c r="D340" s="287" t="s">
+        <v>287</v>
+      </c>
+      <c r="E340" s="288"/>
+      <c r="F340" s="289"/>
+      <c r="G340" s="279">
+        <v>2500</v>
       </c>
       <c r="H340" s="2"/>
     </row>
     <row r="341" spans="1:8" ht="51" customHeight="1">
       <c r="A341" s="36"/>
       <c r="B341" s="62" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C341" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D341" s="278" t="s">
-        <v>294</v>
-      </c>
-      <c r="E341" s="279"/>
-      <c r="F341" s="280"/>
-      <c r="G341" s="386">
-        <v>5000</v>
+      <c r="D341" s="287" t="s">
+        <v>289</v>
+      </c>
+      <c r="E341" s="288"/>
+      <c r="F341" s="289"/>
+      <c r="G341" s="279">
+        <v>700</v>
       </c>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8" ht="30" customHeight="1">
+    <row r="342" spans="1:8" ht="51" customHeight="1">
       <c r="A342" s="36"/>
       <c r="B342" s="62" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C342" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="D342" s="278" t="s">
-        <v>296</v>
-      </c>
-      <c r="E342" s="279"/>
-      <c r="F342" s="280"/>
-      <c r="G342" s="386">
-        <v>6000</v>
+        <v>261</v>
+      </c>
+      <c r="D342" s="287" t="s">
+        <v>291</v>
+      </c>
+      <c r="E342" s="288"/>
+      <c r="F342" s="289"/>
+      <c r="G342" s="279">
+        <v>500</v>
       </c>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8" ht="30" customHeight="1">
+    <row r="343" spans="1:8" ht="51" customHeight="1">
       <c r="A343" s="36"/>
       <c r="B343" s="62" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C343" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D343" s="278" t="s">
-        <v>296</v>
-      </c>
-      <c r="E343" s="279"/>
-      <c r="F343" s="280"/>
-      <c r="G343" s="386">
-        <v>4000</v>
+      <c r="D343" s="287" t="s">
+        <v>293</v>
+      </c>
+      <c r="E343" s="288"/>
+      <c r="F343" s="289"/>
+      <c r="G343" s="279">
+        <v>2000</v>
       </c>
       <c r="H343" s="2"/>
     </row>
     <row r="344" spans="1:8" ht="51" customHeight="1">
       <c r="A344" s="36"/>
       <c r="B344" s="62" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C344" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D344" s="278" t="s">
+      <c r="D344" s="287" t="s">
         <v>294</v>
       </c>
-      <c r="E344" s="279"/>
-      <c r="F344" s="280"/>
-      <c r="G344" s="386">
+      <c r="E344" s="288"/>
+      <c r="F344" s="289"/>
+      <c r="G344" s="279">
         <v>500</v>
       </c>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="1:8" ht="51" customHeight="1">
+    <row r="345" spans="1:8" ht="30" customHeight="1">
       <c r="A345" s="36"/>
       <c r="B345" s="62" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C345" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D345" s="278" t="s">
-        <v>294</v>
-      </c>
-      <c r="E345" s="279"/>
-      <c r="F345" s="280"/>
-      <c r="G345" s="386">
-        <v>500</v>
+      <c r="D345" s="287" t="s">
+        <v>296</v>
+      </c>
+      <c r="E345" s="288"/>
+      <c r="F345" s="289"/>
+      <c r="G345" s="279">
+        <v>6000</v>
       </c>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8" ht="51" customHeight="1">
+    <row r="346" spans="1:8" ht="30" customHeight="1">
       <c r="A346" s="36"/>
       <c r="B346" s="62" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C346" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D346" s="278" t="s">
-        <v>300</v>
-      </c>
-      <c r="E346" s="279"/>
-      <c r="F346" s="280"/>
-      <c r="G346" s="386">
-        <v>500</v>
+      <c r="D346" s="287" t="s">
+        <v>296</v>
+      </c>
+      <c r="E346" s="288"/>
+      <c r="F346" s="289"/>
+      <c r="G346" s="279">
+        <v>4000</v>
       </c>
       <c r="H346" s="2"/>
     </row>
     <row r="347" spans="1:8" ht="51" customHeight="1">
       <c r="A347" s="36"/>
       <c r="B347" s="62" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C347" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D347" s="278" t="s">
+      <c r="D347" s="287" t="s">
         <v>294</v>
       </c>
-      <c r="E347" s="279"/>
-      <c r="F347" s="280"/>
-      <c r="G347" s="386">
-        <v>400</v>
+      <c r="E347" s="288"/>
+      <c r="F347" s="289"/>
+      <c r="G347" s="279">
+        <v>500</v>
       </c>
       <c r="H347" s="2"/>
     </row>
     <row r="348" spans="1:8" ht="51" customHeight="1">
       <c r="A348" s="36"/>
       <c r="B348" s="62" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C348" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="D348" s="278" t="s">
-        <v>302</v>
-      </c>
-      <c r="E348" s="279"/>
-      <c r="F348" s="280"/>
-      <c r="G348" s="387">
+        <v>286</v>
+      </c>
+      <c r="D348" s="287" t="s">
+        <v>294</v>
+      </c>
+      <c r="E348" s="288"/>
+      <c r="F348" s="289"/>
+      <c r="G348" s="279">
         <v>500</v>
       </c>
       <c r="H348" s="2"/>
@@ -12607,17 +12682,17 @@
     <row r="349" spans="1:8" ht="51" customHeight="1">
       <c r="A349" s="36"/>
       <c r="B349" s="62" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C349" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D349" s="278" t="s">
-        <v>304</v>
-      </c>
-      <c r="E349" s="279"/>
-      <c r="F349" s="280"/>
-      <c r="G349" s="387">
+      <c r="D349" s="287" t="s">
+        <v>300</v>
+      </c>
+      <c r="E349" s="288"/>
+      <c r="F349" s="289"/>
+      <c r="G349" s="279">
         <v>500</v>
       </c>
       <c r="H349" s="2"/>
@@ -12625,35 +12700,35 @@
     <row r="350" spans="1:8" ht="51" customHeight="1">
       <c r="A350" s="36"/>
       <c r="B350" s="62" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C350" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D350" s="278" t="s">
-        <v>296</v>
-      </c>
-      <c r="E350" s="279"/>
-      <c r="F350" s="280"/>
-      <c r="G350" s="387">
-        <v>500</v>
+      <c r="D350" s="287" t="s">
+        <v>294</v>
+      </c>
+      <c r="E350" s="288"/>
+      <c r="F350" s="289"/>
+      <c r="G350" s="279">
+        <v>400</v>
       </c>
       <c r="H350" s="2"/>
     </row>
     <row r="351" spans="1:8" ht="51" customHeight="1">
       <c r="A351" s="36"/>
       <c r="B351" s="62" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="C351" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D351" s="278" t="s">
+      <c r="D351" s="287" t="s">
         <v>302</v>
       </c>
-      <c r="E351" s="279"/>
-      <c r="F351" s="280"/>
-      <c r="G351" s="387">
+      <c r="E351" s="288"/>
+      <c r="F351" s="289"/>
+      <c r="G351" s="280">
         <v>500</v>
       </c>
       <c r="H351" s="2"/>
@@ -12661,207 +12736,227 @@
     <row r="352" spans="1:8" ht="51" customHeight="1">
       <c r="A352" s="36"/>
       <c r="B352" s="62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C352" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D352" s="278" t="s">
-        <v>307</v>
-      </c>
-      <c r="E352" s="279"/>
-      <c r="F352" s="280"/>
-      <c r="G352" s="386">
-        <v>3000</v>
+      <c r="D352" s="287" t="s">
+        <v>304</v>
+      </c>
+      <c r="E352" s="288"/>
+      <c r="F352" s="289"/>
+      <c r="G352" s="280">
+        <v>500</v>
       </c>
       <c r="H352" s="2"/>
     </row>
     <row r="353" spans="1:8" ht="51" customHeight="1">
       <c r="A353" s="36"/>
       <c r="B353" s="62" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="C353" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D353" s="278" t="s">
-        <v>302</v>
-      </c>
-      <c r="E353" s="279"/>
-      <c r="F353" s="280"/>
-      <c r="G353" s="387">
-        <v>300</v>
+      <c r="D353" s="287" t="s">
+        <v>296</v>
+      </c>
+      <c r="E353" s="288"/>
+      <c r="F353" s="289"/>
+      <c r="G353" s="280">
+        <v>500</v>
       </c>
       <c r="H353" s="2"/>
     </row>
     <row r="354" spans="1:8" ht="51" customHeight="1">
       <c r="A354" s="36"/>
       <c r="B354" s="62" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C354" s="62" t="s">
-        <v>286</v>
-      </c>
-      <c r="D354" s="278" t="s">
+        <v>261</v>
+      </c>
+      <c r="D354" s="287" t="s">
         <v>302</v>
       </c>
-      <c r="E354" s="279"/>
-      <c r="F354" s="280"/>
-      <c r="G354" s="387">
-        <v>700</v>
+      <c r="E354" s="288"/>
+      <c r="F354" s="289"/>
+      <c r="G354" s="280">
+        <v>500</v>
       </c>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" ht="15.75" customHeight="1">
+    <row r="355" spans="1:8" ht="51" customHeight="1">
       <c r="A355" s="36"/>
       <c r="B355" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="C355" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="D355" s="287" t="s">
+        <v>307</v>
+      </c>
+      <c r="E355" s="288"/>
+      <c r="F355" s="289"/>
+      <c r="G355" s="279">
+        <v>3000</v>
+      </c>
+      <c r="H355" s="2"/>
+    </row>
+    <row r="356" spans="1:8" ht="51" customHeight="1">
+      <c r="A356" s="36"/>
+      <c r="B356" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C356" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="D356" s="287" t="s">
+        <v>302</v>
+      </c>
+      <c r="E356" s="288"/>
+      <c r="F356" s="289"/>
+      <c r="G356" s="280">
+        <v>300</v>
+      </c>
+      <c r="H356" s="2"/>
+    </row>
+    <row r="357" spans="1:8" ht="51" customHeight="1">
+      <c r="A357" s="36"/>
+      <c r="B357" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C357" s="62" t="s">
+        <v>286</v>
+      </c>
+      <c r="D357" s="287" t="s">
+        <v>302</v>
+      </c>
+      <c r="E357" s="288"/>
+      <c r="F357" s="289"/>
+      <c r="G357" s="280">
+        <v>700</v>
+      </c>
+      <c r="H357" s="2"/>
+    </row>
+    <row r="358" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A358" s="36"/>
+      <c r="B358" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="C355" s="62" t="s">
+      <c r="C358" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D355" s="278" t="s">
+      <c r="D358" s="287" t="s">
         <v>409</v>
       </c>
-      <c r="E355" s="279"/>
-      <c r="F355" s="280"/>
-      <c r="G355" s="386">
+      <c r="E358" s="288"/>
+      <c r="F358" s="289"/>
+      <c r="G358" s="279">
         <v>7000</v>
       </c>
-      <c r="H355" s="2"/>
-    </row>
-    <row r="356" spans="1:8" ht="23.25">
-      <c r="A356" s="36"/>
-      <c r="B356" s="317" t="s">
+      <c r="H358" s="2"/>
+    </row>
+    <row r="359" spans="1:8" ht="23.25">
+      <c r="A359" s="36"/>
+      <c r="B359" s="350" t="s">
         <v>332</v>
       </c>
-      <c r="C356" s="318"/>
-      <c r="D356" s="318"/>
-      <c r="E356" s="318"/>
-      <c r="F356" s="319"/>
-      <c r="G356" s="320"/>
-      <c r="H356" s="2"/>
-    </row>
-    <row r="357" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A357" s="36"/>
-      <c r="B357" s="113" t="s">
+      <c r="C359" s="351"/>
+      <c r="D359" s="351"/>
+      <c r="E359" s="351"/>
+      <c r="F359" s="352"/>
+      <c r="G359" s="353"/>
+      <c r="H359" s="2"/>
+    </row>
+    <row r="360" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A360" s="36"/>
+      <c r="B360" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="C357" s="113" t="s">
+      <c r="C360" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D357" s="278" t="s">
+      <c r="D360" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="E357" s="279"/>
-      <c r="F357" s="280"/>
-      <c r="G357" s="386">
+      <c r="E360" s="288"/>
+      <c r="F360" s="289"/>
+      <c r="G360" s="279">
         <v>2500</v>
       </c>
-      <c r="H357" s="2"/>
-    </row>
-    <row r="358" spans="1:8" ht="30" customHeight="1">
-      <c r="A358" s="36"/>
-      <c r="B358" s="113" t="s">
+      <c r="H360" s="2"/>
+    </row>
+    <row r="361" spans="1:8" ht="30" customHeight="1">
+      <c r="A361" s="36"/>
+      <c r="B361" s="113" t="s">
         <v>284</v>
       </c>
-      <c r="C358" s="113" t="s">
+      <c r="C361" s="113" t="s">
         <v>261</v>
       </c>
-      <c r="D358" s="278" t="s">
+      <c r="D361" s="287" t="s">
         <v>336</v>
       </c>
-      <c r="E358" s="279"/>
-      <c r="F358" s="280"/>
-      <c r="G358" s="386">
+      <c r="E361" s="288"/>
+      <c r="F361" s="289"/>
+      <c r="G361" s="279">
         <v>500</v>
       </c>
-      <c r="H358" s="2"/>
-    </row>
-    <row r="359" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A359" s="36"/>
-      <c r="B359" s="113" t="s">
+      <c r="H361" s="2"/>
+    </row>
+    <row r="362" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A362" s="36"/>
+      <c r="B362" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="C359" s="113" t="s">
+      <c r="C362" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="D359" s="281" t="s">
+      <c r="D362" s="290" t="s">
         <v>336</v>
       </c>
-      <c r="E359" s="282"/>
-      <c r="F359" s="283"/>
-      <c r="G359" s="386">
+      <c r="E362" s="291"/>
+      <c r="F362" s="292"/>
+      <c r="G362" s="279">
         <v>3500</v>
       </c>
-      <c r="H359" s="2"/>
-    </row>
-    <row r="360" spans="1:8" ht="26.25">
-      <c r="A360" s="36"/>
-      <c r="B360" s="326" t="s">
+      <c r="H362" s="2"/>
+    </row>
+    <row r="363" spans="1:8" ht="26.25">
+      <c r="A363" s="36"/>
+      <c r="B363" s="359" t="s">
         <v>213</v>
       </c>
-      <c r="C360" s="326"/>
-      <c r="D360" s="326"/>
-      <c r="E360" s="326"/>
-      <c r="F360" s="326"/>
-      <c r="G360" s="326"/>
-      <c r="H360" s="2"/>
-    </row>
-    <row r="361" spans="1:8" ht="15.75">
-      <c r="A361" s="36"/>
-      <c r="B361" s="72"/>
-      <c r="C361" s="72"/>
-      <c r="D361" s="72"/>
-      <c r="E361" s="72"/>
-      <c r="F361" s="72"/>
-      <c r="G361" s="72"/>
-      <c r="H361" s="2"/>
-    </row>
-    <row r="362" spans="1:8" ht="14.25">
-      <c r="A362" s="36"/>
-      <c r="B362" s="321" t="s">
+      <c r="C363" s="359"/>
+      <c r="D363" s="359"/>
+      <c r="E363" s="359"/>
+      <c r="F363" s="359"/>
+      <c r="G363" s="359"/>
+      <c r="H363" s="2"/>
+    </row>
+    <row r="364" spans="1:8" ht="15.75">
+      <c r="A364" s="36"/>
+      <c r="B364" s="72"/>
+      <c r="C364" s="72"/>
+      <c r="D364" s="72"/>
+      <c r="E364" s="72"/>
+      <c r="F364" s="72"/>
+      <c r="G364" s="72"/>
+      <c r="H364" s="2"/>
+    </row>
+    <row r="365" spans="1:8" ht="14.25">
+      <c r="A365" s="36"/>
+      <c r="B365" s="354" t="s">
         <v>412</v>
       </c>
-      <c r="C362" s="321"/>
-      <c r="D362" s="321"/>
-      <c r="E362" s="321"/>
-      <c r="F362" s="321"/>
-      <c r="G362" s="321"/>
-      <c r="H362" s="2"/>
-    </row>
-    <row r="363" spans="1:8" ht="15.75">
-      <c r="A363" s="36"/>
-      <c r="B363" s="73"/>
-      <c r="C363" s="72"/>
-      <c r="D363" s="72"/>
-      <c r="E363" s="72"/>
-      <c r="F363" s="72"/>
-      <c r="G363" s="72"/>
-      <c r="H363" s="2"/>
-    </row>
-    <row r="364" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A364" s="36"/>
-      <c r="B364" s="324" t="s">
-        <v>440</v>
-      </c>
-      <c r="C364" s="325"/>
-      <c r="D364" s="325"/>
-      <c r="E364" s="325"/>
-      <c r="F364" s="325"/>
-      <c r="G364" s="325"/>
-      <c r="H364" s="2"/>
-    </row>
-    <row r="365" spans="1:8" ht="33" customHeight="1">
-      <c r="A365" s="36"/>
-      <c r="B365" s="324" t="s">
-        <v>441</v>
-      </c>
-      <c r="C365" s="325"/>
-      <c r="D365" s="325"/>
-      <c r="E365" s="325"/>
-      <c r="F365" s="325"/>
-      <c r="G365" s="325"/>
+      <c r="C365" s="354"/>
+      <c r="D365" s="354"/>
+      <c r="E365" s="354"/>
+      <c r="F365" s="354"/>
+      <c r="G365" s="354"/>
       <c r="H365" s="2"/>
     </row>
     <row r="366" spans="1:8" ht="15.75">
@@ -12874,136 +12969,158 @@
       <c r="G366" s="72"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" ht="14.25">
+    <row r="367" spans="1:8" ht="14.25" customHeight="1">
       <c r="A367" s="36"/>
-      <c r="B367" s="316"/>
-      <c r="C367" s="316"/>
-      <c r="D367" s="316"/>
-      <c r="E367" s="316"/>
-      <c r="F367" s="316"/>
-      <c r="G367" s="316"/>
+      <c r="B367" s="357" t="s">
+        <v>440</v>
+      </c>
+      <c r="C367" s="358"/>
+      <c r="D367" s="358"/>
+      <c r="E367" s="358"/>
+      <c r="F367" s="358"/>
+      <c r="G367" s="358"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" ht="14.25">
+    <row r="368" spans="1:8" ht="33" customHeight="1">
       <c r="A368" s="36"/>
-      <c r="B368" s="86"/>
-      <c r="C368" s="87"/>
-      <c r="D368" s="88"/>
-      <c r="E368" s="88"/>
-      <c r="F368" s="88"/>
-      <c r="G368" s="88"/>
+      <c r="B368" s="357" t="s">
+        <v>441</v>
+      </c>
+      <c r="C368" s="358"/>
+      <c r="D368" s="358"/>
+      <c r="E368" s="358"/>
+      <c r="F368" s="358"/>
+      <c r="G368" s="358"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A369" s="37"/>
-      <c r="B369" s="312"/>
-      <c r="C369" s="312"/>
-      <c r="D369" s="312"/>
-      <c r="E369" s="312"/>
-      <c r="F369" s="312"/>
-      <c r="G369" s="312"/>
+    <row r="369" spans="1:8" ht="15.75">
+      <c r="A369" s="36"/>
+      <c r="B369" s="73"/>
+      <c r="C369" s="72"/>
+      <c r="D369" s="72"/>
+      <c r="E369" s="72"/>
+      <c r="F369" s="72"/>
+      <c r="G369" s="72"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A370" s="38"/>
-      <c r="B370" s="313" t="s">
+    <row r="370" spans="1:8" ht="14.25">
+      <c r="A370" s="36"/>
+      <c r="B370" s="349"/>
+      <c r="C370" s="349"/>
+      <c r="D370" s="349"/>
+      <c r="E370" s="349"/>
+      <c r="F370" s="349"/>
+      <c r="G370" s="349"/>
+      <c r="H370" s="2"/>
+    </row>
+    <row r="371" spans="1:8" ht="14.25">
+      <c r="A371" s="36"/>
+      <c r="B371" s="86"/>
+      <c r="C371" s="87"/>
+      <c r="D371" s="88"/>
+      <c r="E371" s="88"/>
+      <c r="F371" s="88"/>
+      <c r="G371" s="88"/>
+      <c r="H371" s="2"/>
+    </row>
+    <row r="372" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A372" s="37"/>
+      <c r="B372" s="345"/>
+      <c r="C372" s="345"/>
+      <c r="D372" s="345"/>
+      <c r="E372" s="345"/>
+      <c r="F372" s="345"/>
+      <c r="G372" s="345"/>
+      <c r="H372" s="2"/>
+    </row>
+    <row r="373" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A373" s="38"/>
+      <c r="B373" s="346" t="s">
         <v>214</v>
       </c>
-      <c r="C370" s="314"/>
-      <c r="D370" s="314"/>
-      <c r="E370" s="314"/>
-      <c r="F370" s="314"/>
-      <c r="G370" s="315"/>
-      <c r="H370" s="2"/>
-    </row>
-    <row r="371" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A371" s="38"/>
-      <c r="B371" s="322" t="s">
+      <c r="C373" s="347"/>
+      <c r="D373" s="347"/>
+      <c r="E373" s="347"/>
+      <c r="F373" s="347"/>
+      <c r="G373" s="348"/>
+      <c r="H373" s="2"/>
+    </row>
+    <row r="374" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A374" s="38"/>
+      <c r="B374" s="355" t="s">
         <v>159</v>
       </c>
-      <c r="C371" s="323"/>
-      <c r="D371" s="323"/>
-      <c r="E371" s="323"/>
-      <c r="F371" s="323"/>
-      <c r="G371" s="323"/>
-      <c r="H371" s="2"/>
-    </row>
-    <row r="372" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A372" s="38"/>
-      <c r="B372" s="39"/>
-      <c r="C372" s="39"/>
-      <c r="D372" s="39"/>
-      <c r="E372" s="39"/>
-      <c r="F372" s="242"/>
-      <c r="G372" s="39"/>
-      <c r="H372" s="2"/>
-    </row>
-    <row r="373" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B373" t="s">
+      <c r="C374" s="356"/>
+      <c r="D374" s="356"/>
+      <c r="E374" s="356"/>
+      <c r="F374" s="356"/>
+      <c r="G374" s="356"/>
+      <c r="H374" s="2"/>
+    </row>
+    <row r="375" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A375" s="38"/>
+      <c r="B375" s="39"/>
+      <c r="C375" s="39"/>
+      <c r="D375" s="39"/>
+      <c r="E375" s="39"/>
+      <c r="F375" s="242"/>
+      <c r="G375" s="39"/>
+      <c r="H375" s="2"/>
+    </row>
+    <row r="376" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B376" t="s">
         <v>353</v>
       </c>
-      <c r="H373" s="2"/>
-    </row>
-    <row r="374" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A374" s="40"/>
-      <c r="B374" s="2" t="s">
+      <c r="H376" s="2"/>
+    </row>
+    <row r="377" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A377" s="40"/>
+      <c r="B377" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="241"/>
-      <c r="G374" s="2"/>
-      <c r="H374" s="2"/>
-    </row>
-    <row r="375" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A375" s="41"/>
-      <c r="B375" s="2" t="s">
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="241"/>
+      <c r="G377" s="2"/>
+      <c r="H377" s="2"/>
+    </row>
+    <row r="378" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A378" s="41"/>
+      <c r="B378" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-      <c r="E375" s="2"/>
-      <c r="F375" s="241"/>
-      <c r="G375" s="2"/>
-      <c r="H375" s="2"/>
-    </row>
-    <row r="376" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A376" s="42"/>
-      <c r="B376" s="2" t="s">
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="241"/>
+      <c r="G378" s="2"/>
+      <c r="H378" s="2"/>
+    </row>
+    <row r="379" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A379" s="42"/>
+      <c r="B379" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="241"/>
-      <c r="G376" s="2"/>
-      <c r="H376" s="2"/>
-    </row>
-    <row r="377" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A377" s="2"/>
-      <c r="B377" s="311"/>
-      <c r="C377" s="311"/>
-      <c r="D377" s="311"/>
-      <c r="E377" s="311"/>
-      <c r="F377" s="311"/>
-      <c r="G377" s="311"/>
-      <c r="H377" s="2"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="2"/>
+      <c r="F379" s="241"/>
+      <c r="G379" s="2"/>
+      <c r="H379" s="2"/>
+    </row>
+    <row r="380" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A380" s="2"/>
+      <c r="B380" s="344"/>
+      <c r="C380" s="344"/>
+      <c r="D380" s="344"/>
+      <c r="E380" s="344"/>
+      <c r="F380" s="344"/>
+      <c r="G380" s="344"/>
+      <c r="H380" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B136:G137"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B157:G157"/>
     <mergeCell ref="B92:G92"/>
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="F112:G112"/>
@@ -13011,11 +13128,23 @@
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="F115:G115"/>
     <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D256:E256"/>
     <mergeCell ref="F117:G117"/>
     <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B136:G137"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B123:G123"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -13025,70 +13154,67 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B377:G377"/>
-    <mergeCell ref="B369:G369"/>
+    <mergeCell ref="B380:G380"/>
+    <mergeCell ref="B372:G372"/>
+    <mergeCell ref="B373:G373"/>
     <mergeCell ref="B370:G370"/>
+    <mergeCell ref="B359:G359"/>
+    <mergeCell ref="B365:G365"/>
+    <mergeCell ref="B374:G374"/>
+    <mergeCell ref="B368:G368"/>
     <mergeCell ref="B367:G367"/>
-    <mergeCell ref="B356:G356"/>
-    <mergeCell ref="B362:G362"/>
-    <mergeCell ref="B371:G371"/>
-    <mergeCell ref="B365:G365"/>
-    <mergeCell ref="B364:G364"/>
-    <mergeCell ref="B360:G360"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D319:F319"/>
-    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="B363:G363"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="F204:G204"/>
     <mergeCell ref="E124:G124"/>
     <mergeCell ref="E125:G125"/>
-    <mergeCell ref="B317:G317"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="B148:G149"/>
-    <mergeCell ref="B318:G318"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="B219:G219"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="B320:G320"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B176:G176"/>
+    <mergeCell ref="B184:G184"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B202:G202"/>
     <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="B236:G236"/>
-    <mergeCell ref="B233:G233"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="B151:G152"/>
+    <mergeCell ref="B321:G321"/>
+    <mergeCell ref="B266:G266"/>
+    <mergeCell ref="B155:G156"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B160:G160"/>
     <mergeCell ref="D323:F323"/>
     <mergeCell ref="D324:F324"/>
     <mergeCell ref="D325:F325"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B222:G222"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="B239:G239"/>
+    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="D327:F327"/>
+    <mergeCell ref="D328:F328"/>
     <mergeCell ref="F243:G243"/>
     <mergeCell ref="F244:G244"/>
     <mergeCell ref="F245:G245"/>
@@ -13104,42 +13230,45 @@
     <mergeCell ref="F255:G255"/>
     <mergeCell ref="F256:G256"/>
     <mergeCell ref="F257:G257"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="B259:G259"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="D327:F327"/>
-    <mergeCell ref="D328:F328"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="B262:G262"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D347:F347"/>
     <mergeCell ref="D329:F329"/>
     <mergeCell ref="D330:F330"/>
     <mergeCell ref="D331:F331"/>
     <mergeCell ref="D332:F332"/>
     <mergeCell ref="D333:F333"/>
+    <mergeCell ref="D334:F334"/>
     <mergeCell ref="D335:F335"/>
-    <mergeCell ref="B334:G334"/>
     <mergeCell ref="D336:F336"/>
-    <mergeCell ref="D337:F337"/>
     <mergeCell ref="D338:F338"/>
+    <mergeCell ref="B337:G337"/>
     <mergeCell ref="D339:F339"/>
     <mergeCell ref="D340:F340"/>
     <mergeCell ref="D341:F341"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="D359:F359"/>
-    <mergeCell ref="D347:F347"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="D344:F344"/>
     <mergeCell ref="D348:F348"/>
     <mergeCell ref="D349:F349"/>
+    <mergeCell ref="D360:F360"/>
+    <mergeCell ref="D361:F361"/>
+    <mergeCell ref="D362:F362"/>
     <mergeCell ref="D350:F350"/>
     <mergeCell ref="D351:F351"/>
     <mergeCell ref="D352:F352"/>
     <mergeCell ref="D353:F353"/>
     <mergeCell ref="D354:F354"/>
     <mergeCell ref="D355:F355"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="D358:F358"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
